--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587064FF-6FD3-4F03-B171-E2EB1C2B9B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADA31B-7C3A-42B3-A996-21E19B4F8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,15 +158,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>1989-02:2023-08</t>
-  </si>
-  <si>
-    <t>1995-01:2023-08</t>
-  </si>
-  <si>
-    <t>1989-01:2023-08</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -182,16 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
     <t>1989-02:2023-09</t>
   </si>
   <si>
     <t>1995-01:2023-09</t>
-  </si>
-  <si>
-    <t>2003-07:2023-09</t>
   </si>
   <si>
     <t>1989-01:2023-09</t>
@@ -200,24 +185,41 @@
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-10-13</t>
+    <t>1989-02:2023-10</t>
   </si>
   <si>
-    <t>2023-09-25</t>
+    <t>1995-01:2023-10</t>
   </si>
   <si>
-    <t>2023-09-18</t>
+    <t>2003-07:2023-10</t>
+  </si>
+  <si>
+    <t>1989-01:2023-10</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,6 +235,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -256,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -271,6 +279,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +623,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M425"/>
+  <dimension ref="A1:P430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="I424" sqref="I424"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -620,56 +639,57 @@
     <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" ht="174">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -751,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -792,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -809,7 +829,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>45</v>
@@ -818,65 +838,65 @@
         <v>45</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>46</v>
@@ -915,7 +935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>32539</v>
       </c>
@@ -955,8 +975,12 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:N72" si="0">E9-D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>32567</v>
       </c>
@@ -996,8 +1020,12 @@
       <c r="M10" s="3">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>32598</v>
       </c>
@@ -1037,8 +1065,12 @@
       <c r="M11" s="3">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>32628</v>
       </c>
@@ -1078,8 +1110,12 @@
       <c r="M12" s="3">
         <v>132.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>32659</v>
       </c>
@@ -1119,8 +1155,12 @@
       <c r="M13" s="3">
         <v>164.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>32689</v>
       </c>
@@ -1160,8 +1200,12 @@
       <c r="M14" s="3">
         <v>198.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>32720</v>
       </c>
@@ -1201,8 +1245,12 @@
       <c r="M15" s="3">
         <v>232.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>32751</v>
       </c>
@@ -1242,8 +1290,12 @@
       <c r="M16" s="3">
         <v>269.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>32781</v>
       </c>
@@ -1283,8 +1335,12 @@
       <c r="M17" s="3">
         <v>300.60000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>32812</v>
       </c>
@@ -1324,8 +1380,12 @@
       <c r="M18" s="3">
         <v>333.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>32842</v>
       </c>
@@ -1365,8 +1425,12 @@
       <c r="M19" s="3">
         <v>368.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>32873</v>
       </c>
@@ -1406,8 +1470,12 @@
       <c r="M20" s="3">
         <v>395.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>32904</v>
       </c>
@@ -1447,8 +1515,12 @@
       <c r="M21" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>32932</v>
       </c>
@@ -1488,8 +1560,12 @@
       <c r="M22" s="3">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>32963</v>
       </c>
@@ -1529,8 +1605,12 @@
       <c r="M23" s="3">
         <v>92.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>32993</v>
       </c>
@@ -1570,8 +1650,12 @@
       <c r="M24" s="3">
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>33024</v>
       </c>
@@ -1611,8 +1695,12 @@
       <c r="M25" s="3">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2">
         <v>33054</v>
       </c>
@@ -1652,8 +1740,12 @@
       <c r="M26" s="3">
         <v>202.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>33085</v>
       </c>
@@ -1693,8 +1785,12 @@
       <c r="M27" s="3">
         <v>242.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>33116</v>
       </c>
@@ -1734,8 +1830,12 @@
       <c r="M28" s="3">
         <v>276.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>33146</v>
       </c>
@@ -1775,8 +1875,12 @@
       <c r="M29" s="3">
         <v>306.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2">
         <v>33177</v>
       </c>
@@ -1816,8 +1920,12 @@
       <c r="M30" s="3">
         <v>336.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>33207</v>
       </c>
@@ -1857,8 +1965,12 @@
       <c r="M31" s="3">
         <v>362.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>33238</v>
       </c>
@@ -1898,8 +2010,12 @@
       <c r="M32" s="3">
         <v>384.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>33269</v>
       </c>
@@ -1939,8 +2055,12 @@
       <c r="M33" s="3">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>33297</v>
       </c>
@@ -1980,8 +2100,12 @@
       <c r="M34" s="3">
         <v>61.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>33328</v>
       </c>
@@ -2021,8 +2145,12 @@
       <c r="M35" s="3">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>33358</v>
       </c>
@@ -2062,8 +2190,12 @@
       <c r="M36" s="3">
         <v>126.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>33389</v>
       </c>
@@ -2103,8 +2235,12 @@
       <c r="M37" s="3">
         <v>158.80000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>33419</v>
       </c>
@@ -2144,8 +2280,12 @@
       <c r="M38" s="3">
         <v>196</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>33450</v>
       </c>
@@ -2185,8 +2325,12 @@
       <c r="M39" s="3">
         <v>231.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>33481</v>
       </c>
@@ -2226,8 +2370,12 @@
       <c r="M40" s="3">
         <v>267.60000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>33511</v>
       </c>
@@ -2267,8 +2415,12 @@
       <c r="M41" s="3">
         <v>301.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>33542</v>
       </c>
@@ -2308,8 +2460,12 @@
       <c r="M42" s="3">
         <v>339.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>33572</v>
       </c>
@@ -2349,8 +2505,12 @@
       <c r="M43" s="3">
         <v>375.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>33603</v>
       </c>
@@ -2390,8 +2550,12 @@
       <c r="M44" s="3">
         <v>398.41</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>33634</v>
       </c>
@@ -2431,8 +2595,12 @@
       <c r="M45" s="3">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>33663</v>
       </c>
@@ -2472,8 +2640,12 @@
       <c r="M46" s="3">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>33694</v>
       </c>
@@ -2513,8 +2685,12 @@
       <c r="M47" s="3">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>33724</v>
       </c>
@@ -2554,8 +2730,12 @@
       <c r="M48" s="3">
         <v>147.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>33755</v>
       </c>
@@ -2595,8 +2775,12 @@
       <c r="M49" s="3">
         <v>177.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="2">
         <v>33785</v>
       </c>
@@ -2636,8 +2820,12 @@
       <c r="M50" s="3">
         <v>209.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="2">
         <v>33816</v>
       </c>
@@ -2677,8 +2865,12 @@
       <c r="M51" s="3">
         <v>243.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="2">
         <v>33847</v>
       </c>
@@ -2718,8 +2910,12 @@
       <c r="M52" s="3">
         <v>279.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="2">
         <v>33877</v>
       </c>
@@ -2759,8 +2955,12 @@
       <c r="M53" s="3">
         <v>310</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2">
         <v>33908</v>
       </c>
@@ -2800,8 +3000,12 @@
       <c r="M54" s="3">
         <v>341.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="2">
         <v>33938</v>
       </c>
@@ -2841,8 +3045,12 @@
       <c r="M55" s="3">
         <v>371.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="2">
         <v>33969</v>
       </c>
@@ -2882,8 +3090,12 @@
       <c r="M56" s="3">
         <v>395.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="2">
         <v>34000</v>
       </c>
@@ -2923,8 +3135,12 @@
       <c r="M57" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="2">
         <v>34028</v>
       </c>
@@ -2964,8 +3180,12 @@
       <c r="M58" s="3">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="2">
         <v>34059</v>
       </c>
@@ -3005,8 +3225,12 @@
       <c r="M59" s="3">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="2">
         <v>34089</v>
       </c>
@@ -3046,8 +3270,12 @@
       <c r="M60" s="3">
         <v>117.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="2">
         <v>34120</v>
       </c>
@@ -3087,8 +3315,12 @@
       <c r="M61" s="3">
         <v>151.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="2">
         <v>34150</v>
       </c>
@@ -3128,8 +3360,12 @@
       <c r="M62" s="3">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="2">
         <v>34181</v>
       </c>
@@ -3169,8 +3405,12 @@
       <c r="M63" s="3">
         <v>214.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="2">
         <v>34212</v>
       </c>
@@ -3210,8 +3450,12 @@
       <c r="M64" s="3">
         <v>244.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="2">
         <v>34242</v>
       </c>
@@ -3251,8 +3495,12 @@
       <c r="M65" s="3">
         <v>274.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="2">
         <v>34273</v>
       </c>
@@ -3292,8 +3540,12 @@
       <c r="M66" s="3">
         <v>308.89999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="2">
         <v>34303</v>
       </c>
@@ -3333,8 +3585,12 @@
       <c r="M67" s="3">
         <v>343.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="2">
         <v>34334</v>
       </c>
@@ -3374,8 +3630,12 @@
       <c r="M68" s="3">
         <v>373.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="2">
         <v>34365</v>
       </c>
@@ -3415,8 +3675,12 @@
       <c r="M69" s="3">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="2">
         <v>34393</v>
       </c>
@@ -3456,8 +3720,12 @@
       <c r="M70" s="3">
         <v>71.89</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="2">
         <v>34424</v>
       </c>
@@ -3497,8 +3765,12 @@
       <c r="M71" s="3">
         <v>115.41</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="2">
         <v>34454</v>
       </c>
@@ -3538,8 +3810,12 @@
       <c r="M72" s="3">
         <v>153.88999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="2">
         <v>34485</v>
       </c>
@@ -3579,8 +3855,12 @@
       <c r="M73" s="3">
         <v>190.93</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="8">
+        <f t="shared" ref="N73:N136" si="1">E73-D73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="2">
         <v>34515</v>
       </c>
@@ -3620,8 +3900,12 @@
       <c r="M74" s="3">
         <v>228.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="2">
         <v>34546</v>
       </c>
@@ -3661,8 +3945,12 @@
       <c r="M75" s="3">
         <v>267.49</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="2">
         <v>34577</v>
       </c>
@@ -3702,8 +3990,12 @@
       <c r="M76" s="3">
         <v>305.77</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="2">
         <v>34607</v>
       </c>
@@ -3743,8 +4035,12 @@
       <c r="M77" s="3">
         <v>334.77</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="2">
         <v>34638</v>
       </c>
@@ -3784,8 +4080,12 @@
       <c r="M78" s="3">
         <v>368.17</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="2">
         <v>34668</v>
       </c>
@@ -3825,8 +4125,12 @@
       <c r="M79" s="3">
         <v>400.64</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="2">
         <v>34699</v>
       </c>
@@ -3866,8 +4170,12 @@
       <c r="M80" s="3">
         <v>433.42</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="2">
         <v>34730</v>
       </c>
@@ -3907,8 +4215,12 @@
       <c r="M81" s="3">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="2">
         <v>34758</v>
       </c>
@@ -3948,8 +4260,12 @@
       <c r="M82" s="3">
         <v>66.83</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="2">
         <v>34789</v>
       </c>
@@ -3989,8 +4305,12 @@
       <c r="M83" s="3">
         <v>98.49</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="2">
         <v>34819</v>
       </c>
@@ -4030,8 +4350,12 @@
       <c r="M84" s="3">
         <v>131.31</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="2">
         <v>34850</v>
       </c>
@@ -4071,8 +4395,12 @@
       <c r="M85" s="3">
         <v>166.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="2">
         <v>34880</v>
       </c>
@@ -4112,8 +4440,12 @@
       <c r="M86" s="3">
         <v>201.44</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="2">
         <v>34911</v>
       </c>
@@ -4153,8 +4485,12 @@
       <c r="M87" s="3">
         <v>239.13</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="2">
         <v>34942</v>
       </c>
@@ -4194,8 +4530,12 @@
       <c r="M88" s="3">
         <v>279.62</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="2">
         <v>34972</v>
       </c>
@@ -4235,8 +4575,12 @@
       <c r="M89" s="3">
         <v>318.99</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="2">
         <v>35003</v>
       </c>
@@ -4276,8 +4620,12 @@
       <c r="M90" s="3">
         <v>357.96</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="2">
         <v>35033</v>
       </c>
@@ -4317,8 +4665,12 @@
       <c r="M91" s="3">
         <v>398.71</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="2">
         <v>35064</v>
       </c>
@@ -4358,8 +4710,12 @@
       <c r="M92" s="3">
         <v>435.32</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="2">
         <v>35095</v>
       </c>
@@ -4399,8 +4755,12 @@
       <c r="M93" s="3">
         <v>37.39</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="2">
         <v>35124</v>
       </c>
@@ -4440,8 +4800,12 @@
       <c r="M94" s="3">
         <v>77.87</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="2">
         <v>35155</v>
       </c>
@@ -4481,8 +4845,12 @@
       <c r="M95" s="3">
         <v>116.65</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="2">
         <v>35185</v>
       </c>
@@ -4522,8 +4890,12 @@
       <c r="M96" s="3">
         <v>158.09</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="2">
         <v>35216</v>
       </c>
@@ -4563,8 +4935,12 @@
       <c r="M97" s="3">
         <v>207.18</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="2">
         <v>35246</v>
       </c>
@@ -4604,8 +4980,12 @@
       <c r="M98" s="3">
         <v>257.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="2">
         <v>35277</v>
       </c>
@@ -4645,8 +5025,12 @@
       <c r="M99" s="3">
         <v>297.32</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="2">
         <v>35308</v>
       </c>
@@ -4686,8 +5070,12 @@
       <c r="M100" s="3">
         <v>343.02</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="2">
         <v>35338</v>
       </c>
@@ -4727,8 +5115,12 @@
       <c r="M101" s="3">
         <v>388.04</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="2">
         <v>35369</v>
       </c>
@@ -4768,8 +5160,12 @@
       <c r="M102" s="3">
         <v>436.75</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="2">
         <v>35399</v>
       </c>
@@ -4809,8 +5205,12 @@
       <c r="M103" s="3">
         <v>482.99</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="2">
         <v>35430</v>
       </c>
@@ -4850,8 +5250,12 @@
       <c r="M104" s="3">
         <v>529.17999999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="2">
         <v>35461</v>
       </c>
@@ -4891,8 +5295,12 @@
       <c r="M105" s="3">
         <v>42.33</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="2">
         <v>35489</v>
       </c>
@@ -4932,8 +5340,12 @@
       <c r="M106" s="3">
         <v>102.04</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="2">
         <v>35520</v>
       </c>
@@ -4973,8 +5385,12 @@
       <c r="M107" s="3">
         <v>126.12</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="2">
         <v>35550</v>
       </c>
@@ -5014,8 +5430,12 @@
       <c r="M108" s="3">
         <v>171.34</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="2">
         <v>35581</v>
       </c>
@@ -5055,8 +5475,12 @@
       <c r="M109" s="3">
         <v>217.64</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="2">
         <v>35611</v>
       </c>
@@ -5096,8 +5520,12 @@
       <c r="M110" s="3">
         <v>265.24</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="2">
         <v>35642</v>
       </c>
@@ -5137,8 +5565,12 @@
       <c r="M111" s="3">
         <v>310.98</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="2">
         <v>35673</v>
       </c>
@@ -5178,8 +5610,12 @@
       <c r="M112" s="3">
         <v>361.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="2">
         <v>35703</v>
       </c>
@@ -5219,8 +5655,12 @@
       <c r="M113" s="3">
         <v>415.32</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="2">
         <v>35734</v>
       </c>
@@ -5260,8 +5700,12 @@
       <c r="M114" s="3">
         <v>472.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="2">
         <v>35764</v>
       </c>
@@ -5301,8 +5745,12 @@
       <c r="M115" s="3">
         <v>523.80999999999995</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="2">
         <v>35795</v>
       </c>
@@ -5342,8 +5790,12 @@
       <c r="M116" s="3">
         <v>573.69000000000005</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="2">
         <v>35826</v>
       </c>
@@ -5383,8 +5835,12 @@
       <c r="M117" s="3">
         <v>48.25</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="2">
         <v>35854</v>
       </c>
@@ -5424,8 +5880,12 @@
       <c r="M118" s="3">
         <v>99.69</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="2">
         <v>35885</v>
       </c>
@@ -5465,8 +5925,12 @@
       <c r="M119" s="3">
         <v>154.71</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="2">
         <v>35915</v>
       </c>
@@ -5506,8 +5970,12 @@
       <c r="M120" s="3">
         <v>206.84</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="2">
         <v>35946</v>
       </c>
@@ -5547,8 +6015,12 @@
       <c r="M121" s="3">
         <v>260.62</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="2">
         <v>35976</v>
       </c>
@@ -5588,8 +6060,12 @@
       <c r="M122" s="3">
         <v>311.55</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="2">
         <v>36007</v>
       </c>
@@ -5629,8 +6105,12 @@
       <c r="M123" s="3">
         <v>359.08</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="2">
         <v>36038</v>
       </c>
@@ -5670,8 +6150,12 @@
       <c r="M124" s="3">
         <v>406.54</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="2">
         <v>36068</v>
       </c>
@@ -5711,8 +6195,12 @@
       <c r="M125" s="3">
         <v>456.86</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="2">
         <v>36099</v>
       </c>
@@ -5752,8 +6240,12 @@
       <c r="M126" s="3">
         <v>511.41</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="2">
         <v>36129</v>
       </c>
@@ -5793,8 +6285,12 @@
       <c r="M127" s="3">
         <v>567.95000000000005</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="2">
         <v>36160</v>
       </c>
@@ -5834,8 +6330,12 @@
       <c r="M128" s="3">
         <v>574.89</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="2">
         <v>36191</v>
       </c>
@@ -5875,8 +6375,12 @@
       <c r="M129" s="3">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="2">
         <v>36219</v>
       </c>
@@ -5916,8 +6420,12 @@
       <c r="M130" s="3">
         <v>95.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="2">
         <v>36250</v>
       </c>
@@ -5957,8 +6465,12 @@
       <c r="M131" s="3">
         <v>147.26</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="2">
         <v>36280</v>
       </c>
@@ -5998,8 +6510,12 @@
       <c r="M132" s="3">
         <v>208.29</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="2">
         <v>36311</v>
       </c>
@@ -6039,8 +6555,12 @@
       <c r="M133" s="3">
         <v>262.04000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="2">
         <v>36341</v>
       </c>
@@ -6080,8 +6600,12 @@
       <c r="M134" s="3">
         <v>326.48</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="2">
         <v>36372</v>
       </c>
@@ -6121,8 +6645,12 @@
       <c r="M135" s="3">
         <v>390.93</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="2">
         <v>36403</v>
       </c>
@@ -6162,8 +6690,12 @@
       <c r="M136" s="3">
         <v>461.82</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="2">
         <v>36433</v>
       </c>
@@ -6203,8 +6735,12 @@
       <c r="M137" s="3">
         <v>529.01</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" s="8">
+        <f t="shared" ref="N137:N200" si="2">E137-D137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="2">
         <v>36464</v>
       </c>
@@ -6244,8 +6780,12 @@
       <c r="M138" s="3">
         <v>606.17999999999995</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="2">
         <v>36494</v>
       </c>
@@ -6285,8 +6825,12 @@
       <c r="M139" s="3">
         <v>670.21</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="2">
         <v>36525</v>
       </c>
@@ -6326,8 +6870,12 @@
       <c r="M140" s="3">
         <v>719.46</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="2">
         <v>36556</v>
       </c>
@@ -6367,8 +6915,12 @@
       <c r="M141" s="3">
         <v>52.55</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="2">
         <v>36585</v>
       </c>
@@ -6408,8 +6960,12 @@
       <c r="M142" s="3">
         <v>113.48</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="2">
         <v>36616</v>
       </c>
@@ -6449,8 +7005,12 @@
       <c r="M143" s="3">
         <v>205.46</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="2">
         <v>36646</v>
       </c>
@@ -6490,8 +7050,12 @@
       <c r="M144" s="3">
         <v>283.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="2">
         <v>36677</v>
       </c>
@@ -6531,8 +7095,12 @@
       <c r="M145" s="3">
         <v>358.82</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="2">
         <v>36707</v>
       </c>
@@ -6572,8 +7140,12 @@
       <c r="M146" s="3">
         <v>437.63</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="2">
         <v>36738</v>
       </c>
@@ -6613,8 +7185,12 @@
       <c r="M147" s="3">
         <v>511.06</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="2">
         <v>36769</v>
       </c>
@@ -6654,8 +7230,12 @@
       <c r="M148" s="3">
         <v>583.04999999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="2">
         <v>36799</v>
       </c>
@@ -6695,8 +7275,12 @@
       <c r="M149" s="3">
         <v>655.44</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="2">
         <v>36830</v>
       </c>
@@ -6736,8 +7320,12 @@
       <c r="M150" s="3">
         <v>727.93</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="N150" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="2">
         <v>36860</v>
       </c>
@@ -6777,8 +7365,12 @@
       <c r="M151" s="3">
         <v>800.24</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="N151" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="2">
         <v>36891</v>
       </c>
@@ -6818,8 +7410,12 @@
       <c r="M152" s="3">
         <v>872.29</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="N152" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="2">
         <v>36922</v>
       </c>
@@ -6859,8 +7455,12 @@
       <c r="M153" s="3">
         <v>61.52</v>
       </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="N153" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="2">
         <v>36950</v>
       </c>
@@ -6900,8 +7500,12 @@
       <c r="M154" s="3">
         <v>120.01</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="N154" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="2">
         <v>36981</v>
       </c>
@@ -6941,8 +7545,12 @@
       <c r="M155" s="3">
         <v>182.29</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="N155" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="2">
         <v>37011</v>
       </c>
@@ -6982,8 +7590,12 @@
       <c r="M156" s="3">
         <v>244.62</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="N156" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="2">
         <v>37042</v>
       </c>
@@ -7023,8 +7635,12 @@
       <c r="M157" s="3">
         <v>316.52</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="N157" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="2">
         <v>37072</v>
       </c>
@@ -7064,8 +7680,12 @@
       <c r="M158" s="3">
         <v>389.45</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="N158" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="2">
         <v>37103</v>
       </c>
@@ -7105,8 +7725,12 @@
       <c r="M159" s="3">
         <v>458.77</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="2">
         <v>37134</v>
       </c>
@@ -7146,8 +7770,12 @@
       <c r="M160" s="3">
         <v>526.63</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="N160" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="2">
         <v>37164</v>
       </c>
@@ -7187,8 +7815,12 @@
       <c r="M161" s="3">
         <v>590.41</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="N161" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="2">
         <v>37195</v>
       </c>
@@ -7228,8 +7860,12 @@
       <c r="M162" s="3">
         <v>662.82</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="N162" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="2">
         <v>37225</v>
       </c>
@@ -7269,8 +7905,12 @@
       <c r="M163" s="3">
         <v>733.46</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="N163" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="2">
         <v>37256</v>
       </c>
@@ -7310,8 +7950,12 @@
       <c r="M164" s="3">
         <v>789.35</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="N164" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="2">
         <v>37287</v>
       </c>
@@ -7351,8 +7995,12 @@
       <c r="M165" s="3">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="N165" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="2">
         <v>37315</v>
       </c>
@@ -7392,8 +8040,12 @@
       <c r="M166" s="3">
         <v>117.58</v>
       </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="N166" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="2">
         <v>37346</v>
       </c>
@@ -7433,8 +8085,12 @@
       <c r="M167" s="3">
         <v>183.15</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="N167" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="2">
         <v>37376</v>
       </c>
@@ -7474,8 +8130,12 @@
       <c r="M168" s="3">
         <v>254.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="N168" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="2">
         <v>37407</v>
       </c>
@@ -7515,8 +8175,12 @@
       <c r="M169" s="3">
         <v>326.97000000000003</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="N169" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="2">
         <v>37437</v>
       </c>
@@ -7556,8 +8220,12 @@
       <c r="M170" s="3">
         <v>403.11</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="N170" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="2">
         <v>37468</v>
       </c>
@@ -7597,8 +8265,12 @@
       <c r="M171" s="3">
         <v>468.52</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="N171" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="2">
         <v>37499</v>
       </c>
@@ -7638,8 +8310,12 @@
       <c r="M172" s="3">
         <v>537.79999999999995</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="N172" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="2">
         <v>37529</v>
       </c>
@@ -7679,8 +8355,12 @@
       <c r="M173" s="3">
         <v>603.20000000000005</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="N173" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="2">
         <v>37560</v>
       </c>
@@ -7720,8 +8400,12 @@
       <c r="M174" s="3">
         <v>681.31</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="N174" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="2">
         <v>37590</v>
       </c>
@@ -7761,8 +8445,12 @@
       <c r="M175" s="3">
         <v>763.78</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="N175" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="2">
         <v>37621</v>
       </c>
@@ -7802,8 +8490,12 @@
       <c r="M176" s="3">
         <v>826.11</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="N176" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="2">
         <v>37652</v>
       </c>
@@ -7843,8 +8535,12 @@
       <c r="M177" s="3">
         <v>74.16</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="N177" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="2">
         <v>37680</v>
       </c>
@@ -7884,8 +8580,12 @@
       <c r="M178" s="3">
         <v>152.63999999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="N178" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="2">
         <v>37711</v>
       </c>
@@ -7925,8 +8625,12 @@
       <c r="M179" s="3">
         <v>229.92</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="N179" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="2">
         <v>37741</v>
       </c>
@@ -7966,8 +8670,12 @@
       <c r="M180" s="3">
         <v>301.97000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="N180" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="2">
         <v>37772</v>
       </c>
@@ -8007,8 +8715,12 @@
       <c r="M181" s="3">
         <v>354.95</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="N181" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="2">
         <v>37802</v>
       </c>
@@ -8048,8 +8760,12 @@
       <c r="M182" s="3">
         <v>402.3</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="N182" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="2">
         <v>37833</v>
       </c>
@@ -8089,8 +8805,12 @@
       <c r="M183" s="3">
         <v>464.4</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="N183" s="8">
+        <f t="shared" si="2"/>
+        <v>-750.00000000000023</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="2">
         <v>37864</v>
       </c>
@@ -8130,8 +8850,12 @@
       <c r="M184" s="3">
         <v>543.72</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="N184" s="8">
+        <f t="shared" si="2"/>
+        <v>-929.99999999999977</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="2">
         <v>37894</v>
       </c>
@@ -8171,8 +8895,12 @@
       <c r="M185" s="3">
         <v>625.41</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="N185" s="8">
+        <f t="shared" si="2"/>
+        <v>-1105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="2">
         <v>37925</v>
       </c>
@@ -8212,8 +8940,12 @@
       <c r="M186" s="3">
         <v>708.38</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="N186" s="8">
+        <f t="shared" si="2"/>
+        <v>-1226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="2">
         <v>37955</v>
       </c>
@@ -8253,8 +8985,12 @@
       <c r="M187" s="3">
         <v>783.52</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="N187" s="8">
+        <f t="shared" si="2"/>
+        <v>-1346</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="2">
         <v>37986</v>
       </c>
@@ -8294,8 +9030,12 @@
       <c r="M188" s="3">
         <v>855.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="N188" s="8">
+        <f t="shared" si="2"/>
+        <v>-1442</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="2">
         <v>38017</v>
       </c>
@@ -8335,8 +9075,12 @@
       <c r="M189" s="3">
         <v>79.56</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="N189" s="8">
+        <f t="shared" si="2"/>
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="2">
         <v>38046</v>
       </c>
@@ -8376,8 +9120,12 @@
       <c r="M190" s="3">
         <v>160.25</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="N190" s="8">
+        <f t="shared" si="2"/>
+        <v>-399</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="2">
         <v>38077</v>
       </c>
@@ -8417,8 +9165,12 @@
       <c r="M191" s="3">
         <v>236.9</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="N191" s="8">
+        <f t="shared" si="2"/>
+        <v>-598</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="2">
         <v>38107</v>
       </c>
@@ -8458,8 +9210,12 @@
       <c r="M192" s="3">
         <v>305.8</v>
       </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="N192" s="8">
+        <f t="shared" si="2"/>
+        <v>-946</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="2">
         <v>38138</v>
       </c>
@@ -8499,8 +9255,12 @@
       <c r="M193" s="3">
         <v>382.78</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="N193" s="8">
+        <f t="shared" si="2"/>
+        <v>-1186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="2">
         <v>38168</v>
       </c>
@@ -8540,8 +9300,12 @@
       <c r="M194" s="3">
         <v>465.21</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="N194" s="8">
+        <f t="shared" si="2"/>
+        <v>-1475.0000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="2">
         <v>38199</v>
       </c>
@@ -8581,8 +9345,12 @@
       <c r="M195" s="3">
         <v>545.9</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="N195" s="8">
+        <f t="shared" si="2"/>
+        <v>-1661</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="2">
         <v>38230</v>
       </c>
@@ -8622,8 +9390,12 @@
       <c r="M196" s="3">
         <v>624.79</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="N196" s="8">
+        <f t="shared" si="2"/>
+        <v>-1796</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="2">
         <v>38260</v>
       </c>
@@ -8663,8 +9435,12 @@
       <c r="M197" s="3">
         <v>711.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="N197" s="8">
+        <f t="shared" si="2"/>
+        <v>-1945</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="2">
         <v>38291</v>
       </c>
@@ -8704,8 +9480,12 @@
       <c r="M198" s="3">
         <v>802.76</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="N198" s="8">
+        <f t="shared" si="2"/>
+        <v>-2140.9999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="2">
         <v>38321</v>
       </c>
@@ -8745,8 +9525,12 @@
       <c r="M199" s="3">
         <v>883.95</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" s="8">
+        <f t="shared" si="2"/>
+        <v>-2436</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="2">
         <v>38352</v>
       </c>
@@ -8786,8 +9570,12 @@
       <c r="M200" s="3">
         <v>970.75</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="N200" s="8">
+        <f t="shared" si="2"/>
+        <v>-2642</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="2">
         <v>38383</v>
       </c>
@@ -8827,8 +9615,12 @@
       <c r="M201" s="3">
         <v>80.66</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="N201" s="8">
+        <f t="shared" ref="N201:N264" si="3">E201-D201</f>
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="2">
         <v>38411</v>
       </c>
@@ -8868,8 +9660,12 @@
       <c r="M202" s="3">
         <v>160.16</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="N202" s="8">
+        <f t="shared" si="3"/>
+        <v>-379</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="2">
         <v>38442</v>
       </c>
@@ -8909,8 +9705,12 @@
       <c r="M203" s="3">
         <v>253.43</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="N203" s="8">
+        <f t="shared" si="3"/>
+        <v>-491</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="2">
         <v>38472</v>
       </c>
@@ -8950,8 +9750,12 @@
       <c r="M204" s="3">
         <v>335.7</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="N204" s="8">
+        <f t="shared" si="3"/>
+        <v>-601</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="2">
         <v>38503</v>
       </c>
@@ -8991,8 +9795,12 @@
       <c r="M205" s="3">
         <v>417</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="N205" s="8">
+        <f t="shared" si="3"/>
+        <v>-635</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="2">
         <v>38533</v>
       </c>
@@ -9032,8 +9840,12 @@
       <c r="M206" s="3">
         <v>500.06</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="N206" s="8">
+        <f t="shared" si="3"/>
+        <v>-816.00000000000011</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="2">
         <v>38564</v>
       </c>
@@ -9073,8 +9885,12 @@
       <c r="M207" s="3">
         <v>590.44000000000005</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="N207" s="8">
+        <f t="shared" si="3"/>
+        <v>-930.00000000000023</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="2">
         <v>38595</v>
       </c>
@@ -9114,8 +9930,12 @@
       <c r="M208" s="3">
         <v>688.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="N208" s="8">
+        <f t="shared" si="3"/>
+        <v>-1001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="2">
         <v>38625</v>
       </c>
@@ -9155,8 +9975,12 @@
       <c r="M209" s="3">
         <v>771.3</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="N209" s="8">
+        <f t="shared" si="3"/>
+        <v>-1169</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="2">
         <v>38656</v>
       </c>
@@ -9196,8 +10020,12 @@
       <c r="M210" s="3">
         <v>846.99</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="N210" s="8">
+        <f t="shared" si="3"/>
+        <v>-1358</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="2">
         <v>38686</v>
       </c>
@@ -9237,8 +10065,12 @@
       <c r="M211" s="3">
         <v>919.97</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="N211" s="8">
+        <f t="shared" si="3"/>
+        <v>-1523</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="2">
         <v>38717</v>
       </c>
@@ -9278,8 +10110,12 @@
       <c r="M212" s="3">
         <v>988.59</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="N212" s="8">
+        <f t="shared" si="3"/>
+        <v>-1741.9999999999995</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="2">
         <v>38748</v>
       </c>
@@ -9319,8 +10155,12 @@
       <c r="M213" s="3">
         <v>101.21</v>
       </c>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="N213" s="8">
+        <f t="shared" si="3"/>
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="2">
         <v>38776</v>
       </c>
@@ -9360,8 +10200,12 @@
       <c r="M214" s="3">
         <v>175.81</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="N214" s="8">
+        <f t="shared" si="3"/>
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="2">
         <v>38807</v>
       </c>
@@ -9401,8 +10245,12 @@
       <c r="M215" s="3">
         <v>252.03</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="N215" s="8">
+        <f t="shared" si="3"/>
+        <v>-497</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="2">
         <v>38837</v>
       </c>
@@ -9442,8 +10290,12 @@
       <c r="M216" s="3">
         <v>313.49</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="N216" s="8">
+        <f t="shared" si="3"/>
+        <v>-696</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="2">
         <v>38868</v>
       </c>
@@ -9483,8 +10335,12 @@
       <c r="M217" s="3">
         <v>404.73</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="N217" s="8">
+        <f t="shared" si="3"/>
+        <v>-886</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="2">
         <v>38898</v>
       </c>
@@ -9524,8 +10380,12 @@
       <c r="M218" s="3">
         <v>484.23</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="N218" s="8">
+        <f t="shared" si="3"/>
+        <v>-1202.9999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="2">
         <v>38929</v>
       </c>
@@ -9565,8 +10425,12 @@
       <c r="M219" s="3">
         <v>566.25</v>
       </c>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="N219" s="8">
+        <f t="shared" si="3"/>
+        <v>-1485</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="2">
         <v>38960</v>
       </c>
@@ -9606,8 +10470,12 @@
       <c r="M220" s="3">
         <v>647.92999999999995</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="N220" s="8">
+        <f t="shared" si="3"/>
+        <v>-1755</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="2">
         <v>38990</v>
       </c>
@@ -9647,8 +10515,12 @@
       <c r="M221" s="3">
         <v>731.52</v>
       </c>
-    </row>
-    <row r="222" spans="1:13">
+      <c r="N221" s="8">
+        <f t="shared" si="3"/>
+        <v>-2005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="2">
         <v>39021</v>
       </c>
@@ -9688,8 +10560,12 @@
       <c r="M222" s="3">
         <v>813.87</v>
       </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="N222" s="8">
+        <f t="shared" si="3"/>
+        <v>-2187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="2">
         <v>39051</v>
       </c>
@@ -9729,8 +10605,12 @@
       <c r="M223" s="3">
         <v>885.41</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="N223" s="8">
+        <f t="shared" si="3"/>
+        <v>-2305.0000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="2">
         <v>39082</v>
       </c>
@@ -9770,8 +10650,12 @@
       <c r="M224" s="3">
         <v>959.95</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="N224" s="8">
+        <f t="shared" si="3"/>
+        <v>-2402.9999999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="2">
         <v>39113</v>
       </c>
@@ -9811,8 +10695,12 @@
       <c r="M225" s="3">
         <v>76.48</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="N225" s="8">
+        <f t="shared" si="3"/>
+        <v>-184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="2">
         <v>39141</v>
       </c>
@@ -9852,8 +10740,12 @@
       <c r="M226" s="3">
         <v>162.13</v>
       </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="N226" s="8">
+        <f t="shared" si="3"/>
+        <v>-271</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="2">
         <v>39172</v>
       </c>
@@ -9893,8 +10785,12 @@
       <c r="M227" s="3">
         <v>253.72</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="N227" s="8">
+        <f t="shared" si="3"/>
+        <v>-415</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="2">
         <v>39202</v>
       </c>
@@ -9934,8 +10830,12 @@
       <c r="M228" s="3">
         <v>346.69</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="N228" s="8">
+        <f t="shared" si="3"/>
+        <v>-637</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="2">
         <v>39233</v>
       </c>
@@ -9975,8 +10875,12 @@
       <c r="M229" s="3">
         <v>451.97</v>
       </c>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="N229" s="8">
+        <f t="shared" si="3"/>
+        <v>-832</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="2">
         <v>39263</v>
       </c>
@@ -10016,8 +10920,12 @@
       <c r="M230" s="3">
         <v>552.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="N230" s="8">
+        <f t="shared" si="3"/>
+        <v>-1014.0000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="2">
         <v>39294</v>
       </c>
@@ -10057,8 +10965,12 @@
       <c r="M231" s="3">
         <v>660.58</v>
       </c>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="N231" s="8">
+        <f t="shared" si="3"/>
+        <v>-1276</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="2">
         <v>39325</v>
       </c>
@@ -10098,8 +11010,12 @@
       <c r="M232" s="3">
         <v>768.36</v>
       </c>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="N232" s="8">
+        <f t="shared" si="3"/>
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="2">
         <v>39355</v>
       </c>
@@ -10139,8 +11055,12 @@
       <c r="M233" s="3">
         <v>866.96</v>
       </c>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="N233" s="8">
+        <f t="shared" si="3"/>
+        <v>-1498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="2">
         <v>39386</v>
       </c>
@@ -10180,8 +11100,12 @@
       <c r="M234" s="3">
         <v>969.27</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="N234" s="8">
+        <f t="shared" si="3"/>
+        <v>-1603</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="2">
         <v>39416</v>
       </c>
@@ -10221,8 +11145,12 @@
       <c r="M235" s="3">
         <v>1061.73</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="N235" s="8">
+        <f t="shared" si="3"/>
+        <v>-1685</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="2">
         <v>39447</v>
       </c>
@@ -10262,8 +11190,12 @@
       <c r="M236" s="3">
         <v>1153.27</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="N236" s="8">
+        <f t="shared" si="3"/>
+        <v>-1829</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="2">
         <v>39478</v>
       </c>
@@ -10303,8 +11235,12 @@
       <c r="M237" s="3">
         <v>95.93</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="N237" s="8">
+        <f t="shared" si="3"/>
+        <v>-202</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="2">
         <v>39507</v>
       </c>
@@ -10344,8 +11280,12 @@
       <c r="M238" s="3">
         <v>193.24</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="N238" s="8">
+        <f t="shared" si="3"/>
+        <v>-352</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="2">
         <v>39538</v>
       </c>
@@ -10385,8 +11325,12 @@
       <c r="M239" s="3">
         <v>302.73</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="N239" s="8">
+        <f t="shared" si="3"/>
+        <v>-547</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="2">
         <v>39568</v>
       </c>
@@ -10426,8 +11370,12 @@
       <c r="M240" s="3">
         <v>402</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="N240" s="8">
+        <f t="shared" si="3"/>
+        <v>-784</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="2">
         <v>39599</v>
       </c>
@@ -10467,8 +11415,12 @@
       <c r="M241" s="3">
         <v>493.06</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="N241" s="8">
+        <f t="shared" si="3"/>
+        <v>-1086</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="2">
         <v>39629</v>
       </c>
@@ -10508,8 +11460,12 @@
       <c r="M242" s="3">
         <v>585.66999999999996</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="N242" s="8">
+        <f t="shared" si="3"/>
+        <v>-1313</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="2">
         <v>39660</v>
       </c>
@@ -10549,8 +11505,12 @@
       <c r="M243" s="3">
         <v>674.02</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="N243" s="8">
+        <f t="shared" si="3"/>
+        <v>-1586</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="2">
         <v>39691</v>
       </c>
@@ -10590,8 +11550,12 @@
       <c r="M244" s="3">
         <v>766.73</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="N244" s="8">
+        <f t="shared" si="3"/>
+        <v>-1779</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="2">
         <v>39721</v>
       </c>
@@ -10631,8 +11595,12 @@
       <c r="M245" s="3">
         <v>868.98</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="N245" s="8">
+        <f t="shared" si="3"/>
+        <v>-1898</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="2">
         <v>39752</v>
       </c>
@@ -10672,8 +11640,12 @@
       <c r="M246" s="3">
         <v>977.61</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="N246" s="8">
+        <f t="shared" si="3"/>
+        <v>-1952</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="2">
         <v>39782</v>
       </c>
@@ -10713,8 +11685,12 @@
       <c r="M247" s="3">
         <v>1074.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="N247" s="8">
+        <f t="shared" si="3"/>
+        <v>-2020.0000000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="2">
         <v>39813</v>
       </c>
@@ -10754,8 +11730,12 @@
       <c r="M248" s="3">
         <v>1165.3699999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="N248" s="8">
+        <f t="shared" si="3"/>
+        <v>-2181.9999999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="2">
         <v>39844</v>
       </c>
@@ -10795,8 +11775,12 @@
       <c r="M249" s="3">
         <v>89.95</v>
       </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="N249" s="8">
+        <f t="shared" si="3"/>
+        <v>-126.00000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="2">
         <v>39872</v>
       </c>
@@ -10836,8 +11820,12 @@
       <c r="M250" s="3">
         <v>187.62</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="N250" s="8">
+        <f t="shared" si="3"/>
+        <v>-314</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="2">
         <v>39903</v>
       </c>
@@ -10877,8 +11865,12 @@
       <c r="M251" s="3">
         <v>301.62</v>
       </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="N251" s="8">
+        <f t="shared" si="3"/>
+        <v>-479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="2">
         <v>39933</v>
       </c>
@@ -10918,8 +11910,12 @@
       <c r="M252" s="3">
         <v>409.46</v>
       </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="N252" s="8">
+        <f t="shared" si="3"/>
+        <v>-641</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="2">
         <v>39964</v>
       </c>
@@ -10959,8 +11955,12 @@
       <c r="M253" s="3">
         <v>527.75</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="N253" s="8">
+        <f t="shared" si="3"/>
+        <v>-804</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="2">
         <v>39994</v>
       </c>
@@ -11000,8 +12000,12 @@
       <c r="M254" s="3">
         <v>657.69</v>
       </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="N254" s="8">
+        <f t="shared" si="3"/>
+        <v>-915</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="2">
         <v>40025</v>
       </c>
@@ -11041,8 +12045,12 @@
       <c r="M255" s="3">
         <v>793.08</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="N255" s="8">
+        <f t="shared" si="3"/>
+        <v>-1082</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="2">
         <v>40056</v>
       </c>
@@ -11082,8 +12090,12 @@
       <c r="M256" s="3">
         <v>933.51</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="N256" s="8">
+        <f t="shared" si="3"/>
+        <v>-1114</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="2">
         <v>40086</v>
       </c>
@@ -11123,8 +12135,12 @@
       <c r="M257" s="3">
         <v>1077.07</v>
       </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="N257" s="8">
+        <f t="shared" si="3"/>
+        <v>-1186</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="2">
         <v>40117</v>
       </c>
@@ -11164,8 +12180,12 @@
       <c r="M258" s="3">
         <v>1213.03</v>
       </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="N258" s="8">
+        <f t="shared" si="3"/>
+        <v>-1215</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="2">
         <v>40147</v>
       </c>
@@ -11205,8 +12225,12 @@
       <c r="M259" s="3">
         <v>1343.15</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="N259" s="8">
+        <f t="shared" si="3"/>
+        <v>-1230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="2">
         <v>40178</v>
       </c>
@@ -11246,8 +12270,12 @@
       <c r="M260" s="3">
         <v>1479.43</v>
       </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="N260" s="8">
+        <f t="shared" si="3"/>
+        <v>-1192</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="2">
         <v>40209</v>
       </c>
@@ -11287,8 +12315,12 @@
       <c r="M261" s="3">
         <v>134.76859999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="N261" s="8">
+        <f t="shared" si="3"/>
+        <v>15.999999999999972</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="2">
         <v>40237</v>
       </c>
@@ -11328,8 +12360,12 @@
       <c r="M262" s="3">
         <v>263.39999999999998</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="N262" s="8">
+        <f t="shared" si="3"/>
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="2">
         <v>40268</v>
       </c>
@@ -11369,8 +12405,12 @@
       <c r="M263" s="3">
         <v>402.9</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" s="8">
+        <f t="shared" si="3"/>
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="2">
         <v>40298</v>
       </c>
@@ -11410,8 +12450,12 @@
       <c r="M264" s="3">
         <v>549.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="N264" s="8">
+        <f t="shared" si="3"/>
+        <v>-255.00000000000011</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="2">
         <v>40329</v>
       </c>
@@ -11451,8 +12495,12 @@
       <c r="M265" s="3">
         <v>695.7</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="N265" s="8">
+        <f t="shared" ref="N265:N328" si="4">E265-D265</f>
+        <v>-304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="2">
         <v>40359</v>
       </c>
@@ -11492,8 +12540,12 @@
       <c r="M266" s="3">
         <v>842.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="N266" s="8">
+        <f t="shared" si="4"/>
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="2">
         <v>40390</v>
       </c>
@@ -11533,8 +12585,12 @@
       <c r="M267" s="3">
         <v>1001.2</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="N267" s="8">
+        <f t="shared" si="4"/>
+        <v>-443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="2">
         <v>40421</v>
       </c>
@@ -11574,8 +12630,12 @@
       <c r="M268" s="3">
         <v>1151.0999999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="N268" s="8">
+        <f t="shared" si="4"/>
+        <v>-492</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="2">
         <v>40451</v>
       </c>
@@ -11615,8 +12675,12 @@
       <c r="M269" s="3">
         <v>1300.7</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="N269" s="8">
+        <f t="shared" si="4"/>
+        <v>-566</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="2">
         <v>40482</v>
       </c>
@@ -11656,8 +12720,12 @@
       <c r="M270" s="3">
         <v>1443.4</v>
       </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="N270" s="8">
+        <f t="shared" si="4"/>
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="2">
         <v>40512</v>
       </c>
@@ -11697,8 +12765,12 @@
       <c r="M271" s="3">
         <v>1579.1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="N271" s="8">
+        <f t="shared" si="4"/>
+        <v>-792.99999999999955</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="2">
         <v>40543</v>
       </c>
@@ -11738,8 +12810,12 @@
       <c r="M272" s="3">
         <v>1714.7</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
+      <c r="N272" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000.0000000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="2">
         <v>40574</v>
       </c>
@@ -11779,8 +12855,12 @@
       <c r="M273" s="3">
         <v>141.8937</v>
       </c>
-    </row>
-    <row r="274" spans="1:13">
+      <c r="N273" s="8">
+        <f t="shared" si="4"/>
+        <v>-170.99999999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="2">
         <v>40602</v>
       </c>
@@ -11820,8 +12900,12 @@
       <c r="M274" s="3">
         <v>283.89999999999998</v>
       </c>
-    </row>
-    <row r="275" spans="1:13">
+      <c r="N274" s="8">
+        <f t="shared" si="4"/>
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="2">
         <v>40633</v>
       </c>
@@ -11861,8 +12945,12 @@
       <c r="M275" s="3">
         <v>429.6</v>
       </c>
-    </row>
-    <row r="276" spans="1:13">
+      <c r="N275" s="8">
+        <f t="shared" si="4"/>
+        <v>-445</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="2">
         <v>40663</v>
       </c>
@@ -11902,8 +12990,12 @@
       <c r="M276" s="3">
         <v>584.20000000000005</v>
       </c>
-    </row>
-    <row r="277" spans="1:13">
+      <c r="N276" s="8">
+        <f t="shared" si="4"/>
+        <v>-562</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="2">
         <v>40694</v>
       </c>
@@ -11943,8 +13035,12 @@
       <c r="M277" s="3">
         <v>749.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:13">
+      <c r="N277" s="8">
+        <f t="shared" si="4"/>
+        <v>-654</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="2">
         <v>40724</v>
       </c>
@@ -11984,8 +13080,12 @@
       <c r="M278" s="3">
         <v>897.7</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
+      <c r="N278" s="8">
+        <f t="shared" si="4"/>
+        <v>-789</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="2">
         <v>40755</v>
       </c>
@@ -12025,8 +13125,12 @@
       <c r="M279" s="3">
         <v>1066.7</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="N279" s="8">
+        <f t="shared" si="4"/>
+        <v>-868.99999999999977</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="2">
         <v>40786</v>
       </c>
@@ -12066,8 +13170,12 @@
       <c r="M280" s="3">
         <v>1236</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
+      <c r="N280" s="8">
+        <f t="shared" si="4"/>
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" s="2">
         <v>40816</v>
       </c>
@@ -12107,8 +13215,12 @@
       <c r="M281" s="3">
         <v>1405.6</v>
       </c>
-    </row>
-    <row r="282" spans="1:13">
+      <c r="N281" s="8">
+        <f t="shared" si="4"/>
+        <v>-1055.0000000000005</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="2">
         <v>40847</v>
       </c>
@@ -12148,8 +13260,12 @@
       <c r="M282" s="3">
         <v>1552.9</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="N282" s="8">
+        <f t="shared" si="4"/>
+        <v>-1186.9999999999995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" s="2">
         <v>40877</v>
       </c>
@@ -12189,8 +13305,12 @@
       <c r="M283" s="3">
         <v>1716.1</v>
       </c>
-    </row>
-    <row r="284" spans="1:13">
+      <c r="N283" s="8">
+        <f t="shared" si="4"/>
+        <v>-1311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" s="2">
         <v>40908</v>
       </c>
@@ -12230,8 +13350,12 @@
       <c r="M284" s="3">
         <v>1879.8</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="N284" s="8">
+        <f t="shared" si="4"/>
+        <v>-1489.9999999999995</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" s="2">
         <v>40939</v>
       </c>
@@ -12271,8 +13395,12 @@
       <c r="M285" s="3">
         <v>176.7972</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="N285" s="8">
+        <f t="shared" si="4"/>
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" s="2">
         <v>40968</v>
       </c>
@@ -12312,8 +13440,12 @@
       <c r="M286" s="3">
         <v>344.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:13">
+      <c r="N286" s="8">
+        <f t="shared" si="4"/>
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" s="2">
         <v>40999</v>
       </c>
@@ -12353,8 +13485,12 @@
       <c r="M287" s="3">
         <v>509.5</v>
       </c>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" s="8">
+        <f t="shared" si="4"/>
+        <v>-474</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" s="2">
         <v>41029</v>
       </c>
@@ -12394,8 +13530,12 @@
       <c r="M288" s="3">
         <v>677.2</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="N288" s="8">
+        <f t="shared" si="4"/>
+        <v>-609</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" s="2">
         <v>41060</v>
       </c>
@@ -12435,8 +13575,12 @@
       <c r="M289" s="3">
         <v>853.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="N289" s="8">
+        <f t="shared" si="4"/>
+        <v>-749.00000000000023</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" s="2">
         <v>41090</v>
       </c>
@@ -12476,8 +13620,12 @@
       <c r="M290" s="3">
         <v>1017.4</v>
       </c>
-    </row>
-    <row r="291" spans="1:13">
+      <c r="N290" s="8">
+        <f t="shared" si="4"/>
+        <v>-836</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" s="2">
         <v>41121</v>
       </c>
@@ -12517,8 +13665,12 @@
       <c r="M291" s="3">
         <v>1188.4000000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="N291" s="8">
+        <f t="shared" si="4"/>
+        <v>-968</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" s="2">
         <v>41152</v>
       </c>
@@ -12558,8 +13710,12 @@
       <c r="M292" s="3">
         <v>1373.2</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="N292" s="8">
+        <f t="shared" si="4"/>
+        <v>-981.99999999999977</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" s="2">
         <v>41182</v>
       </c>
@@ -12599,8 +13755,12 @@
       <c r="M293" s="3">
         <v>1566.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
+      <c r="N293" s="8">
+        <f t="shared" si="4"/>
+        <v>-1116.9999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" s="2">
         <v>41213</v>
       </c>
@@ -12640,8 +13800,12 @@
       <c r="M294" s="3">
         <v>1752.7</v>
       </c>
-    </row>
-    <row r="295" spans="1:13">
+      <c r="N294" s="8">
+        <f t="shared" si="4"/>
+        <v>-1255</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" s="2">
         <v>41243</v>
       </c>
@@ -12681,8 +13845,12 @@
       <c r="M295" s="3">
         <v>1941.3</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="N295" s="8">
+        <f t="shared" si="4"/>
+        <v>-1389</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" s="2">
         <v>41274</v>
       </c>
@@ -12722,8 +13890,12 @@
       <c r="M296" s="3">
         <v>2131.4</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
+      <c r="N296" s="8">
+        <f t="shared" si="4"/>
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" s="2">
         <v>41305</v>
       </c>
@@ -12763,8 +13935,12 @@
       <c r="M297" s="3">
         <v>197.3</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
+      <c r="N297" s="8">
+        <f t="shared" si="4"/>
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" s="2">
         <v>41333</v>
       </c>
@@ -12804,8 +13980,12 @@
       <c r="M298" s="3">
         <v>384.1</v>
       </c>
-    </row>
-    <row r="299" spans="1:13">
+      <c r="N298" s="8">
+        <f t="shared" si="4"/>
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" s="2">
         <v>41364</v>
       </c>
@@ -12845,8 +14025,12 @@
       <c r="M299" s="3">
         <v>582.1</v>
       </c>
-    </row>
-    <row r="300" spans="1:13">
+      <c r="N299" s="8">
+        <f t="shared" si="4"/>
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" s="2">
         <v>41394</v>
       </c>
@@ -12886,8 +14070,12 @@
       <c r="M300" s="3">
         <v>777.3</v>
       </c>
-    </row>
-    <row r="301" spans="1:13">
+      <c r="N300" s="8">
+        <f t="shared" si="4"/>
+        <v>-436</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" s="2">
         <v>41425</v>
       </c>
@@ -12927,8 +14115,12 @@
       <c r="M301" s="3">
         <v>991.1</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
+      <c r="N301" s="8">
+        <f t="shared" si="4"/>
+        <v>-562</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" s="2">
         <v>41455</v>
       </c>
@@ -12968,8 +14160,12 @@
       <c r="M302" s="3">
         <v>1190.83</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
+      <c r="N302" s="8">
+        <f t="shared" si="4"/>
+        <v>-690</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" s="2">
         <v>41486</v>
       </c>
@@ -13009,8 +14205,12 @@
       <c r="M303" s="3">
         <v>1395.05</v>
       </c>
-    </row>
-    <row r="304" spans="1:13">
+      <c r="N303" s="8">
+        <f t="shared" si="4"/>
+        <v>-812</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" s="2">
         <v>41517</v>
       </c>
@@ -13050,8 +14250,12 @@
       <c r="M304" s="3">
         <v>1621.39</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
+      <c r="N304" s="8">
+        <f t="shared" si="4"/>
+        <v>-820</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" s="2">
         <v>41547</v>
       </c>
@@ -13091,8 +14295,12 @@
       <c r="M305" s="3">
         <v>1845.69</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
+      <c r="N305" s="8">
+        <f t="shared" si="4"/>
+        <v>-910</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" s="2">
         <v>41578</v>
       </c>
@@ -13132,8 +14340,12 @@
       <c r="M306" s="3">
         <v>2078.4499999999998</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="N306" s="8">
+        <f t="shared" si="4"/>
+        <v>-962.00000000000045</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" s="2">
         <v>41608</v>
       </c>
@@ -13173,8 +14385,12 @@
       <c r="M307" s="3">
         <v>2284.65</v>
       </c>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="N307" s="8">
+        <f t="shared" si="4"/>
+        <v>-1034</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" s="2">
         <v>41639</v>
       </c>
@@ -13214,8 +14430,12 @@
       <c r="M308" s="3">
         <v>2509.64</v>
       </c>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="N308" s="8">
+        <f t="shared" si="4"/>
+        <v>-1108</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" s="2">
         <v>41670</v>
       </c>
@@ -13255,8 +14475,12 @@
       <c r="M309" s="3">
         <v>229.19</v>
       </c>
-    </row>
-    <row r="310" spans="1:13">
+      <c r="N309" s="8">
+        <f t="shared" si="4"/>
+        <v>-150.66409999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" s="2">
         <v>41698</v>
       </c>
@@ -13296,8 +14520,12 @@
       <c r="M310" s="3">
         <v>459.6</v>
       </c>
-    </row>
-    <row r="311" spans="1:13">
+      <c r="N310" s="8">
+        <f t="shared" si="4"/>
+        <v>-190.41880000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" s="2">
         <v>41729</v>
       </c>
@@ -13337,8 +14565,12 @@
       <c r="M311" s="3">
         <v>703.4</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="N311" s="8">
+        <f t="shared" si="4"/>
+        <v>-153.30359999999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" s="2">
         <v>41759</v>
       </c>
@@ -13378,8 +14610,12 @@
       <c r="M312" s="3">
         <v>945</v>
       </c>
-    </row>
-    <row r="313" spans="1:13">
+      <c r="N312" s="8">
+        <f t="shared" si="4"/>
+        <v>-188.1925</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" s="2">
         <v>41790</v>
       </c>
@@ -13419,8 +14655,12 @@
       <c r="M313" s="3">
         <v>1190</v>
       </c>
-    </row>
-    <row r="314" spans="1:13">
+      <c r="N313" s="8">
+        <f t="shared" si="4"/>
+        <v>-147.42229999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" s="2">
         <v>41820</v>
       </c>
@@ -13460,8 +14700,12 @@
       <c r="M314" s="3">
         <v>1441.67</v>
       </c>
-    </row>
-    <row r="315" spans="1:13">
+      <c r="N314" s="8">
+        <f t="shared" si="4"/>
+        <v>-159.2675999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" s="2">
         <v>41851</v>
       </c>
@@ -13501,8 +14745,12 @@
       <c r="M315" s="3">
         <v>1698.53</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
+      <c r="N315" s="8">
+        <f t="shared" si="4"/>
+        <v>-73.924400000000105</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" s="2">
         <v>41882</v>
       </c>
@@ -13542,8 +14790,12 @@
       <c r="M316" s="3">
         <v>1972.83</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
+      <c r="N316" s="8">
+        <f t="shared" si="4"/>
+        <v>-53.65339999999992</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317" s="2">
         <v>41912</v>
       </c>
@@ -13583,8 +14835,12 @@
       <c r="M317" s="3">
         <v>2236</v>
       </c>
-    </row>
-    <row r="318" spans="1:13">
+      <c r="N317" s="8">
+        <f t="shared" si="4"/>
+        <v>-85.489300000000185</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" s="2">
         <v>41943</v>
       </c>
@@ -13624,8 +14880,12 @@
       <c r="M318" s="3">
         <v>2481.8000000000002</v>
       </c>
-    </row>
-    <row r="319" spans="1:13">
+      <c r="N318" s="8">
+        <f t="shared" si="4"/>
+        <v>0.78120000000035361</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319" s="2">
         <v>41973</v>
       </c>
@@ -13665,8 +14925,12 @@
       <c r="M319" s="3">
         <v>2727.9</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="N319" s="8">
+        <f t="shared" si="4"/>
+        <v>7.6293000000000575</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320" s="2">
         <v>42004</v>
       </c>
@@ -13706,8 +14970,12 @@
       <c r="M320" s="3">
         <v>3001</v>
       </c>
-    </row>
-    <row r="321" spans="1:13">
+      <c r="N320" s="8">
+        <f t="shared" si="4"/>
+        <v>-32.30560000000014</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321" s="2">
         <v>42035</v>
       </c>
@@ -13747,8 +15015,12 @@
       <c r="M321" s="3">
         <v>279.33</v>
       </c>
-    </row>
-    <row r="322" spans="1:13">
+      <c r="N321" s="8">
+        <f t="shared" si="4"/>
+        <v>-27.227899999999977</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322" s="2">
         <v>42063</v>
       </c>
@@ -13788,8 +15060,12 @@
       <c r="M322" s="3">
         <v>555.30999999999995</v>
       </c>
-    </row>
-    <row r="323" spans="1:13">
+      <c r="N322" s="8">
+        <f t="shared" si="4"/>
+        <v>-127.42419999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323" s="2">
         <v>42094</v>
       </c>
@@ -13829,8 +15105,12 @@
       <c r="M323" s="3">
         <v>866.8</v>
       </c>
-    </row>
-    <row r="324" spans="1:13">
+      <c r="N323" s="8">
+        <f t="shared" si="4"/>
+        <v>-131.78150000000005</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324" s="2">
         <v>42124</v>
       </c>
@@ -13870,8 +15150,12 @@
       <c r="M324" s="3">
         <v>1157.3</v>
       </c>
-    </row>
-    <row r="325" spans="1:13">
+      <c r="N324" s="8">
+        <f t="shared" si="4"/>
+        <v>-107.58240000000023</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325" s="2">
         <v>42155</v>
       </c>
@@ -13911,8 +15195,12 @@
       <c r="M325" s="3">
         <v>1458</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
+      <c r="N325" s="8">
+        <f t="shared" si="4"/>
+        <v>-95.890899999999874</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326" s="2">
         <v>42185</v>
       </c>
@@ -13952,8 +15240,12 @@
       <c r="M326" s="3">
         <v>1758.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:13">
+      <c r="N326" s="8">
+        <f t="shared" si="4"/>
+        <v>-100.39650000000006</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327" s="2">
         <v>42216</v>
       </c>
@@ -13993,8 +15285,12 @@
       <c r="M327" s="3">
         <v>2071.9</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
+      <c r="N327" s="8">
+        <f t="shared" si="4"/>
+        <v>-38.647600000000239</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328" s="2">
         <v>42247</v>
       </c>
@@ -14034,8 +15330,12 @@
       <c r="M328" s="3">
         <v>2384.4</v>
       </c>
-    </row>
-    <row r="329" spans="1:13">
+      <c r="N328" s="8">
+        <f t="shared" si="4"/>
+        <v>41.420700000000124</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329" s="2">
         <v>42277</v>
       </c>
@@ -14075,8 +15375,12 @@
       <c r="M329" s="3">
         <v>2692.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
+      <c r="N329" s="8">
+        <f t="shared" ref="N329:N392" si="5">E329-D329</f>
+        <v>125.94610000000011</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" s="2">
         <v>42308</v>
       </c>
@@ -14116,8 +15420,12 @@
       <c r="M330" s="3">
         <v>3010.2764999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
+      <c r="N330" s="8">
+        <f t="shared" si="5"/>
+        <v>254.89940000000024</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331" s="2">
         <v>42338</v>
       </c>
@@ -14157,8 +15465,12 @@
       <c r="M331" s="3">
         <v>3323.6</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="N331" s="8">
+        <f t="shared" si="5"/>
+        <v>477.39849999999979</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332" s="2">
         <v>42369</v>
       </c>
@@ -14198,8 +15510,12 @@
       <c r="M332" s="3">
         <v>3658.6244000000002</v>
       </c>
-    </row>
-    <row r="333" spans="1:13">
+      <c r="N332" s="8">
+        <f t="shared" si="5"/>
+        <v>625.69810000000007</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333" s="2">
         <v>42400</v>
       </c>
@@ -14239,8 +15555,12 @@
       <c r="M333" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:13">
+      <c r="N333" s="8">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334" s="2">
         <v>42429</v>
       </c>
@@ -14280,8 +15600,12 @@
       <c r="M334" s="3">
         <v>614.79999999999995</v>
       </c>
-    </row>
-    <row r="335" spans="1:13">
+      <c r="N334" s="8">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335" s="2">
         <v>42460</v>
       </c>
@@ -14321,8 +15645,12 @@
       <c r="M335" s="3">
         <v>947.48270000000002</v>
       </c>
-    </row>
-    <row r="336" spans="1:13">
+      <c r="N335" s="8">
+        <f t="shared" si="5"/>
+        <v>200.00000000000011</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
       <c r="A336" s="2">
         <v>42490</v>
       </c>
@@ -14362,8 +15690,12 @@
       <c r="M336" s="3">
         <v>1265.4000000000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:13">
+      <c r="N336" s="8">
+        <f t="shared" si="5"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
       <c r="A337" s="2">
         <v>42521</v>
       </c>
@@ -14403,8 +15735,12 @@
       <c r="M337" s="3">
         <v>1596.3</v>
       </c>
-    </row>
-    <row r="338" spans="1:13">
+      <c r="N337" s="8">
+        <f t="shared" si="5"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
       <c r="A338" s="2">
         <v>42551</v>
       </c>
@@ -14444,8 +15780,12 @@
       <c r="M338" s="3">
         <v>1928.7</v>
       </c>
-    </row>
-    <row r="339" spans="1:13">
+      <c r="N338" s="8">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
       <c r="A339" s="2">
         <v>42582</v>
       </c>
@@ -14485,8 +15825,12 @@
       <c r="M339" s="3">
         <v>2272.8000000000002</v>
       </c>
-    </row>
-    <row r="340" spans="1:13">
+      <c r="N339" s="8">
+        <f t="shared" si="5"/>
+        <v>848.00000000000023</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
       <c r="A340" s="2">
         <v>42613</v>
       </c>
@@ -14526,8 +15870,12 @@
       <c r="M340" s="3">
         <v>2618</v>
       </c>
-    </row>
-    <row r="341" spans="1:13">
+      <c r="N340" s="8">
+        <f t="shared" si="5"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
       <c r="A341" s="2">
         <v>42643</v>
       </c>
@@ -14567,8 +15915,12 @@
       <c r="M341" s="3">
         <v>2945.9</v>
       </c>
-    </row>
-    <row r="342" spans="1:13">
+      <c r="N341" s="8">
+        <f t="shared" si="5"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342" s="2">
         <v>42674</v>
       </c>
@@ -14608,8 +15960,12 @@
       <c r="M342" s="3">
         <v>3298.3</v>
       </c>
-    </row>
-    <row r="343" spans="1:13">
+      <c r="N342" s="8">
+        <f t="shared" si="5"/>
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
       <c r="A343" s="2">
         <v>42704</v>
       </c>
@@ -14649,8 +16005,12 @@
       <c r="M343" s="3">
         <v>3644.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:13">
+      <c r="N343" s="8">
+        <f t="shared" si="5"/>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
       <c r="A344" s="2">
         <v>42735</v>
       </c>
@@ -14690,8 +16050,12 @@
       <c r="M344" s="3">
         <v>3983.8</v>
       </c>
-    </row>
-    <row r="345" spans="1:13">
+      <c r="N344" s="8">
+        <f t="shared" si="5"/>
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
       <c r="A345" s="2">
         <v>42766</v>
       </c>
@@ -14731,8 +16095,12 @@
       <c r="M345" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:13">
+      <c r="N345" s="8">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
       <c r="A346" s="2">
         <v>42794</v>
       </c>
@@ -14772,8 +16140,12 @@
       <c r="M346" s="3">
         <v>687.4</v>
       </c>
-    </row>
-    <row r="347" spans="1:13">
+      <c r="N346" s="8">
+        <f t="shared" si="5"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
       <c r="A347" s="2">
         <v>42825</v>
       </c>
@@ -14813,8 +16185,12 @@
       <c r="M347" s="3">
         <v>1036.4000000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:13">
+      <c r="N347" s="8">
+        <f t="shared" si="5"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
       <c r="A348" s="2">
         <v>42855</v>
       </c>
@@ -14854,8 +16230,12 @@
       <c r="M348" s="3">
         <v>1361.5</v>
       </c>
-    </row>
-    <row r="349" spans="1:13">
+      <c r="N348" s="8">
+        <f t="shared" si="5"/>
+        <v>526.99999999999989</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
       <c r="A349" s="2">
         <v>42886</v>
       </c>
@@ -14895,8 +16275,12 @@
       <c r="M349" s="3">
         <v>1699.8</v>
       </c>
-    </row>
-    <row r="350" spans="1:13">
+      <c r="N349" s="8">
+        <f t="shared" si="5"/>
+        <v>677.99999999999977</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
       <c r="A350" s="2">
         <v>42916</v>
       </c>
@@ -14936,8 +16320,12 @@
       <c r="M350" s="3">
         <v>2042</v>
       </c>
-    </row>
-    <row r="351" spans="1:13">
+      <c r="N350" s="8">
+        <f t="shared" si="5"/>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
       <c r="A351" s="2">
         <v>42947</v>
       </c>
@@ -14977,8 +16365,12 @@
       <c r="M351" s="3">
         <v>2387.9</v>
       </c>
-    </row>
-    <row r="352" spans="1:13">
+      <c r="N351" s="8">
+        <f t="shared" si="5"/>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
       <c r="A352" s="2">
         <v>42978</v>
       </c>
@@ -15018,8 +16410,12 @@
       <c r="M352" s="3">
         <v>2751.4</v>
       </c>
-    </row>
-    <row r="353" spans="1:13">
+      <c r="N352" s="8">
+        <f t="shared" si="5"/>
+        <v>1270.0000000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
       <c r="A353" s="2">
         <v>43008</v>
       </c>
@@ -15059,8 +16455,12 @@
       <c r="M353" s="3">
         <v>3140.7</v>
       </c>
-    </row>
-    <row r="354" spans="1:13">
+      <c r="N353" s="8">
+        <f t="shared" si="5"/>
+        <v>1421.9999999999995</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354" s="2">
         <v>43039</v>
       </c>
@@ -15100,8 +16500,12 @@
       <c r="M354" s="3">
         <v>3524.4</v>
       </c>
-    </row>
-    <row r="355" spans="1:13">
+      <c r="N354" s="8">
+        <f t="shared" si="5"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
       <c r="A355" s="2">
         <v>43069</v>
       </c>
@@ -15141,8 +16545,12 @@
       <c r="M355" s="3">
         <v>3883.7</v>
       </c>
-    </row>
-    <row r="356" spans="1:13">
+      <c r="N355" s="8">
+        <f t="shared" si="5"/>
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356" s="2">
         <v>43100</v>
       </c>
@@ -15182,8 +16590,12 @@
       <c r="M356" s="3">
         <v>4230.8999999999996</v>
       </c>
-    </row>
-    <row r="357" spans="1:13">
+      <c r="N356" s="8">
+        <f t="shared" si="5"/>
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
       <c r="A357" s="2">
         <v>43131</v>
       </c>
@@ -15223,8 +16635,12 @@
       <c r="M357" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:13">
+      <c r="N357" s="8">
+        <f t="shared" si="5"/>
+        <v>125.00000000000006</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
       <c r="A358" s="2">
         <v>43159</v>
       </c>
@@ -15264,8 +16680,12 @@
       <c r="M358" s="3">
         <v>706.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:13">
+      <c r="N358" s="8">
+        <f t="shared" si="5"/>
+        <v>212.00000000000011</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
       <c r="A359" s="2">
         <v>43190</v>
       </c>
@@ -15305,8 +16725,12 @@
       <c r="M359" s="3">
         <v>1149.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:13">
+      <c r="N359" s="8">
+        <f t="shared" si="5"/>
+        <v>605.99999999999989</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
       <c r="A360" s="2">
         <v>43220</v>
       </c>
@@ -15346,8 +16770,12 @@
       <c r="M360" s="3">
         <v>1535.7</v>
       </c>
-    </row>
-    <row r="361" spans="1:13">
+      <c r="N360" s="8">
+        <f t="shared" si="5"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
       <c r="A361" s="2">
         <v>43251</v>
       </c>
@@ -15387,8 +16815,12 @@
       <c r="M361" s="3">
         <v>1943.2</v>
       </c>
-    </row>
-    <row r="362" spans="1:13">
+      <c r="N361" s="8">
+        <f t="shared" si="5"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
       <c r="A362" s="2">
         <v>43281</v>
       </c>
@@ -15428,8 +16860,12 @@
       <c r="M362" s="3">
         <v>2347.3000000000002</v>
       </c>
-    </row>
-    <row r="363" spans="1:13">
+      <c r="N362" s="8">
+        <f t="shared" si="5"/>
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
       <c r="A363" s="2">
         <v>43312</v>
       </c>
@@ -15469,8 +16905,12 @@
       <c r="M363" s="3">
         <v>2761.1</v>
       </c>
-    </row>
-    <row r="364" spans="1:13">
+      <c r="N363" s="8">
+        <f t="shared" si="5"/>
+        <v>1575.0000000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
       <c r="A364" s="2">
         <v>43343</v>
       </c>
@@ -15510,8 +16950,12 @@
       <c r="M364" s="3">
         <v>3172.4</v>
       </c>
-    </row>
-    <row r="365" spans="1:13">
+      <c r="N364" s="8">
+        <f t="shared" si="5"/>
+        <v>1836.9999999999995</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
       <c r="A365" s="2">
         <v>43373</v>
       </c>
@@ -15551,8 +16995,12 @@
       <c r="M365" s="3">
         <v>3591.4</v>
       </c>
-    </row>
-    <row r="366" spans="1:13">
+      <c r="N365" s="8">
+        <f t="shared" si="5"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
       <c r="A366" s="2">
         <v>43404</v>
       </c>
@@ -15592,8 +17040,12 @@
       <c r="M366" s="3">
         <v>3985.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:13">
+      <c r="N366" s="8">
+        <f t="shared" si="5"/>
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
       <c r="A367" s="2">
         <v>43434</v>
       </c>
@@ -15633,8 +17085,12 @@
       <c r="M367" s="3">
         <v>4370</v>
       </c>
-    </row>
-    <row r="368" spans="1:13">
+      <c r="N367" s="8">
+        <f t="shared" si="5"/>
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
       <c r="A368" s="2">
         <v>43465</v>
       </c>
@@ -15674,8 +17130,12 @@
       <c r="M368" s="3">
         <v>4770.3</v>
       </c>
-    </row>
-    <row r="369" spans="1:13">
+      <c r="N368" s="8">
+        <f t="shared" si="5"/>
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
       <c r="A369" s="2">
         <v>43496</v>
       </c>
@@ -15715,8 +17175,12 @@
       <c r="M369" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:13">
+      <c r="N369" s="8">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370" s="2">
         <v>43524</v>
       </c>
@@ -15756,8 +17220,12 @@
       <c r="M370" s="3">
         <v>796</v>
       </c>
-    </row>
-    <row r="371" spans="1:13">
+      <c r="N370" s="8">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
       <c r="A371" s="2">
         <v>43555</v>
       </c>
@@ -15797,8 +17265,12 @@
       <c r="M371" s="3">
         <v>1218.5999999999999</v>
       </c>
-    </row>
-    <row r="372" spans="1:13">
+      <c r="N371" s="8">
+        <f t="shared" si="5"/>
+        <v>771.00000000000011</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
       <c r="A372" s="2">
         <v>43585</v>
       </c>
@@ -15838,8 +17310,12 @@
       <c r="M372" s="3">
         <v>1637.7</v>
       </c>
-    </row>
-    <row r="373" spans="1:13">
+      <c r="N372" s="8">
+        <f t="shared" si="5"/>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
       <c r="A373" s="2">
         <v>43616</v>
       </c>
@@ -15879,8 +17355,12 @@
       <c r="M373" s="3">
         <v>2065.3000000000002</v>
       </c>
-    </row>
-    <row r="374" spans="1:13">
+      <c r="N373" s="8">
+        <f t="shared" si="5"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
       <c r="A374" s="2">
         <v>43646</v>
       </c>
@@ -15920,8 +17400,12 @@
       <c r="M374" s="3">
         <v>2509.8000000000002</v>
       </c>
-    </row>
-    <row r="375" spans="1:13">
+      <c r="N374" s="8">
+        <f t="shared" si="5"/>
+        <v>1574.0000000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
       <c r="A375" s="2">
         <v>43677</v>
       </c>
@@ -15961,8 +17445,12 @@
       <c r="M375" s="3">
         <v>2954.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:13">
+      <c r="N375" s="8">
+        <f t="shared" si="5"/>
+        <v>1959.9999999999993</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
       <c r="A376" s="2">
         <v>43708</v>
       </c>
@@ -16002,8 +17490,12 @@
       <c r="M376" s="3">
         <v>3429.5</v>
       </c>
-    </row>
-    <row r="377" spans="1:13">
+      <c r="N376" s="8">
+        <f t="shared" si="5"/>
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
       <c r="A377" s="2">
         <v>43738</v>
       </c>
@@ -16043,8 +17535,12 @@
       <c r="M377" s="3">
         <v>3903</v>
       </c>
-    </row>
-    <row r="378" spans="1:13">
+      <c r="N377" s="8">
+        <f t="shared" si="5"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
       <c r="A378" s="2">
         <v>43769</v>
       </c>
@@ -16084,8 +17580,12 @@
       <c r="M378" s="3">
         <v>4375.1000000000004</v>
       </c>
-    </row>
-    <row r="379" spans="1:13">
+      <c r="N378" s="8">
+        <f t="shared" si="5"/>
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
       <c r="A379" s="2">
         <v>43799</v>
       </c>
@@ -16125,8 +17625,12 @@
       <c r="M379" s="3">
         <v>4825</v>
       </c>
-    </row>
-    <row r="380" spans="1:13">
+      <c r="N379" s="8">
+        <f t="shared" si="5"/>
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
       <c r="A380" s="2">
         <v>43830</v>
       </c>
@@ -16166,8 +17670,12 @@
       <c r="M380" s="3">
         <v>5272.6</v>
       </c>
-    </row>
-    <row r="381" spans="1:13">
+      <c r="N380" s="8">
+        <f t="shared" si="5"/>
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
       <c r="A381" s="2">
         <v>43861</v>
       </c>
@@ -16207,8 +17715,12 @@
       <c r="M381" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:13">
+      <c r="N381" s="8">
+        <f t="shared" si="5"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
       <c r="A382" s="2">
         <v>43890</v>
       </c>
@@ -16248,8 +17760,12 @@
       <c r="M382" s="3">
         <v>761</v>
       </c>
-    </row>
-    <row r="383" spans="1:13">
+      <c r="N382" s="8">
+        <f t="shared" si="5"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
       <c r="A383" s="2">
         <v>43921</v>
       </c>
@@ -16289,8 +17805,12 @@
       <c r="M383" s="3">
         <v>1048.9000000000001</v>
       </c>
-    </row>
-    <row r="384" spans="1:13">
+      <c r="N383" s="8">
+        <f t="shared" si="5"/>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
       <c r="A384" s="2">
         <v>43951</v>
       </c>
@@ -16330,8 +17850,12 @@
       <c r="M384" s="3">
         <v>1291.3</v>
       </c>
-    </row>
-    <row r="385" spans="1:13">
+      <c r="N384" s="8">
+        <f t="shared" si="5"/>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385" s="2">
         <v>43982</v>
       </c>
@@ -16371,8 +17895,12 @@
       <c r="M385" s="3">
         <v>1580.7</v>
       </c>
-    </row>
-    <row r="386" spans="1:13">
+      <c r="N385" s="8">
+        <f t="shared" si="5"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
       <c r="A386" s="2">
         <v>44012</v>
       </c>
@@ -16412,8 +17940,12 @@
       <c r="M386" s="3">
         <v>1895.8</v>
       </c>
-    </row>
-    <row r="387" spans="1:13">
+      <c r="N386" s="8">
+        <f t="shared" si="5"/>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
       <c r="A387" s="2">
         <v>44043</v>
       </c>
@@ -16453,8 +17985,12 @@
       <c r="M387" s="3">
         <v>2227.9</v>
       </c>
-    </row>
-    <row r="388" spans="1:13">
+      <c r="N387" s="8">
+        <f t="shared" si="5"/>
+        <v>1815.0000000000005</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
       <c r="A388" s="2">
         <v>44074</v>
       </c>
@@ -16494,8 +18030,12 @@
       <c r="M388" s="3">
         <v>2570.1</v>
       </c>
-    </row>
-    <row r="389" spans="1:13">
+      <c r="N388" s="8">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
       <c r="A389" s="2">
         <v>44104</v>
       </c>
@@ -16535,8 +18075,12 @@
       <c r="M389" s="3">
         <v>2931.7</v>
       </c>
-    </row>
-    <row r="390" spans="1:13">
+      <c r="N389" s="8">
+        <f t="shared" si="5"/>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
       <c r="A390" s="2">
         <v>44135</v>
       </c>
@@ -16576,8 +18120,12 @@
       <c r="M390" s="3">
         <v>3306.3</v>
       </c>
-    </row>
-    <row r="391" spans="1:13">
+      <c r="N390" s="8">
+        <f t="shared" si="5"/>
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
       <c r="A391" s="2">
         <v>44165</v>
       </c>
@@ -16617,8 +18165,12 @@
       <c r="M391" s="3">
         <v>3674.2</v>
       </c>
-    </row>
-    <row r="392" spans="1:13">
+      <c r="N391" s="8">
+        <f t="shared" si="5"/>
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
       <c r="A392" s="2">
         <v>44196</v>
       </c>
@@ -16658,8 +18210,12 @@
       <c r="M392" s="3">
         <v>4049.4</v>
       </c>
-    </row>
-    <row r="393" spans="1:13">
+      <c r="N392" s="8">
+        <f t="shared" si="5"/>
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
       <c r="A393" s="2">
         <v>44227</v>
       </c>
@@ -16699,8 +18255,12 @@
       <c r="M393" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:13">
+      <c r="N393" s="8">
+        <f t="shared" ref="N393:N425" si="6">E393-D393</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
       <c r="A394" s="2">
         <v>44255</v>
       </c>
@@ -16740,8 +18300,12 @@
       <c r="M394" s="3">
         <v>681.8</v>
       </c>
-    </row>
-    <row r="395" spans="1:13">
+      <c r="N394" s="8">
+        <f t="shared" si="6"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
       <c r="A395" s="2">
         <v>44286</v>
       </c>
@@ -16781,8 +18345,12 @@
       <c r="M395" s="3">
         <v>1045.7</v>
       </c>
-    </row>
-    <row r="396" spans="1:13">
+      <c r="N395" s="8">
+        <f t="shared" si="6"/>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
       <c r="A396" s="2">
         <v>44316</v>
       </c>
@@ -16822,8 +18390,12 @@
       <c r="M396" s="3">
         <v>1439.6</v>
       </c>
-    </row>
-    <row r="397" spans="1:13">
+      <c r="N396" s="8">
+        <f t="shared" si="6"/>
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
       <c r="A397" s="2">
         <v>44347</v>
       </c>
@@ -16863,8 +18435,12 @@
       <c r="M397" s="3">
         <v>1871.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:13">
+      <c r="N397" s="8">
+        <f t="shared" si="6"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
       <c r="A398" s="2">
         <v>44377</v>
       </c>
@@ -16904,8 +18480,12 @@
       <c r="M398" s="3">
         <v>2283.4</v>
       </c>
-    </row>
-    <row r="399" spans="1:13">
+      <c r="N398" s="8">
+        <f t="shared" si="6"/>
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
       <c r="A399" s="2">
         <v>44408</v>
       </c>
@@ -16945,8 +18525,12 @@
       <c r="M399" s="3">
         <v>2632.6</v>
       </c>
-    </row>
-    <row r="400" spans="1:13">
+      <c r="N399" s="8">
+        <f t="shared" si="6"/>
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
       <c r="A400" s="2">
         <v>44439</v>
       </c>
@@ -16986,8 +18570,12 @@
       <c r="M400" s="3">
         <v>2912.6</v>
       </c>
-    </row>
-    <row r="401" spans="1:13">
+      <c r="N400" s="8">
+        <f t="shared" si="6"/>
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16">
       <c r="A401" s="2">
         <v>44469</v>
       </c>
@@ -17027,8 +18615,12 @@
       <c r="M401" s="3">
         <v>3219.5</v>
       </c>
-    </row>
-    <row r="402" spans="1:13">
+      <c r="N401" s="8">
+        <f t="shared" si="6"/>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16">
       <c r="A402" s="2">
         <v>44500</v>
       </c>
@@ -17068,8 +18660,12 @@
       <c r="M402" s="3">
         <v>3528.2</v>
       </c>
-    </row>
-    <row r="403" spans="1:13">
+      <c r="N402" s="8">
+        <f t="shared" si="6"/>
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16">
       <c r="A403" s="2">
         <v>44530</v>
       </c>
@@ -17109,8 +18705,12 @@
       <c r="M403" s="3">
         <v>3754.6</v>
       </c>
-    </row>
-    <row r="404" spans="1:13">
+      <c r="N403" s="8">
+        <f t="shared" si="6"/>
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16">
       <c r="A404" s="2">
         <v>44561</v>
       </c>
@@ -17150,8 +18750,12 @@
       <c r="M404" s="3">
         <v>3943.9</v>
       </c>
-    </row>
-    <row r="405" spans="1:13">
+      <c r="N404" s="8">
+        <f t="shared" si="6"/>
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16">
       <c r="A405" s="2">
         <v>44592</v>
       </c>
@@ -17191,8 +18795,12 @@
       <c r="M405" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:13">
+      <c r="N405" s="8">
+        <f t="shared" si="6"/>
+        <v>148.00000000000006</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16">
       <c r="A406" s="2">
         <v>44620</v>
       </c>
@@ -17232,8 +18840,12 @@
       <c r="M406" s="3">
         <v>556.29999999999995</v>
       </c>
-    </row>
-    <row r="407" spans="1:13">
+      <c r="N406" s="8">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16">
       <c r="A407" s="2">
         <v>44651</v>
       </c>
@@ -17273,8 +18885,12 @@
       <c r="M407" s="3">
         <v>819</v>
       </c>
-    </row>
-    <row r="408" spans="1:13">
+      <c r="N407" s="8">
+        <f t="shared" si="6"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16">
       <c r="A408" s="2">
         <v>44681</v>
       </c>
@@ -17314,8 +18930,12 @@
       <c r="M408" s="3">
         <v>994</v>
       </c>
-    </row>
-    <row r="409" spans="1:13">
+      <c r="N408" s="8">
+        <f t="shared" si="6"/>
+        <v>719.99999999999977</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16">
       <c r="A409" s="2">
         <v>44712</v>
       </c>
@@ -17355,8 +18975,12 @@
       <c r="M409" s="3">
         <v>1146.2</v>
       </c>
-    </row>
-    <row r="410" spans="1:13">
+      <c r="N409" s="8">
+        <f t="shared" si="6"/>
+        <v>847.00000000000011</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16">
       <c r="A410" s="2">
         <v>44742</v>
       </c>
@@ -17396,8 +19020,12 @@
       <c r="M410" s="3">
         <v>1357.8</v>
       </c>
-    </row>
-    <row r="411" spans="1:13">
+      <c r="N410" s="8">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16">
       <c r="A411" s="2">
         <v>44773</v>
       </c>
@@ -17437,8 +19065,12 @@
       <c r="M411" s="3">
         <v>1605.1</v>
       </c>
-    </row>
-    <row r="412" spans="1:13">
+      <c r="N411" s="8">
+        <f t="shared" si="6"/>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16">
       <c r="A412" s="2">
         <v>44804</v>
       </c>
@@ -17478,8 +19110,12 @@
       <c r="M412" s="3">
         <v>1891.6</v>
       </c>
-    </row>
-    <row r="413" spans="1:13">
+      <c r="N412" s="8">
+        <f t="shared" si="6"/>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16">
       <c r="A413" s="2">
         <v>44834</v>
       </c>
@@ -17519,8 +19155,12 @@
       <c r="M413" s="3">
         <v>2138.1999999999998</v>
       </c>
-    </row>
-    <row r="414" spans="1:13">
+      <c r="N413" s="8">
+        <f t="shared" si="6"/>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16">
       <c r="A414" s="2">
         <v>44865</v>
       </c>
@@ -17560,8 +19200,14 @@
       <c r="M414" s="3">
         <v>2381.6999999999998</v>
       </c>
-    </row>
-    <row r="415" spans="1:13">
+      <c r="N414" s="8">
+        <f t="shared" si="6"/>
+        <v>2000.0000000000005</v>
+      </c>
+      <c r="O414" s="3"/>
+      <c r="P414" s="10"/>
+    </row>
+    <row r="415" spans="1:16">
       <c r="A415" s="2">
         <v>44895</v>
       </c>
@@ -17601,8 +19247,12 @@
       <c r="M415" s="3">
         <v>2681.5</v>
       </c>
-    </row>
-    <row r="416" spans="1:13">
+      <c r="N415" s="8">
+        <f t="shared" si="6"/>
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16">
       <c r="A416" s="2">
         <v>44926</v>
       </c>
@@ -17642,8 +19292,12 @@
       <c r="M416" s="3">
         <v>2949.1</v>
       </c>
-    </row>
-    <row r="417" spans="1:13">
+      <c r="N416" s="8">
+        <f t="shared" si="6"/>
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15">
       <c r="A417" s="2">
         <v>44957</v>
       </c>
@@ -17683,8 +19337,12 @@
       <c r="M417" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:13">
+      <c r="N417" s="8">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15">
       <c r="A418" s="2">
         <v>44985</v>
       </c>
@@ -17724,8 +19382,12 @@
       <c r="M418" s="3">
         <v>694.5</v>
       </c>
-    </row>
-    <row r="419" spans="1:13">
+      <c r="N418" s="8">
+        <f t="shared" si="6"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15">
       <c r="A419" s="2">
         <v>45016</v>
       </c>
@@ -17765,8 +19427,12 @@
       <c r="M419" s="3">
         <v>1072.9000000000001</v>
       </c>
-    </row>
-    <row r="420" spans="1:13">
+      <c r="N419" s="8">
+        <f t="shared" si="6"/>
+        <v>894.99999999999989</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15">
       <c r="A420" s="2">
         <v>45046</v>
       </c>
@@ -17806,8 +19472,12 @@
       <c r="M420" s="3">
         <v>1426.3</v>
       </c>
-    </row>
-    <row r="421" spans="1:13">
+      <c r="N420" s="8">
+        <f t="shared" si="6"/>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15">
       <c r="A421" s="2">
         <v>45077</v>
       </c>
@@ -17847,8 +19517,12 @@
       <c r="M421" s="3">
         <v>1819.9</v>
       </c>
-    </row>
-    <row r="422" spans="1:13">
+      <c r="N421" s="8">
+        <f t="shared" si="6"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15">
       <c r="A422" s="2">
         <v>45107</v>
       </c>
@@ -17888,8 +19562,12 @@
       <c r="M422" s="3">
         <v>2219</v>
       </c>
-    </row>
-    <row r="423" spans="1:13">
+      <c r="N422" s="8">
+        <f t="shared" si="6"/>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15">
       <c r="A423" s="2">
         <v>45138</v>
       </c>
@@ -17929,8 +19607,12 @@
       <c r="M423" s="3">
         <v>2713.7</v>
       </c>
-    </row>
-    <row r="424" spans="1:13">
+      <c r="N423" s="8">
+        <f t="shared" si="6"/>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15">
       <c r="A424" s="2">
         <v>45169</v>
       </c>
@@ -17970,8 +19652,12 @@
       <c r="M424" s="3">
         <v>3223.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:13">
+      <c r="N424" s="8">
+        <f t="shared" si="6"/>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15">
       <c r="A425" s="2">
         <v>45199</v>
       </c>
@@ -17979,38 +19665,112 @@
         <v>15672</v>
       </c>
       <c r="C425" s="3">
-        <v>42426.5</v>
+        <v>42426</v>
       </c>
       <c r="D425" s="3">
-        <v>3470.1</v>
+        <v>3470</v>
       </c>
       <c r="E425" s="3">
-        <v>4793.5999999999995</v>
+        <v>4794</v>
       </c>
       <c r="F425" s="3">
-        <v>0</v>
+        <v>1220.335513</v>
       </c>
       <c r="G425" s="3">
-        <v>1704</v>
+        <v>1703.7</v>
       </c>
       <c r="H425" s="3">
-        <v>554840000</v>
+        <v>554835000</v>
       </c>
       <c r="I425" s="3">
-        <v>0</v>
+        <v>344215</v>
       </c>
       <c r="J425" s="3">
         <v>4214</v>
       </c>
       <c r="K425" s="3">
-        <v>0</v>
+        <v>12146.9</v>
       </c>
       <c r="L425" s="3">
-        <v>0</v>
+        <v>16222.8</v>
       </c>
       <c r="M425" s="3">
-        <v>0</v>
-      </c>
+        <v>3709.2</v>
+      </c>
+      <c r="N425" s="8">
+        <f t="shared" si="6"/>
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15">
+      <c r="A426" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B426" s="3">
+        <v>17405</v>
+      </c>
+      <c r="C426" s="3">
+        <v>47321.799999999996</v>
+      </c>
+      <c r="D426" s="3">
+        <v>3884.8</v>
+      </c>
+      <c r="E426" s="3">
+        <v>5309.4000000000005</v>
+      </c>
+      <c r="F426" s="3">
+        <v>1341.9630903667191</v>
+      </c>
+      <c r="G426" s="3">
+        <v>1896</v>
+      </c>
+      <c r="H426" s="3">
+        <v>618760000</v>
+      </c>
+      <c r="I426" s="3">
+        <v>382922</v>
+      </c>
+      <c r="J426" s="3">
+        <v>3599.2</v>
+      </c>
+      <c r="K426" s="3">
+        <v>0</v>
+      </c>
+      <c r="L426" s="3">
+        <v>0</v>
+      </c>
+      <c r="M426" s="3">
+        <v>0</v>
+      </c>
+      <c r="N426" s="8">
+        <f>E426-D426</f>
+        <v>1424.6000000000004</v>
+      </c>
+      <c r="O426" s="9"/>
+    </row>
+    <row r="429" spans="1:15">
+      <c r="B429" s="7"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+      <c r="E429" s="7"/>
+      <c r="F429" s="7"/>
+      <c r="G429" s="7"/>
+      <c r="H429" s="7"/>
+      <c r="I429" s="7"/>
+      <c r="J429" s="7"/>
+      <c r="N429" s="7"/>
+    </row>
+    <row r="430" spans="1:15">
+      <c r="B430" s="8"/>
+      <c r="C430" s="8"/>
+      <c r="D430" s="8"/>
+      <c r="E430" s="8"/>
+      <c r="F430" s="8"/>
+      <c r="G430" s="8"/>
+      <c r="H430" s="8"/>
+      <c r="I430" s="8"/>
+      <c r="J430" s="8"/>
+      <c r="N430" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADA31B-7C3A-42B3-A996-21E19B4F8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68D027-F30B-4949-8746-D35B027E16A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -173,40 +173,34 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2023-09</t>
-  </si>
-  <si>
-    <t>1995-01:2023-09</t>
-  </si>
-  <si>
-    <t>1989-01:2023-09</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
     <t>1989-02:2023-10</t>
   </si>
   <si>
     <t>1995-01:2023-10</t>
   </si>
   <si>
-    <t>2003-07:2023-10</t>
+    <t>1989-02:2023-11</t>
   </si>
   <si>
-    <t>1989-01:2023-10</t>
+    <t>1995-01:2023-11</t>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>2003-07:2023-11</t>
   </si>
   <si>
-    <t>2023-11-07</t>
+    <t>1989-01:2023-11</t>
   </si>
   <si>
-    <t>2023-10-23</t>
+    <t>2023-12-15</t>
   </si>
   <si>
-    <t>2023-10-19</t>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -217,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -273,19 +267,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,20 +620,20 @@
   <dimension ref="A1:P430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B412" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F412" sqref="F412"/>
+      <selection pane="bottomRight" activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -648,291 +642,291 @@
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="174">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:14" ht="195">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="K8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="L8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="M8" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -975,7 +969,7 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="5">
         <f t="shared" ref="N9:N72" si="0">E9-D9</f>
         <v>0</v>
       </c>
@@ -1020,7 +1014,7 @@
       <c r="M10" s="3">
         <v>64.8</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1065,7 +1059,7 @@
       <c r="M11" s="3">
         <v>100.8</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1110,7 +1104,7 @@
       <c r="M12" s="3">
         <v>132.6</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1155,7 +1149,7 @@
       <c r="M13" s="3">
         <v>164.5</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1200,7 +1194,7 @@
       <c r="M14" s="3">
         <v>198.1</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1245,7 +1239,7 @@
       <c r="M15" s="3">
         <v>232.3</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1290,7 +1284,7 @@
       <c r="M16" s="3">
         <v>269.2</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1335,7 +1329,7 @@
       <c r="M17" s="3">
         <v>300.60000000000002</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1380,7 +1374,7 @@
       <c r="M18" s="3">
         <v>333.9</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1425,7 +1419,7 @@
       <c r="M19" s="3">
         <v>368.3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1470,7 +1464,7 @@
       <c r="M20" s="3">
         <v>395.2</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1515,7 +1509,7 @@
       <c r="M21" s="3">
         <v>31</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1560,7 +1554,7 @@
       <c r="M22" s="3">
         <v>56.6</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1605,7 +1599,7 @@
       <c r="M23" s="3">
         <v>92.2</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1650,7 +1644,7 @@
       <c r="M24" s="3">
         <v>128.69999999999999</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1695,7 +1689,7 @@
       <c r="M25" s="3">
         <v>168</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1740,7 +1734,7 @@
       <c r="M26" s="3">
         <v>202.8</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1785,7 +1779,7 @@
       <c r="M27" s="3">
         <v>242.2</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1830,7 +1824,7 @@
       <c r="M28" s="3">
         <v>276.5</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1875,7 +1869,7 @@
       <c r="M29" s="3">
         <v>306.2</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1920,7 +1914,7 @@
       <c r="M30" s="3">
         <v>336.3</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1965,7 +1959,7 @@
       <c r="M31" s="3">
         <v>362.2</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2010,7 +2004,7 @@
       <c r="M32" s="3">
         <v>384.5</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2055,7 +2049,7 @@
       <c r="M33" s="3">
         <v>32.6</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2100,7 +2094,7 @@
       <c r="M34" s="3">
         <v>61.1</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2145,7 +2139,7 @@
       <c r="M35" s="3">
         <v>96.2</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2190,7 +2184,7 @@
       <c r="M36" s="3">
         <v>126.4</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2235,7 +2229,7 @@
       <c r="M37" s="3">
         <v>158.80000000000001</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2280,7 +2274,7 @@
       <c r="M38" s="3">
         <v>196</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2325,7 +2319,7 @@
       <c r="M39" s="3">
         <v>231.8</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2370,7 +2364,7 @@
       <c r="M40" s="3">
         <v>267.60000000000002</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2415,7 +2409,7 @@
       <c r="M41" s="3">
         <v>301.5</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2460,7 +2454,7 @@
       <c r="M42" s="3">
         <v>339.4</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2505,7 +2499,7 @@
       <c r="M43" s="3">
         <v>375.1</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2550,7 +2544,7 @@
       <c r="M44" s="3">
         <v>398.41</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2595,7 +2589,7 @@
       <c r="M45" s="3">
         <v>28.2</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2640,7 +2634,7 @@
       <c r="M46" s="3">
         <v>62.8</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2685,7 +2679,7 @@
       <c r="M47" s="3">
         <v>99.5</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2730,7 +2724,7 @@
       <c r="M48" s="3">
         <v>147.5</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2775,7 +2769,7 @@
       <c r="M49" s="3">
         <v>177.8</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2820,7 +2814,7 @@
       <c r="M50" s="3">
         <v>209.5</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2865,7 +2859,7 @@
       <c r="M51" s="3">
         <v>243.2</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2910,7 +2904,7 @@
       <c r="M52" s="3">
         <v>279.5</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2955,7 +2949,7 @@
       <c r="M53" s="3">
         <v>310</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3000,7 +2994,7 @@
       <c r="M54" s="3">
         <v>341.5</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3045,7 +3039,7 @@
       <c r="M55" s="3">
         <v>371.5</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3090,7 +3084,7 @@
       <c r="M56" s="3">
         <v>395.9</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3135,7 +3129,7 @@
       <c r="M57" s="3">
         <v>32</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3180,7 +3174,7 @@
       <c r="M58" s="3">
         <v>59.6</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3225,7 +3219,7 @@
       <c r="M59" s="3">
         <v>89.3</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3270,7 +3264,7 @@
       <c r="M60" s="3">
         <v>117.4</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3315,7 +3309,7 @@
       <c r="M61" s="3">
         <v>151.1</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3360,7 +3354,7 @@
       <c r="M62" s="3">
         <v>181.8</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3405,7 +3399,7 @@
       <c r="M63" s="3">
         <v>214.5</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3450,7 +3444,7 @@
       <c r="M64" s="3">
         <v>244.8</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3495,7 +3489,7 @@
       <c r="M65" s="3">
         <v>274.2</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3540,7 +3534,7 @@
       <c r="M66" s="3">
         <v>308.89999999999998</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3585,7 +3579,7 @@
       <c r="M67" s="3">
         <v>343.6</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3630,7 +3624,7 @@
       <c r="M68" s="3">
         <v>373.3</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3675,7 +3669,7 @@
       <c r="M69" s="3">
         <v>34.4</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N69" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3720,7 +3714,7 @@
       <c r="M70" s="3">
         <v>71.89</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3765,7 +3759,7 @@
       <c r="M71" s="3">
         <v>115.41</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N71" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3810,7 +3804,7 @@
       <c r="M72" s="3">
         <v>153.88999999999999</v>
       </c>
-      <c r="N72" s="8">
+      <c r="N72" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3855,7 +3849,7 @@
       <c r="M73" s="3">
         <v>190.93</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N73" s="5">
         <f t="shared" ref="N73:N136" si="1">E73-D73</f>
         <v>0</v>
       </c>
@@ -3900,7 +3894,7 @@
       <c r="M74" s="3">
         <v>228.5</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3945,7 +3939,7 @@
       <c r="M75" s="3">
         <v>267.49</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N75" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3990,7 +3984,7 @@
       <c r="M76" s="3">
         <v>305.77</v>
       </c>
-      <c r="N76" s="8">
+      <c r="N76" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4035,7 +4029,7 @@
       <c r="M77" s="3">
         <v>334.77</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4080,7 +4074,7 @@
       <c r="M78" s="3">
         <v>368.17</v>
       </c>
-      <c r="N78" s="8">
+      <c r="N78" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4125,7 +4119,7 @@
       <c r="M79" s="3">
         <v>400.64</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N79" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4170,7 +4164,7 @@
       <c r="M80" s="3">
         <v>433.42</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N80" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4215,7 +4209,7 @@
       <c r="M81" s="3">
         <v>35.24</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N81" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4260,7 +4254,7 @@
       <c r="M82" s="3">
         <v>66.83</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4305,7 +4299,7 @@
       <c r="M83" s="3">
         <v>98.49</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4350,7 +4344,7 @@
       <c r="M84" s="3">
         <v>131.31</v>
       </c>
-      <c r="N84" s="8">
+      <c r="N84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4395,7 +4389,7 @@
       <c r="M85" s="3">
         <v>166.7</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4440,7 +4434,7 @@
       <c r="M86" s="3">
         <v>201.44</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4485,7 +4479,7 @@
       <c r="M87" s="3">
         <v>239.13</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N87" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4530,7 +4524,7 @@
       <c r="M88" s="3">
         <v>279.62</v>
       </c>
-      <c r="N88" s="8">
+      <c r="N88" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4575,7 +4569,7 @@
       <c r="M89" s="3">
         <v>318.99</v>
       </c>
-      <c r="N89" s="8">
+      <c r="N89" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4620,7 +4614,7 @@
       <c r="M90" s="3">
         <v>357.96</v>
       </c>
-      <c r="N90" s="8">
+      <c r="N90" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4665,7 +4659,7 @@
       <c r="M91" s="3">
         <v>398.71</v>
       </c>
-      <c r="N91" s="8">
+      <c r="N91" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4710,7 +4704,7 @@
       <c r="M92" s="3">
         <v>435.32</v>
       </c>
-      <c r="N92" s="8">
+      <c r="N92" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4755,7 +4749,7 @@
       <c r="M93" s="3">
         <v>37.39</v>
       </c>
-      <c r="N93" s="8">
+      <c r="N93" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4800,7 +4794,7 @@
       <c r="M94" s="3">
         <v>77.87</v>
       </c>
-      <c r="N94" s="8">
+      <c r="N94" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4845,7 +4839,7 @@
       <c r="M95" s="3">
         <v>116.65</v>
       </c>
-      <c r="N95" s="8">
+      <c r="N95" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4890,7 +4884,7 @@
       <c r="M96" s="3">
         <v>158.09</v>
       </c>
-      <c r="N96" s="8">
+      <c r="N96" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4935,7 +4929,7 @@
       <c r="M97" s="3">
         <v>207.18</v>
       </c>
-      <c r="N97" s="8">
+      <c r="N97" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4980,7 +4974,7 @@
       <c r="M98" s="3">
         <v>257.3</v>
       </c>
-      <c r="N98" s="8">
+      <c r="N98" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5025,7 +5019,7 @@
       <c r="M99" s="3">
         <v>297.32</v>
       </c>
-      <c r="N99" s="8">
+      <c r="N99" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5070,7 +5064,7 @@
       <c r="M100" s="3">
         <v>343.02</v>
       </c>
-      <c r="N100" s="8">
+      <c r="N100" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5115,7 +5109,7 @@
       <c r="M101" s="3">
         <v>388.04</v>
       </c>
-      <c r="N101" s="8">
+      <c r="N101" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5160,7 +5154,7 @@
       <c r="M102" s="3">
         <v>436.75</v>
       </c>
-      <c r="N102" s="8">
+      <c r="N102" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5205,7 +5199,7 @@
       <c r="M103" s="3">
         <v>482.99</v>
       </c>
-      <c r="N103" s="8">
+      <c r="N103" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5250,7 +5244,7 @@
       <c r="M104" s="3">
         <v>529.17999999999995</v>
       </c>
-      <c r="N104" s="8">
+      <c r="N104" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5295,7 +5289,7 @@
       <c r="M105" s="3">
         <v>42.33</v>
       </c>
-      <c r="N105" s="8">
+      <c r="N105" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5340,7 +5334,7 @@
       <c r="M106" s="3">
         <v>102.04</v>
       </c>
-      <c r="N106" s="8">
+      <c r="N106" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5385,7 +5379,7 @@
       <c r="M107" s="3">
         <v>126.12</v>
       </c>
-      <c r="N107" s="8">
+      <c r="N107" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5430,7 +5424,7 @@
       <c r="M108" s="3">
         <v>171.34</v>
       </c>
-      <c r="N108" s="8">
+      <c r="N108" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5475,7 +5469,7 @@
       <c r="M109" s="3">
         <v>217.64</v>
       </c>
-      <c r="N109" s="8">
+      <c r="N109" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5520,7 +5514,7 @@
       <c r="M110" s="3">
         <v>265.24</v>
       </c>
-      <c r="N110" s="8">
+      <c r="N110" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5565,7 +5559,7 @@
       <c r="M111" s="3">
         <v>310.98</v>
       </c>
-      <c r="N111" s="8">
+      <c r="N111" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5610,7 +5604,7 @@
       <c r="M112" s="3">
         <v>361.3</v>
       </c>
-      <c r="N112" s="8">
+      <c r="N112" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5655,7 +5649,7 @@
       <c r="M113" s="3">
         <v>415.32</v>
       </c>
-      <c r="N113" s="8">
+      <c r="N113" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5700,7 +5694,7 @@
       <c r="M114" s="3">
         <v>472.1</v>
       </c>
-      <c r="N114" s="8">
+      <c r="N114" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5745,7 +5739,7 @@
       <c r="M115" s="3">
         <v>523.80999999999995</v>
       </c>
-      <c r="N115" s="8">
+      <c r="N115" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5790,7 +5784,7 @@
       <c r="M116" s="3">
         <v>573.69000000000005</v>
       </c>
-      <c r="N116" s="8">
+      <c r="N116" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5835,7 +5829,7 @@
       <c r="M117" s="3">
         <v>48.25</v>
       </c>
-      <c r="N117" s="8">
+      <c r="N117" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5880,7 +5874,7 @@
       <c r="M118" s="3">
         <v>99.69</v>
       </c>
-      <c r="N118" s="8">
+      <c r="N118" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5925,7 +5919,7 @@
       <c r="M119" s="3">
         <v>154.71</v>
       </c>
-      <c r="N119" s="8">
+      <c r="N119" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5970,7 +5964,7 @@
       <c r="M120" s="3">
         <v>206.84</v>
       </c>
-      <c r="N120" s="8">
+      <c r="N120" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6015,7 +6009,7 @@
       <c r="M121" s="3">
         <v>260.62</v>
       </c>
-      <c r="N121" s="8">
+      <c r="N121" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6060,7 +6054,7 @@
       <c r="M122" s="3">
         <v>311.55</v>
       </c>
-      <c r="N122" s="8">
+      <c r="N122" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6105,7 +6099,7 @@
       <c r="M123" s="3">
         <v>359.08</v>
       </c>
-      <c r="N123" s="8">
+      <c r="N123" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6150,7 +6144,7 @@
       <c r="M124" s="3">
         <v>406.54</v>
       </c>
-      <c r="N124" s="8">
+      <c r="N124" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6195,7 +6189,7 @@
       <c r="M125" s="3">
         <v>456.86</v>
       </c>
-      <c r="N125" s="8">
+      <c r="N125" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6240,7 +6234,7 @@
       <c r="M126" s="3">
         <v>511.41</v>
       </c>
-      <c r="N126" s="8">
+      <c r="N126" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6285,7 +6279,7 @@
       <c r="M127" s="3">
         <v>567.95000000000005</v>
       </c>
-      <c r="N127" s="8">
+      <c r="N127" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6330,7 +6324,7 @@
       <c r="M128" s="3">
         <v>574.89</v>
       </c>
-      <c r="N128" s="8">
+      <c r="N128" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6375,7 +6369,7 @@
       <c r="M129" s="3">
         <v>43.3</v>
       </c>
-      <c r="N129" s="8">
+      <c r="N129" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6420,7 +6414,7 @@
       <c r="M130" s="3">
         <v>95.9</v>
       </c>
-      <c r="N130" s="8">
+      <c r="N130" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6465,7 +6459,7 @@
       <c r="M131" s="3">
         <v>147.26</v>
       </c>
-      <c r="N131" s="8">
+      <c r="N131" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6510,7 +6504,7 @@
       <c r="M132" s="3">
         <v>208.29</v>
       </c>
-      <c r="N132" s="8">
+      <c r="N132" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6555,7 +6549,7 @@
       <c r="M133" s="3">
         <v>262.04000000000002</v>
       </c>
-      <c r="N133" s="8">
+      <c r="N133" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6600,7 +6594,7 @@
       <c r="M134" s="3">
         <v>326.48</v>
       </c>
-      <c r="N134" s="8">
+      <c r="N134" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6645,7 +6639,7 @@
       <c r="M135" s="3">
         <v>390.93</v>
       </c>
-      <c r="N135" s="8">
+      <c r="N135" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6690,7 +6684,7 @@
       <c r="M136" s="3">
         <v>461.82</v>
       </c>
-      <c r="N136" s="8">
+      <c r="N136" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6735,7 +6729,7 @@
       <c r="M137" s="3">
         <v>529.01</v>
       </c>
-      <c r="N137" s="8">
+      <c r="N137" s="5">
         <f t="shared" ref="N137:N200" si="2">E137-D137</f>
         <v>0</v>
       </c>
@@ -6780,7 +6774,7 @@
       <c r="M138" s="3">
         <v>606.17999999999995</v>
       </c>
-      <c r="N138" s="8">
+      <c r="N138" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6825,7 +6819,7 @@
       <c r="M139" s="3">
         <v>670.21</v>
       </c>
-      <c r="N139" s="8">
+      <c r="N139" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6870,7 +6864,7 @@
       <c r="M140" s="3">
         <v>719.46</v>
       </c>
-      <c r="N140" s="8">
+      <c r="N140" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6915,7 +6909,7 @@
       <c r="M141" s="3">
         <v>52.55</v>
       </c>
-      <c r="N141" s="8">
+      <c r="N141" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6960,7 +6954,7 @@
       <c r="M142" s="3">
         <v>113.48</v>
       </c>
-      <c r="N142" s="8">
+      <c r="N142" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7005,7 +6999,7 @@
       <c r="M143" s="3">
         <v>205.46</v>
       </c>
-      <c r="N143" s="8">
+      <c r="N143" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7050,7 +7044,7 @@
       <c r="M144" s="3">
         <v>283.3</v>
       </c>
-      <c r="N144" s="8">
+      <c r="N144" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7095,7 +7089,7 @@
       <c r="M145" s="3">
         <v>358.82</v>
       </c>
-      <c r="N145" s="8">
+      <c r="N145" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7140,7 +7134,7 @@
       <c r="M146" s="3">
         <v>437.63</v>
       </c>
-      <c r="N146" s="8">
+      <c r="N146" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7185,7 +7179,7 @@
       <c r="M147" s="3">
         <v>511.06</v>
       </c>
-      <c r="N147" s="8">
+      <c r="N147" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7230,7 +7224,7 @@
       <c r="M148" s="3">
         <v>583.04999999999995</v>
       </c>
-      <c r="N148" s="8">
+      <c r="N148" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7275,7 +7269,7 @@
       <c r="M149" s="3">
         <v>655.44</v>
       </c>
-      <c r="N149" s="8">
+      <c r="N149" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7320,7 +7314,7 @@
       <c r="M150" s="3">
         <v>727.93</v>
       </c>
-      <c r="N150" s="8">
+      <c r="N150" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7365,7 +7359,7 @@
       <c r="M151" s="3">
         <v>800.24</v>
       </c>
-      <c r="N151" s="8">
+      <c r="N151" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7410,7 +7404,7 @@
       <c r="M152" s="3">
         <v>872.29</v>
       </c>
-      <c r="N152" s="8">
+      <c r="N152" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7455,7 +7449,7 @@
       <c r="M153" s="3">
         <v>61.52</v>
       </c>
-      <c r="N153" s="8">
+      <c r="N153" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7500,7 +7494,7 @@
       <c r="M154" s="3">
         <v>120.01</v>
       </c>
-      <c r="N154" s="8">
+      <c r="N154" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7545,7 +7539,7 @@
       <c r="M155" s="3">
         <v>182.29</v>
       </c>
-      <c r="N155" s="8">
+      <c r="N155" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7590,7 +7584,7 @@
       <c r="M156" s="3">
         <v>244.62</v>
       </c>
-      <c r="N156" s="8">
+      <c r="N156" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7635,7 +7629,7 @@
       <c r="M157" s="3">
         <v>316.52</v>
       </c>
-      <c r="N157" s="8">
+      <c r="N157" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7680,7 +7674,7 @@
       <c r="M158" s="3">
         <v>389.45</v>
       </c>
-      <c r="N158" s="8">
+      <c r="N158" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7725,7 +7719,7 @@
       <c r="M159" s="3">
         <v>458.77</v>
       </c>
-      <c r="N159" s="8">
+      <c r="N159" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7770,7 +7764,7 @@
       <c r="M160" s="3">
         <v>526.63</v>
       </c>
-      <c r="N160" s="8">
+      <c r="N160" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7815,7 +7809,7 @@
       <c r="M161" s="3">
         <v>590.41</v>
       </c>
-      <c r="N161" s="8">
+      <c r="N161" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7860,7 +7854,7 @@
       <c r="M162" s="3">
         <v>662.82</v>
       </c>
-      <c r="N162" s="8">
+      <c r="N162" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7905,7 +7899,7 @@
       <c r="M163" s="3">
         <v>733.46</v>
       </c>
-      <c r="N163" s="8">
+      <c r="N163" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7950,7 +7944,7 @@
       <c r="M164" s="3">
         <v>789.35</v>
       </c>
-      <c r="N164" s="8">
+      <c r="N164" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7995,7 +7989,7 @@
       <c r="M165" s="3">
         <v>55.38</v>
       </c>
-      <c r="N165" s="8">
+      <c r="N165" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8040,7 +8034,7 @@
       <c r="M166" s="3">
         <v>117.58</v>
       </c>
-      <c r="N166" s="8">
+      <c r="N166" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8085,7 +8079,7 @@
       <c r="M167" s="3">
         <v>183.15</v>
       </c>
-      <c r="N167" s="8">
+      <c r="N167" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8130,7 +8124,7 @@
       <c r="M168" s="3">
         <v>254.8</v>
       </c>
-      <c r="N168" s="8">
+      <c r="N168" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8175,7 +8169,7 @@
       <c r="M169" s="3">
         <v>326.97000000000003</v>
       </c>
-      <c r="N169" s="8">
+      <c r="N169" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8220,7 +8214,7 @@
       <c r="M170" s="3">
         <v>403.11</v>
       </c>
-      <c r="N170" s="8">
+      <c r="N170" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8265,7 +8259,7 @@
       <c r="M171" s="3">
         <v>468.52</v>
       </c>
-      <c r="N171" s="8">
+      <c r="N171" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8310,7 +8304,7 @@
       <c r="M172" s="3">
         <v>537.79999999999995</v>
       </c>
-      <c r="N172" s="8">
+      <c r="N172" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8355,7 +8349,7 @@
       <c r="M173" s="3">
         <v>603.20000000000005</v>
       </c>
-      <c r="N173" s="8">
+      <c r="N173" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8400,7 +8394,7 @@
       <c r="M174" s="3">
         <v>681.31</v>
       </c>
-      <c r="N174" s="8">
+      <c r="N174" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8445,7 +8439,7 @@
       <c r="M175" s="3">
         <v>763.78</v>
       </c>
-      <c r="N175" s="8">
+      <c r="N175" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8490,7 +8484,7 @@
       <c r="M176" s="3">
         <v>826.11</v>
       </c>
-      <c r="N176" s="8">
+      <c r="N176" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8535,7 +8529,7 @@
       <c r="M177" s="3">
         <v>74.16</v>
       </c>
-      <c r="N177" s="8">
+      <c r="N177" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8580,7 +8574,7 @@
       <c r="M178" s="3">
         <v>152.63999999999999</v>
       </c>
-      <c r="N178" s="8">
+      <c r="N178" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8625,7 +8619,7 @@
       <c r="M179" s="3">
         <v>229.92</v>
       </c>
-      <c r="N179" s="8">
+      <c r="N179" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8670,7 +8664,7 @@
       <c r="M180" s="3">
         <v>301.97000000000003</v>
       </c>
-      <c r="N180" s="8">
+      <c r="N180" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8715,7 +8709,7 @@
       <c r="M181" s="3">
         <v>354.95</v>
       </c>
-      <c r="N181" s="8">
+      <c r="N181" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8760,7 +8754,7 @@
       <c r="M182" s="3">
         <v>402.3</v>
       </c>
-      <c r="N182" s="8">
+      <c r="N182" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8805,7 +8799,7 @@
       <c r="M183" s="3">
         <v>464.4</v>
       </c>
-      <c r="N183" s="8">
+      <c r="N183" s="5">
         <f t="shared" si="2"/>
         <v>-750.00000000000023</v>
       </c>
@@ -8850,7 +8844,7 @@
       <c r="M184" s="3">
         <v>543.72</v>
       </c>
-      <c r="N184" s="8">
+      <c r="N184" s="5">
         <f t="shared" si="2"/>
         <v>-929.99999999999977</v>
       </c>
@@ -8895,7 +8889,7 @@
       <c r="M185" s="3">
         <v>625.41</v>
       </c>
-      <c r="N185" s="8">
+      <c r="N185" s="5">
         <f t="shared" si="2"/>
         <v>-1105</v>
       </c>
@@ -8940,7 +8934,7 @@
       <c r="M186" s="3">
         <v>708.38</v>
       </c>
-      <c r="N186" s="8">
+      <c r="N186" s="5">
         <f t="shared" si="2"/>
         <v>-1226</v>
       </c>
@@ -8985,7 +8979,7 @@
       <c r="M187" s="3">
         <v>783.52</v>
       </c>
-      <c r="N187" s="8">
+      <c r="N187" s="5">
         <f t="shared" si="2"/>
         <v>-1346</v>
       </c>
@@ -9030,7 +9024,7 @@
       <c r="M188" s="3">
         <v>855.3</v>
       </c>
-      <c r="N188" s="8">
+      <c r="N188" s="5">
         <f t="shared" si="2"/>
         <v>-1442</v>
       </c>
@@ -9075,7 +9069,7 @@
       <c r="M189" s="3">
         <v>79.56</v>
       </c>
-      <c r="N189" s="8">
+      <c r="N189" s="5">
         <f t="shared" si="2"/>
         <v>-203</v>
       </c>
@@ -9120,7 +9114,7 @@
       <c r="M190" s="3">
         <v>160.25</v>
       </c>
-      <c r="N190" s="8">
+      <c r="N190" s="5">
         <f t="shared" si="2"/>
         <v>-399</v>
       </c>
@@ -9165,7 +9159,7 @@
       <c r="M191" s="3">
         <v>236.9</v>
       </c>
-      <c r="N191" s="8">
+      <c r="N191" s="5">
         <f t="shared" si="2"/>
         <v>-598</v>
       </c>
@@ -9210,7 +9204,7 @@
       <c r="M192" s="3">
         <v>305.8</v>
       </c>
-      <c r="N192" s="8">
+      <c r="N192" s="5">
         <f t="shared" si="2"/>
         <v>-946</v>
       </c>
@@ -9255,7 +9249,7 @@
       <c r="M193" s="3">
         <v>382.78</v>
       </c>
-      <c r="N193" s="8">
+      <c r="N193" s="5">
         <f t="shared" si="2"/>
         <v>-1186</v>
       </c>
@@ -9300,7 +9294,7 @@
       <c r="M194" s="3">
         <v>465.21</v>
       </c>
-      <c r="N194" s="8">
+      <c r="N194" s="5">
         <f t="shared" si="2"/>
         <v>-1475.0000000000002</v>
       </c>
@@ -9345,7 +9339,7 @@
       <c r="M195" s="3">
         <v>545.9</v>
       </c>
-      <c r="N195" s="8">
+      <c r="N195" s="5">
         <f t="shared" si="2"/>
         <v>-1661</v>
       </c>
@@ -9390,7 +9384,7 @@
       <c r="M196" s="3">
         <v>624.79</v>
       </c>
-      <c r="N196" s="8">
+      <c r="N196" s="5">
         <f t="shared" si="2"/>
         <v>-1796</v>
       </c>
@@ -9435,7 +9429,7 @@
       <c r="M197" s="3">
         <v>711.4</v>
       </c>
-      <c r="N197" s="8">
+      <c r="N197" s="5">
         <f t="shared" si="2"/>
         <v>-1945</v>
       </c>
@@ -9480,7 +9474,7 @@
       <c r="M198" s="3">
         <v>802.76</v>
       </c>
-      <c r="N198" s="8">
+      <c r="N198" s="5">
         <f t="shared" si="2"/>
         <v>-2140.9999999999995</v>
       </c>
@@ -9525,7 +9519,7 @@
       <c r="M199" s="3">
         <v>883.95</v>
       </c>
-      <c r="N199" s="8">
+      <c r="N199" s="5">
         <f t="shared" si="2"/>
         <v>-2436</v>
       </c>
@@ -9570,7 +9564,7 @@
       <c r="M200" s="3">
         <v>970.75</v>
       </c>
-      <c r="N200" s="8">
+      <c r="N200" s="5">
         <f t="shared" si="2"/>
         <v>-2642</v>
       </c>
@@ -9615,7 +9609,7 @@
       <c r="M201" s="3">
         <v>80.66</v>
       </c>
-      <c r="N201" s="8">
+      <c r="N201" s="5">
         <f t="shared" ref="N201:N264" si="3">E201-D201</f>
         <v>-227</v>
       </c>
@@ -9660,7 +9654,7 @@
       <c r="M202" s="3">
         <v>160.16</v>
       </c>
-      <c r="N202" s="8">
+      <c r="N202" s="5">
         <f t="shared" si="3"/>
         <v>-379</v>
       </c>
@@ -9705,7 +9699,7 @@
       <c r="M203" s="3">
         <v>253.43</v>
       </c>
-      <c r="N203" s="8">
+      <c r="N203" s="5">
         <f t="shared" si="3"/>
         <v>-491</v>
       </c>
@@ -9750,7 +9744,7 @@
       <c r="M204" s="3">
         <v>335.7</v>
       </c>
-      <c r="N204" s="8">
+      <c r="N204" s="5">
         <f t="shared" si="3"/>
         <v>-601</v>
       </c>
@@ -9795,7 +9789,7 @@
       <c r="M205" s="3">
         <v>417</v>
       </c>
-      <c r="N205" s="8">
+      <c r="N205" s="5">
         <f t="shared" si="3"/>
         <v>-635</v>
       </c>
@@ -9840,7 +9834,7 @@
       <c r="M206" s="3">
         <v>500.06</v>
       </c>
-      <c r="N206" s="8">
+      <c r="N206" s="5">
         <f t="shared" si="3"/>
         <v>-816.00000000000011</v>
       </c>
@@ -9885,7 +9879,7 @@
       <c r="M207" s="3">
         <v>590.44000000000005</v>
       </c>
-      <c r="N207" s="8">
+      <c r="N207" s="5">
         <f t="shared" si="3"/>
         <v>-930.00000000000023</v>
       </c>
@@ -9930,7 +9924,7 @@
       <c r="M208" s="3">
         <v>688.7</v>
       </c>
-      <c r="N208" s="8">
+      <c r="N208" s="5">
         <f t="shared" si="3"/>
         <v>-1001</v>
       </c>
@@ -9975,7 +9969,7 @@
       <c r="M209" s="3">
         <v>771.3</v>
       </c>
-      <c r="N209" s="8">
+      <c r="N209" s="5">
         <f t="shared" si="3"/>
         <v>-1169</v>
       </c>
@@ -10020,7 +10014,7 @@
       <c r="M210" s="3">
         <v>846.99</v>
       </c>
-      <c r="N210" s="8">
+      <c r="N210" s="5">
         <f t="shared" si="3"/>
         <v>-1358</v>
       </c>
@@ -10065,7 +10059,7 @@
       <c r="M211" s="3">
         <v>919.97</v>
       </c>
-      <c r="N211" s="8">
+      <c r="N211" s="5">
         <f t="shared" si="3"/>
         <v>-1523</v>
       </c>
@@ -10110,7 +10104,7 @@
       <c r="M212" s="3">
         <v>988.59</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="5">
         <f t="shared" si="3"/>
         <v>-1741.9999999999995</v>
       </c>
@@ -10155,7 +10149,7 @@
       <c r="M213" s="3">
         <v>101.21</v>
       </c>
-      <c r="N213" s="8">
+      <c r="N213" s="5">
         <f t="shared" si="3"/>
         <v>-167</v>
       </c>
@@ -10200,7 +10194,7 @@
       <c r="M214" s="3">
         <v>175.81</v>
       </c>
-      <c r="N214" s="8">
+      <c r="N214" s="5">
         <f t="shared" si="3"/>
         <v>-305</v>
       </c>
@@ -10245,7 +10239,7 @@
       <c r="M215" s="3">
         <v>252.03</v>
       </c>
-      <c r="N215" s="8">
+      <c r="N215" s="5">
         <f t="shared" si="3"/>
         <v>-497</v>
       </c>
@@ -10290,7 +10284,7 @@
       <c r="M216" s="3">
         <v>313.49</v>
       </c>
-      <c r="N216" s="8">
+      <c r="N216" s="5">
         <f t="shared" si="3"/>
         <v>-696</v>
       </c>
@@ -10335,7 +10329,7 @@
       <c r="M217" s="3">
         <v>404.73</v>
       </c>
-      <c r="N217" s="8">
+      <c r="N217" s="5">
         <f t="shared" si="3"/>
         <v>-886</v>
       </c>
@@ -10380,7 +10374,7 @@
       <c r="M218" s="3">
         <v>484.23</v>
       </c>
-      <c r="N218" s="8">
+      <c r="N218" s="5">
         <f t="shared" si="3"/>
         <v>-1202.9999999999998</v>
       </c>
@@ -10425,7 +10419,7 @@
       <c r="M219" s="3">
         <v>566.25</v>
       </c>
-      <c r="N219" s="8">
+      <c r="N219" s="5">
         <f t="shared" si="3"/>
         <v>-1485</v>
       </c>
@@ -10470,7 +10464,7 @@
       <c r="M220" s="3">
         <v>647.92999999999995</v>
       </c>
-      <c r="N220" s="8">
+      <c r="N220" s="5">
         <f t="shared" si="3"/>
         <v>-1755</v>
       </c>
@@ -10515,7 +10509,7 @@
       <c r="M221" s="3">
         <v>731.52</v>
       </c>
-      <c r="N221" s="8">
+      <c r="N221" s="5">
         <f t="shared" si="3"/>
         <v>-2005</v>
       </c>
@@ -10560,7 +10554,7 @@
       <c r="M222" s="3">
         <v>813.87</v>
       </c>
-      <c r="N222" s="8">
+      <c r="N222" s="5">
         <f t="shared" si="3"/>
         <v>-2187</v>
       </c>
@@ -10605,7 +10599,7 @@
       <c r="M223" s="3">
         <v>885.41</v>
       </c>
-      <c r="N223" s="8">
+      <c r="N223" s="5">
         <f t="shared" si="3"/>
         <v>-2305.0000000000005</v>
       </c>
@@ -10650,7 +10644,7 @@
       <c r="M224" s="3">
         <v>959.95</v>
       </c>
-      <c r="N224" s="8">
+      <c r="N224" s="5">
         <f t="shared" si="3"/>
         <v>-2402.9999999999995</v>
       </c>
@@ -10695,7 +10689,7 @@
       <c r="M225" s="3">
         <v>76.48</v>
       </c>
-      <c r="N225" s="8">
+      <c r="N225" s="5">
         <f t="shared" si="3"/>
         <v>-184</v>
       </c>
@@ -10740,7 +10734,7 @@
       <c r="M226" s="3">
         <v>162.13</v>
       </c>
-      <c r="N226" s="8">
+      <c r="N226" s="5">
         <f t="shared" si="3"/>
         <v>-271</v>
       </c>
@@ -10785,7 +10779,7 @@
       <c r="M227" s="3">
         <v>253.72</v>
       </c>
-      <c r="N227" s="8">
+      <c r="N227" s="5">
         <f t="shared" si="3"/>
         <v>-415</v>
       </c>
@@ -10830,7 +10824,7 @@
       <c r="M228" s="3">
         <v>346.69</v>
       </c>
-      <c r="N228" s="8">
+      <c r="N228" s="5">
         <f t="shared" si="3"/>
         <v>-637</v>
       </c>
@@ -10875,7 +10869,7 @@
       <c r="M229" s="3">
         <v>451.97</v>
       </c>
-      <c r="N229" s="8">
+      <c r="N229" s="5">
         <f t="shared" si="3"/>
         <v>-832</v>
       </c>
@@ -10920,7 +10914,7 @@
       <c r="M230" s="3">
         <v>552.1</v>
       </c>
-      <c r="N230" s="8">
+      <c r="N230" s="5">
         <f t="shared" si="3"/>
         <v>-1014.0000000000001</v>
       </c>
@@ -10965,7 +10959,7 @@
       <c r="M231" s="3">
         <v>660.58</v>
       </c>
-      <c r="N231" s="8">
+      <c r="N231" s="5">
         <f t="shared" si="3"/>
         <v>-1276</v>
       </c>
@@ -11010,7 +11004,7 @@
       <c r="M232" s="3">
         <v>768.36</v>
       </c>
-      <c r="N232" s="8">
+      <c r="N232" s="5">
         <f t="shared" si="3"/>
         <v>-1400</v>
       </c>
@@ -11055,7 +11049,7 @@
       <c r="M233" s="3">
         <v>866.96</v>
       </c>
-      <c r="N233" s="8">
+      <c r="N233" s="5">
         <f t="shared" si="3"/>
         <v>-1498</v>
       </c>
@@ -11100,7 +11094,7 @@
       <c r="M234" s="3">
         <v>969.27</v>
       </c>
-      <c r="N234" s="8">
+      <c r="N234" s="5">
         <f t="shared" si="3"/>
         <v>-1603</v>
       </c>
@@ -11145,7 +11139,7 @@
       <c r="M235" s="3">
         <v>1061.73</v>
       </c>
-      <c r="N235" s="8">
+      <c r="N235" s="5">
         <f t="shared" si="3"/>
         <v>-1685</v>
       </c>
@@ -11190,7 +11184,7 @@
       <c r="M236" s="3">
         <v>1153.27</v>
       </c>
-      <c r="N236" s="8">
+      <c r="N236" s="5">
         <f t="shared" si="3"/>
         <v>-1829</v>
       </c>
@@ -11235,7 +11229,7 @@
       <c r="M237" s="3">
         <v>95.93</v>
       </c>
-      <c r="N237" s="8">
+      <c r="N237" s="5">
         <f t="shared" si="3"/>
         <v>-202</v>
       </c>
@@ -11280,7 +11274,7 @@
       <c r="M238" s="3">
         <v>193.24</v>
       </c>
-      <c r="N238" s="8">
+      <c r="N238" s="5">
         <f t="shared" si="3"/>
         <v>-352</v>
       </c>
@@ -11325,7 +11319,7 @@
       <c r="M239" s="3">
         <v>302.73</v>
       </c>
-      <c r="N239" s="8">
+      <c r="N239" s="5">
         <f t="shared" si="3"/>
         <v>-547</v>
       </c>
@@ -11370,7 +11364,7 @@
       <c r="M240" s="3">
         <v>402</v>
       </c>
-      <c r="N240" s="8">
+      <c r="N240" s="5">
         <f t="shared" si="3"/>
         <v>-784</v>
       </c>
@@ -11415,7 +11409,7 @@
       <c r="M241" s="3">
         <v>493.06</v>
       </c>
-      <c r="N241" s="8">
+      <c r="N241" s="5">
         <f t="shared" si="3"/>
         <v>-1086</v>
       </c>
@@ -11460,7 +11454,7 @@
       <c r="M242" s="3">
         <v>585.66999999999996</v>
       </c>
-      <c r="N242" s="8">
+      <c r="N242" s="5">
         <f t="shared" si="3"/>
         <v>-1313</v>
       </c>
@@ -11505,7 +11499,7 @@
       <c r="M243" s="3">
         <v>674.02</v>
       </c>
-      <c r="N243" s="8">
+      <c r="N243" s="5">
         <f t="shared" si="3"/>
         <v>-1586</v>
       </c>
@@ -11550,7 +11544,7 @@
       <c r="M244" s="3">
         <v>766.73</v>
       </c>
-      <c r="N244" s="8">
+      <c r="N244" s="5">
         <f t="shared" si="3"/>
         <v>-1779</v>
       </c>
@@ -11595,7 +11589,7 @@
       <c r="M245" s="3">
         <v>868.98</v>
       </c>
-      <c r="N245" s="8">
+      <c r="N245" s="5">
         <f t="shared" si="3"/>
         <v>-1898</v>
       </c>
@@ -11640,7 +11634,7 @@
       <c r="M246" s="3">
         <v>977.61</v>
       </c>
-      <c r="N246" s="8">
+      <c r="N246" s="5">
         <f t="shared" si="3"/>
         <v>-1952</v>
       </c>
@@ -11685,7 +11679,7 @@
       <c r="M247" s="3">
         <v>1074.3</v>
       </c>
-      <c r="N247" s="8">
+      <c r="N247" s="5">
         <f t="shared" si="3"/>
         <v>-2020.0000000000005</v>
       </c>
@@ -11730,7 +11724,7 @@
       <c r="M248" s="3">
         <v>1165.3699999999999</v>
       </c>
-      <c r="N248" s="8">
+      <c r="N248" s="5">
         <f t="shared" si="3"/>
         <v>-2181.9999999999995</v>
       </c>
@@ -11775,7 +11769,7 @@
       <c r="M249" s="3">
         <v>89.95</v>
       </c>
-      <c r="N249" s="8">
+      <c r="N249" s="5">
         <f t="shared" si="3"/>
         <v>-126.00000000000001</v>
       </c>
@@ -11820,7 +11814,7 @@
       <c r="M250" s="3">
         <v>187.62</v>
       </c>
-      <c r="N250" s="8">
+      <c r="N250" s="5">
         <f t="shared" si="3"/>
         <v>-314</v>
       </c>
@@ -11865,7 +11859,7 @@
       <c r="M251" s="3">
         <v>301.62</v>
       </c>
-      <c r="N251" s="8">
+      <c r="N251" s="5">
         <f t="shared" si="3"/>
         <v>-479</v>
       </c>
@@ -11910,7 +11904,7 @@
       <c r="M252" s="3">
         <v>409.46</v>
       </c>
-      <c r="N252" s="8">
+      <c r="N252" s="5">
         <f t="shared" si="3"/>
         <v>-641</v>
       </c>
@@ -11955,7 +11949,7 @@
       <c r="M253" s="3">
         <v>527.75</v>
       </c>
-      <c r="N253" s="8">
+      <c r="N253" s="5">
         <f t="shared" si="3"/>
         <v>-804</v>
       </c>
@@ -12000,7 +11994,7 @@
       <c r="M254" s="3">
         <v>657.69</v>
       </c>
-      <c r="N254" s="8">
+      <c r="N254" s="5">
         <f t="shared" si="3"/>
         <v>-915</v>
       </c>
@@ -12045,7 +12039,7 @@
       <c r="M255" s="3">
         <v>793.08</v>
       </c>
-      <c r="N255" s="8">
+      <c r="N255" s="5">
         <f t="shared" si="3"/>
         <v>-1082</v>
       </c>
@@ -12090,7 +12084,7 @@
       <c r="M256" s="3">
         <v>933.51</v>
       </c>
-      <c r="N256" s="8">
+      <c r="N256" s="5">
         <f t="shared" si="3"/>
         <v>-1114</v>
       </c>
@@ -12135,7 +12129,7 @@
       <c r="M257" s="3">
         <v>1077.07</v>
       </c>
-      <c r="N257" s="8">
+      <c r="N257" s="5">
         <f t="shared" si="3"/>
         <v>-1186</v>
       </c>
@@ -12180,7 +12174,7 @@
       <c r="M258" s="3">
         <v>1213.03</v>
       </c>
-      <c r="N258" s="8">
+      <c r="N258" s="5">
         <f t="shared" si="3"/>
         <v>-1215</v>
       </c>
@@ -12225,7 +12219,7 @@
       <c r="M259" s="3">
         <v>1343.15</v>
       </c>
-      <c r="N259" s="8">
+      <c r="N259" s="5">
         <f t="shared" si="3"/>
         <v>-1230</v>
       </c>
@@ -12270,7 +12264,7 @@
       <c r="M260" s="3">
         <v>1479.43</v>
       </c>
-      <c r="N260" s="8">
+      <c r="N260" s="5">
         <f t="shared" si="3"/>
         <v>-1192</v>
       </c>
@@ -12315,7 +12309,7 @@
       <c r="M261" s="3">
         <v>134.76859999999999</v>
       </c>
-      <c r="N261" s="8">
+      <c r="N261" s="5">
         <f t="shared" si="3"/>
         <v>15.999999999999972</v>
       </c>
@@ -12360,7 +12354,7 @@
       <c r="M262" s="3">
         <v>263.39999999999998</v>
       </c>
-      <c r="N262" s="8">
+      <c r="N262" s="5">
         <f t="shared" si="3"/>
         <v>-113</v>
       </c>
@@ -12405,7 +12399,7 @@
       <c r="M263" s="3">
         <v>402.9</v>
       </c>
-      <c r="N263" s="8">
+      <c r="N263" s="5">
         <f t="shared" si="3"/>
         <v>-171</v>
       </c>
@@ -12450,7 +12444,7 @@
       <c r="M264" s="3">
         <v>549.5</v>
       </c>
-      <c r="N264" s="8">
+      <c r="N264" s="5">
         <f t="shared" si="3"/>
         <v>-255.00000000000011</v>
       </c>
@@ -12495,7 +12489,7 @@
       <c r="M265" s="3">
         <v>695.7</v>
       </c>
-      <c r="N265" s="8">
+      <c r="N265" s="5">
         <f t="shared" ref="N265:N328" si="4">E265-D265</f>
         <v>-304</v>
       </c>
@@ -12540,7 +12534,7 @@
       <c r="M266" s="3">
         <v>842.2</v>
       </c>
-      <c r="N266" s="8">
+      <c r="N266" s="5">
         <f t="shared" si="4"/>
         <v>-420</v>
       </c>
@@ -12585,7 +12579,7 @@
       <c r="M267" s="3">
         <v>1001.2</v>
       </c>
-      <c r="N267" s="8">
+      <c r="N267" s="5">
         <f t="shared" si="4"/>
         <v>-443</v>
       </c>
@@ -12630,7 +12624,7 @@
       <c r="M268" s="3">
         <v>1151.0999999999999</v>
       </c>
-      <c r="N268" s="8">
+      <c r="N268" s="5">
         <f t="shared" si="4"/>
         <v>-492</v>
       </c>
@@ -12675,7 +12669,7 @@
       <c r="M269" s="3">
         <v>1300.7</v>
       </c>
-      <c r="N269" s="8">
+      <c r="N269" s="5">
         <f t="shared" si="4"/>
         <v>-566</v>
       </c>
@@ -12720,7 +12714,7 @@
       <c r="M270" s="3">
         <v>1443.4</v>
       </c>
-      <c r="N270" s="8">
+      <c r="N270" s="5">
         <f t="shared" si="4"/>
         <v>-650</v>
       </c>
@@ -12765,7 +12759,7 @@
       <c r="M271" s="3">
         <v>1579.1</v>
       </c>
-      <c r="N271" s="8">
+      <c r="N271" s="5">
         <f t="shared" si="4"/>
         <v>-792.99999999999955</v>
       </c>
@@ -12810,7 +12804,7 @@
       <c r="M272" s="3">
         <v>1714.7</v>
       </c>
-      <c r="N272" s="8">
+      <c r="N272" s="5">
         <f t="shared" si="4"/>
         <v>-1000.0000000000005</v>
       </c>
@@ -12855,7 +12849,7 @@
       <c r="M273" s="3">
         <v>141.8937</v>
       </c>
-      <c r="N273" s="8">
+      <c r="N273" s="5">
         <f t="shared" si="4"/>
         <v>-170.99999999999997</v>
       </c>
@@ -12900,7 +12894,7 @@
       <c r="M274" s="3">
         <v>283.89999999999998</v>
       </c>
-      <c r="N274" s="8">
+      <c r="N274" s="5">
         <f t="shared" si="4"/>
         <v>-315</v>
       </c>
@@ -12945,7 +12939,7 @@
       <c r="M275" s="3">
         <v>429.6</v>
       </c>
-      <c r="N275" s="8">
+      <c r="N275" s="5">
         <f t="shared" si="4"/>
         <v>-445</v>
       </c>
@@ -12990,7 +12984,7 @@
       <c r="M276" s="3">
         <v>584.20000000000005</v>
       </c>
-      <c r="N276" s="8">
+      <c r="N276" s="5">
         <f t="shared" si="4"/>
         <v>-562</v>
       </c>
@@ -13035,7 +13029,7 @@
       <c r="M277" s="3">
         <v>749.4</v>
       </c>
-      <c r="N277" s="8">
+      <c r="N277" s="5">
         <f t="shared" si="4"/>
         <v>-654</v>
       </c>
@@ -13080,7 +13074,7 @@
       <c r="M278" s="3">
         <v>897.7</v>
       </c>
-      <c r="N278" s="8">
+      <c r="N278" s="5">
         <f t="shared" si="4"/>
         <v>-789</v>
       </c>
@@ -13125,7 +13119,7 @@
       <c r="M279" s="3">
         <v>1066.7</v>
       </c>
-      <c r="N279" s="8">
+      <c r="N279" s="5">
         <f t="shared" si="4"/>
         <v>-868.99999999999977</v>
       </c>
@@ -13170,7 +13164,7 @@
       <c r="M280" s="3">
         <v>1236</v>
       </c>
-      <c r="N280" s="8">
+      <c r="N280" s="5">
         <f t="shared" si="4"/>
         <v>-999</v>
       </c>
@@ -13215,7 +13209,7 @@
       <c r="M281" s="3">
         <v>1405.6</v>
       </c>
-      <c r="N281" s="8">
+      <c r="N281" s="5">
         <f t="shared" si="4"/>
         <v>-1055.0000000000005</v>
       </c>
@@ -13260,7 +13254,7 @@
       <c r="M282" s="3">
         <v>1552.9</v>
       </c>
-      <c r="N282" s="8">
+      <c r="N282" s="5">
         <f t="shared" si="4"/>
         <v>-1186.9999999999995</v>
       </c>
@@ -13305,7 +13299,7 @@
       <c r="M283" s="3">
         <v>1716.1</v>
       </c>
-      <c r="N283" s="8">
+      <c r="N283" s="5">
         <f t="shared" si="4"/>
         <v>-1311</v>
       </c>
@@ -13350,7 +13344,7 @@
       <c r="M284" s="3">
         <v>1879.8</v>
       </c>
-      <c r="N284" s="8">
+      <c r="N284" s="5">
         <f t="shared" si="4"/>
         <v>-1489.9999999999995</v>
       </c>
@@ -13395,7 +13389,7 @@
       <c r="M285" s="3">
         <v>176.7972</v>
       </c>
-      <c r="N285" s="8">
+      <c r="N285" s="5">
         <f t="shared" si="4"/>
         <v>-109</v>
       </c>
@@ -13440,7 +13434,7 @@
       <c r="M286" s="3">
         <v>344.4</v>
       </c>
-      <c r="N286" s="8">
+      <c r="N286" s="5">
         <f t="shared" si="4"/>
         <v>-288</v>
       </c>
@@ -13485,7 +13479,7 @@
       <c r="M287" s="3">
         <v>509.5</v>
       </c>
-      <c r="N287" s="8">
+      <c r="N287" s="5">
         <f t="shared" si="4"/>
         <v>-474</v>
       </c>
@@ -13530,7 +13524,7 @@
       <c r="M288" s="3">
         <v>677.2</v>
       </c>
-      <c r="N288" s="8">
+      <c r="N288" s="5">
         <f t="shared" si="4"/>
         <v>-609</v>
       </c>
@@ -13575,7 +13569,7 @@
       <c r="M289" s="3">
         <v>853.7</v>
       </c>
-      <c r="N289" s="8">
+      <c r="N289" s="5">
         <f t="shared" si="4"/>
         <v>-749.00000000000023</v>
       </c>
@@ -13620,7 +13614,7 @@
       <c r="M290" s="3">
         <v>1017.4</v>
       </c>
-      <c r="N290" s="8">
+      <c r="N290" s="5">
         <f t="shared" si="4"/>
         <v>-836</v>
       </c>
@@ -13665,7 +13659,7 @@
       <c r="M291" s="3">
         <v>1188.4000000000001</v>
       </c>
-      <c r="N291" s="8">
+      <c r="N291" s="5">
         <f t="shared" si="4"/>
         <v>-968</v>
       </c>
@@ -13710,7 +13704,7 @@
       <c r="M292" s="3">
         <v>1373.2</v>
       </c>
-      <c r="N292" s="8">
+      <c r="N292" s="5">
         <f t="shared" si="4"/>
         <v>-981.99999999999977</v>
       </c>
@@ -13755,7 +13749,7 @@
       <c r="M293" s="3">
         <v>1566.2</v>
       </c>
-      <c r="N293" s="8">
+      <c r="N293" s="5">
         <f t="shared" si="4"/>
         <v>-1116.9999999999998</v>
       </c>
@@ -13800,7 +13794,7 @@
       <c r="M294" s="3">
         <v>1752.7</v>
       </c>
-      <c r="N294" s="8">
+      <c r="N294" s="5">
         <f t="shared" si="4"/>
         <v>-1255</v>
       </c>
@@ -13845,7 +13839,7 @@
       <c r="M295" s="3">
         <v>1941.3</v>
       </c>
-      <c r="N295" s="8">
+      <c r="N295" s="5">
         <f t="shared" si="4"/>
         <v>-1389</v>
       </c>
@@ -13890,7 +13884,7 @@
       <c r="M296" s="3">
         <v>2131.4</v>
       </c>
-      <c r="N296" s="8">
+      <c r="N296" s="5">
         <f t="shared" si="4"/>
         <v>-1553</v>
       </c>
@@ -13935,7 +13929,7 @@
       <c r="M297" s="3">
         <v>197.3</v>
       </c>
-      <c r="N297" s="8">
+      <c r="N297" s="5">
         <f t="shared" si="4"/>
         <v>-148</v>
       </c>
@@ -13980,7 +13974,7 @@
       <c r="M298" s="3">
         <v>384.1</v>
       </c>
-      <c r="N298" s="8">
+      <c r="N298" s="5">
         <f t="shared" si="4"/>
         <v>-267</v>
       </c>
@@ -14025,7 +14019,7 @@
       <c r="M299" s="3">
         <v>582.1</v>
       </c>
-      <c r="N299" s="8">
+      <c r="N299" s="5">
         <f t="shared" si="4"/>
         <v>-315</v>
       </c>
@@ -14070,7 +14064,7 @@
       <c r="M300" s="3">
         <v>777.3</v>
       </c>
-      <c r="N300" s="8">
+      <c r="N300" s="5">
         <f t="shared" si="4"/>
         <v>-436</v>
       </c>
@@ -14115,7 +14109,7 @@
       <c r="M301" s="3">
         <v>991.1</v>
       </c>
-      <c r="N301" s="8">
+      <c r="N301" s="5">
         <f t="shared" si="4"/>
         <v>-562</v>
       </c>
@@ -14160,7 +14154,7 @@
       <c r="M302" s="3">
         <v>1190.83</v>
       </c>
-      <c r="N302" s="8">
+      <c r="N302" s="5">
         <f t="shared" si="4"/>
         <v>-690</v>
       </c>
@@ -14205,7 +14199,7 @@
       <c r="M303" s="3">
         <v>1395.05</v>
       </c>
-      <c r="N303" s="8">
+      <c r="N303" s="5">
         <f t="shared" si="4"/>
         <v>-812</v>
       </c>
@@ -14250,7 +14244,7 @@
       <c r="M304" s="3">
         <v>1621.39</v>
       </c>
-      <c r="N304" s="8">
+      <c r="N304" s="5">
         <f t="shared" si="4"/>
         <v>-820</v>
       </c>
@@ -14295,7 +14289,7 @@
       <c r="M305" s="3">
         <v>1845.69</v>
       </c>
-      <c r="N305" s="8">
+      <c r="N305" s="5">
         <f t="shared" si="4"/>
         <v>-910</v>
       </c>
@@ -14340,7 +14334,7 @@
       <c r="M306" s="3">
         <v>2078.4499999999998</v>
       </c>
-      <c r="N306" s="8">
+      <c r="N306" s="5">
         <f t="shared" si="4"/>
         <v>-962.00000000000045</v>
       </c>
@@ -14385,7 +14379,7 @@
       <c r="M307" s="3">
         <v>2284.65</v>
       </c>
-      <c r="N307" s="8">
+      <c r="N307" s="5">
         <f t="shared" si="4"/>
         <v>-1034</v>
       </c>
@@ -14430,7 +14424,7 @@
       <c r="M308" s="3">
         <v>2509.64</v>
       </c>
-      <c r="N308" s="8">
+      <c r="N308" s="5">
         <f t="shared" si="4"/>
         <v>-1108</v>
       </c>
@@ -14475,7 +14469,7 @@
       <c r="M309" s="3">
         <v>229.19</v>
       </c>
-      <c r="N309" s="8">
+      <c r="N309" s="5">
         <f t="shared" si="4"/>
         <v>-150.66409999999999</v>
       </c>
@@ -14520,7 +14514,7 @@
       <c r="M310" s="3">
         <v>459.6</v>
       </c>
-      <c r="N310" s="8">
+      <c r="N310" s="5">
         <f t="shared" si="4"/>
         <v>-190.41880000000003</v>
       </c>
@@ -14565,7 +14559,7 @@
       <c r="M311" s="3">
         <v>703.4</v>
       </c>
-      <c r="N311" s="8">
+      <c r="N311" s="5">
         <f t="shared" si="4"/>
         <v>-153.30359999999996</v>
       </c>
@@ -14610,7 +14604,7 @@
       <c r="M312" s="3">
         <v>945</v>
       </c>
-      <c r="N312" s="8">
+      <c r="N312" s="5">
         <f t="shared" si="4"/>
         <v>-188.1925</v>
       </c>
@@ -14655,7 +14649,7 @@
       <c r="M313" s="3">
         <v>1190</v>
       </c>
-      <c r="N313" s="8">
+      <c r="N313" s="5">
         <f t="shared" si="4"/>
         <v>-147.42229999999995</v>
       </c>
@@ -14700,7 +14694,7 @@
       <c r="M314" s="3">
         <v>1441.67</v>
       </c>
-      <c r="N314" s="8">
+      <c r="N314" s="5">
         <f t="shared" si="4"/>
         <v>-159.2675999999999</v>
       </c>
@@ -14745,7 +14739,7 @@
       <c r="M315" s="3">
         <v>1698.53</v>
       </c>
-      <c r="N315" s="8">
+      <c r="N315" s="5">
         <f t="shared" si="4"/>
         <v>-73.924400000000105</v>
       </c>
@@ -14790,7 +14784,7 @@
       <c r="M316" s="3">
         <v>1972.83</v>
       </c>
-      <c r="N316" s="8">
+      <c r="N316" s="5">
         <f t="shared" si="4"/>
         <v>-53.65339999999992</v>
       </c>
@@ -14835,7 +14829,7 @@
       <c r="M317" s="3">
         <v>2236</v>
       </c>
-      <c r="N317" s="8">
+      <c r="N317" s="5">
         <f t="shared" si="4"/>
         <v>-85.489300000000185</v>
       </c>
@@ -14880,7 +14874,7 @@
       <c r="M318" s="3">
         <v>2481.8000000000002</v>
       </c>
-      <c r="N318" s="8">
+      <c r="N318" s="5">
         <f t="shared" si="4"/>
         <v>0.78120000000035361</v>
       </c>
@@ -14925,7 +14919,7 @@
       <c r="M319" s="3">
         <v>2727.9</v>
       </c>
-      <c r="N319" s="8">
+      <c r="N319" s="5">
         <f t="shared" si="4"/>
         <v>7.6293000000000575</v>
       </c>
@@ -14970,7 +14964,7 @@
       <c r="M320" s="3">
         <v>3001</v>
       </c>
-      <c r="N320" s="8">
+      <c r="N320" s="5">
         <f t="shared" si="4"/>
         <v>-32.30560000000014</v>
       </c>
@@ -15015,7 +15009,7 @@
       <c r="M321" s="3">
         <v>279.33</v>
       </c>
-      <c r="N321" s="8">
+      <c r="N321" s="5">
         <f t="shared" si="4"/>
         <v>-27.227899999999977</v>
       </c>
@@ -15060,7 +15054,7 @@
       <c r="M322" s="3">
         <v>555.30999999999995</v>
       </c>
-      <c r="N322" s="8">
+      <c r="N322" s="5">
         <f t="shared" si="4"/>
         <v>-127.42419999999998</v>
       </c>
@@ -15105,7 +15099,7 @@
       <c r="M323" s="3">
         <v>866.8</v>
       </c>
-      <c r="N323" s="8">
+      <c r="N323" s="5">
         <f t="shared" si="4"/>
         <v>-131.78150000000005</v>
       </c>
@@ -15150,7 +15144,7 @@
       <c r="M324" s="3">
         <v>1157.3</v>
       </c>
-      <c r="N324" s="8">
+      <c r="N324" s="5">
         <f t="shared" si="4"/>
         <v>-107.58240000000023</v>
       </c>
@@ -15195,7 +15189,7 @@
       <c r="M325" s="3">
         <v>1458</v>
       </c>
-      <c r="N325" s="8">
+      <c r="N325" s="5">
         <f t="shared" si="4"/>
         <v>-95.890899999999874</v>
       </c>
@@ -15240,7 +15234,7 @@
       <c r="M326" s="3">
         <v>1758.9</v>
       </c>
-      <c r="N326" s="8">
+      <c r="N326" s="5">
         <f t="shared" si="4"/>
         <v>-100.39650000000006</v>
       </c>
@@ -15285,7 +15279,7 @@
       <c r="M327" s="3">
         <v>2071.9</v>
       </c>
-      <c r="N327" s="8">
+      <c r="N327" s="5">
         <f t="shared" si="4"/>
         <v>-38.647600000000239</v>
       </c>
@@ -15330,7 +15324,7 @@
       <c r="M328" s="3">
         <v>2384.4</v>
       </c>
-      <c r="N328" s="8">
+      <c r="N328" s="5">
         <f t="shared" si="4"/>
         <v>41.420700000000124</v>
       </c>
@@ -15375,7 +15369,7 @@
       <c r="M329" s="3">
         <v>2692.4</v>
       </c>
-      <c r="N329" s="8">
+      <c r="N329" s="5">
         <f t="shared" ref="N329:N392" si="5">E329-D329</f>
         <v>125.94610000000011</v>
       </c>
@@ -15420,7 +15414,7 @@
       <c r="M330" s="3">
         <v>3010.2764999999999</v>
       </c>
-      <c r="N330" s="8">
+      <c r="N330" s="5">
         <f t="shared" si="5"/>
         <v>254.89940000000024</v>
       </c>
@@ -15465,7 +15459,7 @@
       <c r="M331" s="3">
         <v>3323.6</v>
       </c>
-      <c r="N331" s="8">
+      <c r="N331" s="5">
         <f t="shared" si="5"/>
         <v>477.39849999999979</v>
       </c>
@@ -15510,7 +15504,7 @@
       <c r="M332" s="3">
         <v>3658.6244000000002</v>
       </c>
-      <c r="N332" s="8">
+      <c r="N332" s="5">
         <f t="shared" si="5"/>
         <v>625.69810000000007</v>
       </c>
@@ -15555,7 +15549,7 @@
       <c r="M333" s="3">
         <v>0</v>
       </c>
-      <c r="N333" s="8">
+      <c r="N333" s="5">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
@@ -15600,7 +15594,7 @@
       <c r="M334" s="3">
         <v>614.79999999999995</v>
       </c>
-      <c r="N334" s="8">
+      <c r="N334" s="5">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
@@ -15645,7 +15639,7 @@
       <c r="M335" s="3">
         <v>947.48270000000002</v>
       </c>
-      <c r="N335" s="8">
+      <c r="N335" s="5">
         <f t="shared" si="5"/>
         <v>200.00000000000011</v>
       </c>
@@ -15690,7 +15684,7 @@
       <c r="M336" s="3">
         <v>1265.4000000000001</v>
       </c>
-      <c r="N336" s="8">
+      <c r="N336" s="5">
         <f t="shared" si="5"/>
         <v>319</v>
       </c>
@@ -15735,7 +15729,7 @@
       <c r="M337" s="3">
         <v>1596.3</v>
       </c>
-      <c r="N337" s="8">
+      <c r="N337" s="5">
         <f t="shared" si="5"/>
         <v>398</v>
       </c>
@@ -15780,7 +15774,7 @@
       <c r="M338" s="3">
         <v>1928.7</v>
       </c>
-      <c r="N338" s="8">
+      <c r="N338" s="5">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
@@ -15825,7 +15819,7 @@
       <c r="M339" s="3">
         <v>2272.8000000000002</v>
       </c>
-      <c r="N339" s="8">
+      <c r="N339" s="5">
         <f t="shared" si="5"/>
         <v>848.00000000000023</v>
       </c>
@@ -15870,7 +15864,7 @@
       <c r="M340" s="3">
         <v>2618</v>
       </c>
-      <c r="N340" s="8">
+      <c r="N340" s="5">
         <f t="shared" si="5"/>
         <v>1018</v>
       </c>
@@ -15915,7 +15909,7 @@
       <c r="M341" s="3">
         <v>2945.9</v>
       </c>
-      <c r="N341" s="8">
+      <c r="N341" s="5">
         <f t="shared" si="5"/>
         <v>1255</v>
       </c>
@@ -15960,7 +15954,7 @@
       <c r="M342" s="3">
         <v>3298.3</v>
       </c>
-      <c r="N342" s="8">
+      <c r="N342" s="5">
         <f t="shared" si="5"/>
         <v>1485</v>
       </c>
@@ -16005,7 +15999,7 @@
       <c r="M343" s="3">
         <v>3644.8</v>
       </c>
-      <c r="N343" s="8">
+      <c r="N343" s="5">
         <f t="shared" si="5"/>
         <v>1770</v>
       </c>
@@ -16050,7 +16044,7 @@
       <c r="M344" s="3">
         <v>3983.8</v>
       </c>
-      <c r="N344" s="8">
+      <c r="N344" s="5">
         <f t="shared" si="5"/>
         <v>2047</v>
       </c>
@@ -16095,7 +16089,7 @@
       <c r="M345" s="3">
         <v>0</v>
       </c>
-      <c r="N345" s="8">
+      <c r="N345" s="5">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
@@ -16140,7 +16134,7 @@
       <c r="M346" s="3">
         <v>687.4</v>
       </c>
-      <c r="N346" s="8">
+      <c r="N346" s="5">
         <f t="shared" si="5"/>
         <v>232</v>
       </c>
@@ -16185,7 +16179,7 @@
       <c r="M347" s="3">
         <v>1036.4000000000001</v>
       </c>
-      <c r="N347" s="8">
+      <c r="N347" s="5">
         <f t="shared" si="5"/>
         <v>428</v>
       </c>
@@ -16230,7 +16224,7 @@
       <c r="M348" s="3">
         <v>1361.5</v>
       </c>
-      <c r="N348" s="8">
+      <c r="N348" s="5">
         <f t="shared" si="5"/>
         <v>526.99999999999989</v>
       </c>
@@ -16275,7 +16269,7 @@
       <c r="M349" s="3">
         <v>1699.8</v>
       </c>
-      <c r="N349" s="8">
+      <c r="N349" s="5">
         <f t="shared" si="5"/>
         <v>677.99999999999977</v>
       </c>
@@ -16320,7 +16314,7 @@
       <c r="M350" s="3">
         <v>2042</v>
       </c>
-      <c r="N350" s="8">
+      <c r="N350" s="5">
         <f t="shared" si="5"/>
         <v>863</v>
       </c>
@@ -16365,7 +16359,7 @@
       <c r="M351" s="3">
         <v>2387.9</v>
       </c>
-      <c r="N351" s="8">
+      <c r="N351" s="5">
         <f t="shared" si="5"/>
         <v>1083</v>
       </c>
@@ -16410,7 +16404,7 @@
       <c r="M352" s="3">
         <v>2751.4</v>
       </c>
-      <c r="N352" s="8">
+      <c r="N352" s="5">
         <f t="shared" si="5"/>
         <v>1270.0000000000002</v>
       </c>
@@ -16455,7 +16449,7 @@
       <c r="M353" s="3">
         <v>3140.7</v>
       </c>
-      <c r="N353" s="8">
+      <c r="N353" s="5">
         <f t="shared" si="5"/>
         <v>1421.9999999999995</v>
       </c>
@@ -16500,7 +16494,7 @@
       <c r="M354" s="3">
         <v>3524.4</v>
       </c>
-      <c r="N354" s="8">
+      <c r="N354" s="5">
         <f t="shared" si="5"/>
         <v>1600</v>
       </c>
@@ -16545,7 +16539,7 @@
       <c r="M355" s="3">
         <v>3883.7</v>
       </c>
-      <c r="N355" s="8">
+      <c r="N355" s="5">
         <f t="shared" si="5"/>
         <v>1921</v>
       </c>
@@ -16590,7 +16584,7 @@
       <c r="M356" s="3">
         <v>4230.8999999999996</v>
       </c>
-      <c r="N356" s="8">
+      <c r="N356" s="5">
         <f t="shared" si="5"/>
         <v>2252</v>
       </c>
@@ -16635,7 +16629,7 @@
       <c r="M357" s="3">
         <v>0</v>
       </c>
-      <c r="N357" s="8">
+      <c r="N357" s="5">
         <f t="shared" si="5"/>
         <v>125.00000000000006</v>
       </c>
@@ -16680,7 +16674,7 @@
       <c r="M358" s="3">
         <v>706.5</v>
       </c>
-      <c r="N358" s="8">
+      <c r="N358" s="5">
         <f t="shared" si="5"/>
         <v>212.00000000000011</v>
       </c>
@@ -16725,7 +16719,7 @@
       <c r="M359" s="3">
         <v>1149.5</v>
       </c>
-      <c r="N359" s="8">
+      <c r="N359" s="5">
         <f t="shared" si="5"/>
         <v>605.99999999999989</v>
       </c>
@@ -16770,7 +16764,7 @@
       <c r="M360" s="3">
         <v>1535.7</v>
       </c>
-      <c r="N360" s="8">
+      <c r="N360" s="5">
         <f t="shared" si="5"/>
         <v>817</v>
       </c>
@@ -16815,7 +16809,7 @@
       <c r="M361" s="3">
         <v>1943.2</v>
       </c>
-      <c r="N361" s="8">
+      <c r="N361" s="5">
         <f t="shared" si="5"/>
         <v>1128</v>
       </c>
@@ -16860,7 +16854,7 @@
       <c r="M362" s="3">
         <v>2347.3000000000002</v>
       </c>
-      <c r="N362" s="8">
+      <c r="N362" s="5">
         <f t="shared" si="5"/>
         <v>1384</v>
       </c>
@@ -16905,7 +16899,7 @@
       <c r="M363" s="3">
         <v>2761.1</v>
       </c>
-      <c r="N363" s="8">
+      <c r="N363" s="5">
         <f t="shared" si="5"/>
         <v>1575.0000000000002</v>
       </c>
@@ -16950,7 +16944,7 @@
       <c r="M364" s="3">
         <v>3172.4</v>
       </c>
-      <c r="N364" s="8">
+      <c r="N364" s="5">
         <f t="shared" si="5"/>
         <v>1836.9999999999995</v>
       </c>
@@ -16995,7 +16989,7 @@
       <c r="M365" s="3">
         <v>3591.4</v>
       </c>
-      <c r="N365" s="8">
+      <c r="N365" s="5">
         <f t="shared" si="5"/>
         <v>1951</v>
       </c>
@@ -17040,7 +17034,7 @@
       <c r="M366" s="3">
         <v>3985.5</v>
       </c>
-      <c r="N366" s="8">
+      <c r="N366" s="5">
         <f t="shared" si="5"/>
         <v>2095</v>
       </c>
@@ -17085,7 +17079,7 @@
       <c r="M367" s="3">
         <v>4370</v>
       </c>
-      <c r="N367" s="8">
+      <c r="N367" s="5">
         <f t="shared" si="5"/>
         <v>2232</v>
       </c>
@@ -17130,7 +17124,7 @@
       <c r="M368" s="3">
         <v>4770.3</v>
       </c>
-      <c r="N368" s="8">
+      <c r="N368" s="5">
         <f t="shared" si="5"/>
         <v>2516</v>
       </c>
@@ -17175,7 +17169,7 @@
       <c r="M369" s="3">
         <v>0</v>
       </c>
-      <c r="N369" s="8">
+      <c r="N369" s="5">
         <f t="shared" si="5"/>
         <v>204</v>
       </c>
@@ -17220,7 +17214,7 @@
       <c r="M370" s="3">
         <v>796</v>
       </c>
-      <c r="N370" s="8">
+      <c r="N370" s="5">
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
@@ -17265,7 +17259,7 @@
       <c r="M371" s="3">
         <v>1218.5999999999999</v>
       </c>
-      <c r="N371" s="8">
+      <c r="N371" s="5">
         <f t="shared" si="5"/>
         <v>771.00000000000011</v>
       </c>
@@ -17310,7 +17304,7 @@
       <c r="M372" s="3">
         <v>1637.7</v>
       </c>
-      <c r="N372" s="8">
+      <c r="N372" s="5">
         <f t="shared" si="5"/>
         <v>1039</v>
       </c>
@@ -17355,7 +17349,7 @@
       <c r="M373" s="3">
         <v>2065.3000000000002</v>
       </c>
-      <c r="N373" s="8">
+      <c r="N373" s="5">
         <f t="shared" si="5"/>
         <v>1230</v>
       </c>
@@ -17400,7 +17394,7 @@
       <c r="M374" s="3">
         <v>2509.8000000000002</v>
       </c>
-      <c r="N374" s="8">
+      <c r="N374" s="5">
         <f t="shared" si="5"/>
         <v>1574.0000000000002</v>
       </c>
@@ -17445,7 +17439,7 @@
       <c r="M375" s="3">
         <v>2954.8</v>
       </c>
-      <c r="N375" s="8">
+      <c r="N375" s="5">
         <f t="shared" si="5"/>
         <v>1959.9999999999993</v>
       </c>
@@ -17490,7 +17484,7 @@
       <c r="M376" s="3">
         <v>3429.5</v>
       </c>
-      <c r="N376" s="8">
+      <c r="N376" s="5">
         <f t="shared" si="5"/>
         <v>2159</v>
       </c>
@@ -17535,7 +17529,7 @@
       <c r="M377" s="3">
         <v>3903</v>
       </c>
-      <c r="N377" s="8">
+      <c r="N377" s="5">
         <f t="shared" si="5"/>
         <v>2512</v>
       </c>
@@ -17580,7 +17574,7 @@
       <c r="M378" s="3">
         <v>4375.1000000000004</v>
       </c>
-      <c r="N378" s="8">
+      <c r="N378" s="5">
         <f t="shared" si="5"/>
         <v>2790</v>
       </c>
@@ -17625,7 +17619,7 @@
       <c r="M379" s="3">
         <v>4825</v>
       </c>
-      <c r="N379" s="8">
+      <c r="N379" s="5">
         <f t="shared" si="5"/>
         <v>3281</v>
       </c>
@@ -17670,7 +17664,7 @@
       <c r="M380" s="3">
         <v>5272.6</v>
       </c>
-      <c r="N380" s="8">
+      <c r="N380" s="5">
         <f t="shared" si="5"/>
         <v>3629</v>
       </c>
@@ -17715,7 +17709,7 @@
       <c r="M381" s="3">
         <v>0</v>
       </c>
-      <c r="N381" s="8">
+      <c r="N381" s="5">
         <f t="shared" si="5"/>
         <v>298</v>
       </c>
@@ -17760,7 +17754,7 @@
       <c r="M382" s="3">
         <v>761</v>
       </c>
-      <c r="N382" s="8">
+      <c r="N382" s="5">
         <f t="shared" si="5"/>
         <v>581</v>
       </c>
@@ -17805,7 +17799,7 @@
       <c r="M383" s="3">
         <v>1048.9000000000001</v>
       </c>
-      <c r="N383" s="8">
+      <c r="N383" s="5">
         <f t="shared" si="5"/>
         <v>1091</v>
       </c>
@@ -17850,7 +17844,7 @@
       <c r="M384" s="3">
         <v>1291.3</v>
       </c>
-      <c r="N384" s="8">
+      <c r="N384" s="5">
         <f t="shared" si="5"/>
         <v>1640</v>
       </c>
@@ -17895,7 +17889,7 @@
       <c r="M385" s="3">
         <v>1580.7</v>
       </c>
-      <c r="N385" s="8">
+      <c r="N385" s="5">
         <f t="shared" si="5"/>
         <v>1650</v>
       </c>
@@ -17940,7 +17934,7 @@
       <c r="M386" s="3">
         <v>1895.8</v>
       </c>
-      <c r="N386" s="8">
+      <c r="N386" s="5">
         <f t="shared" si="5"/>
         <v>1686</v>
       </c>
@@ -17985,7 +17979,7 @@
       <c r="M387" s="3">
         <v>2227.9</v>
       </c>
-      <c r="N387" s="8">
+      <c r="N387" s="5">
         <f t="shared" si="5"/>
         <v>1815.0000000000005</v>
       </c>
@@ -18030,7 +18024,7 @@
       <c r="M388" s="3">
         <v>2570.1</v>
       </c>
-      <c r="N388" s="8">
+      <c r="N388" s="5">
         <f t="shared" si="5"/>
         <v>2048</v>
       </c>
@@ -18075,7 +18069,7 @@
       <c r="M389" s="3">
         <v>2931.7</v>
       </c>
-      <c r="N389" s="8">
+      <c r="N389" s="5">
         <f t="shared" si="5"/>
         <v>2256</v>
       </c>
@@ -18120,7 +18114,7 @@
       <c r="M390" s="3">
         <v>3306.3</v>
       </c>
-      <c r="N390" s="8">
+      <c r="N390" s="5">
         <f t="shared" si="5"/>
         <v>2685</v>
       </c>
@@ -18165,7 +18159,7 @@
       <c r="M391" s="3">
         <v>3674.2</v>
       </c>
-      <c r="N391" s="8">
+      <c r="N391" s="5">
         <f t="shared" si="5"/>
         <v>2975</v>
       </c>
@@ -18210,7 +18204,7 @@
       <c r="M392" s="3">
         <v>4049.4</v>
       </c>
-      <c r="N392" s="8">
+      <c r="N392" s="5">
         <f t="shared" si="5"/>
         <v>3348</v>
       </c>
@@ -18255,7 +18249,7 @@
       <c r="M393" s="3">
         <v>0</v>
       </c>
-      <c r="N393" s="8">
+      <c r="N393" s="5">
         <f t="shared" ref="N393:N425" si="6">E393-D393</f>
         <v>378</v>
       </c>
@@ -18300,7 +18294,7 @@
       <c r="M394" s="3">
         <v>681.8</v>
       </c>
-      <c r="N394" s="8">
+      <c r="N394" s="5">
         <f t="shared" si="6"/>
         <v>698</v>
       </c>
@@ -18345,7 +18339,7 @@
       <c r="M395" s="3">
         <v>1045.7</v>
       </c>
-      <c r="N395" s="8">
+      <c r="N395" s="5">
         <f t="shared" si="6"/>
         <v>1171</v>
       </c>
@@ -18390,7 +18384,7 @@
       <c r="M396" s="3">
         <v>1439.6</v>
       </c>
-      <c r="N396" s="8">
+      <c r="N396" s="5">
         <f t="shared" si="6"/>
         <v>1657</v>
       </c>
@@ -18435,7 +18429,7 @@
       <c r="M397" s="3">
         <v>1871.5</v>
       </c>
-      <c r="N397" s="8">
+      <c r="N397" s="5">
         <f t="shared" si="6"/>
         <v>1964</v>
       </c>
@@ -18480,7 +18474,7 @@
       <c r="M398" s="3">
         <v>2283.4</v>
       </c>
-      <c r="N398" s="8">
+      <c r="N398" s="5">
         <f t="shared" si="6"/>
         <v>2394</v>
       </c>
@@ -18525,7 +18519,7 @@
       <c r="M399" s="3">
         <v>2632.6</v>
       </c>
-      <c r="N399" s="8">
+      <c r="N399" s="5">
         <f t="shared" si="6"/>
         <v>2604</v>
       </c>
@@ -18570,7 +18564,7 @@
       <c r="M400" s="3">
         <v>2912.6</v>
       </c>
-      <c r="N400" s="8">
+      <c r="N400" s="5">
         <f t="shared" si="6"/>
         <v>2685</v>
       </c>
@@ -18615,7 +18609,7 @@
       <c r="M401" s="3">
         <v>3219.5</v>
       </c>
-      <c r="N401" s="8">
+      <c r="N401" s="5">
         <f t="shared" si="6"/>
         <v>2876</v>
       </c>
@@ -18660,7 +18654,7 @@
       <c r="M402" s="3">
         <v>3528.2</v>
       </c>
-      <c r="N402" s="8">
+      <c r="N402" s="5">
         <f t="shared" si="6"/>
         <v>3055</v>
       </c>
@@ -18705,7 +18699,7 @@
       <c r="M403" s="3">
         <v>3754.6</v>
       </c>
-      <c r="N403" s="8">
+      <c r="N403" s="5">
         <f t="shared" si="6"/>
         <v>3216</v>
       </c>
@@ -18750,7 +18744,7 @@
       <c r="M404" s="3">
         <v>3943.9</v>
       </c>
-      <c r="N404" s="8">
+      <c r="N404" s="5">
         <f t="shared" si="6"/>
         <v>3319</v>
       </c>
@@ -18795,7 +18789,7 @@
       <c r="M405" s="3">
         <v>0</v>
       </c>
-      <c r="N405" s="8">
+      <c r="N405" s="5">
         <f t="shared" si="6"/>
         <v>148.00000000000006</v>
       </c>
@@ -18840,7 +18834,7 @@
       <c r="M406" s="3">
         <v>556.29999999999995</v>
       </c>
-      <c r="N406" s="8">
+      <c r="N406" s="5">
         <f t="shared" si="6"/>
         <v>265</v>
       </c>
@@ -18885,7 +18879,7 @@
       <c r="M407" s="3">
         <v>819</v>
       </c>
-      <c r="N407" s="8">
+      <c r="N407" s="5">
         <f t="shared" si="6"/>
         <v>486</v>
       </c>
@@ -18930,7 +18924,7 @@
       <c r="M408" s="3">
         <v>994</v>
       </c>
-      <c r="N408" s="8">
+      <c r="N408" s="5">
         <f t="shared" si="6"/>
         <v>719.99999999999977</v>
       </c>
@@ -18975,7 +18969,7 @@
       <c r="M409" s="3">
         <v>1146.2</v>
       </c>
-      <c r="N409" s="8">
+      <c r="N409" s="5">
         <f t="shared" si="6"/>
         <v>847.00000000000011</v>
       </c>
@@ -19020,7 +19014,7 @@
       <c r="M410" s="3">
         <v>1357.8</v>
       </c>
-      <c r="N410" s="8">
+      <c r="N410" s="5">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
@@ -19065,7 +19059,7 @@
       <c r="M411" s="3">
         <v>1605.1</v>
       </c>
-      <c r="N411" s="8">
+      <c r="N411" s="5">
         <f t="shared" si="6"/>
         <v>1183</v>
       </c>
@@ -19110,7 +19104,7 @@
       <c r="M412" s="3">
         <v>1891.6</v>
       </c>
-      <c r="N412" s="8">
+      <c r="N412" s="5">
         <f t="shared" si="6"/>
         <v>1472</v>
       </c>
@@ -19155,7 +19149,7 @@
       <c r="M413" s="3">
         <v>2138.1999999999998</v>
       </c>
-      <c r="N413" s="8">
+      <c r="N413" s="5">
         <f t="shared" si="6"/>
         <v>1808</v>
       </c>
@@ -19200,12 +19194,12 @@
       <c r="M414" s="3">
         <v>2381.6999999999998</v>
       </c>
-      <c r="N414" s="8">
+      <c r="N414" s="5">
         <f t="shared" si="6"/>
         <v>2000.0000000000005</v>
       </c>
       <c r="O414" s="3"/>
-      <c r="P414" s="10"/>
+      <c r="P414" s="7"/>
     </row>
     <row r="415" spans="1:16">
       <c r="A415" s="2">
@@ -19247,7 +19241,7 @@
       <c r="M415" s="3">
         <v>2681.5</v>
       </c>
-      <c r="N415" s="8">
+      <c r="N415" s="5">
         <f t="shared" si="6"/>
         <v>2289</v>
       </c>
@@ -19292,7 +19286,7 @@
       <c r="M416" s="3">
         <v>2949.1</v>
       </c>
-      <c r="N416" s="8">
+      <c r="N416" s="5">
         <f t="shared" si="6"/>
         <v>2724</v>
       </c>
@@ -19337,7 +19331,7 @@
       <c r="M417" s="3">
         <v>0</v>
       </c>
-      <c r="N417" s="8">
+      <c r="N417" s="5">
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
@@ -19382,7 +19376,7 @@
       <c r="M418" s="3">
         <v>694.5</v>
       </c>
-      <c r="N418" s="8">
+      <c r="N418" s="5">
         <f t="shared" si="6"/>
         <v>739</v>
       </c>
@@ -19427,7 +19421,7 @@
       <c r="M419" s="3">
         <v>1072.9000000000001</v>
       </c>
-      <c r="N419" s="8">
+      <c r="N419" s="5">
         <f t="shared" si="6"/>
         <v>894.99999999999989</v>
       </c>
@@ -19472,7 +19466,7 @@
       <c r="M420" s="3">
         <v>1426.3</v>
       </c>
-      <c r="N420" s="8">
+      <c r="N420" s="5">
         <f t="shared" si="6"/>
         <v>831</v>
       </c>
@@ -19517,7 +19511,7 @@
       <c r="M421" s="3">
         <v>1819.9</v>
       </c>
-      <c r="N421" s="8">
+      <c r="N421" s="5">
         <f t="shared" si="6"/>
         <v>879</v>
       </c>
@@ -19562,7 +19556,7 @@
       <c r="M422" s="3">
         <v>2219</v>
       </c>
-      <c r="N422" s="8">
+      <c r="N422" s="5">
         <f t="shared" si="6"/>
         <v>891</v>
       </c>
@@ -19607,7 +19601,7 @@
       <c r="M423" s="3">
         <v>2713.7</v>
       </c>
-      <c r="N423" s="8">
+      <c r="N423" s="5">
         <f t="shared" si="6"/>
         <v>961</v>
       </c>
@@ -19652,7 +19646,7 @@
       <c r="M424" s="3">
         <v>3223.8</v>
       </c>
-      <c r="N424" s="8">
+      <c r="N424" s="5">
         <f t="shared" si="6"/>
         <v>1196</v>
       </c>
@@ -19697,7 +19691,7 @@
       <c r="M425" s="3">
         <v>3709.2</v>
       </c>
-      <c r="N425" s="8">
+      <c r="N425" s="5">
         <f t="shared" si="6"/>
         <v>1324</v>
       </c>
@@ -19707,70 +19701,111 @@
         <v>45230</v>
       </c>
       <c r="B426" s="3">
-        <v>17405</v>
+        <v>17404.599999999999</v>
       </c>
       <c r="C426" s="3">
-        <v>47321.799999999996</v>
+        <v>47322</v>
       </c>
       <c r="D426" s="3">
-        <v>3884.8</v>
+        <v>3884.9999999999995</v>
       </c>
       <c r="E426" s="3">
-        <v>5309.4000000000005</v>
+        <v>5309</v>
       </c>
       <c r="F426" s="3">
-        <v>1341.9630903667191</v>
+        <v>1341.881535</v>
       </c>
       <c r="G426" s="3">
-        <v>1896</v>
+        <v>1896.3</v>
       </c>
       <c r="H426" s="3">
-        <v>618760000</v>
+        <v>618762000</v>
       </c>
       <c r="I426" s="3">
         <v>382922</v>
       </c>
       <c r="J426" s="3">
-        <v>3599.2</v>
+        <v>3598.9999999999995</v>
       </c>
       <c r="K426" s="3">
-        <v>0</v>
+        <v>13555.7</v>
       </c>
       <c r="L426" s="3">
-        <v>0</v>
+        <v>18098.5</v>
       </c>
       <c r="M426" s="3">
-        <v>0</v>
-      </c>
-      <c r="N426" s="8">
+        <v>4164.2</v>
+      </c>
+      <c r="N426" s="5">
         <f>E426-D426</f>
-        <v>1424.6000000000004</v>
-      </c>
-      <c r="O426" s="9"/>
+        <v>1424.0000000000005</v>
+      </c>
+      <c r="O426" s="6"/>
+    </row>
+    <row r="427" spans="1:15">
+      <c r="A427" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B427" s="3">
+        <v>19125</v>
+      </c>
+      <c r="C427" s="3">
+        <v>51564.800000000003</v>
+      </c>
+      <c r="D427" s="3">
+        <v>4322.5</v>
+      </c>
+      <c r="E427" s="3">
+        <v>5817.5999999999995</v>
+      </c>
+      <c r="F427" s="3">
+        <v>0</v>
+      </c>
+      <c r="G427" s="3">
+        <v>2096</v>
+      </c>
+      <c r="H427" s="3">
+        <v>676220000</v>
+      </c>
+      <c r="I427" s="3">
+        <v>423877</v>
+      </c>
+      <c r="J427" s="3">
+        <v>4350.5999999999995</v>
+      </c>
+      <c r="K427" s="3">
+        <v>0</v>
+      </c>
+      <c r="L427" s="3">
+        <v>0</v>
+      </c>
+      <c r="M427" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:15">
-      <c r="B429" s="7"/>
-      <c r="C429" s="7"/>
-      <c r="D429" s="7"/>
-      <c r="E429" s="7"/>
-      <c r="F429" s="7"/>
-      <c r="G429" s="7"/>
-      <c r="H429" s="7"/>
-      <c r="I429" s="7"/>
-      <c r="J429" s="7"/>
-      <c r="N429" s="7"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
+      <c r="I429" s="4"/>
+      <c r="J429" s="4"/>
+      <c r="N429" s="4"/>
     </row>
     <row r="430" spans="1:15">
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
-      <c r="D430" s="8"/>
-      <c r="E430" s="8"/>
-      <c r="F430" s="8"/>
-      <c r="G430" s="8"/>
-      <c r="H430" s="8"/>
-      <c r="I430" s="8"/>
-      <c r="J430" s="8"/>
-      <c r="N430" s="8"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5"/>
+      <c r="N430" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68D027-F30B-4949-8746-D35B027E16A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBA78C-F9F6-4261-9C36-4E06995C7E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -173,19 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2023-10</t>
-  </si>
-  <si>
-    <t>1995-01:2023-10</t>
-  </si>
-  <si>
     <t>1989-02:2023-11</t>
   </si>
   <si>
     <t>1995-01:2023-11</t>
-  </si>
-  <si>
-    <t>2003-07:2023-11</t>
   </si>
   <si>
     <t>1989-01:2023-11</t>
@@ -194,13 +185,28 @@
     <t>2023-12-15</t>
   </si>
   <si>
-    <t>2023-12-07</t>
+    <t>1989-02:2023-12</t>
   </si>
   <si>
-    <t>2023-11-27</t>
+    <t>1995-01:2023-12</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2003-07:2023-12</t>
+  </si>
+  <si>
+    <t>1989-01:2023-12</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
   </si>
 </sst>
 </file>
@@ -271,13 +277,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -321,9 +327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,7 +367,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -467,7 +473,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -609,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,7 +626,7 @@
   <dimension ref="A1:P430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B412" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B418" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -811,31 +817,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>38</v>
@@ -893,40 +899,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -19750,16 +19756,16 @@
         <v>19125</v>
       </c>
       <c r="C427" s="3">
-        <v>51564.800000000003</v>
+        <v>51565</v>
       </c>
       <c r="D427" s="3">
-        <v>4322.5</v>
+        <v>4322</v>
       </c>
       <c r="E427" s="3">
-        <v>5817.5999999999995</v>
+        <v>5818</v>
       </c>
       <c r="F427" s="3">
-        <v>0</v>
+        <v>1493.2799070000001</v>
       </c>
       <c r="G427" s="3">
         <v>2096</v>
@@ -19771,15 +19777,56 @@
         <v>423877</v>
       </c>
       <c r="J427" s="3">
-        <v>4350.5999999999995</v>
+        <v>4351</v>
       </c>
       <c r="K427" s="3">
-        <v>0</v>
+        <v>14839.1</v>
       </c>
       <c r="L427" s="3">
-        <v>0</v>
+        <v>19886.3</v>
       </c>
       <c r="M427" s="3">
+        <v>4572.8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15">
+      <c r="A428" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B428" s="3">
+        <v>20891.4614</v>
+      </c>
+      <c r="C428" s="3">
+        <v>56399.4</v>
+      </c>
+      <c r="D428" s="3">
+        <v>4769.5</v>
+      </c>
+      <c r="E428" s="3">
+        <v>6268.6</v>
+      </c>
+      <c r="F428" s="3">
+        <v>0</v>
+      </c>
+      <c r="G428" s="3">
+        <v>2297.1060000000002</v>
+      </c>
+      <c r="H428" s="3">
+        <v>734777859</v>
+      </c>
+      <c r="I428" s="3">
+        <v>0</v>
+      </c>
+      <c r="J428" s="3">
+        <v>4729.7</v>
+      </c>
+      <c r="K428" s="3">
+        <v>0</v>
+      </c>
+      <c r="L428" s="3">
+        <v>0</v>
+      </c>
+      <c r="M428" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBA78C-F9F6-4261-9C36-4E06995C7E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD0A9C-1414-43B4-B164-7DCF64970186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -173,25 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2023-11</t>
-  </si>
-  <si>
-    <t>1995-01:2023-11</t>
-  </si>
-  <si>
-    <t>1989-01:2023-11</t>
-  </si>
-  <si>
-    <t>2023-12-15</t>
-  </si>
-  <si>
     <t>1989-02:2023-12</t>
   </si>
   <si>
     <t>1995-01:2023-12</t>
-  </si>
-  <si>
-    <t>2003-07:2023-12</t>
   </si>
   <si>
     <t>1989-01:2023-12</t>
@@ -200,13 +185,28 @@
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>2024-01-12</t>
+    <t>2024-01-18</t>
   </si>
   <si>
-    <t>2023-12-25</t>
+    <t>2024-01-24</t>
   </si>
   <si>
-    <t>2023-12-18</t>
+    <t>1989-02:2024-02</t>
+  </si>
+  <si>
+    <t>1995-01:2024-02</t>
+  </si>
+  <si>
+    <t>2003-07:2024-02</t>
+  </si>
+  <si>
+    <t>1989-01:2024-02</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
   </si>
 </sst>
 </file>
@@ -277,13 +277,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -626,11 +626,11 @@
   <dimension ref="A1:P430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A403" sqref="A403"/>
+      <selection pane="bottomRight" activeCell="H429" sqref="H429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,31 +817,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>38</v>
@@ -899,40 +899,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -19797,16 +19797,16 @@
         <v>20891.4614</v>
       </c>
       <c r="C428" s="3">
-        <v>56399.4</v>
+        <v>56399</v>
       </c>
       <c r="D428" s="3">
-        <v>4769.5</v>
+        <v>4769</v>
       </c>
       <c r="E428" s="3">
-        <v>6268.6</v>
+        <v>6269</v>
       </c>
       <c r="F428" s="3">
-        <v>0</v>
+        <v>1668.1195600000001</v>
       </c>
       <c r="G428" s="3">
         <v>2297.1060000000002</v>
@@ -19815,31 +19815,61 @@
         <v>734777859</v>
       </c>
       <c r="I428" s="3">
-        <v>0</v>
+        <v>465838</v>
       </c>
       <c r="J428" s="3">
-        <v>4729.7</v>
+        <v>4730</v>
       </c>
       <c r="K428" s="3">
-        <v>0</v>
+        <v>16138.4</v>
       </c>
       <c r="L428" s="3">
-        <v>0</v>
+        <v>21729</v>
       </c>
       <c r="M428" s="3">
-        <v>0</v>
+        <v>4968.3999999999996</v>
       </c>
     </row>
     <row r="429" spans="1:15">
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
-      <c r="F429" s="4"/>
-      <c r="G429" s="4"/>
-      <c r="H429" s="4"/>
-      <c r="I429" s="4"/>
-      <c r="J429" s="4"/>
+      <c r="A429" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B429" s="3">
+        <v>3511</v>
+      </c>
+      <c r="C429" s="3">
+        <v>8830.7999999999993</v>
+      </c>
+      <c r="D429" s="3">
+        <v>757.6</v>
+      </c>
+      <c r="E429" s="3">
+        <v>881.50000000000011</v>
+      </c>
+      <c r="F429" s="3">
+        <v>0</v>
+      </c>
+      <c r="G429" s="3">
+        <v>417</v>
+      </c>
+      <c r="H429" s="3">
+        <v>118760000</v>
+      </c>
+      <c r="I429" s="3">
+        <v>0</v>
+      </c>
+      <c r="J429" s="3">
+        <v>0</v>
+      </c>
+      <c r="K429" s="3">
+        <v>0</v>
+      </c>
+      <c r="L429" s="3">
+        <v>0</v>
+      </c>
+      <c r="M429" s="3">
+        <v>0</v>
+      </c>
       <c r="N429" s="4"/>
     </row>
     <row r="430" spans="1:15">

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD0A9C-1414-43B4-B164-7DCF64970186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA827A-3556-4962-855B-871DF014FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -173,31 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2023-12</t>
-  </si>
-  <si>
-    <t>1995-01:2023-12</t>
-  </si>
-  <si>
-    <t>1989-01:2023-12</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
     <t>1989-02:2024-02</t>
   </si>
   <si>
     <t>1995-01:2024-02</t>
-  </si>
-  <si>
-    <t>2003-07:2024-02</t>
   </si>
   <si>
     <t>1989-01:2024-02</t>
@@ -206,7 +185,28 @@
     <t>2024-03-18</t>
   </si>
   <si>
-    <t>2024-03-07</t>
+    <t>1989-02:2024-03</t>
+  </si>
+  <si>
+    <t>1995-01:2024-03</t>
+  </si>
+  <si>
+    <t>2003-07:2024-03</t>
+  </si>
+  <si>
+    <t>1989-01:2024-03</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
   </si>
 </sst>
 </file>
@@ -623,14 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P430"/>
+  <dimension ref="A1:P431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H429" sqref="H429"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="E426" sqref="E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,31 +813,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>38</v>
@@ -899,40 +895,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -19832,57 +19828,128 @@
     </row>
     <row r="429" spans="1:15">
       <c r="A429" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B429" s="3">
+        <v>0</v>
+      </c>
+      <c r="C429" s="3">
+        <v>4417</v>
+      </c>
+      <c r="D429" s="3">
+        <v>408</v>
+      </c>
+      <c r="E429" s="3">
+        <v>462</v>
+      </c>
+      <c r="F429" s="3">
+        <v>159.81833</v>
+      </c>
+      <c r="G429" s="3">
+        <v>0</v>
+      </c>
+      <c r="H429" s="3">
+        <v>0</v>
+      </c>
+      <c r="I429" s="3">
+        <v>0</v>
+      </c>
+      <c r="J429" s="3">
+        <v>4076.9999999999995</v>
+      </c>
+      <c r="K429" s="3">
+        <v>0</v>
+      </c>
+      <c r="L429" s="3">
+        <v>0</v>
+      </c>
+      <c r="M429" s="3">
+        <v>0</v>
+      </c>
+      <c r="N429" s="4"/>
+    </row>
+    <row r="430" spans="1:15">
+      <c r="A430" s="2">
         <v>45351</v>
       </c>
-      <c r="B429" s="3">
-        <v>3511</v>
-      </c>
-      <c r="C429" s="3">
-        <v>8830.7999999999993</v>
-      </c>
-      <c r="D429" s="3">
-        <v>757.6</v>
-      </c>
-      <c r="E429" s="3">
-        <v>881.50000000000011</v>
-      </c>
-      <c r="F429" s="3">
-        <v>0</v>
-      </c>
-      <c r="G429" s="3">
-        <v>417</v>
-      </c>
-      <c r="H429" s="3">
-        <v>118760000</v>
-      </c>
-      <c r="I429" s="3">
-        <v>0</v>
-      </c>
-      <c r="J429" s="3">
-        <v>0</v>
-      </c>
-      <c r="K429" s="3">
-        <v>0</v>
-      </c>
-      <c r="L429" s="3">
-        <v>0</v>
-      </c>
-      <c r="M429" s="3">
-        <v>0</v>
-      </c>
-      <c r="N429" s="4"/>
-    </row>
-    <row r="430" spans="1:15">
-      <c r="B430" s="5"/>
-      <c r="C430" s="5"/>
-      <c r="D430" s="5"/>
-      <c r="E430" s="5"/>
-      <c r="F430" s="5"/>
-      <c r="G430" s="5"/>
-      <c r="H430" s="5"/>
-      <c r="I430" s="5"/>
-      <c r="J430" s="5"/>
+      <c r="B430" s="3">
+        <v>3510.9</v>
+      </c>
+      <c r="C430" s="3">
+        <v>8831</v>
+      </c>
+      <c r="D430" s="3">
+        <v>757.99999999999989</v>
+      </c>
+      <c r="E430" s="3">
+        <v>881</v>
+      </c>
+      <c r="F430" s="3">
+        <v>307.28999199999998</v>
+      </c>
+      <c r="G430" s="3">
+        <v>416.7</v>
+      </c>
+      <c r="H430" s="3">
+        <v>118755000</v>
+      </c>
+      <c r="I430" s="3">
+        <v>70527</v>
+      </c>
+      <c r="J430" s="3">
+        <v>3375</v>
+      </c>
+      <c r="K430" s="3">
+        <v>2749.6</v>
+      </c>
+      <c r="L430" s="3">
+        <v>3331.4</v>
+      </c>
+      <c r="M430" s="3">
+        <v>947.9</v>
+      </c>
       <c r="N430" s="5"/>
+    </row>
+    <row r="431" spans="1:15">
+      <c r="A431" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B431" s="3">
+        <v>5348</v>
+      </c>
+      <c r="C431" s="3">
+        <v>13735.6</v>
+      </c>
+      <c r="D431" s="3">
+        <v>1217.5999999999999</v>
+      </c>
+      <c r="E431" s="3">
+        <v>1481.9</v>
+      </c>
+      <c r="F431" s="3">
+        <v>0</v>
+      </c>
+      <c r="G431" s="3">
+        <v>632</v>
+      </c>
+      <c r="H431" s="3">
+        <v>182460000</v>
+      </c>
+      <c r="I431" s="3">
+        <v>0</v>
+      </c>
+      <c r="J431" s="3">
+        <v>4137.9000000000005</v>
+      </c>
+      <c r="K431" s="3">
+        <v>0</v>
+      </c>
+      <c r="L431" s="3">
+        <v>0</v>
+      </c>
+      <c r="M431" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA827A-3556-4962-855B-871DF014FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9425EBA8-4982-4929-AF5F-2795B2597E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -173,50 +173,40 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-02</t>
-  </si>
-  <si>
-    <t>1995-01:2024-02</t>
-  </si>
-  <si>
-    <t>1989-01:2024-02</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
     <t>1989-02:2024-03</t>
   </si>
   <si>
     <t>1995-01:2024-03</t>
   </si>
   <si>
-    <t>2003-07:2024-03</t>
-  </si>
-  <si>
     <t>1989-01:2024-03</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>1995-01:2024-04</t>
   </si>
   <si>
-    <t>2024-04-12</t>
+    <t>2003-07:2024-04</t>
   </si>
   <si>
-    <t>2024-03-25</t>
+    <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-03-20</t>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="4">
@@ -264,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -273,8 +263,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -623,315 +611,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P431"/>
+  <dimension ref="A1:O432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="E426" sqref="E426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="195">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:13" ht="174">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="J8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="L8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>32539</v>
       </c>
@@ -971,12 +959,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" ref="N9:N72" si="0">E9-D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>32567</v>
       </c>
@@ -1016,12 +1000,8 @@
       <c r="M10" s="3">
         <v>64.8</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>32598</v>
       </c>
@@ -1061,12 +1041,8 @@
       <c r="M11" s="3">
         <v>100.8</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>32628</v>
       </c>
@@ -1106,12 +1082,8 @@
       <c r="M12" s="3">
         <v>132.6</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>32659</v>
       </c>
@@ -1151,12 +1123,8 @@
       <c r="M13" s="3">
         <v>164.5</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>32689</v>
       </c>
@@ -1196,12 +1164,8 @@
       <c r="M14" s="3">
         <v>198.1</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>32720</v>
       </c>
@@ -1241,12 +1205,8 @@
       <c r="M15" s="3">
         <v>232.3</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>32751</v>
       </c>
@@ -1286,12 +1246,8 @@
       <c r="M16" s="3">
         <v>269.2</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>32781</v>
       </c>
@@ -1331,12 +1287,8 @@
       <c r="M17" s="3">
         <v>300.60000000000002</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>32812</v>
       </c>
@@ -1376,12 +1328,8 @@
       <c r="M18" s="3">
         <v>333.9</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>32842</v>
       </c>
@@ -1421,12 +1369,8 @@
       <c r="M19" s="3">
         <v>368.3</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>32873</v>
       </c>
@@ -1466,12 +1410,8 @@
       <c r="M20" s="3">
         <v>395.2</v>
       </c>
-      <c r="N20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>32904</v>
       </c>
@@ -1511,12 +1451,8 @@
       <c r="M21" s="3">
         <v>31</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>32932</v>
       </c>
@@ -1556,12 +1492,8 @@
       <c r="M22" s="3">
         <v>56.6</v>
       </c>
-      <c r="N22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>32963</v>
       </c>
@@ -1601,12 +1533,8 @@
       <c r="M23" s="3">
         <v>92.2</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>32993</v>
       </c>
@@ -1646,12 +1574,8 @@
       <c r="M24" s="3">
         <v>128.69999999999999</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>33024</v>
       </c>
@@ -1691,12 +1615,8 @@
       <c r="M25" s="3">
         <v>168</v>
       </c>
-      <c r="N25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>33054</v>
       </c>
@@ -1736,12 +1656,8 @@
       <c r="M26" s="3">
         <v>202.8</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>33085</v>
       </c>
@@ -1781,12 +1697,8 @@
       <c r="M27" s="3">
         <v>242.2</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>33116</v>
       </c>
@@ -1826,12 +1738,8 @@
       <c r="M28" s="3">
         <v>276.5</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>33146</v>
       </c>
@@ -1871,12 +1779,8 @@
       <c r="M29" s="3">
         <v>306.2</v>
       </c>
-      <c r="N29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>33177</v>
       </c>
@@ -1916,12 +1820,8 @@
       <c r="M30" s="3">
         <v>336.3</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>33207</v>
       </c>
@@ -1961,12 +1861,8 @@
       <c r="M31" s="3">
         <v>362.2</v>
       </c>
-      <c r="N31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>33238</v>
       </c>
@@ -2006,12 +1902,8 @@
       <c r="M32" s="3">
         <v>384.5</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>33269</v>
       </c>
@@ -2051,12 +1943,8 @@
       <c r="M33" s="3">
         <v>32.6</v>
       </c>
-      <c r="N33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>33297</v>
       </c>
@@ -2096,12 +1984,8 @@
       <c r="M34" s="3">
         <v>61.1</v>
       </c>
-      <c r="N34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>33328</v>
       </c>
@@ -2141,12 +2025,8 @@
       <c r="M35" s="3">
         <v>96.2</v>
       </c>
-      <c r="N35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>33358</v>
       </c>
@@ -2186,12 +2066,8 @@
       <c r="M36" s="3">
         <v>126.4</v>
       </c>
-      <c r="N36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>33389</v>
       </c>
@@ -2231,12 +2107,8 @@
       <c r="M37" s="3">
         <v>158.80000000000001</v>
       </c>
-      <c r="N37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>33419</v>
       </c>
@@ -2276,12 +2148,8 @@
       <c r="M38" s="3">
         <v>196</v>
       </c>
-      <c r="N38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>33450</v>
       </c>
@@ -2321,12 +2189,8 @@
       <c r="M39" s="3">
         <v>231.8</v>
       </c>
-      <c r="N39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>33481</v>
       </c>
@@ -2366,12 +2230,8 @@
       <c r="M40" s="3">
         <v>267.60000000000002</v>
       </c>
-      <c r="N40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>33511</v>
       </c>
@@ -2411,12 +2271,8 @@
       <c r="M41" s="3">
         <v>301.5</v>
       </c>
-      <c r="N41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>33542</v>
       </c>
@@ -2456,12 +2312,8 @@
       <c r="M42" s="3">
         <v>339.4</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>33572</v>
       </c>
@@ -2501,12 +2353,8 @@
       <c r="M43" s="3">
         <v>375.1</v>
       </c>
-      <c r="N43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>33603</v>
       </c>
@@ -2546,12 +2394,8 @@
       <c r="M44" s="3">
         <v>398.41</v>
       </c>
-      <c r="N44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>33634</v>
       </c>
@@ -2591,12 +2435,8 @@
       <c r="M45" s="3">
         <v>28.2</v>
       </c>
-      <c r="N45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>33663</v>
       </c>
@@ -2636,12 +2476,8 @@
       <c r="M46" s="3">
         <v>62.8</v>
       </c>
-      <c r="N46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>33694</v>
       </c>
@@ -2681,12 +2517,8 @@
       <c r="M47" s="3">
         <v>99.5</v>
       </c>
-      <c r="N47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>33724</v>
       </c>
@@ -2726,12 +2558,8 @@
       <c r="M48" s="3">
         <v>147.5</v>
       </c>
-      <c r="N48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>33755</v>
       </c>
@@ -2771,12 +2599,8 @@
       <c r="M49" s="3">
         <v>177.8</v>
       </c>
-      <c r="N49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>33785</v>
       </c>
@@ -2816,12 +2640,8 @@
       <c r="M50" s="3">
         <v>209.5</v>
       </c>
-      <c r="N50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>33816</v>
       </c>
@@ -2861,12 +2681,8 @@
       <c r="M51" s="3">
         <v>243.2</v>
       </c>
-      <c r="N51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>33847</v>
       </c>
@@ -2906,12 +2722,8 @@
       <c r="M52" s="3">
         <v>279.5</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>33877</v>
       </c>
@@ -2951,12 +2763,8 @@
       <c r="M53" s="3">
         <v>310</v>
       </c>
-      <c r="N53" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>33908</v>
       </c>
@@ -2996,12 +2804,8 @@
       <c r="M54" s="3">
         <v>341.5</v>
       </c>
-      <c r="N54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>33938</v>
       </c>
@@ -3041,12 +2845,8 @@
       <c r="M55" s="3">
         <v>371.5</v>
       </c>
-      <c r="N55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>33969</v>
       </c>
@@ -3086,12 +2886,8 @@
       <c r="M56" s="3">
         <v>395.9</v>
       </c>
-      <c r="N56" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>34000</v>
       </c>
@@ -3131,12 +2927,8 @@
       <c r="M57" s="3">
         <v>32</v>
       </c>
-      <c r="N57" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>34028</v>
       </c>
@@ -3176,12 +2968,8 @@
       <c r="M58" s="3">
         <v>59.6</v>
       </c>
-      <c r="N58" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>34059</v>
       </c>
@@ -3221,12 +3009,8 @@
       <c r="M59" s="3">
         <v>89.3</v>
       </c>
-      <c r="N59" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>34089</v>
       </c>
@@ -3266,12 +3050,8 @@
       <c r="M60" s="3">
         <v>117.4</v>
       </c>
-      <c r="N60" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>34120</v>
       </c>
@@ -3311,12 +3091,8 @@
       <c r="M61" s="3">
         <v>151.1</v>
       </c>
-      <c r="N61" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>34150</v>
       </c>
@@ -3356,12 +3132,8 @@
       <c r="M62" s="3">
         <v>181.8</v>
       </c>
-      <c r="N62" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>34181</v>
       </c>
@@ -3401,12 +3173,8 @@
       <c r="M63" s="3">
         <v>214.5</v>
       </c>
-      <c r="N63" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
         <v>34212</v>
       </c>
@@ -3446,12 +3214,8 @@
       <c r="M64" s="3">
         <v>244.8</v>
       </c>
-      <c r="N64" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
         <v>34242</v>
       </c>
@@ -3491,12 +3255,8 @@
       <c r="M65" s="3">
         <v>274.2</v>
       </c>
-      <c r="N65" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
         <v>34273</v>
       </c>
@@ -3536,12 +3296,8 @@
       <c r="M66" s="3">
         <v>308.89999999999998</v>
       </c>
-      <c r="N66" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
         <v>34303</v>
       </c>
@@ -3581,12 +3337,8 @@
       <c r="M67" s="3">
         <v>343.6</v>
       </c>
-      <c r="N67" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
         <v>34334</v>
       </c>
@@ -3626,12 +3378,8 @@
       <c r="M68" s="3">
         <v>373.3</v>
       </c>
-      <c r="N68" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
         <v>34365</v>
       </c>
@@ -3671,12 +3419,8 @@
       <c r="M69" s="3">
         <v>34.4</v>
       </c>
-      <c r="N69" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
         <v>34393</v>
       </c>
@@ -3716,12 +3460,8 @@
       <c r="M70" s="3">
         <v>71.89</v>
       </c>
-      <c r="N70" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
         <v>34424</v>
       </c>
@@ -3761,12 +3501,8 @@
       <c r="M71" s="3">
         <v>115.41</v>
       </c>
-      <c r="N71" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>34454</v>
       </c>
@@ -3806,12 +3542,8 @@
       <c r="M72" s="3">
         <v>153.88999999999999</v>
       </c>
-      <c r="N72" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>34485</v>
       </c>
@@ -3851,12 +3583,8 @@
       <c r="M73" s="3">
         <v>190.93</v>
       </c>
-      <c r="N73" s="5">
-        <f t="shared" ref="N73:N136" si="1">E73-D73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
         <v>34515</v>
       </c>
@@ -3896,12 +3624,8 @@
       <c r="M74" s="3">
         <v>228.5</v>
       </c>
-      <c r="N74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>34546</v>
       </c>
@@ -3941,12 +3665,8 @@
       <c r="M75" s="3">
         <v>267.49</v>
       </c>
-      <c r="N75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>34577</v>
       </c>
@@ -3986,12 +3706,8 @@
       <c r="M76" s="3">
         <v>305.77</v>
       </c>
-      <c r="N76" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>34607</v>
       </c>
@@ -4031,12 +3747,8 @@
       <c r="M77" s="3">
         <v>334.77</v>
       </c>
-      <c r="N77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>34638</v>
       </c>
@@ -4076,12 +3788,8 @@
       <c r="M78" s="3">
         <v>368.17</v>
       </c>
-      <c r="N78" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
         <v>34668</v>
       </c>
@@ -4121,12 +3829,8 @@
       <c r="M79" s="3">
         <v>400.64</v>
       </c>
-      <c r="N79" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
         <v>34699</v>
       </c>
@@ -4166,12 +3870,8 @@
       <c r="M80" s="3">
         <v>433.42</v>
       </c>
-      <c r="N80" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>34730</v>
       </c>
@@ -4211,12 +3911,8 @@
       <c r="M81" s="3">
         <v>35.24</v>
       </c>
-      <c r="N81" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
         <v>34758</v>
       </c>
@@ -4256,12 +3952,8 @@
       <c r="M82" s="3">
         <v>66.83</v>
       </c>
-      <c r="N82" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
         <v>34789</v>
       </c>
@@ -4301,12 +3993,8 @@
       <c r="M83" s="3">
         <v>98.49</v>
       </c>
-      <c r="N83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>34819</v>
       </c>
@@ -4346,12 +4034,8 @@
       <c r="M84" s="3">
         <v>131.31</v>
       </c>
-      <c r="N84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
         <v>34850</v>
       </c>
@@ -4391,12 +4075,8 @@
       <c r="M85" s="3">
         <v>166.7</v>
       </c>
-      <c r="N85" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
         <v>34880</v>
       </c>
@@ -4436,12 +4116,8 @@
       <c r="M86" s="3">
         <v>201.44</v>
       </c>
-      <c r="N86" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>34911</v>
       </c>
@@ -4481,12 +4157,8 @@
       <c r="M87" s="3">
         <v>239.13</v>
       </c>
-      <c r="N87" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>34942</v>
       </c>
@@ -4526,12 +4198,8 @@
       <c r="M88" s="3">
         <v>279.62</v>
       </c>
-      <c r="N88" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>34972</v>
       </c>
@@ -4571,12 +4239,8 @@
       <c r="M89" s="3">
         <v>318.99</v>
       </c>
-      <c r="N89" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
         <v>35003</v>
       </c>
@@ -4616,12 +4280,8 @@
       <c r="M90" s="3">
         <v>357.96</v>
       </c>
-      <c r="N90" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
         <v>35033</v>
       </c>
@@ -4661,12 +4321,8 @@
       <c r="M91" s="3">
         <v>398.71</v>
       </c>
-      <c r="N91" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>35064</v>
       </c>
@@ -4706,12 +4362,8 @@
       <c r="M92" s="3">
         <v>435.32</v>
       </c>
-      <c r="N92" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
         <v>35095</v>
       </c>
@@ -4751,12 +4403,8 @@
       <c r="M93" s="3">
         <v>37.39</v>
       </c>
-      <c r="N93" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>35124</v>
       </c>
@@ -4796,12 +4444,8 @@
       <c r="M94" s="3">
         <v>77.87</v>
       </c>
-      <c r="N94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>35155</v>
       </c>
@@ -4841,12 +4485,8 @@
       <c r="M95" s="3">
         <v>116.65</v>
       </c>
-      <c r="N95" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
         <v>35185</v>
       </c>
@@ -4886,12 +4526,8 @@
       <c r="M96" s="3">
         <v>158.09</v>
       </c>
-      <c r="N96" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>35216</v>
       </c>
@@ -4931,12 +4567,8 @@
       <c r="M97" s="3">
         <v>207.18</v>
       </c>
-      <c r="N97" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>35246</v>
       </c>
@@ -4976,12 +4608,8 @@
       <c r="M98" s="3">
         <v>257.3</v>
       </c>
-      <c r="N98" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
         <v>35277</v>
       </c>
@@ -5021,12 +4649,8 @@
       <c r="M99" s="3">
         <v>297.32</v>
       </c>
-      <c r="N99" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
         <v>35308</v>
       </c>
@@ -5066,12 +4690,8 @@
       <c r="M100" s="3">
         <v>343.02</v>
       </c>
-      <c r="N100" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>35338</v>
       </c>
@@ -5111,12 +4731,8 @@
       <c r="M101" s="3">
         <v>388.04</v>
       </c>
-      <c r="N101" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
         <v>35369</v>
       </c>
@@ -5156,12 +4772,8 @@
       <c r="M102" s="3">
         <v>436.75</v>
       </c>
-      <c r="N102" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
         <v>35399</v>
       </c>
@@ -5201,12 +4813,8 @@
       <c r="M103" s="3">
         <v>482.99</v>
       </c>
-      <c r="N103" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>35430</v>
       </c>
@@ -5246,12 +4854,8 @@
       <c r="M104" s="3">
         <v>529.17999999999995</v>
       </c>
-      <c r="N104" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2">
         <v>35461</v>
       </c>
@@ -5291,12 +4895,8 @@
       <c r="M105" s="3">
         <v>42.33</v>
       </c>
-      <c r="N105" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2">
         <v>35489</v>
       </c>
@@ -5336,12 +4936,8 @@
       <c r="M106" s="3">
         <v>102.04</v>
       </c>
-      <c r="N106" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2">
         <v>35520</v>
       </c>
@@ -5381,12 +4977,8 @@
       <c r="M107" s="3">
         <v>126.12</v>
       </c>
-      <c r="N107" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2">
         <v>35550</v>
       </c>
@@ -5426,12 +5018,8 @@
       <c r="M108" s="3">
         <v>171.34</v>
       </c>
-      <c r="N108" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2">
         <v>35581</v>
       </c>
@@ -5471,12 +5059,8 @@
       <c r="M109" s="3">
         <v>217.64</v>
       </c>
-      <c r="N109" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>35611</v>
       </c>
@@ -5516,12 +5100,8 @@
       <c r="M110" s="3">
         <v>265.24</v>
       </c>
-      <c r="N110" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2">
         <v>35642</v>
       </c>
@@ -5561,12 +5141,8 @@
       <c r="M111" s="3">
         <v>310.98</v>
       </c>
-      <c r="N111" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2">
         <v>35673</v>
       </c>
@@ -5606,12 +5182,8 @@
       <c r="M112" s="3">
         <v>361.3</v>
       </c>
-      <c r="N112" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>35703</v>
       </c>
@@ -5651,12 +5223,8 @@
       <c r="M113" s="3">
         <v>415.32</v>
       </c>
-      <c r="N113" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>35734</v>
       </c>
@@ -5696,12 +5264,8 @@
       <c r="M114" s="3">
         <v>472.1</v>
       </c>
-      <c r="N114" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>35764</v>
       </c>
@@ -5741,12 +5305,8 @@
       <c r="M115" s="3">
         <v>523.80999999999995</v>
       </c>
-      <c r="N115" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2">
         <v>35795</v>
       </c>
@@ -5786,12 +5346,8 @@
       <c r="M116" s="3">
         <v>573.69000000000005</v>
       </c>
-      <c r="N116" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2">
         <v>35826</v>
       </c>
@@ -5831,12 +5387,8 @@
       <c r="M117" s="3">
         <v>48.25</v>
       </c>
-      <c r="N117" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>35854</v>
       </c>
@@ -5876,12 +5428,8 @@
       <c r="M118" s="3">
         <v>99.69</v>
       </c>
-      <c r="N118" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2">
         <v>35885</v>
       </c>
@@ -5921,12 +5469,8 @@
       <c r="M119" s="3">
         <v>154.71</v>
       </c>
-      <c r="N119" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2">
         <v>35915</v>
       </c>
@@ -5966,12 +5510,8 @@
       <c r="M120" s="3">
         <v>206.84</v>
       </c>
-      <c r="N120" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>35946</v>
       </c>
@@ -6011,12 +5551,8 @@
       <c r="M121" s="3">
         <v>260.62</v>
       </c>
-      <c r="N121" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>35976</v>
       </c>
@@ -6056,12 +5592,8 @@
       <c r="M122" s="3">
         <v>311.55</v>
       </c>
-      <c r="N122" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2">
         <v>36007</v>
       </c>
@@ -6101,12 +5633,8 @@
       <c r="M123" s="3">
         <v>359.08</v>
       </c>
-      <c r="N123" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>36038</v>
       </c>
@@ -6146,12 +5674,8 @@
       <c r="M124" s="3">
         <v>406.54</v>
       </c>
-      <c r="N124" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>36068</v>
       </c>
@@ -6191,12 +5715,8 @@
       <c r="M125" s="3">
         <v>456.86</v>
       </c>
-      <c r="N125" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>36099</v>
       </c>
@@ -6236,12 +5756,8 @@
       <c r="M126" s="3">
         <v>511.41</v>
       </c>
-      <c r="N126" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2">
         <v>36129</v>
       </c>
@@ -6281,12 +5797,8 @@
       <c r="M127" s="3">
         <v>567.95000000000005</v>
       </c>
-      <c r="N127" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2">
         <v>36160</v>
       </c>
@@ -6326,12 +5838,8 @@
       <c r="M128" s="3">
         <v>574.89</v>
       </c>
-      <c r="N128" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>36191</v>
       </c>
@@ -6371,12 +5879,8 @@
       <c r="M129" s="3">
         <v>43.3</v>
       </c>
-      <c r="N129" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2">
         <v>36219</v>
       </c>
@@ -6416,12 +5920,8 @@
       <c r="M130" s="3">
         <v>95.9</v>
       </c>
-      <c r="N130" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2">
         <v>36250</v>
       </c>
@@ -6461,12 +5961,8 @@
       <c r="M131" s="3">
         <v>147.26</v>
       </c>
-      <c r="N131" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2">
         <v>36280</v>
       </c>
@@ -6506,12 +6002,8 @@
       <c r="M132" s="3">
         <v>208.29</v>
       </c>
-      <c r="N132" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2">
         <v>36311</v>
       </c>
@@ -6551,12 +6043,8 @@
       <c r="M133" s="3">
         <v>262.04000000000002</v>
       </c>
-      <c r="N133" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>36341</v>
       </c>
@@ -6596,12 +6084,8 @@
       <c r="M134" s="3">
         <v>326.48</v>
       </c>
-      <c r="N134" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2">
         <v>36372</v>
       </c>
@@ -6641,12 +6125,8 @@
       <c r="M135" s="3">
         <v>390.93</v>
       </c>
-      <c r="N135" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2">
         <v>36403</v>
       </c>
@@ -6686,12 +6166,8 @@
       <c r="M136" s="3">
         <v>461.82</v>
       </c>
-      <c r="N136" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>36433</v>
       </c>
@@ -6731,12 +6207,8 @@
       <c r="M137" s="3">
         <v>529.01</v>
       </c>
-      <c r="N137" s="5">
-        <f t="shared" ref="N137:N200" si="2">E137-D137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>36464</v>
       </c>
@@ -6776,12 +6248,8 @@
       <c r="M138" s="3">
         <v>606.17999999999995</v>
       </c>
-      <c r="N138" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2">
         <v>36494</v>
       </c>
@@ -6821,12 +6289,8 @@
       <c r="M139" s="3">
         <v>670.21</v>
       </c>
-      <c r="N139" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2">
         <v>36525</v>
       </c>
@@ -6866,12 +6330,8 @@
       <c r="M140" s="3">
         <v>719.46</v>
       </c>
-      <c r="N140" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>36556</v>
       </c>
@@ -6911,12 +6371,8 @@
       <c r="M141" s="3">
         <v>52.55</v>
       </c>
-      <c r="N141" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>36585</v>
       </c>
@@ -6956,12 +6412,8 @@
       <c r="M142" s="3">
         <v>113.48</v>
       </c>
-      <c r="N142" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2">
         <v>36616</v>
       </c>
@@ -7001,12 +6453,8 @@
       <c r="M143" s="3">
         <v>205.46</v>
       </c>
-      <c r="N143" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2">
         <v>36646</v>
       </c>
@@ -7046,12 +6494,8 @@
       <c r="M144" s="3">
         <v>283.3</v>
       </c>
-      <c r="N144" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2">
         <v>36677</v>
       </c>
@@ -7091,12 +6535,8 @@
       <c r="M145" s="3">
         <v>358.82</v>
       </c>
-      <c r="N145" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2">
         <v>36707</v>
       </c>
@@ -7136,12 +6576,8 @@
       <c r="M146" s="3">
         <v>437.63</v>
       </c>
-      <c r="N146" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>36738</v>
       </c>
@@ -7181,12 +6617,8 @@
       <c r="M147" s="3">
         <v>511.06</v>
       </c>
-      <c r="N147" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>36769</v>
       </c>
@@ -7226,12 +6658,8 @@
       <c r="M148" s="3">
         <v>583.04999999999995</v>
       </c>
-      <c r="N148" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2">
         <v>36799</v>
       </c>
@@ -7271,12 +6699,8 @@
       <c r="M149" s="3">
         <v>655.44</v>
       </c>
-      <c r="N149" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>36830</v>
       </c>
@@ -7316,12 +6740,8 @@
       <c r="M150" s="3">
         <v>727.93</v>
       </c>
-      <c r="N150" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>36860</v>
       </c>
@@ -7361,12 +6781,8 @@
       <c r="M151" s="3">
         <v>800.24</v>
       </c>
-      <c r="N151" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>36891</v>
       </c>
@@ -7406,12 +6822,8 @@
       <c r="M152" s="3">
         <v>872.29</v>
       </c>
-      <c r="N152" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>36922</v>
       </c>
@@ -7451,12 +6863,8 @@
       <c r="M153" s="3">
         <v>61.52</v>
       </c>
-      <c r="N153" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>36950</v>
       </c>
@@ -7496,12 +6904,8 @@
       <c r="M154" s="3">
         <v>120.01</v>
       </c>
-      <c r="N154" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2">
         <v>36981</v>
       </c>
@@ -7541,12 +6945,8 @@
       <c r="M155" s="3">
         <v>182.29</v>
       </c>
-      <c r="N155" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="2">
         <v>37011</v>
       </c>
@@ -7586,12 +6986,8 @@
       <c r="M156" s="3">
         <v>244.62</v>
       </c>
-      <c r="N156" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
         <v>37042</v>
       </c>
@@ -7631,12 +7027,8 @@
       <c r="M157" s="3">
         <v>316.52</v>
       </c>
-      <c r="N157" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2">
         <v>37072</v>
       </c>
@@ -7676,12 +7068,8 @@
       <c r="M158" s="3">
         <v>389.45</v>
       </c>
-      <c r="N158" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2">
         <v>37103</v>
       </c>
@@ -7721,12 +7109,8 @@
       <c r="M159" s="3">
         <v>458.77</v>
       </c>
-      <c r="N159" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2">
         <v>37134</v>
       </c>
@@ -7766,12 +7150,8 @@
       <c r="M160" s="3">
         <v>526.63</v>
       </c>
-      <c r="N160" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2">
         <v>37164</v>
       </c>
@@ -7811,12 +7191,8 @@
       <c r="M161" s="3">
         <v>590.41</v>
       </c>
-      <c r="N161" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
         <v>37195</v>
       </c>
@@ -7856,12 +7232,8 @@
       <c r="M162" s="3">
         <v>662.82</v>
       </c>
-      <c r="N162" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
         <v>37225</v>
       </c>
@@ -7901,12 +7273,8 @@
       <c r="M163" s="3">
         <v>733.46</v>
       </c>
-      <c r="N163" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
         <v>37256</v>
       </c>
@@ -7946,12 +7314,8 @@
       <c r="M164" s="3">
         <v>789.35</v>
       </c>
-      <c r="N164" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="2">
         <v>37287</v>
       </c>
@@ -7991,12 +7355,8 @@
       <c r="M165" s="3">
         <v>55.38</v>
       </c>
-      <c r="N165" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="2">
         <v>37315</v>
       </c>
@@ -8036,12 +7396,8 @@
       <c r="M166" s="3">
         <v>117.58</v>
       </c>
-      <c r="N166" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
         <v>37346</v>
       </c>
@@ -8081,12 +7437,8 @@
       <c r="M167" s="3">
         <v>183.15</v>
       </c>
-      <c r="N167" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2">
         <v>37376</v>
       </c>
@@ -8126,12 +7478,8 @@
       <c r="M168" s="3">
         <v>254.8</v>
       </c>
-      <c r="N168" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2">
         <v>37407</v>
       </c>
@@ -8171,12 +7519,8 @@
       <c r="M169" s="3">
         <v>326.97000000000003</v>
       </c>
-      <c r="N169" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
         <v>37437</v>
       </c>
@@ -8216,12 +7560,8 @@
       <c r="M170" s="3">
         <v>403.11</v>
       </c>
-      <c r="N170" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="2">
         <v>37468</v>
       </c>
@@ -8261,12 +7601,8 @@
       <c r="M171" s="3">
         <v>468.52</v>
       </c>
-      <c r="N171" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="2">
         <v>37499</v>
       </c>
@@ -8306,12 +7642,8 @@
       <c r="M172" s="3">
         <v>537.79999999999995</v>
       </c>
-      <c r="N172" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="2">
         <v>37529</v>
       </c>
@@ -8351,12 +7683,8 @@
       <c r="M173" s="3">
         <v>603.20000000000005</v>
       </c>
-      <c r="N173" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="2">
         <v>37560</v>
       </c>
@@ -8396,12 +7724,8 @@
       <c r="M174" s="3">
         <v>681.31</v>
       </c>
-      <c r="N174" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="2">
         <v>37590</v>
       </c>
@@ -8441,12 +7765,8 @@
       <c r="M175" s="3">
         <v>763.78</v>
       </c>
-      <c r="N175" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="2">
         <v>37621</v>
       </c>
@@ -8486,12 +7806,8 @@
       <c r="M176" s="3">
         <v>826.11</v>
       </c>
-      <c r="N176" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="2">
         <v>37652</v>
       </c>
@@ -8531,12 +7847,8 @@
       <c r="M177" s="3">
         <v>74.16</v>
       </c>
-      <c r="N177" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="2">
         <v>37680</v>
       </c>
@@ -8576,12 +7888,8 @@
       <c r="M178" s="3">
         <v>152.63999999999999</v>
       </c>
-      <c r="N178" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="2">
         <v>37711</v>
       </c>
@@ -8621,12 +7929,8 @@
       <c r="M179" s="3">
         <v>229.92</v>
       </c>
-      <c r="N179" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="2">
         <v>37741</v>
       </c>
@@ -8666,12 +7970,8 @@
       <c r="M180" s="3">
         <v>301.97000000000003</v>
       </c>
-      <c r="N180" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="2">
         <v>37772</v>
       </c>
@@ -8711,12 +8011,8 @@
       <c r="M181" s="3">
         <v>354.95</v>
       </c>
-      <c r="N181" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="2">
         <v>37802</v>
       </c>
@@ -8756,12 +8052,8 @@
       <c r="M182" s="3">
         <v>402.3</v>
       </c>
-      <c r="N182" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="2">
         <v>37833</v>
       </c>
@@ -8801,12 +8093,8 @@
       <c r="M183" s="3">
         <v>464.4</v>
       </c>
-      <c r="N183" s="5">
-        <f t="shared" si="2"/>
-        <v>-750.00000000000023</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="2">
         <v>37864</v>
       </c>
@@ -8846,12 +8134,8 @@
       <c r="M184" s="3">
         <v>543.72</v>
       </c>
-      <c r="N184" s="5">
-        <f t="shared" si="2"/>
-        <v>-929.99999999999977</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="2">
         <v>37894</v>
       </c>
@@ -8891,12 +8175,8 @@
       <c r="M185" s="3">
         <v>625.41</v>
       </c>
-      <c r="N185" s="5">
-        <f t="shared" si="2"/>
-        <v>-1105</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="2">
         <v>37925</v>
       </c>
@@ -8936,12 +8216,8 @@
       <c r="M186" s="3">
         <v>708.38</v>
       </c>
-      <c r="N186" s="5">
-        <f t="shared" si="2"/>
-        <v>-1226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="2">
         <v>37955</v>
       </c>
@@ -8981,12 +8257,8 @@
       <c r="M187" s="3">
         <v>783.52</v>
       </c>
-      <c r="N187" s="5">
-        <f t="shared" si="2"/>
-        <v>-1346</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="2">
         <v>37986</v>
       </c>
@@ -9026,12 +8298,8 @@
       <c r="M188" s="3">
         <v>855.3</v>
       </c>
-      <c r="N188" s="5">
-        <f t="shared" si="2"/>
-        <v>-1442</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="2">
         <v>38017</v>
       </c>
@@ -9071,12 +8339,8 @@
       <c r="M189" s="3">
         <v>79.56</v>
       </c>
-      <c r="N189" s="5">
-        <f t="shared" si="2"/>
-        <v>-203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="2">
         <v>38046</v>
       </c>
@@ -9116,12 +8380,8 @@
       <c r="M190" s="3">
         <v>160.25</v>
       </c>
-      <c r="N190" s="5">
-        <f t="shared" si="2"/>
-        <v>-399</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="2">
         <v>38077</v>
       </c>
@@ -9161,12 +8421,8 @@
       <c r="M191" s="3">
         <v>236.9</v>
       </c>
-      <c r="N191" s="5">
-        <f t="shared" si="2"/>
-        <v>-598</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="2">
         <v>38107</v>
       </c>
@@ -9206,12 +8462,8 @@
       <c r="M192" s="3">
         <v>305.8</v>
       </c>
-      <c r="N192" s="5">
-        <f t="shared" si="2"/>
-        <v>-946</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="2">
         <v>38138</v>
       </c>
@@ -9251,12 +8503,8 @@
       <c r="M193" s="3">
         <v>382.78</v>
       </c>
-      <c r="N193" s="5">
-        <f t="shared" si="2"/>
-        <v>-1186</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="2">
         <v>38168</v>
       </c>
@@ -9296,12 +8544,8 @@
       <c r="M194" s="3">
         <v>465.21</v>
       </c>
-      <c r="N194" s="5">
-        <f t="shared" si="2"/>
-        <v>-1475.0000000000002</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14">
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="2">
         <v>38199</v>
       </c>
@@ -9341,12 +8585,8 @@
       <c r="M195" s="3">
         <v>545.9</v>
       </c>
-      <c r="N195" s="5">
-        <f t="shared" si="2"/>
-        <v>-1661</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="2">
         <v>38230</v>
       </c>
@@ -9386,12 +8626,8 @@
       <c r="M196" s="3">
         <v>624.79</v>
       </c>
-      <c r="N196" s="5">
-        <f t="shared" si="2"/>
-        <v>-1796</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="2">
         <v>38260</v>
       </c>
@@ -9431,12 +8667,8 @@
       <c r="M197" s="3">
         <v>711.4</v>
       </c>
-      <c r="N197" s="5">
-        <f t="shared" si="2"/>
-        <v>-1945</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="2">
         <v>38291</v>
       </c>
@@ -9476,12 +8708,8 @@
       <c r="M198" s="3">
         <v>802.76</v>
       </c>
-      <c r="N198" s="5">
-        <f t="shared" si="2"/>
-        <v>-2140.9999999999995</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14">
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="2">
         <v>38321</v>
       </c>
@@ -9521,12 +8749,8 @@
       <c r="M199" s="3">
         <v>883.95</v>
       </c>
-      <c r="N199" s="5">
-        <f t="shared" si="2"/>
-        <v>-2436</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14">
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="2">
         <v>38352</v>
       </c>
@@ -9566,12 +8790,8 @@
       <c r="M200" s="3">
         <v>970.75</v>
       </c>
-      <c r="N200" s="5">
-        <f t="shared" si="2"/>
-        <v>-2642</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14">
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="2">
         <v>38383</v>
       </c>
@@ -9611,12 +8831,8 @@
       <c r="M201" s="3">
         <v>80.66</v>
       </c>
-      <c r="N201" s="5">
-        <f t="shared" ref="N201:N264" si="3">E201-D201</f>
-        <v>-227</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14">
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="2">
         <v>38411</v>
       </c>
@@ -9656,12 +8872,8 @@
       <c r="M202" s="3">
         <v>160.16</v>
       </c>
-      <c r="N202" s="5">
-        <f t="shared" si="3"/>
-        <v>-379</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14">
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="2">
         <v>38442</v>
       </c>
@@ -9701,12 +8913,8 @@
       <c r="M203" s="3">
         <v>253.43</v>
       </c>
-      <c r="N203" s="5">
-        <f t="shared" si="3"/>
-        <v>-491</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14">
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="2">
         <v>38472</v>
       </c>
@@ -9746,12 +8954,8 @@
       <c r="M204" s="3">
         <v>335.7</v>
       </c>
-      <c r="N204" s="5">
-        <f t="shared" si="3"/>
-        <v>-601</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="2">
         <v>38503</v>
       </c>
@@ -9791,12 +8995,8 @@
       <c r="M205" s="3">
         <v>417</v>
       </c>
-      <c r="N205" s="5">
-        <f t="shared" si="3"/>
-        <v>-635</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="2">
         <v>38533</v>
       </c>
@@ -9836,12 +9036,8 @@
       <c r="M206" s="3">
         <v>500.06</v>
       </c>
-      <c r="N206" s="5">
-        <f t="shared" si="3"/>
-        <v>-816.00000000000011</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14">
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="2">
         <v>38564</v>
       </c>
@@ -9881,12 +9077,8 @@
       <c r="M207" s="3">
         <v>590.44000000000005</v>
       </c>
-      <c r="N207" s="5">
-        <f t="shared" si="3"/>
-        <v>-930.00000000000023</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>38595</v>
       </c>
@@ -9926,12 +9118,8 @@
       <c r="M208" s="3">
         <v>688.7</v>
       </c>
-      <c r="N208" s="5">
-        <f t="shared" si="3"/>
-        <v>-1001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="2">
         <v>38625</v>
       </c>
@@ -9971,12 +9159,8 @@
       <c r="M209" s="3">
         <v>771.3</v>
       </c>
-      <c r="N209" s="5">
-        <f t="shared" si="3"/>
-        <v>-1169</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="2">
         <v>38656</v>
       </c>
@@ -10016,12 +9200,8 @@
       <c r="M210" s="3">
         <v>846.99</v>
       </c>
-      <c r="N210" s="5">
-        <f t="shared" si="3"/>
-        <v>-1358</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="2">
         <v>38686</v>
       </c>
@@ -10061,12 +9241,8 @@
       <c r="M211" s="3">
         <v>919.97</v>
       </c>
-      <c r="N211" s="5">
-        <f t="shared" si="3"/>
-        <v>-1523</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="2">
         <v>38717</v>
       </c>
@@ -10106,12 +9282,8 @@
       <c r="M212" s="3">
         <v>988.59</v>
       </c>
-      <c r="N212" s="5">
-        <f t="shared" si="3"/>
-        <v>-1741.9999999999995</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="2">
         <v>38748</v>
       </c>
@@ -10151,12 +9323,8 @@
       <c r="M213" s="3">
         <v>101.21</v>
       </c>
-      <c r="N213" s="5">
-        <f t="shared" si="3"/>
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="2">
         <v>38776</v>
       </c>
@@ -10196,12 +9364,8 @@
       <c r="M214" s="3">
         <v>175.81</v>
       </c>
-      <c r="N214" s="5">
-        <f t="shared" si="3"/>
-        <v>-305</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="2">
         <v>38807</v>
       </c>
@@ -10241,12 +9405,8 @@
       <c r="M215" s="3">
         <v>252.03</v>
       </c>
-      <c r="N215" s="5">
-        <f t="shared" si="3"/>
-        <v>-497</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14">
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="2">
         <v>38837</v>
       </c>
@@ -10286,12 +9446,8 @@
       <c r="M216" s="3">
         <v>313.49</v>
       </c>
-      <c r="N216" s="5">
-        <f t="shared" si="3"/>
-        <v>-696</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="2">
         <v>38868</v>
       </c>
@@ -10331,12 +9487,8 @@
       <c r="M217" s="3">
         <v>404.73</v>
       </c>
-      <c r="N217" s="5">
-        <f t="shared" si="3"/>
-        <v>-886</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="2">
         <v>38898</v>
       </c>
@@ -10376,12 +9528,8 @@
       <c r="M218" s="3">
         <v>484.23</v>
       </c>
-      <c r="N218" s="5">
-        <f t="shared" si="3"/>
-        <v>-1202.9999999999998</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14">
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="2">
         <v>38929</v>
       </c>
@@ -10421,12 +9569,8 @@
       <c r="M219" s="3">
         <v>566.25</v>
       </c>
-      <c r="N219" s="5">
-        <f t="shared" si="3"/>
-        <v>-1485</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="2">
         <v>38960</v>
       </c>
@@ -10466,12 +9610,8 @@
       <c r="M220" s="3">
         <v>647.92999999999995</v>
       </c>
-      <c r="N220" s="5">
-        <f t="shared" si="3"/>
-        <v>-1755</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="2">
         <v>38990</v>
       </c>
@@ -10511,12 +9651,8 @@
       <c r="M221" s="3">
         <v>731.52</v>
       </c>
-      <c r="N221" s="5">
-        <f t="shared" si="3"/>
-        <v>-2005</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="2">
         <v>39021</v>
       </c>
@@ -10556,12 +9692,8 @@
       <c r="M222" s="3">
         <v>813.87</v>
       </c>
-      <c r="N222" s="5">
-        <f t="shared" si="3"/>
-        <v>-2187</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="2">
         <v>39051</v>
       </c>
@@ -10601,12 +9733,8 @@
       <c r="M223" s="3">
         <v>885.41</v>
       </c>
-      <c r="N223" s="5">
-        <f t="shared" si="3"/>
-        <v>-2305.0000000000005</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14">
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="2">
         <v>39082</v>
       </c>
@@ -10646,12 +9774,8 @@
       <c r="M224" s="3">
         <v>959.95</v>
       </c>
-      <c r="N224" s="5">
-        <f t="shared" si="3"/>
-        <v>-2402.9999999999995</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="2">
         <v>39113</v>
       </c>
@@ -10691,12 +9815,8 @@
       <c r="M225" s="3">
         <v>76.48</v>
       </c>
-      <c r="N225" s="5">
-        <f t="shared" si="3"/>
-        <v>-184</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14">
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="2">
         <v>39141</v>
       </c>
@@ -10736,12 +9856,8 @@
       <c r="M226" s="3">
         <v>162.13</v>
       </c>
-      <c r="N226" s="5">
-        <f t="shared" si="3"/>
-        <v>-271</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="2">
         <v>39172</v>
       </c>
@@ -10781,12 +9897,8 @@
       <c r="M227" s="3">
         <v>253.72</v>
       </c>
-      <c r="N227" s="5">
-        <f t="shared" si="3"/>
-        <v>-415</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14">
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="2">
         <v>39202</v>
       </c>
@@ -10826,12 +9938,8 @@
       <c r="M228" s="3">
         <v>346.69</v>
       </c>
-      <c r="N228" s="5">
-        <f t="shared" si="3"/>
-        <v>-637</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14">
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="2">
         <v>39233</v>
       </c>
@@ -10871,12 +9979,8 @@
       <c r="M229" s="3">
         <v>451.97</v>
       </c>
-      <c r="N229" s="5">
-        <f t="shared" si="3"/>
-        <v>-832</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14">
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="2">
         <v>39263</v>
       </c>
@@ -10916,12 +10020,8 @@
       <c r="M230" s="3">
         <v>552.1</v>
       </c>
-      <c r="N230" s="5">
-        <f t="shared" si="3"/>
-        <v>-1014.0000000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14">
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="2">
         <v>39294</v>
       </c>
@@ -10961,12 +10061,8 @@
       <c r="M231" s="3">
         <v>660.58</v>
       </c>
-      <c r="N231" s="5">
-        <f t="shared" si="3"/>
-        <v>-1276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14">
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="2">
         <v>39325</v>
       </c>
@@ -11006,12 +10102,8 @@
       <c r="M232" s="3">
         <v>768.36</v>
       </c>
-      <c r="N232" s="5">
-        <f t="shared" si="3"/>
-        <v>-1400</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14">
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="2">
         <v>39355</v>
       </c>
@@ -11051,12 +10143,8 @@
       <c r="M233" s="3">
         <v>866.96</v>
       </c>
-      <c r="N233" s="5">
-        <f t="shared" si="3"/>
-        <v>-1498</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14">
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="2">
         <v>39386</v>
       </c>
@@ -11096,12 +10184,8 @@
       <c r="M234" s="3">
         <v>969.27</v>
       </c>
-      <c r="N234" s="5">
-        <f t="shared" si="3"/>
-        <v>-1603</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14">
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="2">
         <v>39416</v>
       </c>
@@ -11141,12 +10225,8 @@
       <c r="M235" s="3">
         <v>1061.73</v>
       </c>
-      <c r="N235" s="5">
-        <f t="shared" si="3"/>
-        <v>-1685</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="2">
         <v>39447</v>
       </c>
@@ -11186,12 +10266,8 @@
       <c r="M236" s="3">
         <v>1153.27</v>
       </c>
-      <c r="N236" s="5">
-        <f t="shared" si="3"/>
-        <v>-1829</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14">
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="2">
         <v>39478</v>
       </c>
@@ -11231,12 +10307,8 @@
       <c r="M237" s="3">
         <v>95.93</v>
       </c>
-      <c r="N237" s="5">
-        <f t="shared" si="3"/>
-        <v>-202</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14">
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="2">
         <v>39507</v>
       </c>
@@ -11276,12 +10348,8 @@
       <c r="M238" s="3">
         <v>193.24</v>
       </c>
-      <c r="N238" s="5">
-        <f t="shared" si="3"/>
-        <v>-352</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14">
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="2">
         <v>39538</v>
       </c>
@@ -11321,12 +10389,8 @@
       <c r="M239" s="3">
         <v>302.73</v>
       </c>
-      <c r="N239" s="5">
-        <f t="shared" si="3"/>
-        <v>-547</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14">
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="2">
         <v>39568</v>
       </c>
@@ -11366,12 +10430,8 @@
       <c r="M240" s="3">
         <v>402</v>
       </c>
-      <c r="N240" s="5">
-        <f t="shared" si="3"/>
-        <v>-784</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14">
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="2">
         <v>39599</v>
       </c>
@@ -11411,12 +10471,8 @@
       <c r="M241" s="3">
         <v>493.06</v>
       </c>
-      <c r="N241" s="5">
-        <f t="shared" si="3"/>
-        <v>-1086</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14">
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="2">
         <v>39629</v>
       </c>
@@ -11456,12 +10512,8 @@
       <c r="M242" s="3">
         <v>585.66999999999996</v>
       </c>
-      <c r="N242" s="5">
-        <f t="shared" si="3"/>
-        <v>-1313</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14">
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="2">
         <v>39660</v>
       </c>
@@ -11501,12 +10553,8 @@
       <c r="M243" s="3">
         <v>674.02</v>
       </c>
-      <c r="N243" s="5">
-        <f t="shared" si="3"/>
-        <v>-1586</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14">
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="2">
         <v>39691</v>
       </c>
@@ -11546,12 +10594,8 @@
       <c r="M244" s="3">
         <v>766.73</v>
       </c>
-      <c r="N244" s="5">
-        <f t="shared" si="3"/>
-        <v>-1779</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14">
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="2">
         <v>39721</v>
       </c>
@@ -11591,12 +10635,8 @@
       <c r="M245" s="3">
         <v>868.98</v>
       </c>
-      <c r="N245" s="5">
-        <f t="shared" si="3"/>
-        <v>-1898</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14">
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="2">
         <v>39752</v>
       </c>
@@ -11636,12 +10676,8 @@
       <c r="M246" s="3">
         <v>977.61</v>
       </c>
-      <c r="N246" s="5">
-        <f t="shared" si="3"/>
-        <v>-1952</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14">
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="2">
         <v>39782</v>
       </c>
@@ -11681,12 +10717,8 @@
       <c r="M247" s="3">
         <v>1074.3</v>
       </c>
-      <c r="N247" s="5">
-        <f t="shared" si="3"/>
-        <v>-2020.0000000000005</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="2">
         <v>39813</v>
       </c>
@@ -11726,12 +10758,8 @@
       <c r="M248" s="3">
         <v>1165.3699999999999</v>
       </c>
-      <c r="N248" s="5">
-        <f t="shared" si="3"/>
-        <v>-2181.9999999999995</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14">
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="2">
         <v>39844</v>
       </c>
@@ -11771,12 +10799,8 @@
       <c r="M249" s="3">
         <v>89.95</v>
       </c>
-      <c r="N249" s="5">
-        <f t="shared" si="3"/>
-        <v>-126.00000000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" s="2">
         <v>39872</v>
       </c>
@@ -11816,12 +10840,8 @@
       <c r="M250" s="3">
         <v>187.62</v>
       </c>
-      <c r="N250" s="5">
-        <f t="shared" si="3"/>
-        <v>-314</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14">
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" s="2">
         <v>39903</v>
       </c>
@@ -11861,12 +10881,8 @@
       <c r="M251" s="3">
         <v>301.62</v>
       </c>
-      <c r="N251" s="5">
-        <f t="shared" si="3"/>
-        <v>-479</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" s="2">
         <v>39933</v>
       </c>
@@ -11906,12 +10922,8 @@
       <c r="M252" s="3">
         <v>409.46</v>
       </c>
-      <c r="N252" s="5">
-        <f t="shared" si="3"/>
-        <v>-641</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" s="2">
         <v>39964</v>
       </c>
@@ -11951,12 +10963,8 @@
       <c r="M253" s="3">
         <v>527.75</v>
       </c>
-      <c r="N253" s="5">
-        <f t="shared" si="3"/>
-        <v>-804</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" s="2">
         <v>39994</v>
       </c>
@@ -11996,12 +11004,8 @@
       <c r="M254" s="3">
         <v>657.69</v>
       </c>
-      <c r="N254" s="5">
-        <f t="shared" si="3"/>
-        <v>-915</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" s="2">
         <v>40025</v>
       </c>
@@ -12041,12 +11045,8 @@
       <c r="M255" s="3">
         <v>793.08</v>
       </c>
-      <c r="N255" s="5">
-        <f t="shared" si="3"/>
-        <v>-1082</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" s="2">
         <v>40056</v>
       </c>
@@ -12086,12 +11086,8 @@
       <c r="M256" s="3">
         <v>933.51</v>
       </c>
-      <c r="N256" s="5">
-        <f t="shared" si="3"/>
-        <v>-1114</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" s="2">
         <v>40086</v>
       </c>
@@ -12131,12 +11127,8 @@
       <c r="M257" s="3">
         <v>1077.07</v>
       </c>
-      <c r="N257" s="5">
-        <f t="shared" si="3"/>
-        <v>-1186</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" s="2">
         <v>40117</v>
       </c>
@@ -12176,12 +11168,8 @@
       <c r="M258" s="3">
         <v>1213.03</v>
       </c>
-      <c r="N258" s="5">
-        <f t="shared" si="3"/>
-        <v>-1215</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14">
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="2">
         <v>40147</v>
       </c>
@@ -12221,12 +11209,8 @@
       <c r="M259" s="3">
         <v>1343.15</v>
       </c>
-      <c r="N259" s="5">
-        <f t="shared" si="3"/>
-        <v>-1230</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14">
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" s="2">
         <v>40178</v>
       </c>
@@ -12266,12 +11250,8 @@
       <c r="M260" s="3">
         <v>1479.43</v>
       </c>
-      <c r="N260" s="5">
-        <f t="shared" si="3"/>
-        <v>-1192</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14">
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" s="2">
         <v>40209</v>
       </c>
@@ -12311,12 +11291,8 @@
       <c r="M261" s="3">
         <v>134.76859999999999</v>
       </c>
-      <c r="N261" s="5">
-        <f t="shared" si="3"/>
-        <v>15.999999999999972</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="2">
         <v>40237</v>
       </c>
@@ -12356,12 +11332,8 @@
       <c r="M262" s="3">
         <v>263.39999999999998</v>
       </c>
-      <c r="N262" s="5">
-        <f t="shared" si="3"/>
-        <v>-113</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" s="2">
         <v>40268</v>
       </c>
@@ -12401,12 +11373,8 @@
       <c r="M263" s="3">
         <v>402.9</v>
       </c>
-      <c r="N263" s="5">
-        <f t="shared" si="3"/>
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14">
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="2">
         <v>40298</v>
       </c>
@@ -12446,12 +11414,8 @@
       <c r="M264" s="3">
         <v>549.5</v>
       </c>
-      <c r="N264" s="5">
-        <f t="shared" si="3"/>
-        <v>-255.00000000000011</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14">
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" s="2">
         <v>40329</v>
       </c>
@@ -12491,12 +11455,8 @@
       <c r="M265" s="3">
         <v>695.7</v>
       </c>
-      <c r="N265" s="5">
-        <f t="shared" ref="N265:N328" si="4">E265-D265</f>
-        <v>-304</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14">
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" s="2">
         <v>40359</v>
       </c>
@@ -12536,12 +11496,8 @@
       <c r="M266" s="3">
         <v>842.2</v>
       </c>
-      <c r="N266" s="5">
-        <f t="shared" si="4"/>
-        <v>-420</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14">
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" s="2">
         <v>40390</v>
       </c>
@@ -12581,12 +11537,8 @@
       <c r="M267" s="3">
         <v>1001.2</v>
       </c>
-      <c r="N267" s="5">
-        <f t="shared" si="4"/>
-        <v>-443</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" s="2">
         <v>40421</v>
       </c>
@@ -12626,12 +11578,8 @@
       <c r="M268" s="3">
         <v>1151.0999999999999</v>
       </c>
-      <c r="N268" s="5">
-        <f t="shared" si="4"/>
-        <v>-492</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14">
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" s="2">
         <v>40451</v>
       </c>
@@ -12671,12 +11619,8 @@
       <c r="M269" s="3">
         <v>1300.7</v>
       </c>
-      <c r="N269" s="5">
-        <f t="shared" si="4"/>
-        <v>-566</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14">
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" s="2">
         <v>40482</v>
       </c>
@@ -12716,12 +11660,8 @@
       <c r="M270" s="3">
         <v>1443.4</v>
       </c>
-      <c r="N270" s="5">
-        <f t="shared" si="4"/>
-        <v>-650</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14">
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" s="2">
         <v>40512</v>
       </c>
@@ -12761,12 +11701,8 @@
       <c r="M271" s="3">
         <v>1579.1</v>
       </c>
-      <c r="N271" s="5">
-        <f t="shared" si="4"/>
-        <v>-792.99999999999955</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14">
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" s="2">
         <v>40543</v>
       </c>
@@ -12806,12 +11742,8 @@
       <c r="M272" s="3">
         <v>1714.7</v>
       </c>
-      <c r="N272" s="5">
-        <f t="shared" si="4"/>
-        <v>-1000.0000000000005</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14">
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" s="2">
         <v>40574</v>
       </c>
@@ -12851,12 +11783,8 @@
       <c r="M273" s="3">
         <v>141.8937</v>
       </c>
-      <c r="N273" s="5">
-        <f t="shared" si="4"/>
-        <v>-170.99999999999997</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14">
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" s="2">
         <v>40602</v>
       </c>
@@ -12896,12 +11824,8 @@
       <c r="M274" s="3">
         <v>283.89999999999998</v>
       </c>
-      <c r="N274" s="5">
-        <f t="shared" si="4"/>
-        <v>-315</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14">
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" s="2">
         <v>40633</v>
       </c>
@@ -12941,12 +11865,8 @@
       <c r="M275" s="3">
         <v>429.6</v>
       </c>
-      <c r="N275" s="5">
-        <f t="shared" si="4"/>
-        <v>-445</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14">
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" s="2">
         <v>40663</v>
       </c>
@@ -12986,12 +11906,8 @@
       <c r="M276" s="3">
         <v>584.20000000000005</v>
       </c>
-      <c r="N276" s="5">
-        <f t="shared" si="4"/>
-        <v>-562</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14">
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" s="2">
         <v>40694</v>
       </c>
@@ -13031,12 +11947,8 @@
       <c r="M277" s="3">
         <v>749.4</v>
       </c>
-      <c r="N277" s="5">
-        <f t="shared" si="4"/>
-        <v>-654</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14">
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" s="2">
         <v>40724</v>
       </c>
@@ -13076,12 +11988,8 @@
       <c r="M278" s="3">
         <v>897.7</v>
       </c>
-      <c r="N278" s="5">
-        <f t="shared" si="4"/>
-        <v>-789</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14">
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" s="2">
         <v>40755</v>
       </c>
@@ -13121,12 +12029,8 @@
       <c r="M279" s="3">
         <v>1066.7</v>
       </c>
-      <c r="N279" s="5">
-        <f t="shared" si="4"/>
-        <v>-868.99999999999977</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14">
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" s="2">
         <v>40786</v>
       </c>
@@ -13166,12 +12070,8 @@
       <c r="M280" s="3">
         <v>1236</v>
       </c>
-      <c r="N280" s="5">
-        <f t="shared" si="4"/>
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14">
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" s="2">
         <v>40816</v>
       </c>
@@ -13211,12 +12111,8 @@
       <c r="M281" s="3">
         <v>1405.6</v>
       </c>
-      <c r="N281" s="5">
-        <f t="shared" si="4"/>
-        <v>-1055.0000000000005</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14">
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" s="2">
         <v>40847</v>
       </c>
@@ -13256,12 +12152,8 @@
       <c r="M282" s="3">
         <v>1552.9</v>
       </c>
-      <c r="N282" s="5">
-        <f t="shared" si="4"/>
-        <v>-1186.9999999999995</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14">
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" s="2">
         <v>40877</v>
       </c>
@@ -13301,12 +12193,8 @@
       <c r="M283" s="3">
         <v>1716.1</v>
       </c>
-      <c r="N283" s="5">
-        <f t="shared" si="4"/>
-        <v>-1311</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14">
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" s="2">
         <v>40908</v>
       </c>
@@ -13346,12 +12234,8 @@
       <c r="M284" s="3">
         <v>1879.8</v>
       </c>
-      <c r="N284" s="5">
-        <f t="shared" si="4"/>
-        <v>-1489.9999999999995</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14">
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="2">
         <v>40939</v>
       </c>
@@ -13391,12 +12275,8 @@
       <c r="M285" s="3">
         <v>176.7972</v>
       </c>
-      <c r="N285" s="5">
-        <f t="shared" si="4"/>
-        <v>-109</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14">
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" s="2">
         <v>40968</v>
       </c>
@@ -13436,12 +12316,8 @@
       <c r="M286" s="3">
         <v>344.4</v>
       </c>
-      <c r="N286" s="5">
-        <f t="shared" si="4"/>
-        <v>-288</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14">
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="2">
         <v>40999</v>
       </c>
@@ -13481,12 +12357,8 @@
       <c r="M287" s="3">
         <v>509.5</v>
       </c>
-      <c r="N287" s="5">
-        <f t="shared" si="4"/>
-        <v>-474</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14">
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" s="2">
         <v>41029</v>
       </c>
@@ -13526,12 +12398,8 @@
       <c r="M288" s="3">
         <v>677.2</v>
       </c>
-      <c r="N288" s="5">
-        <f t="shared" si="4"/>
-        <v>-609</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14">
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" s="2">
         <v>41060</v>
       </c>
@@ -13571,12 +12439,8 @@
       <c r="M289" s="3">
         <v>853.7</v>
       </c>
-      <c r="N289" s="5">
-        <f t="shared" si="4"/>
-        <v>-749.00000000000023</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" s="2">
         <v>41090</v>
       </c>
@@ -13616,12 +12480,8 @@
       <c r="M290" s="3">
         <v>1017.4</v>
       </c>
-      <c r="N290" s="5">
-        <f t="shared" si="4"/>
-        <v>-836</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14">
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" s="2">
         <v>41121</v>
       </c>
@@ -13661,12 +12521,8 @@
       <c r="M291" s="3">
         <v>1188.4000000000001</v>
       </c>
-      <c r="N291" s="5">
-        <f t="shared" si="4"/>
-        <v>-968</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14">
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" s="2">
         <v>41152</v>
       </c>
@@ -13706,12 +12562,8 @@
       <c r="M292" s="3">
         <v>1373.2</v>
       </c>
-      <c r="N292" s="5">
-        <f t="shared" si="4"/>
-        <v>-981.99999999999977</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14">
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" s="2">
         <v>41182</v>
       </c>
@@ -13751,12 +12603,8 @@
       <c r="M293" s="3">
         <v>1566.2</v>
       </c>
-      <c r="N293" s="5">
-        <f t="shared" si="4"/>
-        <v>-1116.9999999999998</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14">
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" s="2">
         <v>41213</v>
       </c>
@@ -13796,12 +12644,8 @@
       <c r="M294" s="3">
         <v>1752.7</v>
       </c>
-      <c r="N294" s="5">
-        <f t="shared" si="4"/>
-        <v>-1255</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14">
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" s="2">
         <v>41243</v>
       </c>
@@ -13841,12 +12685,8 @@
       <c r="M295" s="3">
         <v>1941.3</v>
       </c>
-      <c r="N295" s="5">
-        <f t="shared" si="4"/>
-        <v>-1389</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14">
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" s="2">
         <v>41274</v>
       </c>
@@ -13886,12 +12726,8 @@
       <c r="M296" s="3">
         <v>2131.4</v>
       </c>
-      <c r="N296" s="5">
-        <f t="shared" si="4"/>
-        <v>-1553</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14">
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" s="2">
         <v>41305</v>
       </c>
@@ -13931,12 +12767,8 @@
       <c r="M297" s="3">
         <v>197.3</v>
       </c>
-      <c r="N297" s="5">
-        <f t="shared" si="4"/>
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14">
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" s="2">
         <v>41333</v>
       </c>
@@ -13976,12 +12808,8 @@
       <c r="M298" s="3">
         <v>384.1</v>
       </c>
-      <c r="N298" s="5">
-        <f t="shared" si="4"/>
-        <v>-267</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14">
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299" s="2">
         <v>41364</v>
       </c>
@@ -14021,12 +12849,8 @@
       <c r="M299" s="3">
         <v>582.1</v>
       </c>
-      <c r="N299" s="5">
-        <f t="shared" si="4"/>
-        <v>-315</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14">
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300" s="2">
         <v>41394</v>
       </c>
@@ -14066,12 +12890,8 @@
       <c r="M300" s="3">
         <v>777.3</v>
       </c>
-      <c r="N300" s="5">
-        <f t="shared" si="4"/>
-        <v>-436</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14">
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301" s="2">
         <v>41425</v>
       </c>
@@ -14111,12 +12931,8 @@
       <c r="M301" s="3">
         <v>991.1</v>
       </c>
-      <c r="N301" s="5">
-        <f t="shared" si="4"/>
-        <v>-562</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14">
+    </row>
+    <row r="302" spans="1:13">
       <c r="A302" s="2">
         <v>41455</v>
       </c>
@@ -14156,12 +12972,8 @@
       <c r="M302" s="3">
         <v>1190.83</v>
       </c>
-      <c r="N302" s="5">
-        <f t="shared" si="4"/>
-        <v>-690</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14">
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303" s="2">
         <v>41486</v>
       </c>
@@ -14201,12 +13013,8 @@
       <c r="M303" s="3">
         <v>1395.05</v>
       </c>
-      <c r="N303" s="5">
-        <f t="shared" si="4"/>
-        <v>-812</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14">
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304" s="2">
         <v>41517</v>
       </c>
@@ -14246,12 +13054,8 @@
       <c r="M304" s="3">
         <v>1621.39</v>
       </c>
-      <c r="N304" s="5">
-        <f t="shared" si="4"/>
-        <v>-820</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14">
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305" s="2">
         <v>41547</v>
       </c>
@@ -14291,12 +13095,8 @@
       <c r="M305" s="3">
         <v>1845.69</v>
       </c>
-      <c r="N305" s="5">
-        <f t="shared" si="4"/>
-        <v>-910</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14">
+    </row>
+    <row r="306" spans="1:13">
       <c r="A306" s="2">
         <v>41578</v>
       </c>
@@ -14336,12 +13136,8 @@
       <c r="M306" s="3">
         <v>2078.4499999999998</v>
       </c>
-      <c r="N306" s="5">
-        <f t="shared" si="4"/>
-        <v>-962.00000000000045</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14">
+    </row>
+    <row r="307" spans="1:13">
       <c r="A307" s="2">
         <v>41608</v>
       </c>
@@ -14381,12 +13177,8 @@
       <c r="M307" s="3">
         <v>2284.65</v>
       </c>
-      <c r="N307" s="5">
-        <f t="shared" si="4"/>
-        <v>-1034</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14">
+    </row>
+    <row r="308" spans="1:13">
       <c r="A308" s="2">
         <v>41639</v>
       </c>
@@ -14426,12 +13218,8 @@
       <c r="M308" s="3">
         <v>2509.64</v>
       </c>
-      <c r="N308" s="5">
-        <f t="shared" si="4"/>
-        <v>-1108</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14">
+    </row>
+    <row r="309" spans="1:13">
       <c r="A309" s="2">
         <v>41670</v>
       </c>
@@ -14471,12 +13259,8 @@
       <c r="M309" s="3">
         <v>229.19</v>
       </c>
-      <c r="N309" s="5">
-        <f t="shared" si="4"/>
-        <v>-150.66409999999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14">
+    </row>
+    <row r="310" spans="1:13">
       <c r="A310" s="2">
         <v>41698</v>
       </c>
@@ -14516,12 +13300,8 @@
       <c r="M310" s="3">
         <v>459.6</v>
       </c>
-      <c r="N310" s="5">
-        <f t="shared" si="4"/>
-        <v>-190.41880000000003</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14">
+    </row>
+    <row r="311" spans="1:13">
       <c r="A311" s="2">
         <v>41729</v>
       </c>
@@ -14561,12 +13341,8 @@
       <c r="M311" s="3">
         <v>703.4</v>
       </c>
-      <c r="N311" s="5">
-        <f t="shared" si="4"/>
-        <v>-153.30359999999996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14">
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312" s="2">
         <v>41759</v>
       </c>
@@ -14606,12 +13382,8 @@
       <c r="M312" s="3">
         <v>945</v>
       </c>
-      <c r="N312" s="5">
-        <f t="shared" si="4"/>
-        <v>-188.1925</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14">
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313" s="2">
         <v>41790</v>
       </c>
@@ -14651,12 +13423,8 @@
       <c r="M313" s="3">
         <v>1190</v>
       </c>
-      <c r="N313" s="5">
-        <f t="shared" si="4"/>
-        <v>-147.42229999999995</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14">
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" s="2">
         <v>41820</v>
       </c>
@@ -14696,12 +13464,8 @@
       <c r="M314" s="3">
         <v>1441.67</v>
       </c>
-      <c r="N314" s="5">
-        <f t="shared" si="4"/>
-        <v>-159.2675999999999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14">
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" s="2">
         <v>41851</v>
       </c>
@@ -14741,12 +13505,8 @@
       <c r="M315" s="3">
         <v>1698.53</v>
       </c>
-      <c r="N315" s="5">
-        <f t="shared" si="4"/>
-        <v>-73.924400000000105</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14">
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316" s="2">
         <v>41882</v>
       </c>
@@ -14786,12 +13546,8 @@
       <c r="M316" s="3">
         <v>1972.83</v>
       </c>
-      <c r="N316" s="5">
-        <f t="shared" si="4"/>
-        <v>-53.65339999999992</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14">
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" s="2">
         <v>41912</v>
       </c>
@@ -14831,12 +13587,8 @@
       <c r="M317" s="3">
         <v>2236</v>
       </c>
-      <c r="N317" s="5">
-        <f t="shared" si="4"/>
-        <v>-85.489300000000185</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14">
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" s="2">
         <v>41943</v>
       </c>
@@ -14876,12 +13628,8 @@
       <c r="M318" s="3">
         <v>2481.8000000000002</v>
       </c>
-      <c r="N318" s="5">
-        <f t="shared" si="4"/>
-        <v>0.78120000000035361</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14">
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" s="2">
         <v>41973</v>
       </c>
@@ -14921,12 +13669,8 @@
       <c r="M319" s="3">
         <v>2727.9</v>
       </c>
-      <c r="N319" s="5">
-        <f t="shared" si="4"/>
-        <v>7.6293000000000575</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14">
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" s="2">
         <v>42004</v>
       </c>
@@ -14966,12 +13710,8 @@
       <c r="M320" s="3">
         <v>3001</v>
       </c>
-      <c r="N320" s="5">
-        <f t="shared" si="4"/>
-        <v>-32.30560000000014</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14">
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" s="2">
         <v>42035</v>
       </c>
@@ -15011,12 +13751,8 @@
       <c r="M321" s="3">
         <v>279.33</v>
       </c>
-      <c r="N321" s="5">
-        <f t="shared" si="4"/>
-        <v>-27.227899999999977</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14">
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322" s="2">
         <v>42063</v>
       </c>
@@ -15056,12 +13792,8 @@
       <c r="M322" s="3">
         <v>555.30999999999995</v>
       </c>
-      <c r="N322" s="5">
-        <f t="shared" si="4"/>
-        <v>-127.42419999999998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14">
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" s="2">
         <v>42094</v>
       </c>
@@ -15101,12 +13833,8 @@
       <c r="M323" s="3">
         <v>866.8</v>
       </c>
-      <c r="N323" s="5">
-        <f t="shared" si="4"/>
-        <v>-131.78150000000005</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14">
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324" s="2">
         <v>42124</v>
       </c>
@@ -15146,12 +13874,8 @@
       <c r="M324" s="3">
         <v>1157.3</v>
       </c>
-      <c r="N324" s="5">
-        <f t="shared" si="4"/>
-        <v>-107.58240000000023</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14">
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" s="2">
         <v>42155</v>
       </c>
@@ -15191,12 +13915,8 @@
       <c r="M325" s="3">
         <v>1458</v>
       </c>
-      <c r="N325" s="5">
-        <f t="shared" si="4"/>
-        <v>-95.890899999999874</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14">
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" s="2">
         <v>42185</v>
       </c>
@@ -15236,12 +13956,8 @@
       <c r="M326" s="3">
         <v>1758.9</v>
       </c>
-      <c r="N326" s="5">
-        <f t="shared" si="4"/>
-        <v>-100.39650000000006</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14">
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" s="2">
         <v>42216</v>
       </c>
@@ -15281,12 +13997,8 @@
       <c r="M327" s="3">
         <v>2071.9</v>
       </c>
-      <c r="N327" s="5">
-        <f t="shared" si="4"/>
-        <v>-38.647600000000239</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14">
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328" s="2">
         <v>42247</v>
       </c>
@@ -15326,12 +14038,8 @@
       <c r="M328" s="3">
         <v>2384.4</v>
       </c>
-      <c r="N328" s="5">
-        <f t="shared" si="4"/>
-        <v>41.420700000000124</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14">
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" s="2">
         <v>42277</v>
       </c>
@@ -15371,12 +14079,8 @@
       <c r="M329" s="3">
         <v>2692.4</v>
       </c>
-      <c r="N329" s="5">
-        <f t="shared" ref="N329:N392" si="5">E329-D329</f>
-        <v>125.94610000000011</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14">
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330" s="2">
         <v>42308</v>
       </c>
@@ -15416,12 +14120,8 @@
       <c r="M330" s="3">
         <v>3010.2764999999999</v>
       </c>
-      <c r="N330" s="5">
-        <f t="shared" si="5"/>
-        <v>254.89940000000024</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14">
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331" s="2">
         <v>42338</v>
       </c>
@@ -15461,12 +14161,8 @@
       <c r="M331" s="3">
         <v>3323.6</v>
       </c>
-      <c r="N331" s="5">
-        <f t="shared" si="5"/>
-        <v>477.39849999999979</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14">
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" s="2">
         <v>42369</v>
       </c>
@@ -15506,12 +14202,8 @@
       <c r="M332" s="3">
         <v>3658.6244000000002</v>
       </c>
-      <c r="N332" s="5">
-        <f t="shared" si="5"/>
-        <v>625.69810000000007</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14">
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333" s="2">
         <v>42400</v>
       </c>
@@ -15551,12 +14243,8 @@
       <c r="M333" s="3">
         <v>0</v>
       </c>
-      <c r="N333" s="5">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14">
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334" s="2">
         <v>42429</v>
       </c>
@@ -15596,12 +14284,8 @@
       <c r="M334" s="3">
         <v>614.79999999999995</v>
       </c>
-      <c r="N334" s="5">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14">
+    </row>
+    <row r="335" spans="1:13">
       <c r="A335" s="2">
         <v>42460</v>
       </c>
@@ -15641,12 +14325,8 @@
       <c r="M335" s="3">
         <v>947.48270000000002</v>
       </c>
-      <c r="N335" s="5">
-        <f t="shared" si="5"/>
-        <v>200.00000000000011</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14">
+    </row>
+    <row r="336" spans="1:13">
       <c r="A336" s="2">
         <v>42490</v>
       </c>
@@ -15686,12 +14366,8 @@
       <c r="M336" s="3">
         <v>1265.4000000000001</v>
       </c>
-      <c r="N336" s="5">
-        <f t="shared" si="5"/>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14">
+    </row>
+    <row r="337" spans="1:13">
       <c r="A337" s="2">
         <v>42521</v>
       </c>
@@ -15731,12 +14407,8 @@
       <c r="M337" s="3">
         <v>1596.3</v>
       </c>
-      <c r="N337" s="5">
-        <f t="shared" si="5"/>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14">
+    </row>
+    <row r="338" spans="1:13">
       <c r="A338" s="2">
         <v>42551</v>
       </c>
@@ -15776,12 +14448,8 @@
       <c r="M338" s="3">
         <v>1928.7</v>
       </c>
-      <c r="N338" s="5">
-        <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14">
+    </row>
+    <row r="339" spans="1:13">
       <c r="A339" s="2">
         <v>42582</v>
       </c>
@@ -15821,12 +14489,8 @@
       <c r="M339" s="3">
         <v>2272.8000000000002</v>
       </c>
-      <c r="N339" s="5">
-        <f t="shared" si="5"/>
-        <v>848.00000000000023</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14">
+    </row>
+    <row r="340" spans="1:13">
       <c r="A340" s="2">
         <v>42613</v>
       </c>
@@ -15866,12 +14530,8 @@
       <c r="M340" s="3">
         <v>2618</v>
       </c>
-      <c r="N340" s="5">
-        <f t="shared" si="5"/>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14">
+    </row>
+    <row r="341" spans="1:13">
       <c r="A341" s="2">
         <v>42643</v>
       </c>
@@ -15911,12 +14571,8 @@
       <c r="M341" s="3">
         <v>2945.9</v>
       </c>
-      <c r="N341" s="5">
-        <f t="shared" si="5"/>
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14">
+    </row>
+    <row r="342" spans="1:13">
       <c r="A342" s="2">
         <v>42674</v>
       </c>
@@ -15956,12 +14612,8 @@
       <c r="M342" s="3">
         <v>3298.3</v>
       </c>
-      <c r="N342" s="5">
-        <f t="shared" si="5"/>
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14">
+    </row>
+    <row r="343" spans="1:13">
       <c r="A343" s="2">
         <v>42704</v>
       </c>
@@ -16001,12 +14653,8 @@
       <c r="M343" s="3">
         <v>3644.8</v>
       </c>
-      <c r="N343" s="5">
-        <f t="shared" si="5"/>
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14">
+    </row>
+    <row r="344" spans="1:13">
       <c r="A344" s="2">
         <v>42735</v>
       </c>
@@ -16046,12 +14694,8 @@
       <c r="M344" s="3">
         <v>3983.8</v>
       </c>
-      <c r="N344" s="5">
-        <f t="shared" si="5"/>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14">
+    </row>
+    <row r="345" spans="1:13">
       <c r="A345" s="2">
         <v>42766</v>
       </c>
@@ -16091,12 +14735,8 @@
       <c r="M345" s="3">
         <v>0</v>
       </c>
-      <c r="N345" s="5">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14">
+    </row>
+    <row r="346" spans="1:13">
       <c r="A346" s="2">
         <v>42794</v>
       </c>
@@ -16136,12 +14776,8 @@
       <c r="M346" s="3">
         <v>687.4</v>
       </c>
-      <c r="N346" s="5">
-        <f t="shared" si="5"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14">
+    </row>
+    <row r="347" spans="1:13">
       <c r="A347" s="2">
         <v>42825</v>
       </c>
@@ -16181,12 +14817,8 @@
       <c r="M347" s="3">
         <v>1036.4000000000001</v>
       </c>
-      <c r="N347" s="5">
-        <f t="shared" si="5"/>
-        <v>428</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14">
+    </row>
+    <row r="348" spans="1:13">
       <c r="A348" s="2">
         <v>42855</v>
       </c>
@@ -16226,12 +14858,8 @@
       <c r="M348" s="3">
         <v>1361.5</v>
       </c>
-      <c r="N348" s="5">
-        <f t="shared" si="5"/>
-        <v>526.99999999999989</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14">
+    </row>
+    <row r="349" spans="1:13">
       <c r="A349" s="2">
         <v>42886</v>
       </c>
@@ -16271,12 +14899,8 @@
       <c r="M349" s="3">
         <v>1699.8</v>
       </c>
-      <c r="N349" s="5">
-        <f t="shared" si="5"/>
-        <v>677.99999999999977</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14">
+    </row>
+    <row r="350" spans="1:13">
       <c r="A350" s="2">
         <v>42916</v>
       </c>
@@ -16316,12 +14940,8 @@
       <c r="M350" s="3">
         <v>2042</v>
       </c>
-      <c r="N350" s="5">
-        <f t="shared" si="5"/>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14">
+    </row>
+    <row r="351" spans="1:13">
       <c r="A351" s="2">
         <v>42947</v>
       </c>
@@ -16361,12 +14981,8 @@
       <c r="M351" s="3">
         <v>2387.9</v>
       </c>
-      <c r="N351" s="5">
-        <f t="shared" si="5"/>
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14">
+    </row>
+    <row r="352" spans="1:13">
       <c r="A352" s="2">
         <v>42978</v>
       </c>
@@ -16406,12 +15022,8 @@
       <c r="M352" s="3">
         <v>2751.4</v>
       </c>
-      <c r="N352" s="5">
-        <f t="shared" si="5"/>
-        <v>1270.0000000000002</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14">
+    </row>
+    <row r="353" spans="1:13">
       <c r="A353" s="2">
         <v>43008</v>
       </c>
@@ -16451,12 +15063,8 @@
       <c r="M353" s="3">
         <v>3140.7</v>
       </c>
-      <c r="N353" s="5">
-        <f t="shared" si="5"/>
-        <v>1421.9999999999995</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14">
+    </row>
+    <row r="354" spans="1:13">
       <c r="A354" s="2">
         <v>43039</v>
       </c>
@@ -16496,12 +15104,8 @@
       <c r="M354" s="3">
         <v>3524.4</v>
       </c>
-      <c r="N354" s="5">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14">
+    </row>
+    <row r="355" spans="1:13">
       <c r="A355" s="2">
         <v>43069</v>
       </c>
@@ -16541,12 +15145,8 @@
       <c r="M355" s="3">
         <v>3883.7</v>
       </c>
-      <c r="N355" s="5">
-        <f t="shared" si="5"/>
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14">
+    </row>
+    <row r="356" spans="1:13">
       <c r="A356" s="2">
         <v>43100</v>
       </c>
@@ -16586,12 +15186,8 @@
       <c r="M356" s="3">
         <v>4230.8999999999996</v>
       </c>
-      <c r="N356" s="5">
-        <f t="shared" si="5"/>
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14">
+    </row>
+    <row r="357" spans="1:13">
       <c r="A357" s="2">
         <v>43131</v>
       </c>
@@ -16631,12 +15227,8 @@
       <c r="M357" s="3">
         <v>0</v>
       </c>
-      <c r="N357" s="5">
-        <f t="shared" si="5"/>
-        <v>125.00000000000006</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14">
+    </row>
+    <row r="358" spans="1:13">
       <c r="A358" s="2">
         <v>43159</v>
       </c>
@@ -16676,12 +15268,8 @@
       <c r="M358" s="3">
         <v>706.5</v>
       </c>
-      <c r="N358" s="5">
-        <f t="shared" si="5"/>
-        <v>212.00000000000011</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14">
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359" s="2">
         <v>43190</v>
       </c>
@@ -16721,12 +15309,8 @@
       <c r="M359" s="3">
         <v>1149.5</v>
       </c>
-      <c r="N359" s="5">
-        <f t="shared" si="5"/>
-        <v>605.99999999999989</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14">
+    </row>
+    <row r="360" spans="1:13">
       <c r="A360" s="2">
         <v>43220</v>
       </c>
@@ -16766,12 +15350,8 @@
       <c r="M360" s="3">
         <v>1535.7</v>
       </c>
-      <c r="N360" s="5">
-        <f t="shared" si="5"/>
-        <v>817</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14">
+    </row>
+    <row r="361" spans="1:13">
       <c r="A361" s="2">
         <v>43251</v>
       </c>
@@ -16811,12 +15391,8 @@
       <c r="M361" s="3">
         <v>1943.2</v>
       </c>
-      <c r="N361" s="5">
-        <f t="shared" si="5"/>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14">
+    </row>
+    <row r="362" spans="1:13">
       <c r="A362" s="2">
         <v>43281</v>
       </c>
@@ -16856,12 +15432,8 @@
       <c r="M362" s="3">
         <v>2347.3000000000002</v>
       </c>
-      <c r="N362" s="5">
-        <f t="shared" si="5"/>
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14">
+    </row>
+    <row r="363" spans="1:13">
       <c r="A363" s="2">
         <v>43312</v>
       </c>
@@ -16901,12 +15473,8 @@
       <c r="M363" s="3">
         <v>2761.1</v>
       </c>
-      <c r="N363" s="5">
-        <f t="shared" si="5"/>
-        <v>1575.0000000000002</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14">
+    </row>
+    <row r="364" spans="1:13">
       <c r="A364" s="2">
         <v>43343</v>
       </c>
@@ -16946,12 +15514,8 @@
       <c r="M364" s="3">
         <v>3172.4</v>
       </c>
-      <c r="N364" s="5">
-        <f t="shared" si="5"/>
-        <v>1836.9999999999995</v>
-      </c>
-    </row>
-    <row r="365" spans="1:14">
+    </row>
+    <row r="365" spans="1:13">
       <c r="A365" s="2">
         <v>43373</v>
       </c>
@@ -16991,12 +15555,8 @@
       <c r="M365" s="3">
         <v>3591.4</v>
       </c>
-      <c r="N365" s="5">
-        <f t="shared" si="5"/>
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14">
+    </row>
+    <row r="366" spans="1:13">
       <c r="A366" s="2">
         <v>43404</v>
       </c>
@@ -17036,12 +15596,8 @@
       <c r="M366" s="3">
         <v>3985.5</v>
       </c>
-      <c r="N366" s="5">
-        <f t="shared" si="5"/>
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="367" spans="1:14">
+    </row>
+    <row r="367" spans="1:13">
       <c r="A367" s="2">
         <v>43434</v>
       </c>
@@ -17081,12 +15637,8 @@
       <c r="M367" s="3">
         <v>4370</v>
       </c>
-      <c r="N367" s="5">
-        <f t="shared" si="5"/>
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14">
+    </row>
+    <row r="368" spans="1:13">
       <c r="A368" s="2">
         <v>43465</v>
       </c>
@@ -17126,12 +15678,8 @@
       <c r="M368" s="3">
         <v>4770.3</v>
       </c>
-      <c r="N368" s="5">
-        <f t="shared" si="5"/>
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="369" spans="1:14">
+    </row>
+    <row r="369" spans="1:13">
       <c r="A369" s="2">
         <v>43496</v>
       </c>
@@ -17171,12 +15719,8 @@
       <c r="M369" s="3">
         <v>0</v>
       </c>
-      <c r="N369" s="5">
-        <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14">
+    </row>
+    <row r="370" spans="1:13">
       <c r="A370" s="2">
         <v>43524</v>
       </c>
@@ -17216,12 +15760,8 @@
       <c r="M370" s="3">
         <v>796</v>
       </c>
-      <c r="N370" s="5">
-        <f t="shared" si="5"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="371" spans="1:14">
+    </row>
+    <row r="371" spans="1:13">
       <c r="A371" s="2">
         <v>43555</v>
       </c>
@@ -17261,12 +15801,8 @@
       <c r="M371" s="3">
         <v>1218.5999999999999</v>
       </c>
-      <c r="N371" s="5">
-        <f t="shared" si="5"/>
-        <v>771.00000000000011</v>
-      </c>
-    </row>
-    <row r="372" spans="1:14">
+    </row>
+    <row r="372" spans="1:13">
       <c r="A372" s="2">
         <v>43585</v>
       </c>
@@ -17306,12 +15842,8 @@
       <c r="M372" s="3">
         <v>1637.7</v>
       </c>
-      <c r="N372" s="5">
-        <f t="shared" si="5"/>
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="373" spans="1:14">
+    </row>
+    <row r="373" spans="1:13">
       <c r="A373" s="2">
         <v>43616</v>
       </c>
@@ -17351,12 +15883,8 @@
       <c r="M373" s="3">
         <v>2065.3000000000002</v>
       </c>
-      <c r="N373" s="5">
-        <f t="shared" si="5"/>
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="374" spans="1:14">
+    </row>
+    <row r="374" spans="1:13">
       <c r="A374" s="2">
         <v>43646</v>
       </c>
@@ -17396,12 +15924,8 @@
       <c r="M374" s="3">
         <v>2509.8000000000002</v>
       </c>
-      <c r="N374" s="5">
-        <f t="shared" si="5"/>
-        <v>1574.0000000000002</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14">
+    </row>
+    <row r="375" spans="1:13">
       <c r="A375" s="2">
         <v>43677</v>
       </c>
@@ -17441,12 +15965,8 @@
       <c r="M375" s="3">
         <v>2954.8</v>
       </c>
-      <c r="N375" s="5">
-        <f t="shared" si="5"/>
-        <v>1959.9999999999993</v>
-      </c>
-    </row>
-    <row r="376" spans="1:14">
+    </row>
+    <row r="376" spans="1:13">
       <c r="A376" s="2">
         <v>43708</v>
       </c>
@@ -17486,12 +16006,8 @@
       <c r="M376" s="3">
         <v>3429.5</v>
       </c>
-      <c r="N376" s="5">
-        <f t="shared" si="5"/>
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14">
+    </row>
+    <row r="377" spans="1:13">
       <c r="A377" s="2">
         <v>43738</v>
       </c>
@@ -17531,12 +16047,8 @@
       <c r="M377" s="3">
         <v>3903</v>
       </c>
-      <c r="N377" s="5">
-        <f t="shared" si="5"/>
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="378" spans="1:14">
+    </row>
+    <row r="378" spans="1:13">
       <c r="A378" s="2">
         <v>43769</v>
       </c>
@@ -17576,12 +16088,8 @@
       <c r="M378" s="3">
         <v>4375.1000000000004</v>
       </c>
-      <c r="N378" s="5">
-        <f t="shared" si="5"/>
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="379" spans="1:14">
+    </row>
+    <row r="379" spans="1:13">
       <c r="A379" s="2">
         <v>43799</v>
       </c>
@@ -17621,12 +16129,8 @@
       <c r="M379" s="3">
         <v>4825</v>
       </c>
-      <c r="N379" s="5">
-        <f t="shared" si="5"/>
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14">
+    </row>
+    <row r="380" spans="1:13">
       <c r="A380" s="2">
         <v>43830</v>
       </c>
@@ -17666,12 +16170,8 @@
       <c r="M380" s="3">
         <v>5272.6</v>
       </c>
-      <c r="N380" s="5">
-        <f t="shared" si="5"/>
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="381" spans="1:14">
+    </row>
+    <row r="381" spans="1:13">
       <c r="A381" s="2">
         <v>43861</v>
       </c>
@@ -17711,12 +16211,8 @@
       <c r="M381" s="3">
         <v>0</v>
       </c>
-      <c r="N381" s="5">
-        <f t="shared" si="5"/>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="382" spans="1:14">
+    </row>
+    <row r="382" spans="1:13">
       <c r="A382" s="2">
         <v>43890</v>
       </c>
@@ -17756,12 +16252,8 @@
       <c r="M382" s="3">
         <v>761</v>
       </c>
-      <c r="N382" s="5">
-        <f t="shared" si="5"/>
-        <v>581</v>
-      </c>
-    </row>
-    <row r="383" spans="1:14">
+    </row>
+    <row r="383" spans="1:13">
       <c r="A383" s="2">
         <v>43921</v>
       </c>
@@ -17801,12 +16293,8 @@
       <c r="M383" s="3">
         <v>1048.9000000000001</v>
       </c>
-      <c r="N383" s="5">
-        <f t="shared" si="5"/>
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="384" spans="1:14">
+    </row>
+    <row r="384" spans="1:13">
       <c r="A384" s="2">
         <v>43951</v>
       </c>
@@ -17846,12 +16334,8 @@
       <c r="M384" s="3">
         <v>1291.3</v>
       </c>
-      <c r="N384" s="5">
-        <f t="shared" si="5"/>
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14">
+    </row>
+    <row r="385" spans="1:13">
       <c r="A385" s="2">
         <v>43982</v>
       </c>
@@ -17891,12 +16375,8 @@
       <c r="M385" s="3">
         <v>1580.7</v>
       </c>
-      <c r="N385" s="5">
-        <f t="shared" si="5"/>
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14">
+    </row>
+    <row r="386" spans="1:13">
       <c r="A386" s="2">
         <v>44012</v>
       </c>
@@ -17936,12 +16416,8 @@
       <c r="M386" s="3">
         <v>1895.8</v>
       </c>
-      <c r="N386" s="5">
-        <f t="shared" si="5"/>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14">
+    </row>
+    <row r="387" spans="1:13">
       <c r="A387" s="2">
         <v>44043</v>
       </c>
@@ -17981,12 +16457,8 @@
       <c r="M387" s="3">
         <v>2227.9</v>
       </c>
-      <c r="N387" s="5">
-        <f t="shared" si="5"/>
-        <v>1815.0000000000005</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14">
+    </row>
+    <row r="388" spans="1:13">
       <c r="A388" s="2">
         <v>44074</v>
       </c>
@@ -18026,12 +16498,8 @@
       <c r="M388" s="3">
         <v>2570.1</v>
       </c>
-      <c r="N388" s="5">
-        <f t="shared" si="5"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14">
+    </row>
+    <row r="389" spans="1:13">
       <c r="A389" s="2">
         <v>44104</v>
       </c>
@@ -18071,12 +16539,8 @@
       <c r="M389" s="3">
         <v>2931.7</v>
       </c>
-      <c r="N389" s="5">
-        <f t="shared" si="5"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14">
+    </row>
+    <row r="390" spans="1:13">
       <c r="A390" s="2">
         <v>44135</v>
       </c>
@@ -18116,12 +16580,8 @@
       <c r="M390" s="3">
         <v>3306.3</v>
       </c>
-      <c r="N390" s="5">
-        <f t="shared" si="5"/>
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14">
+    </row>
+    <row r="391" spans="1:13">
       <c r="A391" s="2">
         <v>44165</v>
       </c>
@@ -18161,12 +16621,8 @@
       <c r="M391" s="3">
         <v>3674.2</v>
       </c>
-      <c r="N391" s="5">
-        <f t="shared" si="5"/>
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14">
+    </row>
+    <row r="392" spans="1:13">
       <c r="A392" s="2">
         <v>44196</v>
       </c>
@@ -18206,12 +16662,8 @@
       <c r="M392" s="3">
         <v>4049.4</v>
       </c>
-      <c r="N392" s="5">
-        <f t="shared" si="5"/>
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="393" spans="1:14">
+    </row>
+    <row r="393" spans="1:13">
       <c r="A393" s="2">
         <v>44227</v>
       </c>
@@ -18251,12 +16703,8 @@
       <c r="M393" s="3">
         <v>0</v>
       </c>
-      <c r="N393" s="5">
-        <f t="shared" ref="N393:N425" si="6">E393-D393</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14">
+    </row>
+    <row r="394" spans="1:13">
       <c r="A394" s="2">
         <v>44255</v>
       </c>
@@ -18296,12 +16744,8 @@
       <c r="M394" s="3">
         <v>681.8</v>
       </c>
-      <c r="N394" s="5">
-        <f t="shared" si="6"/>
-        <v>698</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14">
+    </row>
+    <row r="395" spans="1:13">
       <c r="A395" s="2">
         <v>44286</v>
       </c>
@@ -18341,12 +16785,8 @@
       <c r="M395" s="3">
         <v>1045.7</v>
       </c>
-      <c r="N395" s="5">
-        <f t="shared" si="6"/>
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14">
+    </row>
+    <row r="396" spans="1:13">
       <c r="A396" s="2">
         <v>44316</v>
       </c>
@@ -18386,12 +16826,8 @@
       <c r="M396" s="3">
         <v>1439.6</v>
       </c>
-      <c r="N396" s="5">
-        <f t="shared" si="6"/>
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14">
+    </row>
+    <row r="397" spans="1:13">
       <c r="A397" s="2">
         <v>44347</v>
       </c>
@@ -18431,12 +16867,8 @@
       <c r="M397" s="3">
         <v>1871.5</v>
       </c>
-      <c r="N397" s="5">
-        <f t="shared" si="6"/>
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14">
+    </row>
+    <row r="398" spans="1:13">
       <c r="A398" s="2">
         <v>44377</v>
       </c>
@@ -18476,12 +16908,8 @@
       <c r="M398" s="3">
         <v>2283.4</v>
       </c>
-      <c r="N398" s="5">
-        <f t="shared" si="6"/>
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="399" spans="1:14">
+    </row>
+    <row r="399" spans="1:13">
       <c r="A399" s="2">
         <v>44408</v>
       </c>
@@ -18521,12 +16949,8 @@
       <c r="M399" s="3">
         <v>2632.6</v>
       </c>
-      <c r="N399" s="5">
-        <f t="shared" si="6"/>
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14">
+    </row>
+    <row r="400" spans="1:13">
       <c r="A400" s="2">
         <v>44439</v>
       </c>
@@ -18566,12 +16990,8 @@
       <c r="M400" s="3">
         <v>2912.6</v>
       </c>
-      <c r="N400" s="5">
-        <f t="shared" si="6"/>
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16">
+    </row>
+    <row r="401" spans="1:15">
       <c r="A401" s="2">
         <v>44469</v>
       </c>
@@ -18611,12 +17031,8 @@
       <c r="M401" s="3">
         <v>3219.5</v>
       </c>
-      <c r="N401" s="5">
-        <f t="shared" si="6"/>
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="402" spans="1:16">
+    </row>
+    <row r="402" spans="1:15">
       <c r="A402" s="2">
         <v>44500</v>
       </c>
@@ -18656,12 +17072,8 @@
       <c r="M402" s="3">
         <v>3528.2</v>
       </c>
-      <c r="N402" s="5">
-        <f t="shared" si="6"/>
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16">
+    </row>
+    <row r="403" spans="1:15">
       <c r="A403" s="2">
         <v>44530</v>
       </c>
@@ -18701,12 +17113,8 @@
       <c r="M403" s="3">
         <v>3754.6</v>
       </c>
-      <c r="N403" s="5">
-        <f t="shared" si="6"/>
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16">
+    </row>
+    <row r="404" spans="1:15">
       <c r="A404" s="2">
         <v>44561</v>
       </c>
@@ -18746,12 +17154,8 @@
       <c r="M404" s="3">
         <v>3943.9</v>
       </c>
-      <c r="N404" s="5">
-        <f t="shared" si="6"/>
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="405" spans="1:16">
+    </row>
+    <row r="405" spans="1:15">
       <c r="A405" s="2">
         <v>44592</v>
       </c>
@@ -18791,12 +17195,8 @@
       <c r="M405" s="3">
         <v>0</v>
       </c>
-      <c r="N405" s="5">
-        <f t="shared" si="6"/>
-        <v>148.00000000000006</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16">
+    </row>
+    <row r="406" spans="1:15">
       <c r="A406" s="2">
         <v>44620</v>
       </c>
@@ -18836,12 +17236,8 @@
       <c r="M406" s="3">
         <v>556.29999999999995</v>
       </c>
-      <c r="N406" s="5">
-        <f t="shared" si="6"/>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="407" spans="1:16">
+    </row>
+    <row r="407" spans="1:15">
       <c r="A407" s="2">
         <v>44651</v>
       </c>
@@ -18881,12 +17277,8 @@
       <c r="M407" s="3">
         <v>819</v>
       </c>
-      <c r="N407" s="5">
-        <f t="shared" si="6"/>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="408" spans="1:16">
+    </row>
+    <row r="408" spans="1:15">
       <c r="A408" s="2">
         <v>44681</v>
       </c>
@@ -18926,12 +17318,8 @@
       <c r="M408" s="3">
         <v>994</v>
       </c>
-      <c r="N408" s="5">
-        <f t="shared" si="6"/>
-        <v>719.99999999999977</v>
-      </c>
-    </row>
-    <row r="409" spans="1:16">
+    </row>
+    <row r="409" spans="1:15">
       <c r="A409" s="2">
         <v>44712</v>
       </c>
@@ -18971,12 +17359,8 @@
       <c r="M409" s="3">
         <v>1146.2</v>
       </c>
-      <c r="N409" s="5">
-        <f t="shared" si="6"/>
-        <v>847.00000000000011</v>
-      </c>
-    </row>
-    <row r="410" spans="1:16">
+    </row>
+    <row r="410" spans="1:15">
       <c r="A410" s="2">
         <v>44742</v>
       </c>
@@ -19016,12 +17400,8 @@
       <c r="M410" s="3">
         <v>1357.8</v>
       </c>
-      <c r="N410" s="5">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16">
+    </row>
+    <row r="411" spans="1:15">
       <c r="A411" s="2">
         <v>44773</v>
       </c>
@@ -19061,12 +17441,8 @@
       <c r="M411" s="3">
         <v>1605.1</v>
       </c>
-      <c r="N411" s="5">
-        <f t="shared" si="6"/>
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="412" spans="1:16">
+    </row>
+    <row r="412" spans="1:15">
       <c r="A412" s="2">
         <v>44804</v>
       </c>
@@ -19106,12 +17482,8 @@
       <c r="M412" s="3">
         <v>1891.6</v>
       </c>
-      <c r="N412" s="5">
-        <f t="shared" si="6"/>
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16">
+    </row>
+    <row r="413" spans="1:15">
       <c r="A413" s="2">
         <v>44834</v>
       </c>
@@ -19151,12 +17523,8 @@
       <c r="M413" s="3">
         <v>2138.1999999999998</v>
       </c>
-      <c r="N413" s="5">
-        <f t="shared" si="6"/>
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="414" spans="1:16">
+    </row>
+    <row r="414" spans="1:15">
       <c r="A414" s="2">
         <v>44865</v>
       </c>
@@ -19196,14 +17564,10 @@
       <c r="M414" s="3">
         <v>2381.6999999999998</v>
       </c>
-      <c r="N414" s="5">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000005</v>
-      </c>
-      <c r="O414" s="3"/>
-      <c r="P414" s="7"/>
-    </row>
-    <row r="415" spans="1:16">
+      <c r="N414" s="3"/>
+      <c r="O414" s="5"/>
+    </row>
+    <row r="415" spans="1:15">
       <c r="A415" s="2">
         <v>44895</v>
       </c>
@@ -19243,12 +17607,8 @@
       <c r="M415" s="3">
         <v>2681.5</v>
       </c>
-      <c r="N415" s="5">
-        <f t="shared" si="6"/>
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="416" spans="1:16">
+    </row>
+    <row r="416" spans="1:15">
       <c r="A416" s="2">
         <v>44926</v>
       </c>
@@ -19288,12 +17648,8 @@
       <c r="M416" s="3">
         <v>2949.1</v>
       </c>
-      <c r="N416" s="5">
-        <f t="shared" si="6"/>
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15">
+    </row>
+    <row r="417" spans="1:14">
       <c r="A417" s="2">
         <v>44957</v>
       </c>
@@ -19333,12 +17689,8 @@
       <c r="M417" s="3">
         <v>0</v>
       </c>
-      <c r="N417" s="5">
-        <f t="shared" si="6"/>
-        <v>407</v>
-      </c>
-    </row>
-    <row r="418" spans="1:15">
+    </row>
+    <row r="418" spans="1:14">
       <c r="A418" s="2">
         <v>44985</v>
       </c>
@@ -19378,12 +17730,8 @@
       <c r="M418" s="3">
         <v>694.5</v>
       </c>
-      <c r="N418" s="5">
-        <f t="shared" si="6"/>
-        <v>739</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15">
+    </row>
+    <row r="419" spans="1:14">
       <c r="A419" s="2">
         <v>45016</v>
       </c>
@@ -19423,12 +17771,8 @@
       <c r="M419" s="3">
         <v>1072.9000000000001</v>
       </c>
-      <c r="N419" s="5">
-        <f t="shared" si="6"/>
-        <v>894.99999999999989</v>
-      </c>
-    </row>
-    <row r="420" spans="1:15">
+    </row>
+    <row r="420" spans="1:14">
       <c r="A420" s="2">
         <v>45046</v>
       </c>
@@ -19468,12 +17812,8 @@
       <c r="M420" s="3">
         <v>1426.3</v>
       </c>
-      <c r="N420" s="5">
-        <f t="shared" si="6"/>
-        <v>831</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15">
+    </row>
+    <row r="421" spans="1:14">
       <c r="A421" s="2">
         <v>45077</v>
       </c>
@@ -19513,12 +17853,8 @@
       <c r="M421" s="3">
         <v>1819.9</v>
       </c>
-      <c r="N421" s="5">
-        <f t="shared" si="6"/>
-        <v>879</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15">
+    </row>
+    <row r="422" spans="1:14">
       <c r="A422" s="2">
         <v>45107</v>
       </c>
@@ -19558,12 +17894,8 @@
       <c r="M422" s="3">
         <v>2219</v>
       </c>
-      <c r="N422" s="5">
-        <f t="shared" si="6"/>
-        <v>891</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15">
+    </row>
+    <row r="423" spans="1:14">
       <c r="A423" s="2">
         <v>45138</v>
       </c>
@@ -19603,12 +17935,8 @@
       <c r="M423" s="3">
         <v>2713.7</v>
       </c>
-      <c r="N423" s="5">
-        <f t="shared" si="6"/>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="424" spans="1:15">
+    </row>
+    <row r="424" spans="1:14">
       <c r="A424" s="2">
         <v>45169</v>
       </c>
@@ -19648,12 +17976,8 @@
       <c r="M424" s="3">
         <v>3223.8</v>
       </c>
-      <c r="N424" s="5">
-        <f t="shared" si="6"/>
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="425" spans="1:15">
+    </row>
+    <row r="425" spans="1:14">
       <c r="A425" s="2">
         <v>45199</v>
       </c>
@@ -19693,12 +18017,8 @@
       <c r="M425" s="3">
         <v>3709.2</v>
       </c>
-      <c r="N425" s="5">
-        <f t="shared" si="6"/>
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15">
+    </row>
+    <row r="426" spans="1:14">
       <c r="A426" s="2">
         <v>45230</v>
       </c>
@@ -19738,13 +18058,9 @@
       <c r="M426" s="3">
         <v>4164.2</v>
       </c>
-      <c r="N426" s="5">
-        <f>E426-D426</f>
-        <v>1424.0000000000005</v>
-      </c>
-      <c r="O426" s="6"/>
-    </row>
-    <row r="427" spans="1:15">
+      <c r="N426" s="4"/>
+    </row>
+    <row r="427" spans="1:14">
       <c r="A427" s="2">
         <v>45260</v>
       </c>
@@ -19785,7 +18101,7 @@
         <v>4572.8</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:14">
       <c r="A428" s="2">
         <v>45291</v>
       </c>
@@ -19826,7 +18142,7 @@
         <v>4968.3999999999996</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:14">
       <c r="A429" s="2">
         <v>45322</v>
       </c>
@@ -19866,9 +18182,8 @@
       <c r="M429" s="3">
         <v>0</v>
       </c>
-      <c r="N429" s="4"/>
-    </row>
-    <row r="430" spans="1:15">
+    </row>
+    <row r="430" spans="1:14">
       <c r="A430" s="2">
         <v>45351</v>
       </c>
@@ -19908,46 +18223,86 @@
       <c r="M430" s="3">
         <v>947.9</v>
       </c>
-      <c r="N430" s="5"/>
-    </row>
-    <row r="431" spans="1:15">
+    </row>
+    <row r="431" spans="1:14">
       <c r="A431" s="2">
         <v>45382</v>
       </c>
       <c r="B431" s="3">
-        <v>5348</v>
+        <v>5348.1</v>
       </c>
       <c r="C431" s="3">
-        <v>13735.6</v>
+        <v>13736</v>
       </c>
       <c r="D431" s="3">
-        <v>1217.5999999999999</v>
+        <v>1218</v>
       </c>
       <c r="E431" s="3">
-        <v>1481.9</v>
+        <v>1482</v>
       </c>
       <c r="F431" s="3">
-        <v>0</v>
+        <v>455.96785999999997</v>
       </c>
       <c r="G431" s="3">
-        <v>632</v>
+        <v>631.9</v>
       </c>
       <c r="H431" s="3">
-        <v>182460000</v>
+        <v>182461000</v>
       </c>
       <c r="I431" s="3">
-        <v>0</v>
+        <v>110556</v>
       </c>
       <c r="J431" s="3">
-        <v>4137.9000000000005</v>
+        <v>4138</v>
       </c>
       <c r="K431" s="3">
-        <v>0</v>
+        <v>4179.2</v>
       </c>
       <c r="L431" s="3">
-        <v>0</v>
+        <v>5201.8</v>
       </c>
       <c r="M431" s="3">
+        <v>1457.3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
+      <c r="A432" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B432" s="3">
+        <v>0</v>
+      </c>
+      <c r="C432" s="3">
+        <v>18206.7</v>
+      </c>
+      <c r="D432" s="3">
+        <v>1773.2</v>
+      </c>
+      <c r="E432" s="3">
+        <v>1937.3</v>
+      </c>
+      <c r="F432" s="3">
+        <v>0</v>
+      </c>
+      <c r="G432" s="3">
+        <v>0</v>
+      </c>
+      <c r="H432" s="3">
+        <v>0</v>
+      </c>
+      <c r="I432" s="3">
+        <v>0</v>
+      </c>
+      <c r="J432" s="3">
+        <v>4525.2</v>
+      </c>
+      <c r="K432" s="3">
+        <v>0</v>
+      </c>
+      <c r="L432" s="3">
+        <v>0</v>
+      </c>
+      <c r="M432" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA827A-3556-4962-855B-871DF014FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54191CA2-01AC-4C75-BE80-E5A2F4EF1B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -173,51 +173,47 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-02</t>
-  </si>
-  <si>
-    <t>1995-01:2024-02</t>
-  </si>
-  <si>
-    <t>1989-01:2024-02</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
     <t>1989-02:2024-03</t>
   </si>
   <si>
     <t>1995-01:2024-03</t>
   </si>
   <si>
-    <t>2003-07:2024-03</t>
-  </si>
-  <si>
     <t>1989-01:2024-03</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>1995-01:2024-04</t>
   </si>
   <si>
-    <t>2024-04-12</t>
+    <t>2003-07:2024-04</t>
   </si>
   <si>
-    <t>2024-03-25</t>
+    <t>2024-05-09</t>
   </si>
   <si>
-    <t>2024-03-20</t>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>1989-02:2024-04</t>
+  </si>
+  <si>
+    <t>1989-01:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -264,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -273,10 +269,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -623,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P431"/>
+  <dimension ref="A1:O432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="E426" sqref="E426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,303 +629,303 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="195">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:13" ht="195">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="J8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="L8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>32539</v>
       </c>
@@ -971,12 +965,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" ref="N9:N72" si="0">E9-D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>32567</v>
       </c>
@@ -1016,12 +1006,8 @@
       <c r="M10" s="3">
         <v>64.8</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>32598</v>
       </c>
@@ -1061,12 +1047,8 @@
       <c r="M11" s="3">
         <v>100.8</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>32628</v>
       </c>
@@ -1106,12 +1088,8 @@
       <c r="M12" s="3">
         <v>132.6</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>32659</v>
       </c>
@@ -1151,12 +1129,8 @@
       <c r="M13" s="3">
         <v>164.5</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>32689</v>
       </c>
@@ -1196,12 +1170,8 @@
       <c r="M14" s="3">
         <v>198.1</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>32720</v>
       </c>
@@ -1241,12 +1211,8 @@
       <c r="M15" s="3">
         <v>232.3</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>32751</v>
       </c>
@@ -1286,12 +1252,8 @@
       <c r="M16" s="3">
         <v>269.2</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>32781</v>
       </c>
@@ -1331,12 +1293,8 @@
       <c r="M17" s="3">
         <v>300.60000000000002</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>32812</v>
       </c>
@@ -1376,12 +1334,8 @@
       <c r="M18" s="3">
         <v>333.9</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>32842</v>
       </c>
@@ -1421,12 +1375,8 @@
       <c r="M19" s="3">
         <v>368.3</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>32873</v>
       </c>
@@ -1466,12 +1416,8 @@
       <c r="M20" s="3">
         <v>395.2</v>
       </c>
-      <c r="N20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>32904</v>
       </c>
@@ -1511,12 +1457,8 @@
       <c r="M21" s="3">
         <v>31</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>32932</v>
       </c>
@@ -1556,12 +1498,8 @@
       <c r="M22" s="3">
         <v>56.6</v>
       </c>
-      <c r="N22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>32963</v>
       </c>
@@ -1601,12 +1539,8 @@
       <c r="M23" s="3">
         <v>92.2</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>32993</v>
       </c>
@@ -1646,12 +1580,8 @@
       <c r="M24" s="3">
         <v>128.69999999999999</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>33024</v>
       </c>
@@ -1691,12 +1621,8 @@
       <c r="M25" s="3">
         <v>168</v>
       </c>
-      <c r="N25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>33054</v>
       </c>
@@ -1736,12 +1662,8 @@
       <c r="M26" s="3">
         <v>202.8</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>33085</v>
       </c>
@@ -1781,12 +1703,8 @@
       <c r="M27" s="3">
         <v>242.2</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>33116</v>
       </c>
@@ -1826,12 +1744,8 @@
       <c r="M28" s="3">
         <v>276.5</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>33146</v>
       </c>
@@ -1871,12 +1785,8 @@
       <c r="M29" s="3">
         <v>306.2</v>
       </c>
-      <c r="N29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>33177</v>
       </c>
@@ -1916,12 +1826,8 @@
       <c r="M30" s="3">
         <v>336.3</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>33207</v>
       </c>
@@ -1961,12 +1867,8 @@
       <c r="M31" s="3">
         <v>362.2</v>
       </c>
-      <c r="N31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>33238</v>
       </c>
@@ -2006,12 +1908,8 @@
       <c r="M32" s="3">
         <v>384.5</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>33269</v>
       </c>
@@ -2051,12 +1949,8 @@
       <c r="M33" s="3">
         <v>32.6</v>
       </c>
-      <c r="N33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>33297</v>
       </c>
@@ -2096,12 +1990,8 @@
       <c r="M34" s="3">
         <v>61.1</v>
       </c>
-      <c r="N34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>33328</v>
       </c>
@@ -2141,12 +2031,8 @@
       <c r="M35" s="3">
         <v>96.2</v>
       </c>
-      <c r="N35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>33358</v>
       </c>
@@ -2186,12 +2072,8 @@
       <c r="M36" s="3">
         <v>126.4</v>
       </c>
-      <c r="N36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>33389</v>
       </c>
@@ -2231,12 +2113,8 @@
       <c r="M37" s="3">
         <v>158.80000000000001</v>
       </c>
-      <c r="N37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>33419</v>
       </c>
@@ -2276,12 +2154,8 @@
       <c r="M38" s="3">
         <v>196</v>
       </c>
-      <c r="N38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>33450</v>
       </c>
@@ -2321,12 +2195,8 @@
       <c r="M39" s="3">
         <v>231.8</v>
       </c>
-      <c r="N39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>33481</v>
       </c>
@@ -2366,12 +2236,8 @@
       <c r="M40" s="3">
         <v>267.60000000000002</v>
       </c>
-      <c r="N40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>33511</v>
       </c>
@@ -2411,12 +2277,8 @@
       <c r="M41" s="3">
         <v>301.5</v>
       </c>
-      <c r="N41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>33542</v>
       </c>
@@ -2456,12 +2318,8 @@
       <c r="M42" s="3">
         <v>339.4</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>33572</v>
       </c>
@@ -2501,12 +2359,8 @@
       <c r="M43" s="3">
         <v>375.1</v>
       </c>
-      <c r="N43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>33603</v>
       </c>
@@ -2546,12 +2400,8 @@
       <c r="M44" s="3">
         <v>398.41</v>
       </c>
-      <c r="N44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>33634</v>
       </c>
@@ -2591,12 +2441,8 @@
       <c r="M45" s="3">
         <v>28.2</v>
       </c>
-      <c r="N45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>33663</v>
       </c>
@@ -2636,12 +2482,8 @@
       <c r="M46" s="3">
         <v>62.8</v>
       </c>
-      <c r="N46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>33694</v>
       </c>
@@ -2681,12 +2523,8 @@
       <c r="M47" s="3">
         <v>99.5</v>
       </c>
-      <c r="N47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>33724</v>
       </c>
@@ -2726,12 +2564,8 @@
       <c r="M48" s="3">
         <v>147.5</v>
       </c>
-      <c r="N48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>33755</v>
       </c>
@@ -2771,12 +2605,8 @@
       <c r="M49" s="3">
         <v>177.8</v>
       </c>
-      <c r="N49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>33785</v>
       </c>
@@ -2816,12 +2646,8 @@
       <c r="M50" s="3">
         <v>209.5</v>
       </c>
-      <c r="N50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>33816</v>
       </c>
@@ -2861,12 +2687,8 @@
       <c r="M51" s="3">
         <v>243.2</v>
       </c>
-      <c r="N51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>33847</v>
       </c>
@@ -2906,12 +2728,8 @@
       <c r="M52" s="3">
         <v>279.5</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>33877</v>
       </c>
@@ -2951,12 +2769,8 @@
       <c r="M53" s="3">
         <v>310</v>
       </c>
-      <c r="N53" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>33908</v>
       </c>
@@ -2996,12 +2810,8 @@
       <c r="M54" s="3">
         <v>341.5</v>
       </c>
-      <c r="N54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>33938</v>
       </c>
@@ -3041,12 +2851,8 @@
       <c r="M55" s="3">
         <v>371.5</v>
       </c>
-      <c r="N55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>33969</v>
       </c>
@@ -3086,12 +2892,8 @@
       <c r="M56" s="3">
         <v>395.9</v>
       </c>
-      <c r="N56" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>34000</v>
       </c>
@@ -3131,12 +2933,8 @@
       <c r="M57" s="3">
         <v>32</v>
       </c>
-      <c r="N57" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>34028</v>
       </c>
@@ -3176,12 +2974,8 @@
       <c r="M58" s="3">
         <v>59.6</v>
       </c>
-      <c r="N58" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>34059</v>
       </c>
@@ -3221,12 +3015,8 @@
       <c r="M59" s="3">
         <v>89.3</v>
       </c>
-      <c r="N59" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>34089</v>
       </c>
@@ -3266,12 +3056,8 @@
       <c r="M60" s="3">
         <v>117.4</v>
       </c>
-      <c r="N60" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>34120</v>
       </c>
@@ -3311,12 +3097,8 @@
       <c r="M61" s="3">
         <v>151.1</v>
       </c>
-      <c r="N61" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>34150</v>
       </c>
@@ -3356,12 +3138,8 @@
       <c r="M62" s="3">
         <v>181.8</v>
       </c>
-      <c r="N62" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>34181</v>
       </c>
@@ -3401,12 +3179,8 @@
       <c r="M63" s="3">
         <v>214.5</v>
       </c>
-      <c r="N63" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
         <v>34212</v>
       </c>
@@ -3446,12 +3220,8 @@
       <c r="M64" s="3">
         <v>244.8</v>
       </c>
-      <c r="N64" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
         <v>34242</v>
       </c>
@@ -3491,12 +3261,8 @@
       <c r="M65" s="3">
         <v>274.2</v>
       </c>
-      <c r="N65" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
         <v>34273</v>
       </c>
@@ -3536,12 +3302,8 @@
       <c r="M66" s="3">
         <v>308.89999999999998</v>
       </c>
-      <c r="N66" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
         <v>34303</v>
       </c>
@@ -3581,12 +3343,8 @@
       <c r="M67" s="3">
         <v>343.6</v>
       </c>
-      <c r="N67" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
         <v>34334</v>
       </c>
@@ -3626,12 +3384,8 @@
       <c r="M68" s="3">
         <v>373.3</v>
       </c>
-      <c r="N68" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
         <v>34365</v>
       </c>
@@ -3671,12 +3425,8 @@
       <c r="M69" s="3">
         <v>34.4</v>
       </c>
-      <c r="N69" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
         <v>34393</v>
       </c>
@@ -3716,12 +3466,8 @@
       <c r="M70" s="3">
         <v>71.89</v>
       </c>
-      <c r="N70" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
         <v>34424</v>
       </c>
@@ -3761,12 +3507,8 @@
       <c r="M71" s="3">
         <v>115.41</v>
       </c>
-      <c r="N71" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>34454</v>
       </c>
@@ -3806,12 +3548,8 @@
       <c r="M72" s="3">
         <v>153.88999999999999</v>
       </c>
-      <c r="N72" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>34485</v>
       </c>
@@ -3851,12 +3589,8 @@
       <c r="M73" s="3">
         <v>190.93</v>
       </c>
-      <c r="N73" s="5">
-        <f t="shared" ref="N73:N136" si="1">E73-D73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
         <v>34515</v>
       </c>
@@ -3896,12 +3630,8 @@
       <c r="M74" s="3">
         <v>228.5</v>
       </c>
-      <c r="N74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>34546</v>
       </c>
@@ -3941,12 +3671,8 @@
       <c r="M75" s="3">
         <v>267.49</v>
       </c>
-      <c r="N75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>34577</v>
       </c>
@@ -3986,12 +3712,8 @@
       <c r="M76" s="3">
         <v>305.77</v>
       </c>
-      <c r="N76" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>34607</v>
       </c>
@@ -4031,12 +3753,8 @@
       <c r="M77" s="3">
         <v>334.77</v>
       </c>
-      <c r="N77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>34638</v>
       </c>
@@ -4076,12 +3794,8 @@
       <c r="M78" s="3">
         <v>368.17</v>
       </c>
-      <c r="N78" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
         <v>34668</v>
       </c>
@@ -4121,12 +3835,8 @@
       <c r="M79" s="3">
         <v>400.64</v>
       </c>
-      <c r="N79" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
         <v>34699</v>
       </c>
@@ -4166,12 +3876,8 @@
       <c r="M80" s="3">
         <v>433.42</v>
       </c>
-      <c r="N80" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>34730</v>
       </c>
@@ -4211,12 +3917,8 @@
       <c r="M81" s="3">
         <v>35.24</v>
       </c>
-      <c r="N81" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
         <v>34758</v>
       </c>
@@ -4256,12 +3958,8 @@
       <c r="M82" s="3">
         <v>66.83</v>
       </c>
-      <c r="N82" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
         <v>34789</v>
       </c>
@@ -4301,12 +3999,8 @@
       <c r="M83" s="3">
         <v>98.49</v>
       </c>
-      <c r="N83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>34819</v>
       </c>
@@ -4346,12 +4040,8 @@
       <c r="M84" s="3">
         <v>131.31</v>
       </c>
-      <c r="N84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
         <v>34850</v>
       </c>
@@ -4391,12 +4081,8 @@
       <c r="M85" s="3">
         <v>166.7</v>
       </c>
-      <c r="N85" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
         <v>34880</v>
       </c>
@@ -4436,12 +4122,8 @@
       <c r="M86" s="3">
         <v>201.44</v>
       </c>
-      <c r="N86" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>34911</v>
       </c>
@@ -4481,12 +4163,8 @@
       <c r="M87" s="3">
         <v>239.13</v>
       </c>
-      <c r="N87" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>34942</v>
       </c>
@@ -4526,12 +4204,8 @@
       <c r="M88" s="3">
         <v>279.62</v>
       </c>
-      <c r="N88" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>34972</v>
       </c>
@@ -4571,12 +4245,8 @@
       <c r="M89" s="3">
         <v>318.99</v>
       </c>
-      <c r="N89" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
         <v>35003</v>
       </c>
@@ -4616,12 +4286,8 @@
       <c r="M90" s="3">
         <v>357.96</v>
       </c>
-      <c r="N90" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
         <v>35033</v>
       </c>
@@ -4661,12 +4327,8 @@
       <c r="M91" s="3">
         <v>398.71</v>
       </c>
-      <c r="N91" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>35064</v>
       </c>
@@ -4706,12 +4368,8 @@
       <c r="M92" s="3">
         <v>435.32</v>
       </c>
-      <c r="N92" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
         <v>35095</v>
       </c>
@@ -4751,12 +4409,8 @@
       <c r="M93" s="3">
         <v>37.39</v>
       </c>
-      <c r="N93" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>35124</v>
       </c>
@@ -4796,12 +4450,8 @@
       <c r="M94" s="3">
         <v>77.87</v>
       </c>
-      <c r="N94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>35155</v>
       </c>
@@ -4841,12 +4491,8 @@
       <c r="M95" s="3">
         <v>116.65</v>
       </c>
-      <c r="N95" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
         <v>35185</v>
       </c>
@@ -4886,12 +4532,8 @@
       <c r="M96" s="3">
         <v>158.09</v>
       </c>
-      <c r="N96" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>35216</v>
       </c>
@@ -4931,12 +4573,8 @@
       <c r="M97" s="3">
         <v>207.18</v>
       </c>
-      <c r="N97" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>35246</v>
       </c>
@@ -4976,12 +4614,8 @@
       <c r="M98" s="3">
         <v>257.3</v>
       </c>
-      <c r="N98" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
         <v>35277</v>
       </c>
@@ -5021,12 +4655,8 @@
       <c r="M99" s="3">
         <v>297.32</v>
       </c>
-      <c r="N99" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
         <v>35308</v>
       </c>
@@ -5066,12 +4696,8 @@
       <c r="M100" s="3">
         <v>343.02</v>
       </c>
-      <c r="N100" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>35338</v>
       </c>
@@ -5111,12 +4737,8 @@
       <c r="M101" s="3">
         <v>388.04</v>
       </c>
-      <c r="N101" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
         <v>35369</v>
       </c>
@@ -5156,12 +4778,8 @@
       <c r="M102" s="3">
         <v>436.75</v>
       </c>
-      <c r="N102" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
         <v>35399</v>
       </c>
@@ -5201,12 +4819,8 @@
       <c r="M103" s="3">
         <v>482.99</v>
       </c>
-      <c r="N103" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>35430</v>
       </c>
@@ -5246,12 +4860,8 @@
       <c r="M104" s="3">
         <v>529.17999999999995</v>
       </c>
-      <c r="N104" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2">
         <v>35461</v>
       </c>
@@ -5291,12 +4901,8 @@
       <c r="M105" s="3">
         <v>42.33</v>
       </c>
-      <c r="N105" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2">
         <v>35489</v>
       </c>
@@ -5336,12 +4942,8 @@
       <c r="M106" s="3">
         <v>102.04</v>
       </c>
-      <c r="N106" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2">
         <v>35520</v>
       </c>
@@ -5381,12 +4983,8 @@
       <c r="M107" s="3">
         <v>126.12</v>
       </c>
-      <c r="N107" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2">
         <v>35550</v>
       </c>
@@ -5426,12 +5024,8 @@
       <c r="M108" s="3">
         <v>171.34</v>
       </c>
-      <c r="N108" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2">
         <v>35581</v>
       </c>
@@ -5471,12 +5065,8 @@
       <c r="M109" s="3">
         <v>217.64</v>
       </c>
-      <c r="N109" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>35611</v>
       </c>
@@ -5516,12 +5106,8 @@
       <c r="M110" s="3">
         <v>265.24</v>
       </c>
-      <c r="N110" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2">
         <v>35642</v>
       </c>
@@ -5561,12 +5147,8 @@
       <c r="M111" s="3">
         <v>310.98</v>
       </c>
-      <c r="N111" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2">
         <v>35673</v>
       </c>
@@ -5606,12 +5188,8 @@
       <c r="M112" s="3">
         <v>361.3</v>
       </c>
-      <c r="N112" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>35703</v>
       </c>
@@ -5651,12 +5229,8 @@
       <c r="M113" s="3">
         <v>415.32</v>
       </c>
-      <c r="N113" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>35734</v>
       </c>
@@ -5696,12 +5270,8 @@
       <c r="M114" s="3">
         <v>472.1</v>
       </c>
-      <c r="N114" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>35764</v>
       </c>
@@ -5741,12 +5311,8 @@
       <c r="M115" s="3">
         <v>523.80999999999995</v>
       </c>
-      <c r="N115" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2">
         <v>35795</v>
       </c>
@@ -5786,12 +5352,8 @@
       <c r="M116" s="3">
         <v>573.69000000000005</v>
       </c>
-      <c r="N116" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2">
         <v>35826</v>
       </c>
@@ -5831,12 +5393,8 @@
       <c r="M117" s="3">
         <v>48.25</v>
       </c>
-      <c r="N117" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>35854</v>
       </c>
@@ -5876,12 +5434,8 @@
       <c r="M118" s="3">
         <v>99.69</v>
       </c>
-      <c r="N118" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2">
         <v>35885</v>
       </c>
@@ -5921,12 +5475,8 @@
       <c r="M119" s="3">
         <v>154.71</v>
       </c>
-      <c r="N119" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2">
         <v>35915</v>
       </c>
@@ -5966,12 +5516,8 @@
       <c r="M120" s="3">
         <v>206.84</v>
       </c>
-      <c r="N120" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>35946</v>
       </c>
@@ -6011,12 +5557,8 @@
       <c r="M121" s="3">
         <v>260.62</v>
       </c>
-      <c r="N121" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>35976</v>
       </c>
@@ -6056,12 +5598,8 @@
       <c r="M122" s="3">
         <v>311.55</v>
       </c>
-      <c r="N122" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2">
         <v>36007</v>
       </c>
@@ -6101,12 +5639,8 @@
       <c r="M123" s="3">
         <v>359.08</v>
       </c>
-      <c r="N123" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>36038</v>
       </c>
@@ -6146,12 +5680,8 @@
       <c r="M124" s="3">
         <v>406.54</v>
       </c>
-      <c r="N124" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>36068</v>
       </c>
@@ -6191,12 +5721,8 @@
       <c r="M125" s="3">
         <v>456.86</v>
       </c>
-      <c r="N125" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>36099</v>
       </c>
@@ -6236,12 +5762,8 @@
       <c r="M126" s="3">
         <v>511.41</v>
       </c>
-      <c r="N126" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2">
         <v>36129</v>
       </c>
@@ -6281,12 +5803,8 @@
       <c r="M127" s="3">
         <v>567.95000000000005</v>
       </c>
-      <c r="N127" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2">
         <v>36160</v>
       </c>
@@ -6326,12 +5844,8 @@
       <c r="M128" s="3">
         <v>574.89</v>
       </c>
-      <c r="N128" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>36191</v>
       </c>
@@ -6371,12 +5885,8 @@
       <c r="M129" s="3">
         <v>43.3</v>
       </c>
-      <c r="N129" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2">
         <v>36219</v>
       </c>
@@ -6416,12 +5926,8 @@
       <c r="M130" s="3">
         <v>95.9</v>
       </c>
-      <c r="N130" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2">
         <v>36250</v>
       </c>
@@ -6461,12 +5967,8 @@
       <c r="M131" s="3">
         <v>147.26</v>
       </c>
-      <c r="N131" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2">
         <v>36280</v>
       </c>
@@ -6506,12 +6008,8 @@
       <c r="M132" s="3">
         <v>208.29</v>
       </c>
-      <c r="N132" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2">
         <v>36311</v>
       </c>
@@ -6551,12 +6049,8 @@
       <c r="M133" s="3">
         <v>262.04000000000002</v>
       </c>
-      <c r="N133" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>36341</v>
       </c>
@@ -6596,12 +6090,8 @@
       <c r="M134" s="3">
         <v>326.48</v>
       </c>
-      <c r="N134" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2">
         <v>36372</v>
       </c>
@@ -6641,12 +6131,8 @@
       <c r="M135" s="3">
         <v>390.93</v>
       </c>
-      <c r="N135" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2">
         <v>36403</v>
       </c>
@@ -6686,12 +6172,8 @@
       <c r="M136" s="3">
         <v>461.82</v>
       </c>
-      <c r="N136" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>36433</v>
       </c>
@@ -6731,12 +6213,8 @@
       <c r="M137" s="3">
         <v>529.01</v>
       </c>
-      <c r="N137" s="5">
-        <f t="shared" ref="N137:N200" si="2">E137-D137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>36464</v>
       </c>
@@ -6776,12 +6254,8 @@
       <c r="M138" s="3">
         <v>606.17999999999995</v>
       </c>
-      <c r="N138" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2">
         <v>36494</v>
       </c>
@@ -6821,12 +6295,8 @@
       <c r="M139" s="3">
         <v>670.21</v>
       </c>
-      <c r="N139" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2">
         <v>36525</v>
       </c>
@@ -6866,12 +6336,8 @@
       <c r="M140" s="3">
         <v>719.46</v>
       </c>
-      <c r="N140" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>36556</v>
       </c>
@@ -6911,12 +6377,8 @@
       <c r="M141" s="3">
         <v>52.55</v>
       </c>
-      <c r="N141" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>36585</v>
       </c>
@@ -6956,12 +6418,8 @@
       <c r="M142" s="3">
         <v>113.48</v>
       </c>
-      <c r="N142" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2">
         <v>36616</v>
       </c>
@@ -7001,12 +6459,8 @@
       <c r="M143" s="3">
         <v>205.46</v>
       </c>
-      <c r="N143" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2">
         <v>36646</v>
       </c>
@@ -7046,12 +6500,8 @@
       <c r="M144" s="3">
         <v>283.3</v>
       </c>
-      <c r="N144" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2">
         <v>36677</v>
       </c>
@@ -7091,12 +6541,8 @@
       <c r="M145" s="3">
         <v>358.82</v>
       </c>
-      <c r="N145" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2">
         <v>36707</v>
       </c>
@@ -7136,12 +6582,8 @@
       <c r="M146" s="3">
         <v>437.63</v>
       </c>
-      <c r="N146" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>36738</v>
       </c>
@@ -7181,12 +6623,8 @@
       <c r="M147" s="3">
         <v>511.06</v>
       </c>
-      <c r="N147" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>36769</v>
       </c>
@@ -7226,12 +6664,8 @@
       <c r="M148" s="3">
         <v>583.04999999999995</v>
       </c>
-      <c r="N148" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2">
         <v>36799</v>
       </c>
@@ -7271,12 +6705,8 @@
       <c r="M149" s="3">
         <v>655.44</v>
       </c>
-      <c r="N149" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>36830</v>
       </c>
@@ -7316,12 +6746,8 @@
       <c r="M150" s="3">
         <v>727.93</v>
       </c>
-      <c r="N150" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>36860</v>
       </c>
@@ -7361,12 +6787,8 @@
       <c r="M151" s="3">
         <v>800.24</v>
       </c>
-      <c r="N151" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>36891</v>
       </c>
@@ -7406,12 +6828,8 @@
       <c r="M152" s="3">
         <v>872.29</v>
       </c>
-      <c r="N152" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>36922</v>
       </c>
@@ -7451,12 +6869,8 @@
       <c r="M153" s="3">
         <v>61.52</v>
       </c>
-      <c r="N153" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>36950</v>
       </c>
@@ -7496,12 +6910,8 @@
       <c r="M154" s="3">
         <v>120.01</v>
       </c>
-      <c r="N154" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2">
         <v>36981</v>
       </c>
@@ -7541,12 +6951,8 @@
       <c r="M155" s="3">
         <v>182.29</v>
       </c>
-      <c r="N155" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="2">
         <v>37011</v>
       </c>
@@ -7586,12 +6992,8 @@
       <c r="M156" s="3">
         <v>244.62</v>
       </c>
-      <c r="N156" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
         <v>37042</v>
       </c>
@@ -7631,12 +7033,8 @@
       <c r="M157" s="3">
         <v>316.52</v>
       </c>
-      <c r="N157" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2">
         <v>37072</v>
       </c>
@@ -7676,12 +7074,8 @@
       <c r="M158" s="3">
         <v>389.45</v>
       </c>
-      <c r="N158" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2">
         <v>37103</v>
       </c>
@@ -7721,12 +7115,8 @@
       <c r="M159" s="3">
         <v>458.77</v>
       </c>
-      <c r="N159" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2">
         <v>37134</v>
       </c>
@@ -7766,12 +7156,8 @@
       <c r="M160" s="3">
         <v>526.63</v>
       </c>
-      <c r="N160" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2">
         <v>37164</v>
       </c>
@@ -7811,12 +7197,8 @@
       <c r="M161" s="3">
         <v>590.41</v>
       </c>
-      <c r="N161" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
         <v>37195</v>
       </c>
@@ -7856,12 +7238,8 @@
       <c r="M162" s="3">
         <v>662.82</v>
       </c>
-      <c r="N162" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
         <v>37225</v>
       </c>
@@ -7901,12 +7279,8 @@
       <c r="M163" s="3">
         <v>733.46</v>
       </c>
-      <c r="N163" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
         <v>37256</v>
       </c>
@@ -7946,12 +7320,8 @@
       <c r="M164" s="3">
         <v>789.35</v>
       </c>
-      <c r="N164" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="2">
         <v>37287</v>
       </c>
@@ -7991,12 +7361,8 @@
       <c r="M165" s="3">
         <v>55.38</v>
       </c>
-      <c r="N165" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="2">
         <v>37315</v>
       </c>
@@ -8036,12 +7402,8 @@
       <c r="M166" s="3">
         <v>117.58</v>
       </c>
-      <c r="N166" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
         <v>37346</v>
       </c>
@@ -8081,12 +7443,8 @@
       <c r="M167" s="3">
         <v>183.15</v>
       </c>
-      <c r="N167" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2">
         <v>37376</v>
       </c>
@@ -8126,12 +7484,8 @@
       <c r="M168" s="3">
         <v>254.8</v>
       </c>
-      <c r="N168" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2">
         <v>37407</v>
       </c>
@@ -8171,12 +7525,8 @@
       <c r="M169" s="3">
         <v>326.97000000000003</v>
       </c>
-      <c r="N169" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
         <v>37437</v>
       </c>
@@ -8216,12 +7566,8 @@
       <c r="M170" s="3">
         <v>403.11</v>
       </c>
-      <c r="N170" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="2">
         <v>37468</v>
       </c>
@@ -8261,12 +7607,8 @@
       <c r="M171" s="3">
         <v>468.52</v>
       </c>
-      <c r="N171" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="2">
         <v>37499</v>
       </c>
@@ -8306,12 +7648,8 @@
       <c r="M172" s="3">
         <v>537.79999999999995</v>
       </c>
-      <c r="N172" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="2">
         <v>37529</v>
       </c>
@@ -8351,12 +7689,8 @@
       <c r="M173" s="3">
         <v>603.20000000000005</v>
       </c>
-      <c r="N173" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="2">
         <v>37560</v>
       </c>
@@ -8396,12 +7730,8 @@
       <c r="M174" s="3">
         <v>681.31</v>
       </c>
-      <c r="N174" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="2">
         <v>37590</v>
       </c>
@@ -8441,12 +7771,8 @@
       <c r="M175" s="3">
         <v>763.78</v>
       </c>
-      <c r="N175" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="2">
         <v>37621</v>
       </c>
@@ -8486,12 +7812,8 @@
       <c r="M176" s="3">
         <v>826.11</v>
       </c>
-      <c r="N176" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="2">
         <v>37652</v>
       </c>
@@ -8531,12 +7853,8 @@
       <c r="M177" s="3">
         <v>74.16</v>
       </c>
-      <c r="N177" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="2">
         <v>37680</v>
       </c>
@@ -8576,12 +7894,8 @@
       <c r="M178" s="3">
         <v>152.63999999999999</v>
       </c>
-      <c r="N178" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="2">
         <v>37711</v>
       </c>
@@ -8621,12 +7935,8 @@
       <c r="M179" s="3">
         <v>229.92</v>
       </c>
-      <c r="N179" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="2">
         <v>37741</v>
       </c>
@@ -8666,12 +7976,8 @@
       <c r="M180" s="3">
         <v>301.97000000000003</v>
       </c>
-      <c r="N180" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="2">
         <v>37772</v>
       </c>
@@ -8711,12 +8017,8 @@
       <c r="M181" s="3">
         <v>354.95</v>
       </c>
-      <c r="N181" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="2">
         <v>37802</v>
       </c>
@@ -8756,12 +8058,8 @@
       <c r="M182" s="3">
         <v>402.3</v>
       </c>
-      <c r="N182" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="2">
         <v>37833</v>
       </c>
@@ -8801,12 +8099,8 @@
       <c r="M183" s="3">
         <v>464.4</v>
       </c>
-      <c r="N183" s="5">
-        <f t="shared" si="2"/>
-        <v>-750.00000000000023</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="2">
         <v>37864</v>
       </c>
@@ -8846,12 +8140,8 @@
       <c r="M184" s="3">
         <v>543.72</v>
       </c>
-      <c r="N184" s="5">
-        <f t="shared" si="2"/>
-        <v>-929.99999999999977</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="2">
         <v>37894</v>
       </c>
@@ -8891,12 +8181,8 @@
       <c r="M185" s="3">
         <v>625.41</v>
       </c>
-      <c r="N185" s="5">
-        <f t="shared" si="2"/>
-        <v>-1105</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="2">
         <v>37925</v>
       </c>
@@ -8936,12 +8222,8 @@
       <c r="M186" s="3">
         <v>708.38</v>
       </c>
-      <c r="N186" s="5">
-        <f t="shared" si="2"/>
-        <v>-1226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="2">
         <v>37955</v>
       </c>
@@ -8981,12 +8263,8 @@
       <c r="M187" s="3">
         <v>783.52</v>
       </c>
-      <c r="N187" s="5">
-        <f t="shared" si="2"/>
-        <v>-1346</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="2">
         <v>37986</v>
       </c>
@@ -9026,12 +8304,8 @@
       <c r="M188" s="3">
         <v>855.3</v>
       </c>
-      <c r="N188" s="5">
-        <f t="shared" si="2"/>
-        <v>-1442</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="2">
         <v>38017</v>
       </c>
@@ -9071,12 +8345,8 @@
       <c r="M189" s="3">
         <v>79.56</v>
       </c>
-      <c r="N189" s="5">
-        <f t="shared" si="2"/>
-        <v>-203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="2">
         <v>38046</v>
       </c>
@@ -9116,12 +8386,8 @@
       <c r="M190" s="3">
         <v>160.25</v>
       </c>
-      <c r="N190" s="5">
-        <f t="shared" si="2"/>
-        <v>-399</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="2">
         <v>38077</v>
       </c>
@@ -9161,12 +8427,8 @@
       <c r="M191" s="3">
         <v>236.9</v>
       </c>
-      <c r="N191" s="5">
-        <f t="shared" si="2"/>
-        <v>-598</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="2">
         <v>38107</v>
       </c>
@@ -9206,12 +8468,8 @@
       <c r="M192" s="3">
         <v>305.8</v>
       </c>
-      <c r="N192" s="5">
-        <f t="shared" si="2"/>
-        <v>-946</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="2">
         <v>38138</v>
       </c>
@@ -9251,12 +8509,8 @@
       <c r="M193" s="3">
         <v>382.78</v>
       </c>
-      <c r="N193" s="5">
-        <f t="shared" si="2"/>
-        <v>-1186</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="2">
         <v>38168</v>
       </c>
@@ -9296,12 +8550,8 @@
       <c r="M194" s="3">
         <v>465.21</v>
       </c>
-      <c r="N194" s="5">
-        <f t="shared" si="2"/>
-        <v>-1475.0000000000002</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14">
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="2">
         <v>38199</v>
       </c>
@@ -9341,12 +8591,8 @@
       <c r="M195" s="3">
         <v>545.9</v>
       </c>
-      <c r="N195" s="5">
-        <f t="shared" si="2"/>
-        <v>-1661</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="2">
         <v>38230</v>
       </c>
@@ -9386,12 +8632,8 @@
       <c r="M196" s="3">
         <v>624.79</v>
       </c>
-      <c r="N196" s="5">
-        <f t="shared" si="2"/>
-        <v>-1796</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="2">
         <v>38260</v>
       </c>
@@ -9431,12 +8673,8 @@
       <c r="M197" s="3">
         <v>711.4</v>
       </c>
-      <c r="N197" s="5">
-        <f t="shared" si="2"/>
-        <v>-1945</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="2">
         <v>38291</v>
       </c>
@@ -9476,12 +8714,8 @@
       <c r="M198" s="3">
         <v>802.76</v>
       </c>
-      <c r="N198" s="5">
-        <f t="shared" si="2"/>
-        <v>-2140.9999999999995</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14">
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="2">
         <v>38321</v>
       </c>
@@ -9521,12 +8755,8 @@
       <c r="M199" s="3">
         <v>883.95</v>
       </c>
-      <c r="N199" s="5">
-        <f t="shared" si="2"/>
-        <v>-2436</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14">
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="2">
         <v>38352</v>
       </c>
@@ -9566,12 +8796,8 @@
       <c r="M200" s="3">
         <v>970.75</v>
       </c>
-      <c r="N200" s="5">
-        <f t="shared" si="2"/>
-        <v>-2642</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14">
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="2">
         <v>38383</v>
       </c>
@@ -9611,12 +8837,8 @@
       <c r="M201" s="3">
         <v>80.66</v>
       </c>
-      <c r="N201" s="5">
-        <f t="shared" ref="N201:N264" si="3">E201-D201</f>
-        <v>-227</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14">
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="2">
         <v>38411</v>
       </c>
@@ -9656,12 +8878,8 @@
       <c r="M202" s="3">
         <v>160.16</v>
       </c>
-      <c r="N202" s="5">
-        <f t="shared" si="3"/>
-        <v>-379</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14">
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="2">
         <v>38442</v>
       </c>
@@ -9701,12 +8919,8 @@
       <c r="M203" s="3">
         <v>253.43</v>
       </c>
-      <c r="N203" s="5">
-        <f t="shared" si="3"/>
-        <v>-491</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14">
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="2">
         <v>38472</v>
       </c>
@@ -9746,12 +8960,8 @@
       <c r="M204" s="3">
         <v>335.7</v>
       </c>
-      <c r="N204" s="5">
-        <f t="shared" si="3"/>
-        <v>-601</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="2">
         <v>38503</v>
       </c>
@@ -9791,12 +9001,8 @@
       <c r="M205" s="3">
         <v>417</v>
       </c>
-      <c r="N205" s="5">
-        <f t="shared" si="3"/>
-        <v>-635</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="2">
         <v>38533</v>
       </c>
@@ -9836,12 +9042,8 @@
       <c r="M206" s="3">
         <v>500.06</v>
       </c>
-      <c r="N206" s="5">
-        <f t="shared" si="3"/>
-        <v>-816.00000000000011</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14">
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="2">
         <v>38564</v>
       </c>
@@ -9881,12 +9083,8 @@
       <c r="M207" s="3">
         <v>590.44000000000005</v>
       </c>
-      <c r="N207" s="5">
-        <f t="shared" si="3"/>
-        <v>-930.00000000000023</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>38595</v>
       </c>
@@ -9926,12 +9124,8 @@
       <c r="M208" s="3">
         <v>688.7</v>
       </c>
-      <c r="N208" s="5">
-        <f t="shared" si="3"/>
-        <v>-1001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="2">
         <v>38625</v>
       </c>
@@ -9971,12 +9165,8 @@
       <c r="M209" s="3">
         <v>771.3</v>
       </c>
-      <c r="N209" s="5">
-        <f t="shared" si="3"/>
-        <v>-1169</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="2">
         <v>38656</v>
       </c>
@@ -10016,12 +9206,8 @@
       <c r="M210" s="3">
         <v>846.99</v>
       </c>
-      <c r="N210" s="5">
-        <f t="shared" si="3"/>
-        <v>-1358</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="2">
         <v>38686</v>
       </c>
@@ -10061,12 +9247,8 @@
       <c r="M211" s="3">
         <v>919.97</v>
       </c>
-      <c r="N211" s="5">
-        <f t="shared" si="3"/>
-        <v>-1523</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="2">
         <v>38717</v>
       </c>
@@ -10106,12 +9288,8 @@
       <c r="M212" s="3">
         <v>988.59</v>
       </c>
-      <c r="N212" s="5">
-        <f t="shared" si="3"/>
-        <v>-1741.9999999999995</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="2">
         <v>38748</v>
       </c>
@@ -10151,12 +9329,8 @@
       <c r="M213" s="3">
         <v>101.21</v>
       </c>
-      <c r="N213" s="5">
-        <f t="shared" si="3"/>
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="2">
         <v>38776</v>
       </c>
@@ -10196,12 +9370,8 @@
       <c r="M214" s="3">
         <v>175.81</v>
       </c>
-      <c r="N214" s="5">
-        <f t="shared" si="3"/>
-        <v>-305</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="2">
         <v>38807</v>
       </c>
@@ -10241,12 +9411,8 @@
       <c r="M215" s="3">
         <v>252.03</v>
       </c>
-      <c r="N215" s="5">
-        <f t="shared" si="3"/>
-        <v>-497</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14">
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="2">
         <v>38837</v>
       </c>
@@ -10286,12 +9452,8 @@
       <c r="M216" s="3">
         <v>313.49</v>
       </c>
-      <c r="N216" s="5">
-        <f t="shared" si="3"/>
-        <v>-696</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="2">
         <v>38868</v>
       </c>
@@ -10331,12 +9493,8 @@
       <c r="M217" s="3">
         <v>404.73</v>
       </c>
-      <c r="N217" s="5">
-        <f t="shared" si="3"/>
-        <v>-886</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="2">
         <v>38898</v>
       </c>
@@ -10376,12 +9534,8 @@
       <c r="M218" s="3">
         <v>484.23</v>
       </c>
-      <c r="N218" s="5">
-        <f t="shared" si="3"/>
-        <v>-1202.9999999999998</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14">
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="2">
         <v>38929</v>
       </c>
@@ -10421,12 +9575,8 @@
       <c r="M219" s="3">
         <v>566.25</v>
       </c>
-      <c r="N219" s="5">
-        <f t="shared" si="3"/>
-        <v>-1485</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="2">
         <v>38960</v>
       </c>
@@ -10466,12 +9616,8 @@
       <c r="M220" s="3">
         <v>647.92999999999995</v>
       </c>
-      <c r="N220" s="5">
-        <f t="shared" si="3"/>
-        <v>-1755</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="2">
         <v>38990</v>
       </c>
@@ -10511,12 +9657,8 @@
       <c r="M221" s="3">
         <v>731.52</v>
       </c>
-      <c r="N221" s="5">
-        <f t="shared" si="3"/>
-        <v>-2005</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="2">
         <v>39021</v>
       </c>
@@ -10556,12 +9698,8 @@
       <c r="M222" s="3">
         <v>813.87</v>
       </c>
-      <c r="N222" s="5">
-        <f t="shared" si="3"/>
-        <v>-2187</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="2">
         <v>39051</v>
       </c>
@@ -10601,12 +9739,8 @@
       <c r="M223" s="3">
         <v>885.41</v>
       </c>
-      <c r="N223" s="5">
-        <f t="shared" si="3"/>
-        <v>-2305.0000000000005</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14">
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="2">
         <v>39082</v>
       </c>
@@ -10646,12 +9780,8 @@
       <c r="M224" s="3">
         <v>959.95</v>
       </c>
-      <c r="N224" s="5">
-        <f t="shared" si="3"/>
-        <v>-2402.9999999999995</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14">
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="2">
         <v>39113</v>
       </c>
@@ -10691,12 +9821,8 @@
       <c r="M225" s="3">
         <v>76.48</v>
       </c>
-      <c r="N225" s="5">
-        <f t="shared" si="3"/>
-        <v>-184</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14">
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="2">
         <v>39141</v>
       </c>
@@ -10736,12 +9862,8 @@
       <c r="M226" s="3">
         <v>162.13</v>
       </c>
-      <c r="N226" s="5">
-        <f t="shared" si="3"/>
-        <v>-271</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="2">
         <v>39172</v>
       </c>
@@ -10781,12 +9903,8 @@
       <c r="M227" s="3">
         <v>253.72</v>
       </c>
-      <c r="N227" s="5">
-        <f t="shared" si="3"/>
-        <v>-415</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14">
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="2">
         <v>39202</v>
       </c>
@@ -10826,12 +9944,8 @@
       <c r="M228" s="3">
         <v>346.69</v>
       </c>
-      <c r="N228" s="5">
-        <f t="shared" si="3"/>
-        <v>-637</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14">
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="2">
         <v>39233</v>
       </c>
@@ -10871,12 +9985,8 @@
       <c r="M229" s="3">
         <v>451.97</v>
       </c>
-      <c r="N229" s="5">
-        <f t="shared" si="3"/>
-        <v>-832</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14">
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="2">
         <v>39263</v>
       </c>
@@ -10916,12 +10026,8 @@
       <c r="M230" s="3">
         <v>552.1</v>
       </c>
-      <c r="N230" s="5">
-        <f t="shared" si="3"/>
-        <v>-1014.0000000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14">
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="2">
         <v>39294</v>
       </c>
@@ -10961,12 +10067,8 @@
       <c r="M231" s="3">
         <v>660.58</v>
       </c>
-      <c r="N231" s="5">
-        <f t="shared" si="3"/>
-        <v>-1276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14">
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="2">
         <v>39325</v>
       </c>
@@ -11006,12 +10108,8 @@
       <c r="M232" s="3">
         <v>768.36</v>
       </c>
-      <c r="N232" s="5">
-        <f t="shared" si="3"/>
-        <v>-1400</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14">
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="2">
         <v>39355</v>
       </c>
@@ -11051,12 +10149,8 @@
       <c r="M233" s="3">
         <v>866.96</v>
       </c>
-      <c r="N233" s="5">
-        <f t="shared" si="3"/>
-        <v>-1498</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14">
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="2">
         <v>39386</v>
       </c>
@@ -11096,12 +10190,8 @@
       <c r="M234" s="3">
         <v>969.27</v>
       </c>
-      <c r="N234" s="5">
-        <f t="shared" si="3"/>
-        <v>-1603</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14">
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="2">
         <v>39416</v>
       </c>
@@ -11141,12 +10231,8 @@
       <c r="M235" s="3">
         <v>1061.73</v>
       </c>
-      <c r="N235" s="5">
-        <f t="shared" si="3"/>
-        <v>-1685</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="2">
         <v>39447</v>
       </c>
@@ -11186,12 +10272,8 @@
       <c r="M236" s="3">
         <v>1153.27</v>
       </c>
-      <c r="N236" s="5">
-        <f t="shared" si="3"/>
-        <v>-1829</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14">
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="2">
         <v>39478</v>
       </c>
@@ -11231,12 +10313,8 @@
       <c r="M237" s="3">
         <v>95.93</v>
       </c>
-      <c r="N237" s="5">
-        <f t="shared" si="3"/>
-        <v>-202</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14">
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="2">
         <v>39507</v>
       </c>
@@ -11276,12 +10354,8 @@
       <c r="M238" s="3">
         <v>193.24</v>
       </c>
-      <c r="N238" s="5">
-        <f t="shared" si="3"/>
-        <v>-352</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14">
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="2">
         <v>39538</v>
       </c>
@@ -11321,12 +10395,8 @@
       <c r="M239" s="3">
         <v>302.73</v>
       </c>
-      <c r="N239" s="5">
-        <f t="shared" si="3"/>
-        <v>-547</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14">
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="2">
         <v>39568</v>
       </c>
@@ -11366,12 +10436,8 @@
       <c r="M240" s="3">
         <v>402</v>
       </c>
-      <c r="N240" s="5">
-        <f t="shared" si="3"/>
-        <v>-784</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14">
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="2">
         <v>39599</v>
       </c>
@@ -11411,12 +10477,8 @@
       <c r="M241" s="3">
         <v>493.06</v>
       </c>
-      <c r="N241" s="5">
-        <f t="shared" si="3"/>
-        <v>-1086</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14">
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="2">
         <v>39629</v>
       </c>
@@ -11456,12 +10518,8 @@
       <c r="M242" s="3">
         <v>585.66999999999996</v>
       </c>
-      <c r="N242" s="5">
-        <f t="shared" si="3"/>
-        <v>-1313</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14">
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="2">
         <v>39660</v>
       </c>
@@ -11501,12 +10559,8 @@
       <c r="M243" s="3">
         <v>674.02</v>
       </c>
-      <c r="N243" s="5">
-        <f t="shared" si="3"/>
-        <v>-1586</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14">
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="2">
         <v>39691</v>
       </c>
@@ -11546,12 +10600,8 @@
       <c r="M244" s="3">
         <v>766.73</v>
       </c>
-      <c r="N244" s="5">
-        <f t="shared" si="3"/>
-        <v>-1779</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14">
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="2">
         <v>39721</v>
       </c>
@@ -11591,12 +10641,8 @@
       <c r="M245" s="3">
         <v>868.98</v>
       </c>
-      <c r="N245" s="5">
-        <f t="shared" si="3"/>
-        <v>-1898</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14">
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="2">
         <v>39752</v>
       </c>
@@ -11636,12 +10682,8 @@
       <c r="M246" s="3">
         <v>977.61</v>
       </c>
-      <c r="N246" s="5">
-        <f t="shared" si="3"/>
-        <v>-1952</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14">
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="2">
         <v>39782</v>
       </c>
@@ -11681,12 +10723,8 @@
       <c r="M247" s="3">
         <v>1074.3</v>
       </c>
-      <c r="N247" s="5">
-        <f t="shared" si="3"/>
-        <v>-2020.0000000000005</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="2">
         <v>39813</v>
       </c>
@@ -11726,12 +10764,8 @@
       <c r="M248" s="3">
         <v>1165.3699999999999</v>
       </c>
-      <c r="N248" s="5">
-        <f t="shared" si="3"/>
-        <v>-2181.9999999999995</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14">
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="2">
         <v>39844</v>
       </c>
@@ -11771,12 +10805,8 @@
       <c r="M249" s="3">
         <v>89.95</v>
       </c>
-      <c r="N249" s="5">
-        <f t="shared" si="3"/>
-        <v>-126.00000000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" s="2">
         <v>39872</v>
       </c>
@@ -11816,12 +10846,8 @@
       <c r="M250" s="3">
         <v>187.62</v>
       </c>
-      <c r="N250" s="5">
-        <f t="shared" si="3"/>
-        <v>-314</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14">
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" s="2">
         <v>39903</v>
       </c>
@@ -11861,12 +10887,8 @@
       <c r="M251" s="3">
         <v>301.62</v>
       </c>
-      <c r="N251" s="5">
-        <f t="shared" si="3"/>
-        <v>-479</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" s="2">
         <v>39933</v>
       </c>
@@ -11906,12 +10928,8 @@
       <c r="M252" s="3">
         <v>409.46</v>
       </c>
-      <c r="N252" s="5">
-        <f t="shared" si="3"/>
-        <v>-641</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" s="2">
         <v>39964</v>
       </c>
@@ -11951,12 +10969,8 @@
       <c r="M253" s="3">
         <v>527.75</v>
       </c>
-      <c r="N253" s="5">
-        <f t="shared" si="3"/>
-        <v>-804</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" s="2">
         <v>39994</v>
       </c>
@@ -11996,12 +11010,8 @@
       <c r="M254" s="3">
         <v>657.69</v>
       </c>
-      <c r="N254" s="5">
-        <f t="shared" si="3"/>
-        <v>-915</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" s="2">
         <v>40025</v>
       </c>
@@ -12041,12 +11051,8 @@
       <c r="M255" s="3">
         <v>793.08</v>
       </c>
-      <c r="N255" s="5">
-        <f t="shared" si="3"/>
-        <v>-1082</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" s="2">
         <v>40056</v>
       </c>
@@ -12086,12 +11092,8 @@
       <c r="M256" s="3">
         <v>933.51</v>
       </c>
-      <c r="N256" s="5">
-        <f t="shared" si="3"/>
-        <v>-1114</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" s="2">
         <v>40086</v>
       </c>
@@ -12131,12 +11133,8 @@
       <c r="M257" s="3">
         <v>1077.07</v>
       </c>
-      <c r="N257" s="5">
-        <f t="shared" si="3"/>
-        <v>-1186</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" s="2">
         <v>40117</v>
       </c>
@@ -12176,12 +11174,8 @@
       <c r="M258" s="3">
         <v>1213.03</v>
       </c>
-      <c r="N258" s="5">
-        <f t="shared" si="3"/>
-        <v>-1215</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14">
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="2">
         <v>40147</v>
       </c>
@@ -12221,12 +11215,8 @@
       <c r="M259" s="3">
         <v>1343.15</v>
       </c>
-      <c r="N259" s="5">
-        <f t="shared" si="3"/>
-        <v>-1230</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14">
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" s="2">
         <v>40178</v>
       </c>
@@ -12266,12 +11256,8 @@
       <c r="M260" s="3">
         <v>1479.43</v>
       </c>
-      <c r="N260" s="5">
-        <f t="shared" si="3"/>
-        <v>-1192</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14">
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" s="2">
         <v>40209</v>
       </c>
@@ -12311,12 +11297,8 @@
       <c r="M261" s="3">
         <v>134.76859999999999</v>
       </c>
-      <c r="N261" s="5">
-        <f t="shared" si="3"/>
-        <v>15.999999999999972</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="2">
         <v>40237</v>
       </c>
@@ -12356,12 +11338,8 @@
       <c r="M262" s="3">
         <v>263.39999999999998</v>
       </c>
-      <c r="N262" s="5">
-        <f t="shared" si="3"/>
-        <v>-113</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" s="2">
         <v>40268</v>
       </c>
@@ -12401,12 +11379,8 @@
       <c r="M263" s="3">
         <v>402.9</v>
       </c>
-      <c r="N263" s="5">
-        <f t="shared" si="3"/>
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14">
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="2">
         <v>40298</v>
       </c>
@@ -12446,12 +11420,8 @@
       <c r="M264" s="3">
         <v>549.5</v>
       </c>
-      <c r="N264" s="5">
-        <f t="shared" si="3"/>
-        <v>-255.00000000000011</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14">
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" s="2">
         <v>40329</v>
       </c>
@@ -12491,12 +11461,8 @@
       <c r="M265" s="3">
         <v>695.7</v>
       </c>
-      <c r="N265" s="5">
-        <f t="shared" ref="N265:N328" si="4">E265-D265</f>
-        <v>-304</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14">
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" s="2">
         <v>40359</v>
       </c>
@@ -12536,12 +11502,8 @@
       <c r="M266" s="3">
         <v>842.2</v>
       </c>
-      <c r="N266" s="5">
-        <f t="shared" si="4"/>
-        <v>-420</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14">
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" s="2">
         <v>40390</v>
       </c>
@@ -12581,12 +11543,8 @@
       <c r="M267" s="3">
         <v>1001.2</v>
       </c>
-      <c r="N267" s="5">
-        <f t="shared" si="4"/>
-        <v>-443</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" s="2">
         <v>40421</v>
       </c>
@@ -12626,12 +11584,8 @@
       <c r="M268" s="3">
         <v>1151.0999999999999</v>
       </c>
-      <c r="N268" s="5">
-        <f t="shared" si="4"/>
-        <v>-492</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14">
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" s="2">
         <v>40451</v>
       </c>
@@ -12671,12 +11625,8 @@
       <c r="M269" s="3">
         <v>1300.7</v>
       </c>
-      <c r="N269" s="5">
-        <f t="shared" si="4"/>
-        <v>-566</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14">
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" s="2">
         <v>40482</v>
       </c>
@@ -12716,12 +11666,8 @@
       <c r="M270" s="3">
         <v>1443.4</v>
       </c>
-      <c r="N270" s="5">
-        <f t="shared" si="4"/>
-        <v>-650</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14">
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" s="2">
         <v>40512</v>
       </c>
@@ -12761,12 +11707,8 @@
       <c r="M271" s="3">
         <v>1579.1</v>
       </c>
-      <c r="N271" s="5">
-        <f t="shared" si="4"/>
-        <v>-792.99999999999955</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14">
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" s="2">
         <v>40543</v>
       </c>
@@ -12806,12 +11748,8 @@
       <c r="M272" s="3">
         <v>1714.7</v>
       </c>
-      <c r="N272" s="5">
-        <f t="shared" si="4"/>
-        <v>-1000.0000000000005</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14">
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" s="2">
         <v>40574</v>
       </c>
@@ -12851,12 +11789,8 @@
       <c r="M273" s="3">
         <v>141.8937</v>
       </c>
-      <c r="N273" s="5">
-        <f t="shared" si="4"/>
-        <v>-170.99999999999997</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14">
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" s="2">
         <v>40602</v>
       </c>
@@ -12896,12 +11830,8 @@
       <c r="M274" s="3">
         <v>283.89999999999998</v>
       </c>
-      <c r="N274" s="5">
-        <f t="shared" si="4"/>
-        <v>-315</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14">
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" s="2">
         <v>40633</v>
       </c>
@@ -12941,12 +11871,8 @@
       <c r="M275" s="3">
         <v>429.6</v>
       </c>
-      <c r="N275" s="5">
-        <f t="shared" si="4"/>
-        <v>-445</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14">
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" s="2">
         <v>40663</v>
       </c>
@@ -12986,12 +11912,8 @@
       <c r="M276" s="3">
         <v>584.20000000000005</v>
       </c>
-      <c r="N276" s="5">
-        <f t="shared" si="4"/>
-        <v>-562</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14">
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" s="2">
         <v>40694</v>
       </c>
@@ -13031,12 +11953,8 @@
       <c r="M277" s="3">
         <v>749.4</v>
       </c>
-      <c r="N277" s="5">
-        <f t="shared" si="4"/>
-        <v>-654</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14">
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" s="2">
         <v>40724</v>
       </c>
@@ -13076,12 +11994,8 @@
       <c r="M278" s="3">
         <v>897.7</v>
       </c>
-      <c r="N278" s="5">
-        <f t="shared" si="4"/>
-        <v>-789</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14">
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" s="2">
         <v>40755</v>
       </c>
@@ -13121,12 +12035,8 @@
       <c r="M279" s="3">
         <v>1066.7</v>
       </c>
-      <c r="N279" s="5">
-        <f t="shared" si="4"/>
-        <v>-868.99999999999977</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14">
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" s="2">
         <v>40786</v>
       </c>
@@ -13166,12 +12076,8 @@
       <c r="M280" s="3">
         <v>1236</v>
       </c>
-      <c r="N280" s="5">
-        <f t="shared" si="4"/>
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14">
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" s="2">
         <v>40816</v>
       </c>
@@ -13211,12 +12117,8 @@
       <c r="M281" s="3">
         <v>1405.6</v>
       </c>
-      <c r="N281" s="5">
-        <f t="shared" si="4"/>
-        <v>-1055.0000000000005</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14">
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" s="2">
         <v>40847</v>
       </c>
@@ -13256,12 +12158,8 @@
       <c r="M282" s="3">
         <v>1552.9</v>
       </c>
-      <c r="N282" s="5">
-        <f t="shared" si="4"/>
-        <v>-1186.9999999999995</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14">
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" s="2">
         <v>40877</v>
       </c>
@@ -13301,12 +12199,8 @@
       <c r="M283" s="3">
         <v>1716.1</v>
       </c>
-      <c r="N283" s="5">
-        <f t="shared" si="4"/>
-        <v>-1311</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14">
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" s="2">
         <v>40908</v>
       </c>
@@ -13346,12 +12240,8 @@
       <c r="M284" s="3">
         <v>1879.8</v>
       </c>
-      <c r="N284" s="5">
-        <f t="shared" si="4"/>
-        <v>-1489.9999999999995</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14">
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="2">
         <v>40939</v>
       </c>
@@ -13391,12 +12281,8 @@
       <c r="M285" s="3">
         <v>176.7972</v>
       </c>
-      <c r="N285" s="5">
-        <f t="shared" si="4"/>
-        <v>-109</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14">
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" s="2">
         <v>40968</v>
       </c>
@@ -13436,12 +12322,8 @@
       <c r="M286" s="3">
         <v>344.4</v>
       </c>
-      <c r="N286" s="5">
-        <f t="shared" si="4"/>
-        <v>-288</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14">
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="2">
         <v>40999</v>
       </c>
@@ -13481,12 +12363,8 @@
       <c r="M287" s="3">
         <v>509.5</v>
       </c>
-      <c r="N287" s="5">
-        <f t="shared" si="4"/>
-        <v>-474</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14">
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" s="2">
         <v>41029</v>
       </c>
@@ -13526,12 +12404,8 @@
       <c r="M288" s="3">
         <v>677.2</v>
       </c>
-      <c r="N288" s="5">
-        <f t="shared" si="4"/>
-        <v>-609</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14">
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" s="2">
         <v>41060</v>
       </c>
@@ -13571,12 +12445,8 @@
       <c r="M289" s="3">
         <v>853.7</v>
       </c>
-      <c r="N289" s="5">
-        <f t="shared" si="4"/>
-        <v>-749.00000000000023</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" s="2">
         <v>41090</v>
       </c>
@@ -13616,12 +12486,8 @@
       <c r="M290" s="3">
         <v>1017.4</v>
       </c>
-      <c r="N290" s="5">
-        <f t="shared" si="4"/>
-        <v>-836</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14">
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" s="2">
         <v>41121</v>
       </c>
@@ -13661,12 +12527,8 @@
       <c r="M291" s="3">
         <v>1188.4000000000001</v>
       </c>
-      <c r="N291" s="5">
-        <f t="shared" si="4"/>
-        <v>-968</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14">
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" s="2">
         <v>41152</v>
       </c>
@@ -13706,12 +12568,8 @@
       <c r="M292" s="3">
         <v>1373.2</v>
       </c>
-      <c r="N292" s="5">
-        <f t="shared" si="4"/>
-        <v>-981.99999999999977</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14">
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" s="2">
         <v>41182</v>
       </c>
@@ -13751,12 +12609,8 @@
       <c r="M293" s="3">
         <v>1566.2</v>
       </c>
-      <c r="N293" s="5">
-        <f t="shared" si="4"/>
-        <v>-1116.9999999999998</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14">
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" s="2">
         <v>41213</v>
       </c>
@@ -13796,12 +12650,8 @@
       <c r="M294" s="3">
         <v>1752.7</v>
       </c>
-      <c r="N294" s="5">
-        <f t="shared" si="4"/>
-        <v>-1255</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14">
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" s="2">
         <v>41243</v>
       </c>
@@ -13841,12 +12691,8 @@
       <c r="M295" s="3">
         <v>1941.3</v>
       </c>
-      <c r="N295" s="5">
-        <f t="shared" si="4"/>
-        <v>-1389</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14">
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" s="2">
         <v>41274</v>
       </c>
@@ -13886,12 +12732,8 @@
       <c r="M296" s="3">
         <v>2131.4</v>
       </c>
-      <c r="N296" s="5">
-        <f t="shared" si="4"/>
-        <v>-1553</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14">
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" s="2">
         <v>41305</v>
       </c>
@@ -13931,12 +12773,8 @@
       <c r="M297" s="3">
         <v>197.3</v>
       </c>
-      <c r="N297" s="5">
-        <f t="shared" si="4"/>
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14">
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" s="2">
         <v>41333</v>
       </c>
@@ -13976,12 +12814,8 @@
       <c r="M298" s="3">
         <v>384.1</v>
       </c>
-      <c r="N298" s="5">
-        <f t="shared" si="4"/>
-        <v>-267</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14">
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299" s="2">
         <v>41364</v>
       </c>
@@ -14021,12 +12855,8 @@
       <c r="M299" s="3">
         <v>582.1</v>
       </c>
-      <c r="N299" s="5">
-        <f t="shared" si="4"/>
-        <v>-315</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14">
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300" s="2">
         <v>41394</v>
       </c>
@@ -14066,12 +12896,8 @@
       <c r="M300" s="3">
         <v>777.3</v>
       </c>
-      <c r="N300" s="5">
-        <f t="shared" si="4"/>
-        <v>-436</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14">
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301" s="2">
         <v>41425</v>
       </c>
@@ -14111,12 +12937,8 @@
       <c r="M301" s="3">
         <v>991.1</v>
       </c>
-      <c r="N301" s="5">
-        <f t="shared" si="4"/>
-        <v>-562</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14">
+    </row>
+    <row r="302" spans="1:13">
       <c r="A302" s="2">
         <v>41455</v>
       </c>
@@ -14156,12 +12978,8 @@
       <c r="M302" s="3">
         <v>1190.83</v>
       </c>
-      <c r="N302" s="5">
-        <f t="shared" si="4"/>
-        <v>-690</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14">
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303" s="2">
         <v>41486</v>
       </c>
@@ -14201,12 +13019,8 @@
       <c r="M303" s="3">
         <v>1395.05</v>
       </c>
-      <c r="N303" s="5">
-        <f t="shared" si="4"/>
-        <v>-812</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14">
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304" s="2">
         <v>41517</v>
       </c>
@@ -14246,12 +13060,8 @@
       <c r="M304" s="3">
         <v>1621.39</v>
       </c>
-      <c r="N304" s="5">
-        <f t="shared" si="4"/>
-        <v>-820</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14">
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305" s="2">
         <v>41547</v>
       </c>
@@ -14291,12 +13101,8 @@
       <c r="M305" s="3">
         <v>1845.69</v>
       </c>
-      <c r="N305" s="5">
-        <f t="shared" si="4"/>
-        <v>-910</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14">
+    </row>
+    <row r="306" spans="1:13">
       <c r="A306" s="2">
         <v>41578</v>
       </c>
@@ -14336,12 +13142,8 @@
       <c r="M306" s="3">
         <v>2078.4499999999998</v>
       </c>
-      <c r="N306" s="5">
-        <f t="shared" si="4"/>
-        <v>-962.00000000000045</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14">
+    </row>
+    <row r="307" spans="1:13">
       <c r="A307" s="2">
         <v>41608</v>
       </c>
@@ -14381,12 +13183,8 @@
       <c r="M307" s="3">
         <v>2284.65</v>
       </c>
-      <c r="N307" s="5">
-        <f t="shared" si="4"/>
-        <v>-1034</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14">
+    </row>
+    <row r="308" spans="1:13">
       <c r="A308" s="2">
         <v>41639</v>
       </c>
@@ -14426,12 +13224,8 @@
       <c r="M308" s="3">
         <v>2509.64</v>
       </c>
-      <c r="N308" s="5">
-        <f t="shared" si="4"/>
-        <v>-1108</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14">
+    </row>
+    <row r="309" spans="1:13">
       <c r="A309" s="2">
         <v>41670</v>
       </c>
@@ -14471,12 +13265,8 @@
       <c r="M309" s="3">
         <v>229.19</v>
       </c>
-      <c r="N309" s="5">
-        <f t="shared" si="4"/>
-        <v>-150.66409999999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14">
+    </row>
+    <row r="310" spans="1:13">
       <c r="A310" s="2">
         <v>41698</v>
       </c>
@@ -14516,12 +13306,8 @@
       <c r="M310" s="3">
         <v>459.6</v>
       </c>
-      <c r="N310" s="5">
-        <f t="shared" si="4"/>
-        <v>-190.41880000000003</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14">
+    </row>
+    <row r="311" spans="1:13">
       <c r="A311" s="2">
         <v>41729</v>
       </c>
@@ -14561,12 +13347,8 @@
       <c r="M311" s="3">
         <v>703.4</v>
       </c>
-      <c r="N311" s="5">
-        <f t="shared" si="4"/>
-        <v>-153.30359999999996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14">
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312" s="2">
         <v>41759</v>
       </c>
@@ -14606,12 +13388,8 @@
       <c r="M312" s="3">
         <v>945</v>
       </c>
-      <c r="N312" s="5">
-        <f t="shared" si="4"/>
-        <v>-188.1925</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14">
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313" s="2">
         <v>41790</v>
       </c>
@@ -14651,12 +13429,8 @@
       <c r="M313" s="3">
         <v>1190</v>
       </c>
-      <c r="N313" s="5">
-        <f t="shared" si="4"/>
-        <v>-147.42229999999995</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14">
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" s="2">
         <v>41820</v>
       </c>
@@ -14696,12 +13470,8 @@
       <c r="M314" s="3">
         <v>1441.67</v>
       </c>
-      <c r="N314" s="5">
-        <f t="shared" si="4"/>
-        <v>-159.2675999999999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14">
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" s="2">
         <v>41851</v>
       </c>
@@ -14741,12 +13511,8 @@
       <c r="M315" s="3">
         <v>1698.53</v>
       </c>
-      <c r="N315" s="5">
-        <f t="shared" si="4"/>
-        <v>-73.924400000000105</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14">
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316" s="2">
         <v>41882</v>
       </c>
@@ -14786,12 +13552,8 @@
       <c r="M316" s="3">
         <v>1972.83</v>
       </c>
-      <c r="N316" s="5">
-        <f t="shared" si="4"/>
-        <v>-53.65339999999992</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14">
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" s="2">
         <v>41912</v>
       </c>
@@ -14831,12 +13593,8 @@
       <c r="M317" s="3">
         <v>2236</v>
       </c>
-      <c r="N317" s="5">
-        <f t="shared" si="4"/>
-        <v>-85.489300000000185</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14">
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" s="2">
         <v>41943</v>
       </c>
@@ -14876,12 +13634,8 @@
       <c r="M318" s="3">
         <v>2481.8000000000002</v>
       </c>
-      <c r="N318" s="5">
-        <f t="shared" si="4"/>
-        <v>0.78120000000035361</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14">
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" s="2">
         <v>41973</v>
       </c>
@@ -14921,12 +13675,8 @@
       <c r="M319" s="3">
         <v>2727.9</v>
       </c>
-      <c r="N319" s="5">
-        <f t="shared" si="4"/>
-        <v>7.6293000000000575</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14">
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" s="2">
         <v>42004</v>
       </c>
@@ -14966,12 +13716,8 @@
       <c r="M320" s="3">
         <v>3001</v>
       </c>
-      <c r="N320" s="5">
-        <f t="shared" si="4"/>
-        <v>-32.30560000000014</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14">
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" s="2">
         <v>42035</v>
       </c>
@@ -15011,12 +13757,8 @@
       <c r="M321" s="3">
         <v>279.33</v>
       </c>
-      <c r="N321" s="5">
-        <f t="shared" si="4"/>
-        <v>-27.227899999999977</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14">
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322" s="2">
         <v>42063</v>
       </c>
@@ -15056,12 +13798,8 @@
       <c r="M322" s="3">
         <v>555.30999999999995</v>
       </c>
-      <c r="N322" s="5">
-        <f t="shared" si="4"/>
-        <v>-127.42419999999998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14">
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" s="2">
         <v>42094</v>
       </c>
@@ -15101,12 +13839,8 @@
       <c r="M323" s="3">
         <v>866.8</v>
       </c>
-      <c r="N323" s="5">
-        <f t="shared" si="4"/>
-        <v>-131.78150000000005</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14">
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324" s="2">
         <v>42124</v>
       </c>
@@ -15146,12 +13880,8 @@
       <c r="M324" s="3">
         <v>1157.3</v>
       </c>
-      <c r="N324" s="5">
-        <f t="shared" si="4"/>
-        <v>-107.58240000000023</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14">
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" s="2">
         <v>42155</v>
       </c>
@@ -15191,12 +13921,8 @@
       <c r="M325" s="3">
         <v>1458</v>
       </c>
-      <c r="N325" s="5">
-        <f t="shared" si="4"/>
-        <v>-95.890899999999874</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14">
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" s="2">
         <v>42185</v>
       </c>
@@ -15236,12 +13962,8 @@
       <c r="M326" s="3">
         <v>1758.9</v>
       </c>
-      <c r="N326" s="5">
-        <f t="shared" si="4"/>
-        <v>-100.39650000000006</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14">
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" s="2">
         <v>42216</v>
       </c>
@@ -15281,12 +14003,8 @@
       <c r="M327" s="3">
         <v>2071.9</v>
       </c>
-      <c r="N327" s="5">
-        <f t="shared" si="4"/>
-        <v>-38.647600000000239</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14">
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328" s="2">
         <v>42247</v>
       </c>
@@ -15326,12 +14044,8 @@
       <c r="M328" s="3">
         <v>2384.4</v>
       </c>
-      <c r="N328" s="5">
-        <f t="shared" si="4"/>
-        <v>41.420700000000124</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14">
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" s="2">
         <v>42277</v>
       </c>
@@ -15371,12 +14085,8 @@
       <c r="M329" s="3">
         <v>2692.4</v>
       </c>
-      <c r="N329" s="5">
-        <f t="shared" ref="N329:N392" si="5">E329-D329</f>
-        <v>125.94610000000011</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14">
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330" s="2">
         <v>42308</v>
       </c>
@@ -15416,12 +14126,8 @@
       <c r="M330" s="3">
         <v>3010.2764999999999</v>
       </c>
-      <c r="N330" s="5">
-        <f t="shared" si="5"/>
-        <v>254.89940000000024</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14">
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331" s="2">
         <v>42338</v>
       </c>
@@ -15461,12 +14167,8 @@
       <c r="M331" s="3">
         <v>3323.6</v>
       </c>
-      <c r="N331" s="5">
-        <f t="shared" si="5"/>
-        <v>477.39849999999979</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14">
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" s="2">
         <v>42369</v>
       </c>
@@ -15506,12 +14208,8 @@
       <c r="M332" s="3">
         <v>3658.6244000000002</v>
       </c>
-      <c r="N332" s="5">
-        <f t="shared" si="5"/>
-        <v>625.69810000000007</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14">
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333" s="2">
         <v>42400</v>
       </c>
@@ -15551,12 +14249,8 @@
       <c r="M333" s="3">
         <v>0</v>
       </c>
-      <c r="N333" s="5">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14">
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334" s="2">
         <v>42429</v>
       </c>
@@ -15596,12 +14290,8 @@
       <c r="M334" s="3">
         <v>614.79999999999995</v>
       </c>
-      <c r="N334" s="5">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14">
+    </row>
+    <row r="335" spans="1:13">
       <c r="A335" s="2">
         <v>42460</v>
       </c>
@@ -15641,12 +14331,8 @@
       <c r="M335" s="3">
         <v>947.48270000000002</v>
       </c>
-      <c r="N335" s="5">
-        <f t="shared" si="5"/>
-        <v>200.00000000000011</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14">
+    </row>
+    <row r="336" spans="1:13">
       <c r="A336" s="2">
         <v>42490</v>
       </c>
@@ -15686,12 +14372,8 @@
       <c r="M336" s="3">
         <v>1265.4000000000001</v>
       </c>
-      <c r="N336" s="5">
-        <f t="shared" si="5"/>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14">
+    </row>
+    <row r="337" spans="1:13">
       <c r="A337" s="2">
         <v>42521</v>
       </c>
@@ -15731,12 +14413,8 @@
       <c r="M337" s="3">
         <v>1596.3</v>
       </c>
-      <c r="N337" s="5">
-        <f t="shared" si="5"/>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14">
+    </row>
+    <row r="338" spans="1:13">
       <c r="A338" s="2">
         <v>42551</v>
       </c>
@@ -15776,12 +14454,8 @@
       <c r="M338" s="3">
         <v>1928.7</v>
       </c>
-      <c r="N338" s="5">
-        <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14">
+    </row>
+    <row r="339" spans="1:13">
       <c r="A339" s="2">
         <v>42582</v>
       </c>
@@ -15821,12 +14495,8 @@
       <c r="M339" s="3">
         <v>2272.8000000000002</v>
       </c>
-      <c r="N339" s="5">
-        <f t="shared" si="5"/>
-        <v>848.00000000000023</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14">
+    </row>
+    <row r="340" spans="1:13">
       <c r="A340" s="2">
         <v>42613</v>
       </c>
@@ -15866,12 +14536,8 @@
       <c r="M340" s="3">
         <v>2618</v>
       </c>
-      <c r="N340" s="5">
-        <f t="shared" si="5"/>
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14">
+    </row>
+    <row r="341" spans="1:13">
       <c r="A341" s="2">
         <v>42643</v>
       </c>
@@ -15911,12 +14577,8 @@
       <c r="M341" s="3">
         <v>2945.9</v>
       </c>
-      <c r="N341" s="5">
-        <f t="shared" si="5"/>
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14">
+    </row>
+    <row r="342" spans="1:13">
       <c r="A342" s="2">
         <v>42674</v>
       </c>
@@ -15956,12 +14618,8 @@
       <c r="M342" s="3">
         <v>3298.3</v>
       </c>
-      <c r="N342" s="5">
-        <f t="shared" si="5"/>
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14">
+    </row>
+    <row r="343" spans="1:13">
       <c r="A343" s="2">
         <v>42704</v>
       </c>
@@ -16001,12 +14659,8 @@
       <c r="M343" s="3">
         <v>3644.8</v>
       </c>
-      <c r="N343" s="5">
-        <f t="shared" si="5"/>
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14">
+    </row>
+    <row r="344" spans="1:13">
       <c r="A344" s="2">
         <v>42735</v>
       </c>
@@ -16046,12 +14700,8 @@
       <c r="M344" s="3">
         <v>3983.8</v>
       </c>
-      <c r="N344" s="5">
-        <f t="shared" si="5"/>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14">
+    </row>
+    <row r="345" spans="1:13">
       <c r="A345" s="2">
         <v>42766</v>
       </c>
@@ -16091,12 +14741,8 @@
       <c r="M345" s="3">
         <v>0</v>
       </c>
-      <c r="N345" s="5">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14">
+    </row>
+    <row r="346" spans="1:13">
       <c r="A346" s="2">
         <v>42794</v>
       </c>
@@ -16136,12 +14782,8 @@
       <c r="M346" s="3">
         <v>687.4</v>
       </c>
-      <c r="N346" s="5">
-        <f t="shared" si="5"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14">
+    </row>
+    <row r="347" spans="1:13">
       <c r="A347" s="2">
         <v>42825</v>
       </c>
@@ -16181,12 +14823,8 @@
       <c r="M347" s="3">
         <v>1036.4000000000001</v>
       </c>
-      <c r="N347" s="5">
-        <f t="shared" si="5"/>
-        <v>428</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14">
+    </row>
+    <row r="348" spans="1:13">
       <c r="A348" s="2">
         <v>42855</v>
       </c>
@@ -16226,12 +14864,8 @@
       <c r="M348" s="3">
         <v>1361.5</v>
       </c>
-      <c r="N348" s="5">
-        <f t="shared" si="5"/>
-        <v>526.99999999999989</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14">
+    </row>
+    <row r="349" spans="1:13">
       <c r="A349" s="2">
         <v>42886</v>
       </c>
@@ -16271,12 +14905,8 @@
       <c r="M349" s="3">
         <v>1699.8</v>
       </c>
-      <c r="N349" s="5">
-        <f t="shared" si="5"/>
-        <v>677.99999999999977</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14">
+    </row>
+    <row r="350" spans="1:13">
       <c r="A350" s="2">
         <v>42916</v>
       </c>
@@ -16316,12 +14946,8 @@
       <c r="M350" s="3">
         <v>2042</v>
       </c>
-      <c r="N350" s="5">
-        <f t="shared" si="5"/>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14">
+    </row>
+    <row r="351" spans="1:13">
       <c r="A351" s="2">
         <v>42947</v>
       </c>
@@ -16361,12 +14987,8 @@
       <c r="M351" s="3">
         <v>2387.9</v>
       </c>
-      <c r="N351" s="5">
-        <f t="shared" si="5"/>
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14">
+    </row>
+    <row r="352" spans="1:13">
       <c r="A352" s="2">
         <v>42978</v>
       </c>
@@ -16406,12 +15028,8 @@
       <c r="M352" s="3">
         <v>2751.4</v>
       </c>
-      <c r="N352" s="5">
-        <f t="shared" si="5"/>
-        <v>1270.0000000000002</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14">
+    </row>
+    <row r="353" spans="1:13">
       <c r="A353" s="2">
         <v>43008</v>
       </c>
@@ -16451,12 +15069,8 @@
       <c r="M353" s="3">
         <v>3140.7</v>
       </c>
-      <c r="N353" s="5">
-        <f t="shared" si="5"/>
-        <v>1421.9999999999995</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14">
+    </row>
+    <row r="354" spans="1:13">
       <c r="A354" s="2">
         <v>43039</v>
       </c>
@@ -16496,12 +15110,8 @@
       <c r="M354" s="3">
         <v>3524.4</v>
       </c>
-      <c r="N354" s="5">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14">
+    </row>
+    <row r="355" spans="1:13">
       <c r="A355" s="2">
         <v>43069</v>
       </c>
@@ -16541,12 +15151,8 @@
       <c r="M355" s="3">
         <v>3883.7</v>
       </c>
-      <c r="N355" s="5">
-        <f t="shared" si="5"/>
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14">
+    </row>
+    <row r="356" spans="1:13">
       <c r="A356" s="2">
         <v>43100</v>
       </c>
@@ -16586,12 +15192,8 @@
       <c r="M356" s="3">
         <v>4230.8999999999996</v>
       </c>
-      <c r="N356" s="5">
-        <f t="shared" si="5"/>
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14">
+    </row>
+    <row r="357" spans="1:13">
       <c r="A357" s="2">
         <v>43131</v>
       </c>
@@ -16631,12 +15233,8 @@
       <c r="M357" s="3">
         <v>0</v>
       </c>
-      <c r="N357" s="5">
-        <f t="shared" si="5"/>
-        <v>125.00000000000006</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14">
+    </row>
+    <row r="358" spans="1:13">
       <c r="A358" s="2">
         <v>43159</v>
       </c>
@@ -16676,12 +15274,8 @@
       <c r="M358" s="3">
         <v>706.5</v>
       </c>
-      <c r="N358" s="5">
-        <f t="shared" si="5"/>
-        <v>212.00000000000011</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14">
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359" s="2">
         <v>43190</v>
       </c>
@@ -16721,12 +15315,8 @@
       <c r="M359" s="3">
         <v>1149.5</v>
       </c>
-      <c r="N359" s="5">
-        <f t="shared" si="5"/>
-        <v>605.99999999999989</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14">
+    </row>
+    <row r="360" spans="1:13">
       <c r="A360" s="2">
         <v>43220</v>
       </c>
@@ -16766,12 +15356,8 @@
       <c r="M360" s="3">
         <v>1535.7</v>
       </c>
-      <c r="N360" s="5">
-        <f t="shared" si="5"/>
-        <v>817</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14">
+    </row>
+    <row r="361" spans="1:13">
       <c r="A361" s="2">
         <v>43251</v>
       </c>
@@ -16811,12 +15397,8 @@
       <c r="M361" s="3">
         <v>1943.2</v>
       </c>
-      <c r="N361" s="5">
-        <f t="shared" si="5"/>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14">
+    </row>
+    <row r="362" spans="1:13">
       <c r="A362" s="2">
         <v>43281</v>
       </c>
@@ -16856,12 +15438,8 @@
       <c r="M362" s="3">
         <v>2347.3000000000002</v>
       </c>
-      <c r="N362" s="5">
-        <f t="shared" si="5"/>
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14">
+    </row>
+    <row r="363" spans="1:13">
       <c r="A363" s="2">
         <v>43312</v>
       </c>
@@ -16901,12 +15479,8 @@
       <c r="M363" s="3">
         <v>2761.1</v>
       </c>
-      <c r="N363" s="5">
-        <f t="shared" si="5"/>
-        <v>1575.0000000000002</v>
-      </c>
-    </row>
-    <row r="364" spans="1:14">
+    </row>
+    <row r="364" spans="1:13">
       <c r="A364" s="2">
         <v>43343</v>
       </c>
@@ -16946,12 +15520,8 @@
       <c r="M364" s="3">
         <v>3172.4</v>
       </c>
-      <c r="N364" s="5">
-        <f t="shared" si="5"/>
-        <v>1836.9999999999995</v>
-      </c>
-    </row>
-    <row r="365" spans="1:14">
+    </row>
+    <row r="365" spans="1:13">
       <c r="A365" s="2">
         <v>43373</v>
       </c>
@@ -16991,12 +15561,8 @@
       <c r="M365" s="3">
         <v>3591.4</v>
       </c>
-      <c r="N365" s="5">
-        <f t="shared" si="5"/>
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14">
+    </row>
+    <row r="366" spans="1:13">
       <c r="A366" s="2">
         <v>43404</v>
       </c>
@@ -17036,12 +15602,8 @@
       <c r="M366" s="3">
         <v>3985.5</v>
       </c>
-      <c r="N366" s="5">
-        <f t="shared" si="5"/>
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="367" spans="1:14">
+    </row>
+    <row r="367" spans="1:13">
       <c r="A367" s="2">
         <v>43434</v>
       </c>
@@ -17081,12 +15643,8 @@
       <c r="M367" s="3">
         <v>4370</v>
       </c>
-      <c r="N367" s="5">
-        <f t="shared" si="5"/>
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14">
+    </row>
+    <row r="368" spans="1:13">
       <c r="A368" s="2">
         <v>43465</v>
       </c>
@@ -17126,12 +15684,8 @@
       <c r="M368" s="3">
         <v>4770.3</v>
       </c>
-      <c r="N368" s="5">
-        <f t="shared" si="5"/>
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="369" spans="1:14">
+    </row>
+    <row r="369" spans="1:13">
       <c r="A369" s="2">
         <v>43496</v>
       </c>
@@ -17171,12 +15725,8 @@
       <c r="M369" s="3">
         <v>0</v>
       </c>
-      <c r="N369" s="5">
-        <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="370" spans="1:14">
+    </row>
+    <row r="370" spans="1:13">
       <c r="A370" s="2">
         <v>43524</v>
       </c>
@@ -17216,12 +15766,8 @@
       <c r="M370" s="3">
         <v>796</v>
       </c>
-      <c r="N370" s="5">
-        <f t="shared" si="5"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="371" spans="1:14">
+    </row>
+    <row r="371" spans="1:13">
       <c r="A371" s="2">
         <v>43555</v>
       </c>
@@ -17261,12 +15807,8 @@
       <c r="M371" s="3">
         <v>1218.5999999999999</v>
       </c>
-      <c r="N371" s="5">
-        <f t="shared" si="5"/>
-        <v>771.00000000000011</v>
-      </c>
-    </row>
-    <row r="372" spans="1:14">
+    </row>
+    <row r="372" spans="1:13">
       <c r="A372" s="2">
         <v>43585</v>
       </c>
@@ -17306,12 +15848,8 @@
       <c r="M372" s="3">
         <v>1637.7</v>
       </c>
-      <c r="N372" s="5">
-        <f t="shared" si="5"/>
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="373" spans="1:14">
+    </row>
+    <row r="373" spans="1:13">
       <c r="A373" s="2">
         <v>43616</v>
       </c>
@@ -17351,12 +15889,8 @@
       <c r="M373" s="3">
         <v>2065.3000000000002</v>
       </c>
-      <c r="N373" s="5">
-        <f t="shared" si="5"/>
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="374" spans="1:14">
+    </row>
+    <row r="374" spans="1:13">
       <c r="A374" s="2">
         <v>43646</v>
       </c>
@@ -17396,12 +15930,8 @@
       <c r="M374" s="3">
         <v>2509.8000000000002</v>
       </c>
-      <c r="N374" s="5">
-        <f t="shared" si="5"/>
-        <v>1574.0000000000002</v>
-      </c>
-    </row>
-    <row r="375" spans="1:14">
+    </row>
+    <row r="375" spans="1:13">
       <c r="A375" s="2">
         <v>43677</v>
       </c>
@@ -17441,12 +15971,8 @@
       <c r="M375" s="3">
         <v>2954.8</v>
       </c>
-      <c r="N375" s="5">
-        <f t="shared" si="5"/>
-        <v>1959.9999999999993</v>
-      </c>
-    </row>
-    <row r="376" spans="1:14">
+    </row>
+    <row r="376" spans="1:13">
       <c r="A376" s="2">
         <v>43708</v>
       </c>
@@ -17486,12 +16012,8 @@
       <c r="M376" s="3">
         <v>3429.5</v>
       </c>
-      <c r="N376" s="5">
-        <f t="shared" si="5"/>
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14">
+    </row>
+    <row r="377" spans="1:13">
       <c r="A377" s="2">
         <v>43738</v>
       </c>
@@ -17531,12 +16053,8 @@
       <c r="M377" s="3">
         <v>3903</v>
       </c>
-      <c r="N377" s="5">
-        <f t="shared" si="5"/>
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="378" spans="1:14">
+    </row>
+    <row r="378" spans="1:13">
       <c r="A378" s="2">
         <v>43769</v>
       </c>
@@ -17576,12 +16094,8 @@
       <c r="M378" s="3">
         <v>4375.1000000000004</v>
       </c>
-      <c r="N378" s="5">
-        <f t="shared" si="5"/>
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="379" spans="1:14">
+    </row>
+    <row r="379" spans="1:13">
       <c r="A379" s="2">
         <v>43799</v>
       </c>
@@ -17621,12 +16135,8 @@
       <c r="M379" s="3">
         <v>4825</v>
       </c>
-      <c r="N379" s="5">
-        <f t="shared" si="5"/>
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="380" spans="1:14">
+    </row>
+    <row r="380" spans="1:13">
       <c r="A380" s="2">
         <v>43830</v>
       </c>
@@ -17666,12 +16176,8 @@
       <c r="M380" s="3">
         <v>5272.6</v>
       </c>
-      <c r="N380" s="5">
-        <f t="shared" si="5"/>
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="381" spans="1:14">
+    </row>
+    <row r="381" spans="1:13">
       <c r="A381" s="2">
         <v>43861</v>
       </c>
@@ -17711,12 +16217,8 @@
       <c r="M381" s="3">
         <v>0</v>
       </c>
-      <c r="N381" s="5">
-        <f t="shared" si="5"/>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="382" spans="1:14">
+    </row>
+    <row r="382" spans="1:13">
       <c r="A382" s="2">
         <v>43890</v>
       </c>
@@ -17756,12 +16258,8 @@
       <c r="M382" s="3">
         <v>761</v>
       </c>
-      <c r="N382" s="5">
-        <f t="shared" si="5"/>
-        <v>581</v>
-      </c>
-    </row>
-    <row r="383" spans="1:14">
+    </row>
+    <row r="383" spans="1:13">
       <c r="A383" s="2">
         <v>43921</v>
       </c>
@@ -17801,12 +16299,8 @@
       <c r="M383" s="3">
         <v>1048.9000000000001</v>
       </c>
-      <c r="N383" s="5">
-        <f t="shared" si="5"/>
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="384" spans="1:14">
+    </row>
+    <row r="384" spans="1:13">
       <c r="A384" s="2">
         <v>43951</v>
       </c>
@@ -17846,12 +16340,8 @@
       <c r="M384" s="3">
         <v>1291.3</v>
       </c>
-      <c r="N384" s="5">
-        <f t="shared" si="5"/>
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14">
+    </row>
+    <row r="385" spans="1:13">
       <c r="A385" s="2">
         <v>43982</v>
       </c>
@@ -17891,12 +16381,8 @@
       <c r="M385" s="3">
         <v>1580.7</v>
       </c>
-      <c r="N385" s="5">
-        <f t="shared" si="5"/>
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14">
+    </row>
+    <row r="386" spans="1:13">
       <c r="A386" s="2">
         <v>44012</v>
       </c>
@@ -17936,12 +16422,8 @@
       <c r="M386" s="3">
         <v>1895.8</v>
       </c>
-      <c r="N386" s="5">
-        <f t="shared" si="5"/>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14">
+    </row>
+    <row r="387" spans="1:13">
       <c r="A387" s="2">
         <v>44043</v>
       </c>
@@ -17981,12 +16463,8 @@
       <c r="M387" s="3">
         <v>2227.9</v>
       </c>
-      <c r="N387" s="5">
-        <f t="shared" si="5"/>
-        <v>1815.0000000000005</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14">
+    </row>
+    <row r="388" spans="1:13">
       <c r="A388" s="2">
         <v>44074</v>
       </c>
@@ -18026,12 +16504,8 @@
       <c r="M388" s="3">
         <v>2570.1</v>
       </c>
-      <c r="N388" s="5">
-        <f t="shared" si="5"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14">
+    </row>
+    <row r="389" spans="1:13">
       <c r="A389" s="2">
         <v>44104</v>
       </c>
@@ -18071,12 +16545,8 @@
       <c r="M389" s="3">
         <v>2931.7</v>
       </c>
-      <c r="N389" s="5">
-        <f t="shared" si="5"/>
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14">
+    </row>
+    <row r="390" spans="1:13">
       <c r="A390" s="2">
         <v>44135</v>
       </c>
@@ -18116,12 +16586,8 @@
       <c r="M390" s="3">
         <v>3306.3</v>
       </c>
-      <c r="N390" s="5">
-        <f t="shared" si="5"/>
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14">
+    </row>
+    <row r="391" spans="1:13">
       <c r="A391" s="2">
         <v>44165</v>
       </c>
@@ -18161,12 +16627,8 @@
       <c r="M391" s="3">
         <v>3674.2</v>
       </c>
-      <c r="N391" s="5">
-        <f t="shared" si="5"/>
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14">
+    </row>
+    <row r="392" spans="1:13">
       <c r="A392" s="2">
         <v>44196</v>
       </c>
@@ -18206,12 +16668,8 @@
       <c r="M392" s="3">
         <v>4049.4</v>
       </c>
-      <c r="N392" s="5">
-        <f t="shared" si="5"/>
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="393" spans="1:14">
+    </row>
+    <row r="393" spans="1:13">
       <c r="A393" s="2">
         <v>44227</v>
       </c>
@@ -18251,12 +16709,8 @@
       <c r="M393" s="3">
         <v>0</v>
       </c>
-      <c r="N393" s="5">
-        <f t="shared" ref="N393:N425" si="6">E393-D393</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14">
+    </row>
+    <row r="394" spans="1:13">
       <c r="A394" s="2">
         <v>44255</v>
       </c>
@@ -18296,12 +16750,8 @@
       <c r="M394" s="3">
         <v>681.8</v>
       </c>
-      <c r="N394" s="5">
-        <f t="shared" si="6"/>
-        <v>698</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14">
+    </row>
+    <row r="395" spans="1:13">
       <c r="A395" s="2">
         <v>44286</v>
       </c>
@@ -18341,12 +16791,8 @@
       <c r="M395" s="3">
         <v>1045.7</v>
       </c>
-      <c r="N395" s="5">
-        <f t="shared" si="6"/>
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14">
+    </row>
+    <row r="396" spans="1:13">
       <c r="A396" s="2">
         <v>44316</v>
       </c>
@@ -18386,12 +16832,8 @@
       <c r="M396" s="3">
         <v>1439.6</v>
       </c>
-      <c r="N396" s="5">
-        <f t="shared" si="6"/>
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14">
+    </row>
+    <row r="397" spans="1:13">
       <c r="A397" s="2">
         <v>44347</v>
       </c>
@@ -18431,12 +16873,8 @@
       <c r="M397" s="3">
         <v>1871.5</v>
       </c>
-      <c r="N397" s="5">
-        <f t="shared" si="6"/>
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14">
+    </row>
+    <row r="398" spans="1:13">
       <c r="A398" s="2">
         <v>44377</v>
       </c>
@@ -18476,12 +16914,8 @@
       <c r="M398" s="3">
         <v>2283.4</v>
       </c>
-      <c r="N398" s="5">
-        <f t="shared" si="6"/>
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="399" spans="1:14">
+    </row>
+    <row r="399" spans="1:13">
       <c r="A399" s="2">
         <v>44408</v>
       </c>
@@ -18521,12 +16955,8 @@
       <c r="M399" s="3">
         <v>2632.6</v>
       </c>
-      <c r="N399" s="5">
-        <f t="shared" si="6"/>
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14">
+    </row>
+    <row r="400" spans="1:13">
       <c r="A400" s="2">
         <v>44439</v>
       </c>
@@ -18566,12 +16996,8 @@
       <c r="M400" s="3">
         <v>2912.6</v>
       </c>
-      <c r="N400" s="5">
-        <f t="shared" si="6"/>
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16">
+    </row>
+    <row r="401" spans="1:15">
       <c r="A401" s="2">
         <v>44469</v>
       </c>
@@ -18611,12 +17037,8 @@
       <c r="M401" s="3">
         <v>3219.5</v>
       </c>
-      <c r="N401" s="5">
-        <f t="shared" si="6"/>
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="402" spans="1:16">
+    </row>
+    <row r="402" spans="1:15">
       <c r="A402" s="2">
         <v>44500</v>
       </c>
@@ -18656,12 +17078,8 @@
       <c r="M402" s="3">
         <v>3528.2</v>
       </c>
-      <c r="N402" s="5">
-        <f t="shared" si="6"/>
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16">
+    </row>
+    <row r="403" spans="1:15">
       <c r="A403" s="2">
         <v>44530</v>
       </c>
@@ -18701,12 +17119,8 @@
       <c r="M403" s="3">
         <v>3754.6</v>
       </c>
-      <c r="N403" s="5">
-        <f t="shared" si="6"/>
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16">
+    </row>
+    <row r="404" spans="1:15">
       <c r="A404" s="2">
         <v>44561</v>
       </c>
@@ -18746,12 +17160,8 @@
       <c r="M404" s="3">
         <v>3943.9</v>
       </c>
-      <c r="N404" s="5">
-        <f t="shared" si="6"/>
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="405" spans="1:16">
+    </row>
+    <row r="405" spans="1:15">
       <c r="A405" s="2">
         <v>44592</v>
       </c>
@@ -18791,12 +17201,8 @@
       <c r="M405" s="3">
         <v>0</v>
       </c>
-      <c r="N405" s="5">
-        <f t="shared" si="6"/>
-        <v>148.00000000000006</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16">
+    </row>
+    <row r="406" spans="1:15">
       <c r="A406" s="2">
         <v>44620</v>
       </c>
@@ -18836,12 +17242,8 @@
       <c r="M406" s="3">
         <v>556.29999999999995</v>
       </c>
-      <c r="N406" s="5">
-        <f t="shared" si="6"/>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="407" spans="1:16">
+    </row>
+    <row r="407" spans="1:15">
       <c r="A407" s="2">
         <v>44651</v>
       </c>
@@ -18881,12 +17283,8 @@
       <c r="M407" s="3">
         <v>819</v>
       </c>
-      <c r="N407" s="5">
-        <f t="shared" si="6"/>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="408" spans="1:16">
+    </row>
+    <row r="408" spans="1:15">
       <c r="A408" s="2">
         <v>44681</v>
       </c>
@@ -18926,12 +17324,8 @@
       <c r="M408" s="3">
         <v>994</v>
       </c>
-      <c r="N408" s="5">
-        <f t="shared" si="6"/>
-        <v>719.99999999999977</v>
-      </c>
-    </row>
-    <row r="409" spans="1:16">
+    </row>
+    <row r="409" spans="1:15">
       <c r="A409" s="2">
         <v>44712</v>
       </c>
@@ -18971,12 +17365,8 @@
       <c r="M409" s="3">
         <v>1146.2</v>
       </c>
-      <c r="N409" s="5">
-        <f t="shared" si="6"/>
-        <v>847.00000000000011</v>
-      </c>
-    </row>
-    <row r="410" spans="1:16">
+    </row>
+    <row r="410" spans="1:15">
       <c r="A410" s="2">
         <v>44742</v>
       </c>
@@ -19016,12 +17406,8 @@
       <c r="M410" s="3">
         <v>1357.8</v>
       </c>
-      <c r="N410" s="5">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16">
+    </row>
+    <row r="411" spans="1:15">
       <c r="A411" s="2">
         <v>44773</v>
       </c>
@@ -19061,12 +17447,8 @@
       <c r="M411" s="3">
         <v>1605.1</v>
       </c>
-      <c r="N411" s="5">
-        <f t="shared" si="6"/>
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="412" spans="1:16">
+    </row>
+    <row r="412" spans="1:15">
       <c r="A412" s="2">
         <v>44804</v>
       </c>
@@ -19106,12 +17488,8 @@
       <c r="M412" s="3">
         <v>1891.6</v>
       </c>
-      <c r="N412" s="5">
-        <f t="shared" si="6"/>
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16">
+    </row>
+    <row r="413" spans="1:15">
       <c r="A413" s="2">
         <v>44834</v>
       </c>
@@ -19151,12 +17529,8 @@
       <c r="M413" s="3">
         <v>2138.1999999999998</v>
       </c>
-      <c r="N413" s="5">
-        <f t="shared" si="6"/>
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="414" spans="1:16">
+    </row>
+    <row r="414" spans="1:15">
       <c r="A414" s="2">
         <v>44865</v>
       </c>
@@ -19196,14 +17570,10 @@
       <c r="M414" s="3">
         <v>2381.6999999999998</v>
       </c>
-      <c r="N414" s="5">
-        <f t="shared" si="6"/>
-        <v>2000.0000000000005</v>
-      </c>
-      <c r="O414" s="3"/>
-      <c r="P414" s="7"/>
-    </row>
-    <row r="415" spans="1:16">
+      <c r="N414" s="3"/>
+      <c r="O414" s="5"/>
+    </row>
+    <row r="415" spans="1:15">
       <c r="A415" s="2">
         <v>44895</v>
       </c>
@@ -19243,12 +17613,8 @@
       <c r="M415" s="3">
         <v>2681.5</v>
       </c>
-      <c r="N415" s="5">
-        <f t="shared" si="6"/>
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="416" spans="1:16">
+    </row>
+    <row r="416" spans="1:15">
       <c r="A416" s="2">
         <v>44926</v>
       </c>
@@ -19288,12 +17654,8 @@
       <c r="M416" s="3">
         <v>2949.1</v>
       </c>
-      <c r="N416" s="5">
-        <f t="shared" si="6"/>
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15">
+    </row>
+    <row r="417" spans="1:14">
       <c r="A417" s="2">
         <v>44957</v>
       </c>
@@ -19333,12 +17695,8 @@
       <c r="M417" s="3">
         <v>0</v>
       </c>
-      <c r="N417" s="5">
-        <f t="shared" si="6"/>
-        <v>407</v>
-      </c>
-    </row>
-    <row r="418" spans="1:15">
+    </row>
+    <row r="418" spans="1:14">
       <c r="A418" s="2">
         <v>44985</v>
       </c>
@@ -19378,12 +17736,8 @@
       <c r="M418" s="3">
         <v>694.5</v>
       </c>
-      <c r="N418" s="5">
-        <f t="shared" si="6"/>
-        <v>739</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15">
+    </row>
+    <row r="419" spans="1:14">
       <c r="A419" s="2">
         <v>45016</v>
       </c>
@@ -19423,12 +17777,8 @@
       <c r="M419" s="3">
         <v>1072.9000000000001</v>
       </c>
-      <c r="N419" s="5">
-        <f t="shared" si="6"/>
-        <v>894.99999999999989</v>
-      </c>
-    </row>
-    <row r="420" spans="1:15">
+    </row>
+    <row r="420" spans="1:14">
       <c r="A420" s="2">
         <v>45046</v>
       </c>
@@ -19468,12 +17818,8 @@
       <c r="M420" s="3">
         <v>1426.3</v>
       </c>
-      <c r="N420" s="5">
-        <f t="shared" si="6"/>
-        <v>831</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15">
+    </row>
+    <row r="421" spans="1:14">
       <c r="A421" s="2">
         <v>45077</v>
       </c>
@@ -19513,12 +17859,8 @@
       <c r="M421" s="3">
         <v>1819.9</v>
       </c>
-      <c r="N421" s="5">
-        <f t="shared" si="6"/>
-        <v>879</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15">
+    </row>
+    <row r="422" spans="1:14">
       <c r="A422" s="2">
         <v>45107</v>
       </c>
@@ -19558,12 +17900,8 @@
       <c r="M422" s="3">
         <v>2219</v>
       </c>
-      <c r="N422" s="5">
-        <f t="shared" si="6"/>
-        <v>891</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15">
+    </row>
+    <row r="423" spans="1:14">
       <c r="A423" s="2">
         <v>45138</v>
       </c>
@@ -19603,12 +17941,8 @@
       <c r="M423" s="3">
         <v>2713.7</v>
       </c>
-      <c r="N423" s="5">
-        <f t="shared" si="6"/>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="424" spans="1:15">
+    </row>
+    <row r="424" spans="1:14">
       <c r="A424" s="2">
         <v>45169</v>
       </c>
@@ -19648,12 +17982,8 @@
       <c r="M424" s="3">
         <v>3223.8</v>
       </c>
-      <c r="N424" s="5">
-        <f t="shared" si="6"/>
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="425" spans="1:15">
+    </row>
+    <row r="425" spans="1:14">
       <c r="A425" s="2">
         <v>45199</v>
       </c>
@@ -19693,12 +18023,8 @@
       <c r="M425" s="3">
         <v>3709.2</v>
       </c>
-      <c r="N425" s="5">
-        <f t="shared" si="6"/>
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15">
+    </row>
+    <row r="426" spans="1:14">
       <c r="A426" s="2">
         <v>45230</v>
       </c>
@@ -19738,13 +18064,9 @@
       <c r="M426" s="3">
         <v>4164.2</v>
       </c>
-      <c r="N426" s="5">
-        <f>E426-D426</f>
-        <v>1424.0000000000005</v>
-      </c>
-      <c r="O426" s="6"/>
-    </row>
-    <row r="427" spans="1:15">
+      <c r="N426" s="4"/>
+    </row>
+    <row r="427" spans="1:14">
       <c r="A427" s="2">
         <v>45260</v>
       </c>
@@ -19785,7 +18107,7 @@
         <v>4572.8</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:14">
       <c r="A428" s="2">
         <v>45291</v>
       </c>
@@ -19826,7 +18148,7 @@
         <v>4968.3999999999996</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:14">
       <c r="A429" s="2">
         <v>45322</v>
       </c>
@@ -19866,9 +18188,8 @@
       <c r="M429" s="3">
         <v>0</v>
       </c>
-      <c r="N429" s="4"/>
-    </row>
-    <row r="430" spans="1:15">
+    </row>
+    <row r="430" spans="1:14">
       <c r="A430" s="2">
         <v>45351</v>
       </c>
@@ -19908,46 +18229,86 @@
       <c r="M430" s="3">
         <v>947.9</v>
       </c>
-      <c r="N430" s="5"/>
-    </row>
-    <row r="431" spans="1:15">
+    </row>
+    <row r="431" spans="1:14">
       <c r="A431" s="2">
         <v>45382</v>
       </c>
       <c r="B431" s="3">
-        <v>5348</v>
+        <v>5348.1</v>
       </c>
       <c r="C431" s="3">
-        <v>13735.6</v>
+        <v>13736</v>
       </c>
       <c r="D431" s="3">
-        <v>1217.5999999999999</v>
+        <v>1218</v>
       </c>
       <c r="E431" s="3">
-        <v>1481.9</v>
+        <v>1482</v>
       </c>
       <c r="F431" s="3">
-        <v>0</v>
+        <v>455.96785999999997</v>
       </c>
       <c r="G431" s="3">
-        <v>632</v>
+        <v>631.9</v>
       </c>
       <c r="H431" s="3">
-        <v>182460000</v>
+        <v>182461000</v>
       </c>
       <c r="I431" s="3">
-        <v>0</v>
+        <v>110556</v>
       </c>
       <c r="J431" s="3">
-        <v>4137.9000000000005</v>
+        <v>4138</v>
       </c>
       <c r="K431" s="3">
-        <v>0</v>
+        <v>4179.2</v>
       </c>
       <c r="L431" s="3">
-        <v>0</v>
+        <v>5201.8</v>
       </c>
       <c r="M431" s="3">
+        <v>1457.3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14">
+      <c r="A432" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B432" s="3">
+        <v>7095</v>
+      </c>
+      <c r="C432" s="3">
+        <v>18206.7</v>
+      </c>
+      <c r="D432" s="3">
+        <v>1773.2</v>
+      </c>
+      <c r="E432" s="3">
+        <v>1937.3</v>
+      </c>
+      <c r="F432" s="3">
+        <v>0</v>
+      </c>
+      <c r="G432" s="3">
+        <v>830</v>
+      </c>
+      <c r="H432" s="3">
+        <v>241260000</v>
+      </c>
+      <c r="I432" s="3">
+        <v>0</v>
+      </c>
+      <c r="J432" s="3">
+        <v>4525.2</v>
+      </c>
+      <c r="K432" s="3">
+        <v>0</v>
+      </c>
+      <c r="L432" s="3">
+        <v>0</v>
+      </c>
+      <c r="M432" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9425EBA8-4982-4929-AF5F-2795B2597E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54191CA2-01AC-4C75-BE80-E5A2F4EF1B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -188,9 +188,6 @@
     <t>2003-07:2024-04</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-05-09</t>
   </si>
   <si>
@@ -198,6 +195,15 @@
   </si>
   <si>
     <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>1989-02:2024-04</t>
+  </si>
+  <si>
+    <t>1989-01:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -264,7 +270,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -617,13 +623,13 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -632,7 +638,7 @@
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="174">
+    <row r="2" spans="1:13" ht="195">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -801,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>41</v>
@@ -816,10 +822,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
@@ -883,40 +889,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18270,7 +18276,7 @@
         <v>45412</v>
       </c>
       <c r="B432" s="3">
-        <v>0</v>
+        <v>7095</v>
       </c>
       <c r="C432" s="3">
         <v>18206.7</v>
@@ -18285,10 +18291,10 @@
         <v>0</v>
       </c>
       <c r="G432" s="3">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="H432" s="3">
-        <v>0</v>
+        <v>241260000</v>
       </c>
       <c r="I432" s="3">
         <v>0</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54191CA2-01AC-4C75-BE80-E5A2F4EF1B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7149DBB3-AF0D-43E6-B444-004EB9BFE53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -173,28 +173,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-03</t>
-  </si>
-  <si>
-    <t>1995-01:2024-03</t>
-  </si>
-  <si>
-    <t>1989-01:2024-03</t>
-  </si>
-  <si>
     <t>1995-01:2024-04</t>
-  </si>
-  <si>
-    <t>2003-07:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-09</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
   </si>
   <si>
     <t>1989-02:2024-04</t>
@@ -204,6 +183,30 @@
   </si>
   <si>
     <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>1989-02:2024-05</t>
+  </si>
+  <si>
+    <t>1995-01:2024-05</t>
+  </si>
+  <si>
+    <t>2003-07:2024-05</t>
+  </si>
+  <si>
+    <t>1989-01:2024-05</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O432"/>
+  <dimension ref="A1:O433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
@@ -807,40 +810,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -889,40 +892,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18276,39 +18279,80 @@
         <v>45412</v>
       </c>
       <c r="B432" s="3">
-        <v>7095</v>
+        <v>7095.4</v>
       </c>
       <c r="C432" s="3">
-        <v>18206.7</v>
+        <v>18207</v>
       </c>
       <c r="D432" s="3">
-        <v>1773.2</v>
+        <v>1773</v>
       </c>
       <c r="E432" s="3">
-        <v>1937.3</v>
+        <v>1937</v>
       </c>
       <c r="F432" s="3">
-        <v>0</v>
+        <v>597.89326100000005</v>
       </c>
       <c r="G432" s="3">
-        <v>830</v>
+        <v>830.1</v>
       </c>
       <c r="H432" s="3">
-        <v>241260000</v>
+        <v>241256000</v>
       </c>
       <c r="I432" s="3">
-        <v>0</v>
+        <v>147579</v>
       </c>
       <c r="J432" s="3">
-        <v>4525.2</v>
+        <v>4525</v>
       </c>
       <c r="K432" s="3">
-        <v>0</v>
+        <v>5527.5</v>
       </c>
       <c r="L432" s="3">
-        <v>0</v>
+        <v>6931.8</v>
       </c>
       <c r="M432" s="3">
+        <v>1926.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13">
+      <c r="A433" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B433" s="3">
+        <v>8910</v>
+      </c>
+      <c r="C433" s="3">
+        <v>22902.899999999998</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2210.7000000000003</v>
+      </c>
+      <c r="E433" s="3">
+        <v>2472.4</v>
+      </c>
+      <c r="F433" s="3">
+        <v>0</v>
+      </c>
+      <c r="G433" s="3">
+        <v>1033</v>
+      </c>
+      <c r="H433" s="3">
+        <v>301770000</v>
+      </c>
+      <c r="I433" s="3">
+        <v>0</v>
+      </c>
+      <c r="J433" s="3">
+        <v>4381.6000000000004</v>
+      </c>
+      <c r="K433" s="3">
+        <v>0</v>
+      </c>
+      <c r="L433" s="3">
+        <v>0</v>
+      </c>
+      <c r="M433" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7149DBB3-AF0D-43E6-B444-004EB9BFE53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F8A85-4937-43C8-BAB5-2046B7108F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -173,25 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-04</t>
-  </si>
-  <si>
-    <t>1989-02:2024-04</t>
-  </si>
-  <si>
-    <t>1989-01:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
     <t>1989-02:2024-05</t>
   </si>
   <si>
     <t>1995-01:2024-05</t>
-  </si>
-  <si>
-    <t>2003-07:2024-05</t>
   </si>
   <si>
     <t>1989-01:2024-05</t>
@@ -200,13 +185,28 @@
     <t>2024-06-17</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>1989-02:2024-06</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>1995-01:2024-06</t>
   </si>
   <si>
-    <t>2024-05-21</t>
+    <t>2003-07:2024-06</t>
+  </si>
+  <si>
+    <t>1989-01:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O433"/>
+  <dimension ref="A1:O434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
@@ -822,7 +822,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>45</v>
@@ -837,13 +837,13 @@
         <v>43</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -907,7 +907,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>46</v>
@@ -18320,39 +18320,80 @@
         <v>45443</v>
       </c>
       <c r="B433" s="3">
-        <v>8910</v>
+        <v>8910.1</v>
       </c>
       <c r="C433" s="3">
-        <v>22902.899999999998</v>
+        <v>22903</v>
       </c>
       <c r="D433" s="3">
-        <v>2210.7000000000003</v>
+        <v>2211</v>
       </c>
       <c r="E433" s="3">
-        <v>2472.4</v>
+        <v>2472</v>
       </c>
       <c r="F433" s="3">
-        <v>0</v>
+        <v>754.66884100000004</v>
       </c>
       <c r="G433" s="3">
-        <v>1033</v>
+        <v>1032.8</v>
       </c>
       <c r="H433" s="3">
-        <v>301770000</v>
+        <v>301772000</v>
       </c>
       <c r="I433" s="3">
-        <v>0</v>
+        <v>185788</v>
       </c>
       <c r="J433" s="3">
-        <v>4381.6000000000004</v>
+        <v>4382</v>
       </c>
       <c r="K433" s="3">
-        <v>0</v>
+        <v>6909.8</v>
       </c>
       <c r="L433" s="3">
-        <v>0</v>
+        <v>8666.7000000000007</v>
       </c>
       <c r="M433" s="3">
+        <v>2416.4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13">
+      <c r="A434" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B434" s="3">
+        <v>10705</v>
+      </c>
+      <c r="C434" s="3">
+        <v>27548.400000000001</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2507.6000000000004</v>
+      </c>
+      <c r="E434" s="3">
+        <v>3009.4</v>
+      </c>
+      <c r="F434" s="3">
+        <v>0</v>
+      </c>
+      <c r="G434" s="3">
+        <v>1236</v>
+      </c>
+      <c r="H434" s="3">
+        <v>360090000</v>
+      </c>
+      <c r="I434" s="3">
+        <v>0</v>
+      </c>
+      <c r="J434" s="3">
+        <v>4460.3</v>
+      </c>
+      <c r="K434" s="3">
+        <v>0</v>
+      </c>
+      <c r="L434" s="3">
+        <v>0</v>
+      </c>
+      <c r="M434" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F8A85-4937-43C8-BAB5-2046B7108F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A536D5-BDC5-4D03-8B26-4A7F02AFF723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -173,25 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-05</t>
-  </si>
-  <si>
-    <t>1995-01:2024-05</t>
-  </si>
-  <si>
-    <t>1989-01:2024-05</t>
-  </si>
-  <si>
-    <t>2024-06-17</t>
-  </si>
-  <si>
     <t>1989-02:2024-06</t>
   </si>
   <si>
     <t>1995-01:2024-06</t>
-  </si>
-  <si>
-    <t>2003-07:2024-06</t>
   </si>
   <si>
     <t>1989-01:2024-06</t>
@@ -200,13 +185,28 @@
     <t>2024-07-15</t>
   </si>
   <si>
-    <t>2024-07-12</t>
+    <t>1989-02:2024-07</t>
   </si>
   <si>
-    <t>2024-06-24</t>
+    <t>1995-01:2024-07</t>
   </si>
   <si>
-    <t>2024-06-18</t>
+    <t>2003-07:2024-07</t>
+  </si>
+  <si>
+    <t>1989-01:2024-07</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O434"/>
+  <dimension ref="A1:O435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
@@ -907,7 +907,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>46</v>
@@ -18361,39 +18361,80 @@
         <v>45473</v>
       </c>
       <c r="B434" s="3">
-        <v>10705</v>
+        <v>10704.7</v>
       </c>
       <c r="C434" s="3">
-        <v>27548.400000000001</v>
+        <v>27547.999999999996</v>
       </c>
       <c r="D434" s="3">
-        <v>2507.6000000000004</v>
+        <v>2508</v>
       </c>
       <c r="E434" s="3">
-        <v>3009.4</v>
+        <v>3009</v>
       </c>
       <c r="F434" s="3">
-        <v>0</v>
+        <v>898.94603099999995</v>
       </c>
       <c r="G434" s="3">
-        <v>1236</v>
+        <v>1235.5999999999999</v>
       </c>
       <c r="H434" s="3">
-        <v>360090000</v>
+        <v>360089000</v>
       </c>
       <c r="I434" s="3">
-        <v>0</v>
+        <v>226551</v>
       </c>
       <c r="J434" s="3">
-        <v>4460.3</v>
+        <v>4460</v>
       </c>
       <c r="K434" s="3">
-        <v>0</v>
+        <v>8282.7999999999993</v>
       </c>
       <c r="L434" s="3">
-        <v>0</v>
+        <v>10322.200000000001</v>
       </c>
       <c r="M434" s="3">
+        <v>2884.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13">
+      <c r="A435" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B435" s="3">
+        <v>12496</v>
+      </c>
+      <c r="C435" s="3">
+        <v>31781.3</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2832</v>
+      </c>
+      <c r="E435" s="3">
+        <v>3508</v>
+      </c>
+      <c r="F435" s="3">
+        <v>0</v>
+      </c>
+      <c r="G435" s="3">
+        <v>1436</v>
+      </c>
+      <c r="H435" s="3">
+        <v>419150000</v>
+      </c>
+      <c r="I435" s="3">
+        <v>0</v>
+      </c>
+      <c r="J435" s="3">
+        <v>4620.8999999999996</v>
+      </c>
+      <c r="K435" s="3">
+        <v>0</v>
+      </c>
+      <c r="L435" s="3">
+        <v>0</v>
+      </c>
+      <c r="M435" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A536D5-BDC5-4D03-8B26-4A7F02AFF723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96281DF-EC03-485E-8F66-6E8ED3E19059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -173,40 +173,34 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-06</t>
-  </si>
-  <si>
-    <t>1995-01:2024-06</t>
-  </si>
-  <si>
-    <t>1989-01:2024-06</t>
-  </si>
-  <si>
-    <t>2024-07-15</t>
-  </si>
-  <si>
     <t>1989-02:2024-07</t>
   </si>
   <si>
     <t>1995-01:2024-07</t>
   </si>
   <si>
-    <t>2003-07:2024-07</t>
+    <t>1989-02:2024-08</t>
   </si>
   <si>
-    <t>1989-01:2024-07</t>
+    <t>1995-01:2024-08</t>
   </si>
   <si>
-    <t>2024-08-15</t>
+    <t>2003-07:2024-08</t>
   </si>
   <si>
-    <t>2024-08-07</t>
+    <t>1989-01:2024-08</t>
   </si>
   <si>
-    <t>2024-07-25</t>
+    <t>2024-09-14</t>
   </si>
   <si>
-    <t>2024-07-17</t>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -620,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O435"/>
+  <dimension ref="A1:O436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,31 +804,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>38</v>
@@ -892,40 +886,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18405,7 +18399,7 @@
         <v>12496</v>
       </c>
       <c r="C435" s="3">
-        <v>31781.3</v>
+        <v>31781.000000000004</v>
       </c>
       <c r="D435" s="3">
         <v>2832</v>
@@ -18414,27 +18408,68 @@
         <v>3508</v>
       </c>
       <c r="F435" s="3">
-        <v>0</v>
+        <v>1048.965696</v>
       </c>
       <c r="G435" s="3">
-        <v>1436</v>
+        <v>1436.4</v>
       </c>
       <c r="H435" s="3">
-        <v>419150000</v>
+        <v>419151000</v>
       </c>
       <c r="I435" s="3">
-        <v>0</v>
+        <v>265693</v>
       </c>
       <c r="J435" s="3">
-        <v>4620.8999999999996</v>
+        <v>4621</v>
       </c>
       <c r="K435" s="3">
-        <v>0</v>
+        <v>9676.7000000000007</v>
       </c>
       <c r="L435" s="3">
-        <v>0</v>
+        <v>11938.7</v>
       </c>
       <c r="M435" s="3">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13">
+      <c r="A436" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B436" s="3">
+        <v>14279</v>
+      </c>
+      <c r="C436" s="3">
+        <v>36691.4</v>
+      </c>
+      <c r="D436" s="3">
+        <v>3250.6</v>
+      </c>
+      <c r="E436" s="3">
+        <v>4000.3999999999996</v>
+      </c>
+      <c r="F436" s="3">
+        <v>0</v>
+      </c>
+      <c r="G436" s="3">
+        <v>1637</v>
+      </c>
+      <c r="H436" s="3">
+        <v>472530000</v>
+      </c>
+      <c r="I436" s="3">
+        <v>305218</v>
+      </c>
+      <c r="J436" s="3">
+        <v>4584.4000000000005</v>
+      </c>
+      <c r="K436" s="3">
+        <v>0</v>
+      </c>
+      <c r="L436" s="3">
+        <v>0</v>
+      </c>
+      <c r="M436" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96281DF-EC03-485E-8F66-6E8ED3E19059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80957123-D384-4652-91C2-D62EE8F12D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-07</t>
-  </si>
-  <si>
-    <t>1995-01:2024-07</t>
-  </si>
-  <si>
     <t>1989-02:2024-08</t>
   </si>
   <si>
@@ -194,13 +188,13 @@
     <t>2024-09-14</t>
   </si>
   <si>
-    <t>2024-09-10</t>
+    <t>2024-09-19</t>
   </si>
   <si>
-    <t>2024-08-26</t>
+    <t>2024-09-18</t>
   </si>
   <si>
-    <t>2024-08-16</t>
+    <t>2024-09-25</t>
   </si>
 </sst>
 </file>
@@ -804,31 +798,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>38</v>
@@ -886,40 +880,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18437,40 +18431,40 @@
         <v>45535</v>
       </c>
       <c r="B436" s="3">
-        <v>14279</v>
+        <v>14279.5</v>
       </c>
       <c r="C436" s="3">
-        <v>36691.4</v>
+        <v>36691</v>
       </c>
       <c r="D436" s="3">
-        <v>3250.6</v>
+        <v>3251</v>
       </c>
       <c r="E436" s="3">
-        <v>4000.3999999999996</v>
+        <v>3999.9999999999995</v>
       </c>
       <c r="F436" s="3">
-        <v>0</v>
+        <v>1211.461742</v>
       </c>
       <c r="G436" s="3">
-        <v>1637</v>
+        <v>1636.6</v>
       </c>
       <c r="H436" s="3">
-        <v>472530000</v>
+        <v>472532000</v>
       </c>
       <c r="I436" s="3">
         <v>305218</v>
       </c>
       <c r="J436" s="3">
-        <v>4584.4000000000005</v>
+        <v>4584</v>
       </c>
       <c r="K436" s="3">
-        <v>0</v>
+        <v>10903.9</v>
       </c>
       <c r="L436" s="3">
-        <v>0</v>
+        <v>13383.7</v>
       </c>
       <c r="M436" s="3">
-        <v>0</v>
+        <v>3802.5</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80957123-D384-4652-91C2-D62EE8F12D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00FB143-AABF-4599-9D63-588C9E0F9334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>1995-01:2024-08</t>
   </si>
   <si>
-    <t>2003-07:2024-08</t>
-  </si>
-  <si>
     <t>1989-01:2024-08</t>
   </si>
   <si>
@@ -191,10 +188,16 @@
     <t>2024-09-19</t>
   </si>
   <si>
-    <t>2024-09-18</t>
+    <t>2024-09-25</t>
   </si>
   <si>
-    <t>2024-09-25</t>
+    <t>1995-01:2024-09</t>
+  </si>
+  <si>
+    <t>2003-07:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O436"/>
+  <dimension ref="A1:O437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -801,28 +804,28 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>38</v>
@@ -880,40 +883,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18465,6 +18468,47 @@
       </c>
       <c r="M436" s="3">
         <v>3802.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13">
+      <c r="A437" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B437" s="3">
+        <v>0</v>
+      </c>
+      <c r="C437" s="3">
+        <v>41238.800000000003</v>
+      </c>
+      <c r="D437" s="3">
+        <v>3698.4</v>
+      </c>
+      <c r="E437" s="3">
+        <v>4519.8999999999996</v>
+      </c>
+      <c r="F437" s="3">
+        <v>0</v>
+      </c>
+      <c r="G437" s="3">
+        <v>0</v>
+      </c>
+      <c r="H437" s="3">
+        <v>0</v>
+      </c>
+      <c r="I437" s="3">
+        <v>0</v>
+      </c>
+      <c r="J437" s="3">
+        <v>4758.8</v>
+      </c>
+      <c r="K437" s="3">
+        <v>0</v>
+      </c>
+      <c r="L437" s="3">
+        <v>0</v>
+      </c>
+      <c r="M437" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00FB143-AABF-4599-9D63-588C9E0F9334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC9E21-F36F-4289-8B3C-83CF5656AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,13 +265,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -627,9 +627,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="195">

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC9E21-F36F-4289-8B3C-83CF5656AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1261051A-EB58-4CFA-BA4F-6EE83FE716C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -197,7 +197,13 @@
     <t>2003-07:2024-09</t>
   </si>
   <si>
-    <t>2024-10-14</t>
+    <t>1989-02:2024-09</t>
+  </si>
+  <si>
+    <t>1989-01:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -265,13 +271,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -627,9 +633,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="195">
@@ -801,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
@@ -816,10 +822,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
@@ -883,31 +889,31 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>42</v>
@@ -18475,31 +18481,31 @@
         <v>45565</v>
       </c>
       <c r="B437" s="3">
-        <v>0</v>
+        <v>15987</v>
       </c>
       <c r="C437" s="3">
-        <v>41238.800000000003</v>
+        <v>41239</v>
       </c>
       <c r="D437" s="3">
-        <v>3698.4</v>
+        <v>3698</v>
       </c>
       <c r="E437" s="3">
-        <v>4519.8999999999996</v>
+        <v>4520</v>
       </c>
       <c r="F437" s="3">
         <v>0</v>
       </c>
       <c r="G437" s="3">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="H437" s="3">
-        <v>0</v>
+        <v>531260000</v>
       </c>
       <c r="I437" s="3">
         <v>0</v>
       </c>
       <c r="J437" s="3">
-        <v>4758.8</v>
+        <v>4759</v>
       </c>
       <c r="K437" s="3">
         <v>0</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC9E21-F36F-4289-8B3C-83CF5656AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EF558-CC08-470C-963E-B1B16ED962F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -197,7 +197,13 @@
     <t>2003-07:2024-09</t>
   </si>
   <si>
-    <t>2024-10-14</t>
+    <t>1989-02:2024-09</t>
+  </si>
+  <si>
+    <t>1989-01:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -265,13 +271,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -627,9 +633,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="195">
@@ -801,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
@@ -816,10 +822,10 @@
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
@@ -883,31 +889,31 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>42</v>
@@ -18475,31 +18481,31 @@
         <v>45565</v>
       </c>
       <c r="B437" s="3">
-        <v>0</v>
+        <v>15987</v>
       </c>
       <c r="C437" s="3">
-        <v>41238.800000000003</v>
+        <v>41239</v>
       </c>
       <c r="D437" s="3">
-        <v>3698.4</v>
+        <v>3698</v>
       </c>
       <c r="E437" s="3">
-        <v>4519.8999999999996</v>
+        <v>4520</v>
       </c>
       <c r="F437" s="3">
         <v>0</v>
       </c>
       <c r="G437" s="3">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="H437" s="3">
-        <v>0</v>
+        <v>531260000</v>
       </c>
       <c r="I437" s="3">
         <v>0</v>
       </c>
       <c r="J437" s="3">
-        <v>4758.8</v>
+        <v>4759</v>
       </c>
       <c r="K437" s="3">
         <v>0</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EF558-CC08-470C-963E-B1B16ED962F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CC870-0A3B-4DA5-B0F8-A4459AF5FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -179,12 +179,6 @@
     <t>1995-01:2024-08</t>
   </si>
   <si>
-    <t>1989-01:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
     <t>2024-09-19</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
   </si>
 </sst>
 </file>
@@ -807,31 +804,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>38</v>
@@ -889,40 +886,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18502,7 +18499,7 @@
         <v>531260000</v>
       </c>
       <c r="I437" s="3">
-        <v>0</v>
+        <v>347577</v>
       </c>
       <c r="J437" s="3">
         <v>4759</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CC870-0A3B-4DA5-B0F8-A4459AF5FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F897CA-3C32-49F1-864E-7C25FBC5C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -173,13 +173,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1989-02:2024-08</t>
-  </si>
-  <si>
     <t>1995-01:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
   </si>
   <si>
     <t>2024-09-25</t>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
   </si>
 </sst>
 </file>
@@ -616,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,40 +801,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="M6" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -889,37 +886,37 @@
         <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18478,7 +18475,7 @@
         <v>45565</v>
       </c>
       <c r="B437" s="3">
-        <v>15987</v>
+        <v>15986.9</v>
       </c>
       <c r="C437" s="3">
         <v>41239</v>
@@ -18493,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="G437" s="3">
-        <v>1830</v>
+        <v>1830.3</v>
       </c>
       <c r="H437" s="3">
         <v>531260000</v>
@@ -18505,13 +18502,13 @@
         <v>4759</v>
       </c>
       <c r="K437" s="3">
-        <v>0</v>
+        <v>12253.4</v>
       </c>
       <c r="L437" s="3">
-        <v>0</v>
+        <v>15079.5</v>
       </c>
       <c r="M437" s="3">
-        <v>0</v>
+        <v>4292.5</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F897CA-3C32-49F1-864E-7C25FBC5C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7D55DB-F931-4DFE-831C-BE44B5838179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7D55DB-F931-4DFE-831C-BE44B5838179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BAD5EA-BC63-4DAD-ACD9-29E59DF08467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
     <t>1995-01:2024-09</t>
   </si>
   <si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
   </si>
 </sst>
 </file>
@@ -801,40 +798,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -883,40 +880,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18487,7 +18484,7 @@
         <v>4520</v>
       </c>
       <c r="F437" s="3">
-        <v>0</v>
+        <v>1377.6421519999999</v>
       </c>
       <c r="G437" s="3">
         <v>1830.3</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BAD5EA-BC63-4DAD-ACD9-29E59DF08467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB56C-9A2A-45E7-AEB6-136B6278AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -176,16 +176,10 @@
     <t>1995-01:2024-09</t>
   </si>
   <si>
-    <t>2003-07:2024-09</t>
-  </si>
-  <si>
     <t>1989-02:2024-09</t>
   </si>
   <si>
     <t>1989-01:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-18</t>
   </si>
   <si>
     <t>2024-10-21</t>
@@ -195,6 +189,24 @@
   </si>
   <si>
     <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>1995-01:2024-10</t>
+  </si>
+  <si>
+    <t>2003-07:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>1989-02:2024-10</t>
+  </si>
+  <si>
+    <t>1989-01:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
   </si>
 </sst>
 </file>
@@ -608,9 +620,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O437"/>
+  <dimension ref="A1:O438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -798,40 +810,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -880,40 +892,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18506,6 +18518,47 @@
       </c>
       <c r="M437" s="3">
         <v>4292.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13">
+      <c r="A438" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B438" s="3">
+        <v>17764</v>
+      </c>
+      <c r="C438" s="3">
+        <v>45707.4</v>
+      </c>
+      <c r="D438" s="3">
+        <v>4092.1</v>
+      </c>
+      <c r="E438" s="3">
+        <v>4915.6000000000004</v>
+      </c>
+      <c r="F438" s="3">
+        <v>0</v>
+      </c>
+      <c r="G438" s="3">
+        <v>2039</v>
+      </c>
+      <c r="H438" s="3">
+        <v>590590000</v>
+      </c>
+      <c r="I438" s="3">
+        <v>0</v>
+      </c>
+      <c r="J438" s="3">
+        <v>4624.8</v>
+      </c>
+      <c r="K438" s="3">
+        <v>0</v>
+      </c>
+      <c r="L438" s="3">
+        <v>0</v>
+      </c>
+      <c r="M438" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB56C-9A2A-45E7-AEB6-136B6278AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D0FE4-6C47-4482-AD46-4F913681A881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -173,31 +173,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-09</t>
-  </si>
-  <si>
-    <t>1989-02:2024-09</t>
-  </si>
-  <si>
-    <t>1989-01:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-21</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
-  </si>
-  <si>
-    <t>2024-10-24</t>
-  </si>
-  <si>
     <t>1995-01:2024-10</t>
   </si>
   <si>
     <t>2003-07:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-07</t>
   </si>
   <si>
     <t>1989-02:2024-10</t>
@@ -206,7 +185,16 @@
     <t>1989-01:2024-10</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
   </si>
 </sst>
 </file>
@@ -810,40 +798,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -892,40 +880,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18525,40 +18513,40 @@
         <v>45596</v>
       </c>
       <c r="B438" s="3">
-        <v>17764</v>
+        <v>17763.5</v>
       </c>
       <c r="C438" s="3">
-        <v>45707.4</v>
+        <v>45707</v>
       </c>
       <c r="D438" s="3">
-        <v>4092.1</v>
+        <v>4092</v>
       </c>
       <c r="E438" s="3">
-        <v>4915.6000000000004</v>
+        <v>4916</v>
       </c>
       <c r="F438" s="3">
-        <v>0</v>
+        <v>1522.9309800000001</v>
       </c>
       <c r="G438" s="3">
-        <v>2039</v>
+        <v>2038.8</v>
       </c>
       <c r="H438" s="3">
-        <v>590590000</v>
+        <v>590586000</v>
       </c>
       <c r="I438" s="3">
-        <v>0</v>
+        <v>389207</v>
       </c>
       <c r="J438" s="3">
-        <v>4624.8</v>
+        <v>4625</v>
       </c>
       <c r="K438" s="3">
-        <v>0</v>
+        <v>13567.7</v>
       </c>
       <c r="L438" s="3">
-        <v>0</v>
+        <v>16829.3</v>
       </c>
       <c r="M438" s="3">
-        <v>0</v>
+        <v>4742.3999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D0FE4-6C47-4482-AD46-4F913681A881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71793E98-2B4C-423C-B05B-6C3FACDB2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -176,9 +176,6 @@
     <t>1995-01:2024-10</t>
   </si>
   <si>
-    <t>2003-07:2024-10</t>
-  </si>
-  <si>
     <t>1989-02:2024-10</t>
   </si>
   <si>
@@ -195,6 +192,15 @@
   </si>
   <si>
     <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>1995-01:2024-11</t>
+  </si>
+  <si>
+    <t>2003-07:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O438"/>
+  <dimension ref="A1:O439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -798,40 +804,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -880,40 +886,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18547,6 +18553,47 @@
       </c>
       <c r="M438" s="3">
         <v>4742.3999999999996</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13">
+      <c r="A439" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B439" s="3">
+        <v>0</v>
+      </c>
+      <c r="C439" s="3">
+        <v>50558.7</v>
+      </c>
+      <c r="D439" s="3">
+        <v>4494</v>
+      </c>
+      <c r="E439" s="3">
+        <v>5439.2</v>
+      </c>
+      <c r="F439" s="3">
+        <v>0</v>
+      </c>
+      <c r="G439" s="3">
+        <v>0</v>
+      </c>
+      <c r="H439" s="3">
+        <v>0</v>
+      </c>
+      <c r="I439" s="3">
+        <v>0</v>
+      </c>
+      <c r="J439" s="3">
+        <v>5498.2</v>
+      </c>
+      <c r="K439" s="3">
+        <v>0</v>
+      </c>
+      <c r="L439" s="3">
+        <v>0</v>
+      </c>
+      <c r="M439" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71793E98-2B4C-423C-B05B-6C3FACDB2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45468B-02E2-45C8-AE9C-A12039AC5C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -182,9 +182,6 @@
     <t>1989-01:2024-10</t>
   </si>
   <si>
-    <t>2024-11-19</t>
-  </si>
-  <si>
     <t>2024-11-18</t>
   </si>
   <si>
@@ -201,6 +198,15 @@
   </si>
   <si>
     <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>1989-02:2024-11</t>
+  </si>
+  <si>
+    <t>1989-01:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -804,31 +810,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>39</v>
@@ -886,40 +892,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18560,7 +18566,7 @@
         <v>45626</v>
       </c>
       <c r="B439" s="3">
-        <v>0</v>
+        <v>19492</v>
       </c>
       <c r="C439" s="3">
         <v>50558.7</v>
@@ -18575,10 +18581,10 @@
         <v>0</v>
       </c>
       <c r="G439" s="3">
-        <v>0</v>
+        <v>2246</v>
       </c>
       <c r="H439" s="3">
-        <v>0</v>
+        <v>649100000</v>
       </c>
       <c r="I439" s="3">
         <v>0</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45468B-02E2-45C8-AE9C-A12039AC5C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B40FF-D523-4236-9EE0-4947D304C152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -179,16 +179,10 @@
     <t>1989-02:2024-10</t>
   </si>
   <si>
-    <t>1989-01:2024-10</t>
-  </si>
-  <si>
     <t>2024-11-18</t>
   </si>
   <si>
     <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>2024-11-20</t>
   </si>
   <si>
     <t>1995-01:2024-11</t>
@@ -207,6 +201,9 @@
   </si>
   <si>
     <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
   </si>
 </sst>
 </file>
@@ -810,31 +807,31 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>39</v>
@@ -892,40 +889,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18587,7 +18584,7 @@
         <v>649100000</v>
       </c>
       <c r="I439" s="3">
-        <v>0</v>
+        <v>432194</v>
       </c>
       <c r="J439" s="3">
         <v>5498.2</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B40FF-D523-4236-9EE0-4947D304C152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCE096-BB0E-4CAB-AD01-3580E9ACA2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t>1995-01:2024-10</t>
-  </si>
-  <si>
-    <t>1989-02:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
   </si>
   <si>
     <t>2024-11-25</t>
@@ -807,40 +801,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -889,40 +883,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18566,13 +18560,13 @@
         <v>19492</v>
       </c>
       <c r="C439" s="3">
-        <v>50558.7</v>
+        <v>50559</v>
       </c>
       <c r="D439" s="3">
         <v>4494</v>
       </c>
       <c r="E439" s="3">
-        <v>5439.2</v>
+        <v>5439</v>
       </c>
       <c r="F439" s="3">
         <v>0</v>
@@ -18587,16 +18581,16 @@
         <v>432194</v>
       </c>
       <c r="J439" s="3">
-        <v>5498.2</v>
+        <v>5498</v>
       </c>
       <c r="K439" s="3">
-        <v>0</v>
+        <v>14777.2</v>
       </c>
       <c r="L439" s="3">
-        <v>0</v>
+        <v>18576.3</v>
       </c>
       <c r="M439" s="3">
-        <v>0</v>
+        <v>5175.6000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCE096-BB0E-4CAB-AD01-3580E9ACA2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268023A-7F11-40AA-820D-336BFB174C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
     <t>1995-01:2024-11</t>
   </si>
   <si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
   </si>
 </sst>
 </file>
@@ -801,40 +798,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -883,40 +880,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18569,7 +18566,7 @@
         <v>5439</v>
       </c>
       <c r="F439" s="3">
-        <v>0</v>
+        <v>1671.861652</v>
       </c>
       <c r="G439" s="3">
         <v>2246</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F268023A-7F11-40AA-820D-336BFB174C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1203242D-1EC9-4E89-90B7-75D67F55574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -176,25 +176,34 @@
     <t>1995-01:2024-11</t>
   </si>
   <si>
-    <t>2003-07:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
     <t>1989-02:2024-11</t>
   </si>
   <si>
     <t>1989-01:2024-11</t>
   </si>
   <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
     <t>2024-12-18</t>
   </si>
   <si>
     <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>1989-02:2024-12</t>
+  </si>
+  <si>
+    <t>1995-01:2024-12</t>
+  </si>
+  <si>
+    <t>2003-07:2024-12</t>
+  </si>
+  <si>
+    <t>1989-01:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
   </si>
 </sst>
 </file>
@@ -608,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O439"/>
+  <dimension ref="A1:O440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -798,40 +807,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -880,40 +889,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18588,6 +18597,47 @@
       </c>
       <c r="M439" s="3">
         <v>5175.6000000000004</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13">
+      <c r="A440" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B440" s="3">
+        <v>21282</v>
+      </c>
+      <c r="C440" s="3">
+        <v>55341.499999999993</v>
+      </c>
+      <c r="D440" s="3">
+        <v>4823.3</v>
+      </c>
+      <c r="E440" s="3">
+        <v>5813.7</v>
+      </c>
+      <c r="F440" s="3">
+        <v>0</v>
+      </c>
+      <c r="G440" s="3">
+        <v>2464</v>
+      </c>
+      <c r="H440" s="3">
+        <v>708430000</v>
+      </c>
+      <c r="I440" s="3">
+        <v>0</v>
+      </c>
+      <c r="J440" s="3">
+        <v>5234.5999999999995</v>
+      </c>
+      <c r="K440" s="3">
+        <v>0</v>
+      </c>
+      <c r="L440" s="3">
+        <v>0</v>
+      </c>
+      <c r="M440" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1203242D-1EC9-4E89-90B7-75D67F55574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89491F-75DF-4A44-8050-5498A99434B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -176,15 +176,6 @@
     <t>1995-01:2024-11</t>
   </si>
   <si>
-    <t>1989-02:2024-11</t>
-  </si>
-  <si>
-    <t>1989-01:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
     <t>2024-12-25</t>
   </si>
   <si>
@@ -203,7 +194,10 @@
     <t>2025-01-17</t>
   </si>
   <si>
-    <t>2025-01-13</t>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
   </si>
 </sst>
 </file>
@@ -807,40 +801,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -889,40 +883,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18563,7 +18557,7 @@
         <v>45626</v>
       </c>
       <c r="B439" s="3">
-        <v>19492</v>
+        <v>19491.7</v>
       </c>
       <c r="C439" s="3">
         <v>50559</v>
@@ -18578,10 +18572,10 @@
         <v>1671.861652</v>
       </c>
       <c r="G439" s="3">
-        <v>2246</v>
+        <v>2245.6</v>
       </c>
       <c r="H439" s="3">
-        <v>649100000</v>
+        <v>649098000</v>
       </c>
       <c r="I439" s="3">
         <v>432194</v>
@@ -18607,13 +18601,13 @@
         <v>21282</v>
       </c>
       <c r="C440" s="3">
-        <v>55341.499999999993</v>
+        <v>55342</v>
       </c>
       <c r="D440" s="3">
-        <v>4823.3</v>
+        <v>4823</v>
       </c>
       <c r="E440" s="3">
-        <v>5813.7</v>
+        <v>5814</v>
       </c>
       <c r="F440" s="3">
         <v>0</v>
@@ -18625,19 +18619,19 @@
         <v>708430000</v>
       </c>
       <c r="I440" s="3">
-        <v>0</v>
+        <v>475896</v>
       </c>
       <c r="J440" s="3">
-        <v>5234.5999999999995</v>
+        <v>5235</v>
       </c>
       <c r="K440" s="3">
-        <v>0</v>
+        <v>16011.2</v>
       </c>
       <c r="L440" s="3">
-        <v>0</v>
+        <v>20340.2</v>
       </c>
       <c r="M440" s="3">
-        <v>0</v>
+        <v>5565.7</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89491F-75DF-4A44-8050-5498A99434B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6DB54-0197-407E-96AD-7E5DDC25813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
   </si>
 </sst>
 </file>
@@ -883,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>45</v>
@@ -898,10 +901,10 @@
         <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>44</v>
@@ -18598,7 +18601,7 @@
         <v>45657</v>
       </c>
       <c r="B440" s="3">
-        <v>21282</v>
+        <v>21282.3</v>
       </c>
       <c r="C440" s="3">
         <v>55342</v>
@@ -18613,10 +18616,10 @@
         <v>0</v>
       </c>
       <c r="G440" s="3">
-        <v>2464</v>
+        <v>2463.6999999999998</v>
       </c>
       <c r="H440" s="3">
-        <v>708430000</v>
+        <v>708434000</v>
       </c>
       <c r="I440" s="3">
         <v>475896</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6DB54-0197-407E-96AD-7E5DDC25813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF3066-8073-455B-8B36-E3240813C9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>1995-01:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
     <t>1989-02:2024-12</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -804,40 +801,40 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -886,40 +883,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18613,7 +18610,7 @@
         <v>5814</v>
       </c>
       <c r="F440" s="3">
-        <v>0</v>
+        <v>1831.089579</v>
       </c>
       <c r="G440" s="3">
         <v>2463.6999999999998</v>

--- a/inst/extdata/fuel supply.xlsx
+++ b/inst/extdata/fuel supply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF3066-8073-455B-8B36-E3240813C9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50ECFD-45F1-4773-B263-A9EE2A4F4035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>1995-01:2024-12</t>
   </si>
   <si>
-    <t>2003-07:2024-12</t>
-  </si>
-  <si>
     <t>1989-01:2024-12</t>
   </si>
   <si>
@@ -198,6 +195,15 @@
   </si>
   <si>
     <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>1995-01:2025-02</t>
+  </si>
+  <si>
+    <t>2003-07:2025-02</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O440"/>
+  <dimension ref="A1:O441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -804,25 +810,25 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>39</v>
@@ -883,40 +889,40 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18632,6 +18638,47 @@
       </c>
       <c r="M440" s="3">
         <v>5565.7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13">
+      <c r="A441" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B441" s="3">
+        <v>0</v>
+      </c>
+      <c r="C441" s="3">
+        <v>8385.4</v>
+      </c>
+      <c r="D441" s="3">
+        <v>634.30000000000007</v>
+      </c>
+      <c r="E441" s="3">
+        <v>721</v>
+      </c>
+      <c r="F441" s="3">
+        <v>0</v>
+      </c>
+      <c r="G441" s="3">
+        <v>0</v>
+      </c>
+      <c r="H441" s="3">
+        <v>0</v>
+      </c>
+      <c r="I441" s="3">
+        <v>0</v>
+      </c>
+      <c r="J441" s="3">
+        <v>0</v>
+      </c>
+      <c r="K441" s="3">
+        <v>0</v>
+      </c>
+      <c r="L441" s="3">
+        <v>0</v>
+      </c>
+      <c r="M441" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
